--- a/Original/CN/Game/Stat.xlsx
+++ b/Original/CN/Game/Stat.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="996">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>
@@ -746,10 +746,10 @@
     <t xml:space="preserve">意識明瞭</t>
   </si>
   <si>
-    <t xml:space="preserve">A condition where you are unaffected by drowsiness and immune to sleep. Prevents stamina recovery from food.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">眠気が訪れず、睡眠を無効にする状態。食事によるスタミナ回復効果を妨げる。</t>
+    <t xml:space="preserve">A condition where you are unaffected by drowsiness and immune to sleep except when fatigued. Prevents stamina recovery from food.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">眠気が訪れず、疲労時以外の睡眠を無効にする状態。食事によるスタミナ回復効果を妨げる。</t>
   </si>
   <si>
     <t xml:space="preserve">#1 feel(s) sharp and alert.</t>
@@ -2142,6 +2142,9 @@
     <t xml:space="preserve">EA 23.107</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.124</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 19.1</t>
   </si>
   <si>
@@ -2457,7 +2460,7 @@
     <t xml:space="preserve">缓解睡意但是会对好感度造成负面影响。</t>
   </si>
   <si>
-    <t xml:space="preserve">睡意不会袭来，睡眠无效的状态。妨碍饮食对精力的恢复效果。</t>
+    <t xml:space="preserve">睡意不会袭来，疲劳状态以外睡眠无效的状态。妨碍饮食对精力的恢复效果。</t>
   </si>
   <si>
     <t xml:space="preserve">对施术者的武器施加魔力的加护。</t>
@@ -3216,7 +3219,7 @@
         <v>690</v>
       </c>
       <c r="C3" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -3225,7 +3228,7 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
@@ -3234,7 +3237,7 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
@@ -3243,7 +3246,7 @@
         <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
@@ -3254,7 +3257,7 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="S3" t="s">
         <v>30</v>
@@ -3271,7 +3274,7 @@
         <v>691</v>
       </c>
       <c r="C4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -3280,7 +3283,7 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -3289,7 +3292,7 @@
         <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
@@ -3298,7 +3301,7 @@
         <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -3309,7 +3312,7 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="S4" t="s">
         <v>39</v>
@@ -3326,7 +3329,7 @@
         <v>692</v>
       </c>
       <c r="C5" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3335,7 +3338,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -3344,7 +3347,7 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
@@ -3353,7 +3356,7 @@
         <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="M5" t="s">
         <v>46</v>
@@ -3364,7 +3367,7 @@
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="S5" t="s">
         <v>48</v>
@@ -3381,7 +3384,7 @@
         <v>692</v>
       </c>
       <c r="C6" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -3390,7 +3393,7 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -3399,7 +3402,7 @@
         <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="J6" t="s">
         <v>51</v>
@@ -3408,7 +3411,7 @@
         <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="M6" t="s">
         <v>55</v>
@@ -3419,7 +3422,7 @@
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="S6" t="s">
         <v>57</v>
@@ -3445,7 +3448,7 @@
         <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G7" t="s">
         <v>62</v>
@@ -3454,7 +3457,7 @@
         <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="J7" t="s">
         <v>64</v>
@@ -3463,7 +3466,7 @@
         <v>65</v>
       </c>
       <c r="L7" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="M7" t="s">
         <v>66</v>
@@ -3472,7 +3475,7 @@
         <v>67</v>
       </c>
       <c r="O7" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="P7" t="s">
         <v>68</v>
@@ -3481,7 +3484,7 @@
         <v>69</v>
       </c>
       <c r="R7" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="S7" t="s">
         <v>70</v>
@@ -3498,7 +3501,7 @@
         <v>694</v>
       </c>
       <c r="C8" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D8" t="s">
         <v>73</v>
@@ -3507,7 +3510,7 @@
         <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G8" t="s">
         <v>75</v>
@@ -3516,7 +3519,7 @@
         <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="J8" t="s">
         <v>77</v>
@@ -3525,7 +3528,7 @@
         <v>78</v>
       </c>
       <c r="L8" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="M8" t="s">
         <v>79</v>
@@ -3534,7 +3537,7 @@
         <v>80</v>
       </c>
       <c r="O8" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="P8" t="s">
         <v>81</v>
@@ -3553,7 +3556,7 @@
         <v>693</v>
       </c>
       <c r="C9" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D9" t="s">
         <v>84</v>
@@ -3562,7 +3565,7 @@
         <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G9" t="s">
         <v>86</v>
@@ -3571,7 +3574,7 @@
         <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="J9" t="s">
         <v>84</v>
@@ -3580,7 +3583,7 @@
         <v>85</v>
       </c>
       <c r="L9" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="M9" t="s">
         <v>88</v>
@@ -3591,7 +3594,7 @@
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="S9" t="s">
         <v>90</v>
@@ -3608,7 +3611,7 @@
         <v>693</v>
       </c>
       <c r="C10" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D10" t="s">
         <v>93</v>
@@ -3617,7 +3620,7 @@
         <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G10" t="s">
         <v>95</v>
@@ -3626,7 +3629,7 @@
         <v>96</v>
       </c>
       <c r="I10" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="J10" t="s">
         <v>93</v>
@@ -3635,7 +3638,7 @@
         <v>94</v>
       </c>
       <c r="L10" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="M10" t="s">
         <v>97</v>
@@ -3646,7 +3649,7 @@
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="S10" t="s">
         <v>99</v>
@@ -3672,7 +3675,7 @@
         <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G11" t="s">
         <v>104</v>
@@ -3690,7 +3693,7 @@
         <v>103</v>
       </c>
       <c r="L11" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="M11" t="s">
         <v>107</v>
@@ -3701,7 +3704,7 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="S11" t="s">
         <v>109</v>
@@ -3718,7 +3721,7 @@
         <v>693</v>
       </c>
       <c r="C12" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D12" t="s">
         <v>112</v>
@@ -3727,7 +3730,7 @@
         <v>113</v>
       </c>
       <c r="F12" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G12" t="s">
         <v>114</v>
@@ -3736,7 +3739,7 @@
         <v>115</v>
       </c>
       <c r="I12" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="J12" t="s">
         <v>116</v>
@@ -3745,7 +3748,7 @@
         <v>113</v>
       </c>
       <c r="L12" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="M12" t="s">
         <v>117</v>
@@ -3756,7 +3759,7 @@
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="S12" t="s">
         <v>119</v>
@@ -3782,7 +3785,7 @@
         <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="G13" t="s">
         <v>124</v>
@@ -3800,7 +3803,7 @@
         <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="M13" t="s">
         <v>127</v>
@@ -3811,7 +3814,7 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="S13" t="s">
         <v>129</v>
@@ -3828,7 +3831,7 @@
         <v>693</v>
       </c>
       <c r="C14" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D14" t="s">
         <v>132</v>
@@ -3837,7 +3840,7 @@
         <v>133</v>
       </c>
       <c r="F14" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G14" t="s">
         <v>114</v>
@@ -3846,7 +3849,7 @@
         <v>115</v>
       </c>
       <c r="I14" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="J14" t="s">
         <v>134</v>
@@ -3855,7 +3858,7 @@
         <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="M14" t="s">
         <v>135</v>
@@ -3866,7 +3869,7 @@
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="S14" t="s">
         <v>137</v>
@@ -3892,7 +3895,7 @@
         <v>141</v>
       </c>
       <c r="F15" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="G15" t="s">
         <v>142</v>
@@ -3910,7 +3913,7 @@
         <v>141</v>
       </c>
       <c r="L15" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="M15" t="s">
         <v>145</v>
@@ -3921,7 +3924,7 @@
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="S15" t="s">
         <v>147</v>
@@ -3938,7 +3941,7 @@
         <v>693</v>
       </c>
       <c r="C16" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D16" t="s">
         <v>150</v>
@@ -3947,7 +3950,7 @@
         <v>151</v>
       </c>
       <c r="F16" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G16" t="s">
         <v>152</v>
@@ -3956,7 +3959,7 @@
         <v>153</v>
       </c>
       <c r="I16" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="J16" t="s">
         <v>150</v>
@@ -3965,7 +3968,7 @@
         <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="M16" t="s">
         <v>154</v>
@@ -3976,7 +3979,7 @@
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="S16" t="s">
         <v>156</v>
@@ -3993,7 +3996,7 @@
         <v>693</v>
       </c>
       <c r="C17" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D17" t="s">
         <v>159</v>
@@ -4002,7 +4005,7 @@
         <v>160</v>
       </c>
       <c r="F17" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G17" t="s">
         <v>161</v>
@@ -4011,7 +4014,7 @@
         <v>162</v>
       </c>
       <c r="I17" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="J17" t="s">
         <v>163</v>
@@ -4020,7 +4023,7 @@
         <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="M17" t="s">
         <v>165</v>
@@ -4031,7 +4034,7 @@
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="S17" t="s">
         <v>167</v>
@@ -4057,7 +4060,7 @@
         <v>171</v>
       </c>
       <c r="F18" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G18" t="s">
         <v>172</v>
@@ -4066,7 +4069,7 @@
         <v>173</v>
       </c>
       <c r="I18" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="J18" t="s">
         <v>174</v>
@@ -4075,7 +4078,7 @@
         <v>175</v>
       </c>
       <c r="L18" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="M18" t="s">
         <v>176</v>
@@ -4086,7 +4089,7 @@
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="S18" t="s">
         <v>178</v>
@@ -4103,7 +4106,7 @@
         <v>693</v>
       </c>
       <c r="C19" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D19" t="s">
         <v>181</v>
@@ -4112,7 +4115,7 @@
         <v>182</v>
       </c>
       <c r="F19" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G19" t="s">
         <v>183</v>
@@ -4121,7 +4124,7 @@
         <v>184</v>
       </c>
       <c r="I19" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="J19" t="s">
         <v>185</v>
@@ -4130,7 +4133,7 @@
         <v>186</v>
       </c>
       <c r="L19" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="M19" t="s">
         <v>187</v>
@@ -4141,7 +4144,7 @@
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="S19" t="s">
         <v>189</v>
@@ -4158,7 +4161,7 @@
         <v>696</v>
       </c>
       <c r="C20" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D20" t="s">
         <v>192</v>
@@ -4167,7 +4170,7 @@
         <v>193</v>
       </c>
       <c r="F20" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G20" t="s">
         <v>194</v>
@@ -4176,7 +4179,7 @@
         <v>195</v>
       </c>
       <c r="I20" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="J20" t="s">
         <v>196</v>
@@ -4185,7 +4188,7 @@
         <v>197</v>
       </c>
       <c r="L20" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="M20" t="s">
         <v>198</v>
@@ -4196,7 +4199,7 @@
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="S20" t="s">
         <v>200</v>
@@ -4213,7 +4216,7 @@
         <v>690</v>
       </c>
       <c r="C21" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D21" t="s">
         <v>203</v>
@@ -4222,7 +4225,7 @@
         <v>204</v>
       </c>
       <c r="F21" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G21" t="s">
         <v>205</v>
@@ -4231,7 +4234,7 @@
         <v>206</v>
       </c>
       <c r="I21" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J21" t="s">
         <v>207</v>
@@ -4240,7 +4243,7 @@
         <v>208</v>
       </c>
       <c r="L21" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="M21" t="s">
         <v>209</v>
@@ -4251,7 +4254,7 @@
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="S21" t="s">
         <v>211</v>
@@ -4268,7 +4271,7 @@
         <v>693</v>
       </c>
       <c r="C22" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D22" t="s">
         <v>214</v>
@@ -4277,7 +4280,7 @@
         <v>215</v>
       </c>
       <c r="F22" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G22" t="s">
         <v>216</v>
@@ -4286,7 +4289,7 @@
         <v>217</v>
       </c>
       <c r="I22" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="J22" t="s">
         <v>214</v>
@@ -4295,7 +4298,7 @@
         <v>215</v>
       </c>
       <c r="L22" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="M22" t="s">
         <v>218</v>
@@ -4306,7 +4309,7 @@
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="S22" t="s">
         <v>220</v>
@@ -4323,7 +4326,7 @@
         <v>697</v>
       </c>
       <c r="C23" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D23" t="s">
         <v>223</v>
@@ -4332,7 +4335,7 @@
         <v>224</v>
       </c>
       <c r="F23" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G23" t="s">
         <v>225</v>
@@ -4341,7 +4344,7 @@
         <v>226</v>
       </c>
       <c r="I23" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="J23" t="s">
         <v>223</v>
@@ -4350,7 +4353,7 @@
         <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="M23" t="s">
         <v>227</v>
@@ -4371,7 +4374,7 @@
         <v>698</v>
       </c>
       <c r="C24" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D24" t="s">
         <v>230</v>
@@ -4380,7 +4383,7 @@
         <v>231</v>
       </c>
       <c r="F24" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G24" t="s">
         <v>232</v>
@@ -4389,7 +4392,7 @@
         <v>233</v>
       </c>
       <c r="I24" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="J24" t="s">
         <v>230</v>
@@ -4398,7 +4401,7 @@
         <v>231</v>
       </c>
       <c r="L24" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="M24" t="s">
         <v>234</v>
@@ -4409,7 +4412,7 @@
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="S24" t="s">
         <v>236</v>
@@ -4423,10 +4426,10 @@
         <v>238</v>
       </c>
       <c r="B25" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C25" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D25" t="s">
         <v>239</v>
@@ -4435,7 +4438,7 @@
         <v>240</v>
       </c>
       <c r="F25" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="G25" t="s">
         <v>241</v>
@@ -4444,7 +4447,7 @@
         <v>242</v>
       </c>
       <c r="I25" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J25" t="s">
         <v>239</v>
@@ -4453,7 +4456,7 @@
         <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="M25" t="s">
         <v>243</v>
@@ -4464,7 +4467,7 @@
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="S25" t="s">
         <v>245</v>
@@ -4481,7 +4484,7 @@
         <v>690</v>
       </c>
       <c r="C26" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D26" t="s">
         <v>248</v>
@@ -4490,7 +4493,7 @@
         <v>249</v>
       </c>
       <c r="F26" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G26" t="s">
         <v>250</v>
@@ -4499,7 +4502,7 @@
         <v>251</v>
       </c>
       <c r="I26" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="J26" t="s">
         <v>248</v>
@@ -4508,7 +4511,7 @@
         <v>249</v>
       </c>
       <c r="L26" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="M26" t="s">
         <v>252</v>
@@ -4519,7 +4522,7 @@
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="S26" t="s">
         <v>254</v>
@@ -4533,10 +4536,10 @@
         <v>256</v>
       </c>
       <c r="B27" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C27" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D27" t="s">
         <v>257</v>
@@ -4545,7 +4548,7 @@
         <v>258</v>
       </c>
       <c r="F27" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G27" t="s">
         <v>259</v>
@@ -4554,7 +4557,7 @@
         <v>260</v>
       </c>
       <c r="I27" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="J27" t="s">
         <v>257</v>
@@ -4563,7 +4566,7 @@
         <v>258</v>
       </c>
       <c r="L27" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="M27" t="s">
         <v>261</v>
@@ -4574,7 +4577,7 @@
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="S27" t="s">
         <v>263</v>
@@ -4588,7 +4591,7 @@
         <v>265</v>
       </c>
       <c r="B28" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C28" t="s">
         <v>267</v>
@@ -4600,7 +4603,7 @@
         <v>267</v>
       </c>
       <c r="F28" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G28" t="s">
         <v>268</v>
@@ -4618,7 +4621,7 @@
         <v>267</v>
       </c>
       <c r="L28" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="M28" t="s">
         <v>270</v>
@@ -4629,7 +4632,7 @@
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="S28" t="s">
         <v>272</v>
@@ -4643,10 +4646,10 @@
         <v>274</v>
       </c>
       <c r="B29" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C29" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D29" t="s">
         <v>275</v>
@@ -4655,7 +4658,7 @@
         <v>276</v>
       </c>
       <c r="F29" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="G29" t="s">
         <v>277</v>
@@ -4664,7 +4667,7 @@
         <v>278</v>
       </c>
       <c r="I29" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="J29" t="s">
         <v>275</v>
@@ -4673,7 +4676,7 @@
         <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="M29" t="s">
         <v>279</v>
@@ -4684,7 +4687,7 @@
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="S29" t="s">
         <v>281</v>
@@ -4698,10 +4701,10 @@
         <v>283</v>
       </c>
       <c r="B30" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C30" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D30" t="s">
         <v>284</v>
@@ -4710,7 +4713,7 @@
         <v>285</v>
       </c>
       <c r="F30" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="G30" t="s">
         <v>286</v>
@@ -4719,7 +4722,7 @@
         <v>287</v>
       </c>
       <c r="I30" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="J30" t="s">
         <v>284</v>
@@ -4728,7 +4731,7 @@
         <v>285</v>
       </c>
       <c r="L30" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="M30" t="s">
         <v>288</v>
@@ -4739,7 +4742,7 @@
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="S30" t="s">
         <v>290</v>
@@ -4756,7 +4759,7 @@
         <v>693</v>
       </c>
       <c r="C31" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D31" t="s">
         <v>293</v>
@@ -4765,7 +4768,7 @@
         <v>294</v>
       </c>
       <c r="F31" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G31" t="s">
         <v>295</v>
@@ -4774,7 +4777,7 @@
         <v>296</v>
       </c>
       <c r="I31" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="J31" t="s">
         <v>297</v>
@@ -4783,7 +4786,7 @@
         <v>298</v>
       </c>
       <c r="L31" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="M31" t="s">
         <v>299</v>
@@ -4794,7 +4797,7 @@
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="S31" t="s">
         <v>301</v>
@@ -4811,7 +4814,7 @@
         <v>693</v>
       </c>
       <c r="C32" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D32" t="s">
         <v>304</v>
@@ -4820,7 +4823,7 @@
         <v>305</v>
       </c>
       <c r="F32" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G32" t="s">
         <v>306</v>
@@ -4829,7 +4832,7 @@
         <v>307</v>
       </c>
       <c r="I32" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="J32" t="s">
         <v>304</v>
@@ -4838,7 +4841,7 @@
         <v>305</v>
       </c>
       <c r="L32" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="M32" t="s">
         <v>308</v>
@@ -4849,7 +4852,7 @@
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="S32" t="s">
         <v>310</v>
@@ -4863,10 +4866,10 @@
         <v>312</v>
       </c>
       <c r="B33" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C33" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D33" t="s">
         <v>313</v>
@@ -4875,7 +4878,7 @@
         <v>314</v>
       </c>
       <c r="F33" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="G33" t="s">
         <v>315</v>
@@ -4884,7 +4887,7 @@
         <v>316</v>
       </c>
       <c r="I33" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="J33" t="s">
         <v>313</v>
@@ -4893,7 +4896,7 @@
         <v>314</v>
       </c>
       <c r="L33" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="M33" t="s">
         <v>317</v>
@@ -4904,7 +4907,7 @@
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="S33" t="s">
         <v>319</v>
@@ -4918,10 +4921,10 @@
         <v>321</v>
       </c>
       <c r="B34" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C34" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D34" t="s">
         <v>322</v>
@@ -4930,7 +4933,7 @@
         <v>323</v>
       </c>
       <c r="F34" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="G34" t="s">
         <v>324</v>
@@ -4939,7 +4942,7 @@
         <v>325</v>
       </c>
       <c r="I34" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="J34" t="s">
         <v>326</v>
@@ -4948,7 +4951,7 @@
         <v>323</v>
       </c>
       <c r="L34" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="M34" t="s">
         <v>327</v>
@@ -4959,7 +4962,7 @@
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="S34" t="s">
         <v>329</v>
@@ -4973,10 +4976,10 @@
         <v>331</v>
       </c>
       <c r="B35" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C35" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D35" t="s">
         <v>332</v>
@@ -4985,7 +4988,7 @@
         <v>333</v>
       </c>
       <c r="F35" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G35" t="s">
         <v>334</v>
@@ -4994,7 +4997,7 @@
         <v>335</v>
       </c>
       <c r="I35" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J35" t="s">
         <v>336</v>
@@ -5003,7 +5006,7 @@
         <v>333</v>
       </c>
       <c r="L35" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="M35" t="s">
         <v>337</v>
@@ -5014,7 +5017,7 @@
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="S35" t="s">
         <v>339</v>
@@ -5028,10 +5031,10 @@
         <v>341</v>
       </c>
       <c r="B36" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C36" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D36" t="s">
         <v>342</v>
@@ -5040,7 +5043,7 @@
         <v>343</v>
       </c>
       <c r="F36" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G36" t="s">
         <v>344</v>
@@ -5049,7 +5052,7 @@
         <v>345</v>
       </c>
       <c r="I36" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="J36" t="s">
         <v>342</v>
@@ -5058,7 +5061,7 @@
         <v>343</v>
       </c>
       <c r="L36" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="M36" t="s">
         <v>346</v>
@@ -5069,7 +5072,7 @@
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="S36" t="s">
         <v>348</v>
@@ -5083,10 +5086,10 @@
         <v>350</v>
       </c>
       <c r="B37" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C37" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D37" t="s">
         <v>351</v>
@@ -5095,7 +5098,7 @@
         <v>352</v>
       </c>
       <c r="F37" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G37" t="s">
         <v>353</v>
@@ -5104,7 +5107,7 @@
         <v>354</v>
       </c>
       <c r="I37" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="J37" t="s">
         <v>351</v>
@@ -5124,10 +5127,10 @@
         <v>355</v>
       </c>
       <c r="B38" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C38" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D38" t="s">
         <v>356</v>
@@ -5136,7 +5139,7 @@
         <v>357</v>
       </c>
       <c r="F38" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="G38" t="s">
         <v>358</v>
@@ -5145,7 +5148,7 @@
         <v>359</v>
       </c>
       <c r="I38" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="J38" t="s">
         <v>356</v>
@@ -5165,10 +5168,10 @@
         <v>360</v>
       </c>
       <c r="B39" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C39" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D39" t="s">
         <v>361</v>
@@ -5177,7 +5180,7 @@
         <v>362</v>
       </c>
       <c r="F39" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G39" t="s">
         <v>363</v>
@@ -5186,7 +5189,7 @@
         <v>364</v>
       </c>
       <c r="I39" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="J39" t="s">
         <v>361</v>
@@ -5195,7 +5198,7 @@
         <v>362</v>
       </c>
       <c r="L39" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="M39" t="s">
         <v>365</v>
@@ -5206,7 +5209,7 @@
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="S39" t="s">
         <v>367</v>
@@ -5223,7 +5226,7 @@
         <v>693</v>
       </c>
       <c r="C40" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D40" t="s">
         <v>370</v>
@@ -5232,7 +5235,7 @@
         <v>371</v>
       </c>
       <c r="F40" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G40" t="s">
         <v>372</v>
@@ -5241,7 +5244,7 @@
         <v>373</v>
       </c>
       <c r="I40" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="J40" t="s">
         <v>374</v>
@@ -5250,7 +5253,7 @@
         <v>371</v>
       </c>
       <c r="L40" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="M40" t="s">
         <v>375</v>
@@ -5261,7 +5264,7 @@
       <c r="P40"/>
       <c r="Q40"/>
       <c r="R40" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="S40" t="s">
         <v>377</v>
@@ -5278,7 +5281,7 @@
         <v>693</v>
       </c>
       <c r="C41" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D41" t="s">
         <v>380</v>
@@ -5287,7 +5290,7 @@
         <v>381</v>
       </c>
       <c r="F41" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G41" t="s">
         <v>382</v>
@@ -5296,7 +5299,7 @@
         <v>383</v>
       </c>
       <c r="I41" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="J41" t="s">
         <v>380</v>
@@ -5305,7 +5308,7 @@
         <v>381</v>
       </c>
       <c r="L41" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="M41" t="s">
         <v>384</v>
@@ -5316,7 +5319,7 @@
       <c r="P41"/>
       <c r="Q41"/>
       <c r="R41" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="S41" t="s">
         <v>310</v>
@@ -5333,7 +5336,7 @@
         <v>693</v>
       </c>
       <c r="C42" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D42" t="s">
         <v>387</v>
@@ -5342,7 +5345,7 @@
         <v>388</v>
       </c>
       <c r="F42" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G42" t="s">
         <v>389</v>
@@ -5351,7 +5354,7 @@
         <v>390</v>
       </c>
       <c r="I42" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="J42" t="s">
         <v>387</v>
@@ -5360,7 +5363,7 @@
         <v>388</v>
       </c>
       <c r="L42" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="M42" t="s">
         <v>391</v>
@@ -5371,7 +5374,7 @@
       <c r="P42"/>
       <c r="Q42"/>
       <c r="R42" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="S42" t="s">
         <v>393</v>
@@ -5397,7 +5400,7 @@
         <v>397</v>
       </c>
       <c r="F43" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="G43" t="s">
         <v>398</v>
@@ -5415,7 +5418,7 @@
         <v>397</v>
       </c>
       <c r="L43" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="M43" t="s">
         <v>400</v>
@@ -5433,10 +5436,10 @@
         <v>402</v>
       </c>
       <c r="B44" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C44" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D44" t="s">
         <v>403</v>
@@ -5445,7 +5448,7 @@
         <v>404</v>
       </c>
       <c r="F44" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="G44" t="s">
         <v>405</v>
@@ -5454,7 +5457,7 @@
         <v>406</v>
       </c>
       <c r="I44" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="J44" t="s">
         <v>407</v>
@@ -5463,7 +5466,7 @@
         <v>404</v>
       </c>
       <c r="L44" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="M44" t="s">
         <v>408</v>
@@ -5474,7 +5477,7 @@
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="S44" t="s">
         <v>410</v>
@@ -5488,10 +5491,10 @@
         <v>412</v>
       </c>
       <c r="B45" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C45" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D45" t="s">
         <v>413</v>
@@ -5500,7 +5503,7 @@
         <v>414</v>
       </c>
       <c r="F45" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G45" t="s">
         <v>415</v>
@@ -5509,7 +5512,7 @@
         <v>416</v>
       </c>
       <c r="I45" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="J45" t="s">
         <v>413</v>
@@ -5518,7 +5521,7 @@
         <v>414</v>
       </c>
       <c r="L45" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="M45" t="s">
         <v>417</v>
@@ -5529,7 +5532,7 @@
       <c r="P45"/>
       <c r="Q45"/>
       <c r="R45" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="S45" t="s">
         <v>419</v>
@@ -5543,10 +5546,10 @@
         <v>421</v>
       </c>
       <c r="B46" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C46" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D46" t="s">
         <v>422</v>
@@ -5555,7 +5558,7 @@
         <v>423</v>
       </c>
       <c r="F46" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="G46" t="s">
         <v>424</v>
@@ -5564,7 +5567,7 @@
         <v>425</v>
       </c>
       <c r="I46" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="J46" t="s">
         <v>422</v>
@@ -5573,7 +5576,7 @@
         <v>423</v>
       </c>
       <c r="L46" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="M46" t="s">
         <v>426</v>
@@ -5584,7 +5587,7 @@
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="S46" t="s">
         <v>419</v>
@@ -5598,10 +5601,10 @@
         <v>428</v>
       </c>
       <c r="B47" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C47" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D47" t="s">
         <v>429</v>
@@ -5610,7 +5613,7 @@
         <v>430</v>
       </c>
       <c r="F47" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="G47" t="s">
         <v>424</v>
@@ -5619,7 +5622,7 @@
         <v>425</v>
       </c>
       <c r="I47" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="J47" t="s">
         <v>429</v>
@@ -5628,7 +5631,7 @@
         <v>430</v>
       </c>
       <c r="L47" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="M47" t="s">
         <v>426</v>
@@ -5639,7 +5642,7 @@
       <c r="P47"/>
       <c r="Q47"/>
       <c r="R47" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="S47" t="s">
         <v>419</v>
@@ -5653,10 +5656,10 @@
         <v>431</v>
       </c>
       <c r="B48" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C48" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D48" t="s">
         <v>432</v>
@@ -5665,7 +5668,7 @@
         <v>433</v>
       </c>
       <c r="F48" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="G48" t="s">
         <v>434</v>
@@ -5674,7 +5677,7 @@
         <v>435</v>
       </c>
       <c r="I48" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="J48" t="s">
         <v>432</v>
@@ -5683,7 +5686,7 @@
         <v>433</v>
       </c>
       <c r="L48" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="M48" t="s">
         <v>436</v>
@@ -5713,7 +5716,7 @@
         <v>440</v>
       </c>
       <c r="F49" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G49" t="s">
         <v>441</v>
@@ -5731,7 +5734,7 @@
         <v>440</v>
       </c>
       <c r="L49" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="M49" t="s">
         <v>443</v>
@@ -5742,7 +5745,7 @@
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="S49" t="s">
         <v>445</v>
@@ -5756,10 +5759,10 @@
         <v>447</v>
       </c>
       <c r="B50" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C50" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D50" t="s">
         <v>448</v>
@@ -5768,7 +5771,7 @@
         <v>449</v>
       </c>
       <c r="F50" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="G50" t="s">
         <v>450</v>
@@ -5777,7 +5780,7 @@
         <v>451</v>
       </c>
       <c r="I50" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="J50" t="s">
         <v>448</v>
@@ -5786,7 +5789,7 @@
         <v>449</v>
       </c>
       <c r="L50" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="M50" t="s">
         <v>452</v>
@@ -5804,7 +5807,7 @@
         <v>454</v>
       </c>
       <c r="B51" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C51" t="s">
         <v>456</v>
@@ -5816,7 +5819,7 @@
         <v>456</v>
       </c>
       <c r="F51" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="G51" t="s">
         <v>457</v>
@@ -5834,7 +5837,7 @@
         <v>456</v>
       </c>
       <c r="L51" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="M51" t="s">
         <v>459</v>
@@ -5852,10 +5855,10 @@
         <v>461</v>
       </c>
       <c r="B52" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C52" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D52" t="s">
         <v>462</v>
@@ -5864,7 +5867,7 @@
         <v>463</v>
       </c>
       <c r="F52" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G52" t="s">
         <v>464</v>
@@ -5873,7 +5876,7 @@
         <v>465</v>
       </c>
       <c r="I52" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="J52" t="s">
         <v>462</v>
@@ -5882,7 +5885,7 @@
         <v>463</v>
       </c>
       <c r="L52" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="M52" t="s">
         <v>466</v>
@@ -5900,10 +5903,10 @@
         <v>468</v>
       </c>
       <c r="B53" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C53" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D53" t="s">
         <v>469</v>
@@ -5912,7 +5915,7 @@
         <v>470</v>
       </c>
       <c r="F53" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G53" t="s">
         <v>471</v>
@@ -5921,7 +5924,7 @@
         <v>472</v>
       </c>
       <c r="I53" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="J53" t="s">
         <v>469</v>
@@ -5930,7 +5933,7 @@
         <v>470</v>
       </c>
       <c r="L53" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="M53" t="s">
         <v>473</v>
@@ -5941,7 +5944,7 @@
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="S53" t="s">
         <v>475</v>
@@ -5955,10 +5958,10 @@
         <v>477</v>
       </c>
       <c r="B54" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C54" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D54" t="s">
         <v>478</v>
@@ -5967,7 +5970,7 @@
         <v>479</v>
       </c>
       <c r="F54" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="G54" t="s">
         <v>480</v>
@@ -5976,7 +5979,7 @@
         <v>481</v>
       </c>
       <c r="I54" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="J54" t="s">
         <v>478</v>
@@ -5985,7 +5988,7 @@
         <v>479</v>
       </c>
       <c r="L54" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="M54" t="s">
         <v>482</v>
@@ -6003,10 +6006,10 @@
         <v>484</v>
       </c>
       <c r="B55" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C55" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D55" t="s">
         <v>485</v>
@@ -6015,7 +6018,7 @@
         <v>486</v>
       </c>
       <c r="F55" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="G55" t="s">
         <v>487</v>
@@ -6024,7 +6027,7 @@
         <v>488</v>
       </c>
       <c r="I55" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="J55" t="s">
         <v>485</v>
@@ -6033,7 +6036,7 @@
         <v>486</v>
       </c>
       <c r="L55" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="M55" t="s">
         <v>489</v>
@@ -6054,7 +6057,7 @@
         <v>693</v>
       </c>
       <c r="C56" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D56" t="s">
         <v>492</v>
@@ -6063,7 +6066,7 @@
         <v>493</v>
       </c>
       <c r="F56" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G56" t="s">
         <v>494</v>
@@ -6072,7 +6075,7 @@
         <v>495</v>
       </c>
       <c r="I56" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="J56" t="s">
         <v>496</v>
@@ -6081,7 +6084,7 @@
         <v>497</v>
       </c>
       <c r="L56" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="M56" t="s">
         <v>498</v>
@@ -6092,7 +6095,7 @@
       <c r="P56"/>
       <c r="Q56"/>
       <c r="R56" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="S56" t="s">
         <v>500</v>
@@ -6109,7 +6112,7 @@
         <v>693</v>
       </c>
       <c r="C57" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D57" t="s">
         <v>503</v>
@@ -6118,7 +6121,7 @@
         <v>504</v>
       </c>
       <c r="F57" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G57" t="s">
         <v>505</v>
@@ -6127,7 +6130,7 @@
         <v>506</v>
       </c>
       <c r="I57" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="J57" t="s">
         <v>507</v>
@@ -6136,7 +6139,7 @@
         <v>508</v>
       </c>
       <c r="L57" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="M57" t="s">
         <v>509</v>
@@ -6147,7 +6150,7 @@
       <c r="P57"/>
       <c r="Q57"/>
       <c r="R57" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="S57" t="s">
         <v>511</v>
@@ -6164,7 +6167,7 @@
         <v>693</v>
       </c>
       <c r="C58" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D58" t="s">
         <v>514</v>
@@ -6173,7 +6176,7 @@
         <v>515</v>
       </c>
       <c r="F58" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G58" t="s">
         <v>516</v>
@@ -6182,7 +6185,7 @@
         <v>517</v>
       </c>
       <c r="I58" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="J58" t="s">
         <v>514</v>
@@ -6191,7 +6194,7 @@
         <v>515</v>
       </c>
       <c r="L58" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M58" t="s">
         <v>518</v>
@@ -6202,7 +6205,7 @@
       <c r="P58"/>
       <c r="Q58"/>
       <c r="R58" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="S58" t="s">
         <v>520</v>
@@ -6219,7 +6222,7 @@
         <v>693</v>
       </c>
       <c r="C59" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D59" t="s">
         <v>523</v>
@@ -6230,7 +6233,7 @@
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="J59" t="s">
         <v>523</v>
@@ -6253,7 +6256,7 @@
         <v>693</v>
       </c>
       <c r="C60" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D60" t="s">
         <v>526</v>
@@ -6262,7 +6265,7 @@
         <v>527</v>
       </c>
       <c r="F60" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G60" t="s">
         <v>528</v>
@@ -6271,7 +6274,7 @@
         <v>529</v>
       </c>
       <c r="I60" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="J60" t="s">
         <v>526</v>
@@ -6280,7 +6283,7 @@
         <v>527</v>
       </c>
       <c r="L60" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="M60" t="s">
         <v>530</v>
@@ -6291,7 +6294,7 @@
       <c r="P60"/>
       <c r="Q60"/>
       <c r="R60" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="S60" t="s">
         <v>532</v>
@@ -6305,10 +6308,10 @@
         <v>534</v>
       </c>
       <c r="B61" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C61" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D61" t="s">
         <v>535</v>
@@ -6317,7 +6320,7 @@
         <v>536</v>
       </c>
       <c r="F61" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G61" t="s">
         <v>537</v>
@@ -6326,7 +6329,7 @@
         <v>538</v>
       </c>
       <c r="I61" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="J61" t="s">
         <v>539</v>
@@ -6335,7 +6338,7 @@
         <v>540</v>
       </c>
       <c r="L61" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="M61" t="s">
         <v>541</v>
@@ -6346,7 +6349,7 @@
       <c r="P61"/>
       <c r="Q61"/>
       <c r="R61" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="S61" t="s">
         <v>543</v>
@@ -6363,7 +6366,7 @@
         <v>693</v>
       </c>
       <c r="C62" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D62" t="s">
         <v>546</v>
@@ -6372,7 +6375,7 @@
         <v>547</v>
       </c>
       <c r="F62" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="G62" t="s">
         <v>548</v>
@@ -6381,7 +6384,7 @@
         <v>549</v>
       </c>
       <c r="I62" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="J62" t="s">
         <v>550</v>
@@ -6401,10 +6404,10 @@
         <v>551</v>
       </c>
       <c r="B63" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C63" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D63" t="s">
         <v>552</v>
@@ -6413,7 +6416,7 @@
         <v>553</v>
       </c>
       <c r="F63" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G63" t="s">
         <v>554</v>
@@ -6422,7 +6425,7 @@
         <v>555</v>
       </c>
       <c r="I63" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="J63" t="s">
         <v>552</v>
@@ -6445,7 +6448,7 @@
         <v>693</v>
       </c>
       <c r="C64" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D64" t="s">
         <v>557</v>
@@ -6454,7 +6457,7 @@
         <v>558</v>
       </c>
       <c r="F64" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G64" t="s">
         <v>559</v>
@@ -6463,7 +6466,7 @@
         <v>560</v>
       </c>
       <c r="I64" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="J64" t="s">
         <v>557</v>
@@ -6472,7 +6475,7 @@
         <v>558</v>
       </c>
       <c r="L64" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="M64" t="s">
         <v>561</v>
@@ -6483,7 +6486,7 @@
       <c r="P64"/>
       <c r="Q64"/>
       <c r="R64" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="S64" t="s">
         <v>563</v>
@@ -6497,10 +6500,10 @@
         <v>565</v>
       </c>
       <c r="B65" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C65" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D65" t="s">
         <v>566</v>
@@ -6509,7 +6512,7 @@
         <v>567</v>
       </c>
       <c r="F65" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G65" t="s">
         <v>568</v>
@@ -6518,7 +6521,7 @@
         <v>569</v>
       </c>
       <c r="I65" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="J65" t="s">
         <v>570</v>
@@ -6527,7 +6530,7 @@
         <v>571</v>
       </c>
       <c r="L65" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="M65" t="s">
         <v>572</v>
@@ -6538,7 +6541,7 @@
       <c r="P65"/>
       <c r="Q65"/>
       <c r="R65" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="S65" t="s">
         <v>574</v>
@@ -6555,7 +6558,7 @@
         <v>693</v>
       </c>
       <c r="C66" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D66" t="s">
         <v>577</v>
@@ -6564,7 +6567,7 @@
         <v>578</v>
       </c>
       <c r="F66" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="G66" t="s">
         <v>579</v>
@@ -6573,7 +6576,7 @@
         <v>580</v>
       </c>
       <c r="I66" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="J66" t="s">
         <v>581</v>
@@ -6582,7 +6585,7 @@
         <v>582</v>
       </c>
       <c r="L66" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="M66" t="s">
         <v>583</v>
@@ -6591,7 +6594,7 @@
         <v>584</v>
       </c>
       <c r="O66" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="P66" t="s">
         <v>585</v>
@@ -6619,7 +6622,7 @@
         <v>589</v>
       </c>
       <c r="F67" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G67" t="s">
         <v>590</v>
@@ -6628,7 +6631,7 @@
         <v>591</v>
       </c>
       <c r="I67" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="J67" t="s">
         <v>592</v>
@@ -6651,7 +6654,7 @@
         <v>693</v>
       </c>
       <c r="C68" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D68" t="s">
         <v>159</v>
@@ -6660,7 +6663,7 @@
         <v>595</v>
       </c>
       <c r="F68" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="G68" t="s">
         <v>596</v>
@@ -6692,7 +6695,7 @@
         <v>697</v>
       </c>
       <c r="C69" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D69" t="s">
         <v>600</v>
@@ -6701,7 +6704,7 @@
         <v>601</v>
       </c>
       <c r="F69" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G69" t="s">
         <v>602</v>
@@ -6710,7 +6713,7 @@
         <v>603</v>
       </c>
       <c r="I69" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="J69" t="s">
         <v>604</v>
@@ -6742,7 +6745,7 @@
         <v>103</v>
       </c>
       <c r="F70" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="G70" t="s">
         <v>607</v>
@@ -6751,7 +6754,7 @@
         <v>608</v>
       </c>
       <c r="I70" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="J70" t="s">
         <v>609</v>
@@ -6760,7 +6763,7 @@
         <v>610</v>
       </c>
       <c r="L70" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="M70" t="s">
         <v>611</v>
@@ -6769,7 +6772,7 @@
         <v>612</v>
       </c>
       <c r="O70" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="P70" t="s">
         <v>613</v>
@@ -6788,7 +6791,7 @@
         <v>693</v>
       </c>
       <c r="C71" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D71" t="s">
         <v>616</v>
@@ -6799,7 +6802,7 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="J71" t="s">
         <v>618</v>
@@ -6822,7 +6825,7 @@
         <v>693</v>
       </c>
       <c r="C72" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D72" t="s">
         <v>621</v>
@@ -6833,7 +6836,7 @@
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="J72" t="s">
         <v>623</v>
@@ -6856,7 +6859,7 @@
         <v>693</v>
       </c>
       <c r="C73" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D73" t="s">
         <v>626</v>
@@ -6865,7 +6868,7 @@
         <v>627</v>
       </c>
       <c r="F73" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="G73" t="s">
         <v>628</v>
@@ -6874,7 +6877,7 @@
         <v>629</v>
       </c>
       <c r="I73" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="J73" t="s">
         <v>630</v>
@@ -6897,7 +6900,7 @@
         <v>693</v>
       </c>
       <c r="C74" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D74" t="s">
         <v>633</v>
@@ -6935,7 +6938,7 @@
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="J75" t="s">
         <v>638</v>
@@ -6958,7 +6961,7 @@
         <v>697</v>
       </c>
       <c r="C76" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D76" t="s">
         <v>616</v>
@@ -6969,7 +6972,7 @@
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="J76" t="s">
         <v>641</v>
@@ -6989,10 +6992,10 @@
         <v>643</v>
       </c>
       <c r="B77" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C77" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D77" t="s">
         <v>644</v>
@@ -7001,7 +7004,7 @@
         <v>645</v>
       </c>
       <c r="F77" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G77" t="s">
         <v>646</v>
@@ -7010,7 +7013,7 @@
         <v>647</v>
       </c>
       <c r="I77" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="J77" t="s">
         <v>644</v>
@@ -7019,7 +7022,7 @@
         <v>645</v>
       </c>
       <c r="L77" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="M77" t="s">
         <v>648</v>
@@ -7030,7 +7033,7 @@
       <c r="P77"/>
       <c r="Q77"/>
       <c r="R77" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="S77" t="s">
         <v>475</v>
@@ -7044,10 +7047,10 @@
         <v>650</v>
       </c>
       <c r="B78" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C78" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D78" t="s">
         <v>651</v>
@@ -7056,7 +7059,7 @@
         <v>652</v>
       </c>
       <c r="F78" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G78" t="s">
         <v>653</v>
@@ -7065,7 +7068,7 @@
         <v>654</v>
       </c>
       <c r="I78" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="J78" t="s">
         <v>651</v>
@@ -7085,10 +7088,10 @@
         <v>655</v>
       </c>
       <c r="B79" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C79" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D79" t="s">
         <v>656</v>
@@ -7097,7 +7100,7 @@
         <v>657</v>
       </c>
       <c r="F79" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G79" t="s">
         <v>658</v>
@@ -7108,7 +7111,7 @@
       <c r="J79"/>
       <c r="K79"/>
       <c r="L79" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="M79" t="s">
         <v>660</v>
@@ -7119,7 +7122,7 @@
       <c r="P79"/>
       <c r="Q79"/>
       <c r="R79" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="S79" t="s">
         <v>662</v>
@@ -7133,10 +7136,10 @@
         <v>664</v>
       </c>
       <c r="B80" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C80" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D80" t="s">
         <v>665</v>
@@ -7145,7 +7148,7 @@
         <v>666</v>
       </c>
       <c r="F80" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="G80" t="s">
         <v>667</v>
@@ -7156,7 +7159,7 @@
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M80" t="s">
         <v>669</v>
@@ -7167,7 +7170,7 @@
       <c r="P80"/>
       <c r="Q80"/>
       <c r="R80" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="S80" t="s">
         <v>662</v>
@@ -7181,10 +7184,10 @@
         <v>671</v>
       </c>
       <c r="B81" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C81" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D81" t="s">
         <v>672</v>
@@ -7193,7 +7196,7 @@
         <v>673</v>
       </c>
       <c r="F81" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="G81" t="s">
         <v>674</v>
@@ -7204,7 +7207,7 @@
       <c r="J81"/>
       <c r="K81"/>
       <c r="L81" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="M81" t="s">
         <v>669</v>
@@ -7215,7 +7218,7 @@
       <c r="P81"/>
       <c r="Q81"/>
       <c r="R81" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="S81" t="s">
         <v>662</v>
@@ -7229,10 +7232,10 @@
         <v>676</v>
       </c>
       <c r="B82" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C82" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D82" t="s">
         <v>677</v>
@@ -7241,7 +7244,7 @@
         <v>678</v>
       </c>
       <c r="F82" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="G82" t="s">
         <v>679</v>
@@ -7252,7 +7255,7 @@
       <c r="J82"/>
       <c r="K82"/>
       <c r="L82" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="M82" t="s">
         <v>681</v>
@@ -7263,7 +7266,7 @@
       <c r="P82"/>
       <c r="Q82"/>
       <c r="R82" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="S82" t="s">
         <v>662</v>
@@ -7277,10 +7280,10 @@
         <v>683</v>
       </c>
       <c r="B83" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C83" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D83" t="s">
         <v>684</v>
@@ -7289,7 +7292,7 @@
         <v>685</v>
       </c>
       <c r="F83" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="G83" t="s">
         <v>686</v>
@@ -7300,7 +7303,7 @@
       <c r="J83"/>
       <c r="K83"/>
       <c r="L83" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="M83" t="s">
         <v>688</v>
@@ -7311,7 +7314,7 @@
       <c r="P83"/>
       <c r="Q83"/>
       <c r="R83" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="S83" t="s">
         <v>662</v>

--- a/Original/CN/Game/Stat.xlsx
+++ b/Original/CN/Game/Stat.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="1039">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>
@@ -1016,6 +1016,33 @@
     <t xml:space="preserve">#1の士気は元通りになった。</t>
   </si>
   <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Breathing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水中呼吸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blessing that allows breathing underwater.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水中での呼吸を可能にする加護。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubbles of air start forming around #1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1の周りに空気の泡が立ち始めた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bubbles of air burst.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">空気の泡は弾けた。</t>
+  </si>
+  <si>
     <t xml:space="preserve">71</t>
   </si>
   <si>
@@ -1046,6 +1073,33 @@
     <t xml:space="preserve">#1の高揚は冷めた。</t>
   </si>
   <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berserk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">狂戦士化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A condition where you are consumed by rage and can only perform offensive actions. All damage dealt is increased.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">怒りに支配され攻撃行動しか行わなくなる状態。全ての与ダメージが上昇する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 are/is consumed by fury!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">怒りが#1を支配した！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 feel(s) calm again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1は落ち着いた。</t>
+  </si>
+  <si>
     <t xml:space="preserve">88</t>
   </si>
   <si>
@@ -1073,6 +1127,27 @@
     <t xml:space="preserve">大いなる存在は#1の元を去った。</t>
   </si>
   <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brightness of Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いのちの輝き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blessing that intensifies the desire for self-destruction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自爆への欲求を高める加護。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#your life is bathed in a radiant glow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1の命はまばゆい輝きを帯びた。</t>
+  </si>
+  <si>
     <t xml:space="preserve">76</t>
   </si>
   <si>
@@ -1316,6 +1391,15 @@
     <t xml:space="preserve">プチ変容</t>
   </si>
   <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">猫変容</t>
+  </si>
+  <si>
     <t xml:space="preserve">50</t>
   </si>
   <si>
@@ -1346,10 +1430,10 @@
     <t xml:space="preserve">重力</t>
   </si>
   <si>
-    <t xml:space="preserve">Hex that applies gravity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重力を付与する呪い。</t>
+    <t xml:space="preserve">Hex that applies gravity. It blocks teleportation and knockback effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重力を付与する呪い。テレポートやノックバックを阻害する。</t>
   </si>
   <si>
     <t xml:space="preserve">#1 feel(s) the gravity.</t>
@@ -2154,6 +2238,15 @@
     <t xml:space="preserve">Alpha 20.66</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.131</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beta 22.6</t>
   </si>
   <si>
@@ -2169,6 +2262,9 @@
     <t xml:space="preserve">Alpha 20.64</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.143</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 20.48</t>
   </si>
   <si>
@@ -2274,9 +2370,15 @@
     <t xml:space="preserve">昂扬</t>
   </si>
   <si>
+    <t xml:space="preserve">狂战士化</t>
+  </si>
+  <si>
     <t xml:space="preserve">重生</t>
   </si>
   <si>
+    <t xml:space="preserve">生命的光辉</t>
+  </si>
+  <si>
     <t xml:space="preserve">战祸之炎</t>
   </si>
   <si>
@@ -2307,6 +2409,9 @@
     <t xml:space="preserve">波球变形</t>
   </si>
   <si>
+    <t xml:space="preserve">猫变形</t>
+  </si>
+  <si>
     <t xml:space="preserve">瘴气</t>
   </si>
   <si>
@@ -2490,12 +2595,21 @@
     <t xml:space="preserve">化身英雄般的加护。</t>
   </si>
   <si>
+    <t xml:space="preserve">可以在水中呼吸的加护。</t>
+  </si>
+  <si>
     <t xml:space="preserve">提升士气的加护。</t>
   </si>
   <si>
+    <t xml:space="preserve">被愤怒支配，只能进行攻击行动的状态。所有伤害的威力提升。</t>
+  </si>
+  <si>
     <t xml:space="preserve">死亡时自动复活的加护。</t>
   </si>
   <si>
+    <t xml:space="preserve">提高自爆欲的加护。</t>
+  </si>
+  <si>
     <t xml:space="preserve">打倒敌人后强化物理攻击的加护。</t>
   </si>
   <si>
@@ -2523,13 +2637,13 @@
     <t xml:space="preserve">觉醒真正力量的加护。</t>
   </si>
   <si>
-    <t xml:space="preserve">让对象变形成其他的模样。</t>
+    <t xml:space="preserve">变形成其他的模样。</t>
   </si>
   <si>
     <t xml:space="preserve">持续夺走体力的诅咒。</t>
   </si>
   <si>
-    <t xml:space="preserve">赋予重力的诅咒。</t>
+    <t xml:space="preserve">赋予重力的诅咒。防止传送和击退。</t>
   </si>
   <si>
     <t xml:space="preserve">阻碍咏唱的诅咒。</t>
@@ -2784,10 +2898,19 @@
     <t xml:space="preserve">#1感到士气高扬。</t>
   </si>
   <si>
+    <t xml:space="preserve">#1的周围开始出现气泡。</t>
+  </si>
+  <si>
     <t xml:space="preserve">#1感到斗志昂扬。</t>
   </si>
   <si>
+    <t xml:space="preserve">愤怒支配了#1！</t>
+  </si>
+  <si>
     <t xml:space="preserve">#1被强大的存在庇护了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1的生命闪耀着光辉。</t>
   </si>
   <si>
     <t xml:space="preserve">#1的内心平静了下来。</t>
@@ -2993,7 +3116,13 @@
     <t xml:space="preserve">#1的士气变回原样了。</t>
   </si>
   <si>
+    <t xml:space="preserve">气泡都破裂了。</t>
+  </si>
+  <si>
     <t xml:space="preserve">#1的昂扬感消退了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1冷静下来了。</t>
   </si>
   <si>
     <t xml:space="preserve">强大的存在离开了#1。</t>
@@ -3216,10 +3345,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>690</v>
+        <v>718</v>
       </c>
       <c r="C3" t="s">
-        <v>716</v>
+        <v>748</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -3228,7 +3357,7 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>784</v>
+        <v>819</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
@@ -3237,7 +3366,7 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>857</v>
+        <v>895</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
@@ -3246,7 +3375,7 @@
         <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>880</v>
+        <v>918</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
@@ -3257,7 +3386,7 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3" t="s">
-        <v>948</v>
+        <v>989</v>
       </c>
       <c r="S3" t="s">
         <v>30</v>
@@ -3271,10 +3400,10 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>691</v>
+        <v>719</v>
       </c>
       <c r="C4" t="s">
-        <v>717</v>
+        <v>749</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -3283,7 +3412,7 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>785</v>
+        <v>820</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -3292,7 +3421,7 @@
         <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>717</v>
+        <v>749</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
@@ -3301,7 +3430,7 @@
         <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>881</v>
+        <v>919</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -3312,7 +3441,7 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4" t="s">
-        <v>949</v>
+        <v>990</v>
       </c>
       <c r="S4" t="s">
         <v>39</v>
@@ -3326,10 +3455,10 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="C5" t="s">
-        <v>718</v>
+        <v>750</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3338,7 +3467,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>786</v>
+        <v>821</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -3347,7 +3476,7 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>718</v>
+        <v>750</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
@@ -3356,7 +3485,7 @@
         <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>882</v>
+        <v>920</v>
       </c>
       <c r="M5" t="s">
         <v>46</v>
@@ -3367,7 +3496,7 @@
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5" t="s">
-        <v>950</v>
+        <v>991</v>
       </c>
       <c r="S5" t="s">
         <v>48</v>
@@ -3381,10 +3510,10 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="C6" t="s">
-        <v>719</v>
+        <v>751</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -3393,7 +3522,7 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>787</v>
+        <v>822</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -3402,7 +3531,7 @@
         <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>719</v>
+        <v>751</v>
       </c>
       <c r="J6" t="s">
         <v>51</v>
@@ -3411,7 +3540,7 @@
         <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>883</v>
+        <v>921</v>
       </c>
       <c r="M6" t="s">
         <v>55</v>
@@ -3422,7 +3551,7 @@
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6" t="s">
-        <v>951</v>
+        <v>992</v>
       </c>
       <c r="S6" t="s">
         <v>57</v>
@@ -3436,7 +3565,7 @@
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
@@ -3448,7 +3577,7 @@
         <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>788</v>
+        <v>823</v>
       </c>
       <c r="G7" t="s">
         <v>62</v>
@@ -3457,7 +3586,7 @@
         <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>858</v>
+        <v>896</v>
       </c>
       <c r="J7" t="s">
         <v>64</v>
@@ -3466,7 +3595,7 @@
         <v>65</v>
       </c>
       <c r="L7" t="s">
-        <v>884</v>
+        <v>922</v>
       </c>
       <c r="M7" t="s">
         <v>66</v>
@@ -3475,7 +3604,7 @@
         <v>67</v>
       </c>
       <c r="O7" t="s">
-        <v>944</v>
+        <v>985</v>
       </c>
       <c r="P7" t="s">
         <v>68</v>
@@ -3484,7 +3613,7 @@
         <v>69</v>
       </c>
       <c r="R7" t="s">
-        <v>952</v>
+        <v>993</v>
       </c>
       <c r="S7" t="s">
         <v>70</v>
@@ -3498,10 +3627,10 @@
         <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="C8" t="s">
-        <v>720</v>
+        <v>752</v>
       </c>
       <c r="D8" t="s">
         <v>73</v>
@@ -3510,7 +3639,7 @@
         <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>789</v>
+        <v>824</v>
       </c>
       <c r="G8" t="s">
         <v>75</v>
@@ -3519,7 +3648,7 @@
         <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>859</v>
+        <v>897</v>
       </c>
       <c r="J8" t="s">
         <v>77</v>
@@ -3528,7 +3657,7 @@
         <v>78</v>
       </c>
       <c r="L8" t="s">
-        <v>885</v>
+        <v>923</v>
       </c>
       <c r="M8" t="s">
         <v>79</v>
@@ -3537,7 +3666,7 @@
         <v>80</v>
       </c>
       <c r="O8" t="s">
-        <v>945</v>
+        <v>986</v>
       </c>
       <c r="P8" t="s">
         <v>81</v>
@@ -3553,10 +3682,10 @@
         <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="C9" t="s">
-        <v>721</v>
+        <v>753</v>
       </c>
       <c r="D9" t="s">
         <v>84</v>
@@ -3565,7 +3694,7 @@
         <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>790</v>
+        <v>825</v>
       </c>
       <c r="G9" t="s">
         <v>86</v>
@@ -3574,7 +3703,7 @@
         <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>721</v>
+        <v>753</v>
       </c>
       <c r="J9" t="s">
         <v>84</v>
@@ -3583,7 +3712,7 @@
         <v>85</v>
       </c>
       <c r="L9" t="s">
-        <v>886</v>
+        <v>924</v>
       </c>
       <c r="M9" t="s">
         <v>88</v>
@@ -3594,7 +3723,7 @@
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9" t="s">
-        <v>953</v>
+        <v>994</v>
       </c>
       <c r="S9" t="s">
         <v>90</v>
@@ -3608,10 +3737,10 @@
         <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="C10" t="s">
-        <v>722</v>
+        <v>754</v>
       </c>
       <c r="D10" t="s">
         <v>93</v>
@@ -3620,7 +3749,7 @@
         <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>791</v>
+        <v>826</v>
       </c>
       <c r="G10" t="s">
         <v>95</v>
@@ -3629,7 +3758,7 @@
         <v>96</v>
       </c>
       <c r="I10" t="s">
-        <v>722</v>
+        <v>754</v>
       </c>
       <c r="J10" t="s">
         <v>93</v>
@@ -3638,7 +3767,7 @@
         <v>94</v>
       </c>
       <c r="L10" t="s">
-        <v>887</v>
+        <v>925</v>
       </c>
       <c r="M10" t="s">
         <v>97</v>
@@ -3649,7 +3778,7 @@
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10" t="s">
-        <v>954</v>
+        <v>995</v>
       </c>
       <c r="S10" t="s">
         <v>99</v>
@@ -3663,7 +3792,7 @@
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="C11" t="s">
         <v>103</v>
@@ -3675,7 +3804,7 @@
         <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>792</v>
+        <v>827</v>
       </c>
       <c r="G11" t="s">
         <v>104</v>
@@ -3693,7 +3822,7 @@
         <v>103</v>
       </c>
       <c r="L11" t="s">
-        <v>888</v>
+        <v>926</v>
       </c>
       <c r="M11" t="s">
         <v>107</v>
@@ -3704,7 +3833,7 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11" t="s">
-        <v>955</v>
+        <v>996</v>
       </c>
       <c r="S11" t="s">
         <v>109</v>
@@ -3718,10 +3847,10 @@
         <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="C12" t="s">
-        <v>723</v>
+        <v>755</v>
       </c>
       <c r="D12" t="s">
         <v>112</v>
@@ -3730,7 +3859,7 @@
         <v>113</v>
       </c>
       <c r="F12" t="s">
-        <v>793</v>
+        <v>828</v>
       </c>
       <c r="G12" t="s">
         <v>114</v>
@@ -3739,7 +3868,7 @@
         <v>115</v>
       </c>
       <c r="I12" t="s">
-        <v>723</v>
+        <v>755</v>
       </c>
       <c r="J12" t="s">
         <v>116</v>
@@ -3748,7 +3877,7 @@
         <v>113</v>
       </c>
       <c r="L12" t="s">
-        <v>889</v>
+        <v>927</v>
       </c>
       <c r="M12" t="s">
         <v>117</v>
@@ -3759,7 +3888,7 @@
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12" t="s">
-        <v>956</v>
+        <v>997</v>
       </c>
       <c r="S12" t="s">
         <v>119</v>
@@ -3773,7 +3902,7 @@
         <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>695</v>
+        <v>723</v>
       </c>
       <c r="C13" t="s">
         <v>123</v>
@@ -3785,7 +3914,7 @@
         <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>794</v>
+        <v>829</v>
       </c>
       <c r="G13" t="s">
         <v>124</v>
@@ -3803,7 +3932,7 @@
         <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>890</v>
+        <v>928</v>
       </c>
       <c r="M13" t="s">
         <v>127</v>
@@ -3814,7 +3943,7 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13" t="s">
-        <v>957</v>
+        <v>998</v>
       </c>
       <c r="S13" t="s">
         <v>129</v>
@@ -3828,10 +3957,10 @@
         <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="C14" t="s">
-        <v>724</v>
+        <v>756</v>
       </c>
       <c r="D14" t="s">
         <v>132</v>
@@ -3840,7 +3969,7 @@
         <v>133</v>
       </c>
       <c r="F14" t="s">
-        <v>793</v>
+        <v>828</v>
       </c>
       <c r="G14" t="s">
         <v>114</v>
@@ -3849,7 +3978,7 @@
         <v>115</v>
       </c>
       <c r="I14" t="s">
-        <v>724</v>
+        <v>756</v>
       </c>
       <c r="J14" t="s">
         <v>134</v>
@@ -3858,7 +3987,7 @@
         <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>891</v>
+        <v>929</v>
       </c>
       <c r="M14" t="s">
         <v>135</v>
@@ -3869,7 +3998,7 @@
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14" t="s">
-        <v>958</v>
+        <v>999</v>
       </c>
       <c r="S14" t="s">
         <v>137</v>
@@ -3883,7 +4012,7 @@
         <v>139</v>
       </c>
       <c r="B15" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="C15" t="s">
         <v>141</v>
@@ -3895,7 +4024,7 @@
         <v>141</v>
       </c>
       <c r="F15" t="s">
-        <v>795</v>
+        <v>830</v>
       </c>
       <c r="G15" t="s">
         <v>142</v>
@@ -3913,7 +4042,7 @@
         <v>141</v>
       </c>
       <c r="L15" t="s">
-        <v>892</v>
+        <v>930</v>
       </c>
       <c r="M15" t="s">
         <v>145</v>
@@ -3924,7 +4053,7 @@
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15" t="s">
-        <v>959</v>
+        <v>1000</v>
       </c>
       <c r="S15" t="s">
         <v>147</v>
@@ -3938,10 +4067,10 @@
         <v>149</v>
       </c>
       <c r="B16" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="C16" t="s">
-        <v>725</v>
+        <v>757</v>
       </c>
       <c r="D16" t="s">
         <v>150</v>
@@ -3950,7 +4079,7 @@
         <v>151</v>
       </c>
       <c r="F16" t="s">
-        <v>796</v>
+        <v>831</v>
       </c>
       <c r="G16" t="s">
         <v>152</v>
@@ -3959,7 +4088,7 @@
         <v>153</v>
       </c>
       <c r="I16" t="s">
-        <v>725</v>
+        <v>757</v>
       </c>
       <c r="J16" t="s">
         <v>150</v>
@@ -3968,7 +4097,7 @@
         <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>893</v>
+        <v>931</v>
       </c>
       <c r="M16" t="s">
         <v>154</v>
@@ -3979,7 +4108,7 @@
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16" t="s">
-        <v>960</v>
+        <v>1001</v>
       </c>
       <c r="S16" t="s">
         <v>156</v>
@@ -3993,10 +4122,10 @@
         <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="C17" t="s">
-        <v>726</v>
+        <v>758</v>
       </c>
       <c r="D17" t="s">
         <v>159</v>
@@ -4005,7 +4134,7 @@
         <v>160</v>
       </c>
       <c r="F17" t="s">
-        <v>797</v>
+        <v>832</v>
       </c>
       <c r="G17" t="s">
         <v>161</v>
@@ -4014,7 +4143,7 @@
         <v>162</v>
       </c>
       <c r="I17" t="s">
-        <v>860</v>
+        <v>898</v>
       </c>
       <c r="J17" t="s">
         <v>163</v>
@@ -4023,7 +4152,7 @@
         <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>894</v>
+        <v>932</v>
       </c>
       <c r="M17" t="s">
         <v>165</v>
@@ -4034,7 +4163,7 @@
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17" t="s">
-        <v>961</v>
+        <v>1002</v>
       </c>
       <c r="S17" t="s">
         <v>167</v>
@@ -4048,7 +4177,7 @@
         <v>169</v>
       </c>
       <c r="B18" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="C18" t="s">
         <v>171</v>
@@ -4060,7 +4189,7 @@
         <v>171</v>
       </c>
       <c r="F18" t="s">
-        <v>798</v>
+        <v>833</v>
       </c>
       <c r="G18" t="s">
         <v>172</v>
@@ -4069,7 +4198,7 @@
         <v>173</v>
       </c>
       <c r="I18" t="s">
-        <v>861</v>
+        <v>899</v>
       </c>
       <c r="J18" t="s">
         <v>174</v>
@@ -4078,7 +4207,7 @@
         <v>175</v>
       </c>
       <c r="L18" t="s">
-        <v>895</v>
+        <v>933</v>
       </c>
       <c r="M18" t="s">
         <v>176</v>
@@ -4089,7 +4218,7 @@
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18" t="s">
-        <v>962</v>
+        <v>1003</v>
       </c>
       <c r="S18" t="s">
         <v>178</v>
@@ -4103,10 +4232,10 @@
         <v>180</v>
       </c>
       <c r="B19" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="C19" t="s">
-        <v>727</v>
+        <v>759</v>
       </c>
       <c r="D19" t="s">
         <v>181</v>
@@ -4115,7 +4244,7 @@
         <v>182</v>
       </c>
       <c r="F19" t="s">
-        <v>799</v>
+        <v>834</v>
       </c>
       <c r="G19" t="s">
         <v>183</v>
@@ -4124,7 +4253,7 @@
         <v>184</v>
       </c>
       <c r="I19" t="s">
-        <v>862</v>
+        <v>900</v>
       </c>
       <c r="J19" t="s">
         <v>185</v>
@@ -4133,7 +4262,7 @@
         <v>186</v>
       </c>
       <c r="L19" t="s">
-        <v>896</v>
+        <v>934</v>
       </c>
       <c r="M19" t="s">
         <v>187</v>
@@ -4144,7 +4273,7 @@
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19" t="s">
-        <v>963</v>
+        <v>1004</v>
       </c>
       <c r="S19" t="s">
         <v>189</v>
@@ -4158,10 +4287,10 @@
         <v>191</v>
       </c>
       <c r="B20" t="s">
-        <v>696</v>
+        <v>724</v>
       </c>
       <c r="C20" t="s">
-        <v>728</v>
+        <v>760</v>
       </c>
       <c r="D20" t="s">
         <v>192</v>
@@ -4170,7 +4299,7 @@
         <v>193</v>
       </c>
       <c r="F20" t="s">
-        <v>800</v>
+        <v>835</v>
       </c>
       <c r="G20" t="s">
         <v>194</v>
@@ -4179,7 +4308,7 @@
         <v>195</v>
       </c>
       <c r="I20" t="s">
-        <v>863</v>
+        <v>901</v>
       </c>
       <c r="J20" t="s">
         <v>196</v>
@@ -4188,7 +4317,7 @@
         <v>197</v>
       </c>
       <c r="L20" t="s">
-        <v>897</v>
+        <v>935</v>
       </c>
       <c r="M20" t="s">
         <v>198</v>
@@ -4199,7 +4328,7 @@
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20" t="s">
-        <v>964</v>
+        <v>1005</v>
       </c>
       <c r="S20" t="s">
         <v>200</v>
@@ -4213,10 +4342,10 @@
         <v>202</v>
       </c>
       <c r="B21" t="s">
-        <v>690</v>
+        <v>718</v>
       </c>
       <c r="C21" t="s">
-        <v>729</v>
+        <v>761</v>
       </c>
       <c r="D21" t="s">
         <v>203</v>
@@ -4225,7 +4354,7 @@
         <v>204</v>
       </c>
       <c r="F21" t="s">
-        <v>801</v>
+        <v>836</v>
       </c>
       <c r="G21" t="s">
         <v>205</v>
@@ -4234,7 +4363,7 @@
         <v>206</v>
       </c>
       <c r="I21" t="s">
-        <v>864</v>
+        <v>902</v>
       </c>
       <c r="J21" t="s">
         <v>207</v>
@@ -4243,7 +4372,7 @@
         <v>208</v>
       </c>
       <c r="L21" t="s">
-        <v>898</v>
+        <v>936</v>
       </c>
       <c r="M21" t="s">
         <v>209</v>
@@ -4254,7 +4383,7 @@
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21" t="s">
-        <v>965</v>
+        <v>1006</v>
       </c>
       <c r="S21" t="s">
         <v>211</v>
@@ -4268,10 +4397,10 @@
         <v>213</v>
       </c>
       <c r="B22" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="C22" t="s">
-        <v>730</v>
+        <v>762</v>
       </c>
       <c r="D22" t="s">
         <v>214</v>
@@ -4280,7 +4409,7 @@
         <v>215</v>
       </c>
       <c r="F22" t="s">
-        <v>802</v>
+        <v>837</v>
       </c>
       <c r="G22" t="s">
         <v>216</v>
@@ -4289,7 +4418,7 @@
         <v>217</v>
       </c>
       <c r="I22" t="s">
-        <v>730</v>
+        <v>762</v>
       </c>
       <c r="J22" t="s">
         <v>214</v>
@@ -4298,7 +4427,7 @@
         <v>215</v>
       </c>
       <c r="L22" t="s">
-        <v>899</v>
+        <v>937</v>
       </c>
       <c r="M22" t="s">
         <v>218</v>
@@ -4309,7 +4438,7 @@
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22" t="s">
-        <v>966</v>
+        <v>1007</v>
       </c>
       <c r="S22" t="s">
         <v>220</v>
@@ -4323,10 +4452,10 @@
         <v>222</v>
       </c>
       <c r="B23" t="s">
-        <v>697</v>
+        <v>725</v>
       </c>
       <c r="C23" t="s">
-        <v>731</v>
+        <v>763</v>
       </c>
       <c r="D23" t="s">
         <v>223</v>
@@ -4335,7 +4464,7 @@
         <v>224</v>
       </c>
       <c r="F23" t="s">
-        <v>803</v>
+        <v>838</v>
       </c>
       <c r="G23" t="s">
         <v>225</v>
@@ -4344,7 +4473,7 @@
         <v>226</v>
       </c>
       <c r="I23" t="s">
-        <v>865</v>
+        <v>903</v>
       </c>
       <c r="J23" t="s">
         <v>223</v>
@@ -4353,7 +4482,7 @@
         <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>900</v>
+        <v>938</v>
       </c>
       <c r="M23" t="s">
         <v>227</v>
@@ -4371,10 +4500,10 @@
         <v>229</v>
       </c>
       <c r="B24" t="s">
-        <v>698</v>
+        <v>726</v>
       </c>
       <c r="C24" t="s">
-        <v>732</v>
+        <v>764</v>
       </c>
       <c r="D24" t="s">
         <v>230</v>
@@ -4383,7 +4512,7 @@
         <v>231</v>
       </c>
       <c r="F24" t="s">
-        <v>804</v>
+        <v>839</v>
       </c>
       <c r="G24" t="s">
         <v>232</v>
@@ -4392,7 +4521,7 @@
         <v>233</v>
       </c>
       <c r="I24" t="s">
-        <v>732</v>
+        <v>764</v>
       </c>
       <c r="J24" t="s">
         <v>230</v>
@@ -4401,7 +4530,7 @@
         <v>231</v>
       </c>
       <c r="L24" t="s">
-        <v>901</v>
+        <v>939</v>
       </c>
       <c r="M24" t="s">
         <v>234</v>
@@ -4412,7 +4541,7 @@
       <c r="P24"/>
       <c r="Q24"/>
       <c r="R24" t="s">
-        <v>967</v>
+        <v>1008</v>
       </c>
       <c r="S24" t="s">
         <v>236</v>
@@ -4426,10 +4555,10 @@
         <v>238</v>
       </c>
       <c r="B25" t="s">
-        <v>699</v>
+        <v>727</v>
       </c>
       <c r="C25" t="s">
-        <v>733</v>
+        <v>765</v>
       </c>
       <c r="D25" t="s">
         <v>239</v>
@@ -4438,7 +4567,7 @@
         <v>240</v>
       </c>
       <c r="F25" t="s">
-        <v>805</v>
+        <v>840</v>
       </c>
       <c r="G25" t="s">
         <v>241</v>
@@ -4447,7 +4576,7 @@
         <v>242</v>
       </c>
       <c r="I25" t="s">
-        <v>733</v>
+        <v>765</v>
       </c>
       <c r="J25" t="s">
         <v>239</v>
@@ -4456,7 +4585,7 @@
         <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>902</v>
+        <v>940</v>
       </c>
       <c r="M25" t="s">
         <v>243</v>
@@ -4467,7 +4596,7 @@
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25" t="s">
-        <v>968</v>
+        <v>1009</v>
       </c>
       <c r="S25" t="s">
         <v>245</v>
@@ -4481,10 +4610,10 @@
         <v>247</v>
       </c>
       <c r="B26" t="s">
-        <v>690</v>
+        <v>718</v>
       </c>
       <c r="C26" t="s">
-        <v>734</v>
+        <v>766</v>
       </c>
       <c r="D26" t="s">
         <v>248</v>
@@ -4493,7 +4622,7 @@
         <v>249</v>
       </c>
       <c r="F26" t="s">
-        <v>806</v>
+        <v>841</v>
       </c>
       <c r="G26" t="s">
         <v>250</v>
@@ -4502,7 +4631,7 @@
         <v>251</v>
       </c>
       <c r="I26" t="s">
-        <v>734</v>
+        <v>766</v>
       </c>
       <c r="J26" t="s">
         <v>248</v>
@@ -4511,7 +4640,7 @@
         <v>249</v>
       </c>
       <c r="L26" t="s">
-        <v>903</v>
+        <v>941</v>
       </c>
       <c r="M26" t="s">
         <v>252</v>
@@ -4522,7 +4651,7 @@
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26" t="s">
-        <v>969</v>
+        <v>1010</v>
       </c>
       <c r="S26" t="s">
         <v>254</v>
@@ -4536,10 +4665,10 @@
         <v>256</v>
       </c>
       <c r="B27" t="s">
-        <v>700</v>
+        <v>728</v>
       </c>
       <c r="C27" t="s">
-        <v>735</v>
+        <v>767</v>
       </c>
       <c r="D27" t="s">
         <v>257</v>
@@ -4548,7 +4677,7 @@
         <v>258</v>
       </c>
       <c r="F27" t="s">
-        <v>807</v>
+        <v>842</v>
       </c>
       <c r="G27" t="s">
         <v>259</v>
@@ -4557,7 +4686,7 @@
         <v>260</v>
       </c>
       <c r="I27" t="s">
-        <v>735</v>
+        <v>767</v>
       </c>
       <c r="J27" t="s">
         <v>257</v>
@@ -4566,7 +4695,7 @@
         <v>258</v>
       </c>
       <c r="L27" t="s">
-        <v>904</v>
+        <v>942</v>
       </c>
       <c r="M27" t="s">
         <v>261</v>
@@ -4577,7 +4706,7 @@
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27" t="s">
-        <v>970</v>
+        <v>1011</v>
       </c>
       <c r="S27" t="s">
         <v>263</v>
@@ -4591,7 +4720,7 @@
         <v>265</v>
       </c>
       <c r="B28" t="s">
-        <v>700</v>
+        <v>728</v>
       </c>
       <c r="C28" t="s">
         <v>267</v>
@@ -4603,7 +4732,7 @@
         <v>267</v>
       </c>
       <c r="F28" t="s">
-        <v>808</v>
+        <v>843</v>
       </c>
       <c r="G28" t="s">
         <v>268</v>
@@ -4621,7 +4750,7 @@
         <v>267</v>
       </c>
       <c r="L28" t="s">
-        <v>905</v>
+        <v>943</v>
       </c>
       <c r="M28" t="s">
         <v>270</v>
@@ -4632,7 +4761,7 @@
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28" t="s">
-        <v>971</v>
+        <v>1012</v>
       </c>
       <c r="S28" t="s">
         <v>272</v>
@@ -4646,10 +4775,10 @@
         <v>274</v>
       </c>
       <c r="B29" t="s">
-        <v>700</v>
+        <v>728</v>
       </c>
       <c r="C29" t="s">
-        <v>736</v>
+        <v>768</v>
       </c>
       <c r="D29" t="s">
         <v>275</v>
@@ -4658,7 +4787,7 @@
         <v>276</v>
       </c>
       <c r="F29" t="s">
-        <v>809</v>
+        <v>844</v>
       </c>
       <c r="G29" t="s">
         <v>277</v>
@@ -4667,7 +4796,7 @@
         <v>278</v>
       </c>
       <c r="I29" t="s">
-        <v>736</v>
+        <v>768</v>
       </c>
       <c r="J29" t="s">
         <v>275</v>
@@ -4676,7 +4805,7 @@
         <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>906</v>
+        <v>944</v>
       </c>
       <c r="M29" t="s">
         <v>279</v>
@@ -4687,7 +4816,7 @@
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29" t="s">
-        <v>972</v>
+        <v>1013</v>
       </c>
       <c r="S29" t="s">
         <v>281</v>
@@ -4701,10 +4830,10 @@
         <v>283</v>
       </c>
       <c r="B30" t="s">
-        <v>700</v>
+        <v>728</v>
       </c>
       <c r="C30" t="s">
-        <v>737</v>
+        <v>769</v>
       </c>
       <c r="D30" t="s">
         <v>284</v>
@@ -4713,7 +4842,7 @@
         <v>285</v>
       </c>
       <c r="F30" t="s">
-        <v>810</v>
+        <v>845</v>
       </c>
       <c r="G30" t="s">
         <v>286</v>
@@ -4722,7 +4851,7 @@
         <v>287</v>
       </c>
       <c r="I30" t="s">
-        <v>737</v>
+        <v>769</v>
       </c>
       <c r="J30" t="s">
         <v>284</v>
@@ -4731,7 +4860,7 @@
         <v>285</v>
       </c>
       <c r="L30" t="s">
-        <v>907</v>
+        <v>945</v>
       </c>
       <c r="M30" t="s">
         <v>288</v>
@@ -4742,7 +4871,7 @@
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30" t="s">
-        <v>973</v>
+        <v>1014</v>
       </c>
       <c r="S30" t="s">
         <v>290</v>
@@ -4756,10 +4885,10 @@
         <v>292</v>
       </c>
       <c r="B31" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="C31" t="s">
-        <v>738</v>
+        <v>770</v>
       </c>
       <c r="D31" t="s">
         <v>293</v>
@@ -4768,7 +4897,7 @@
         <v>294</v>
       </c>
       <c r="F31" t="s">
-        <v>811</v>
+        <v>846</v>
       </c>
       <c r="G31" t="s">
         <v>295</v>
@@ -4777,7 +4906,7 @@
         <v>296</v>
       </c>
       <c r="I31" t="s">
-        <v>866</v>
+        <v>904</v>
       </c>
       <c r="J31" t="s">
         <v>297</v>
@@ -4786,7 +4915,7 @@
         <v>298</v>
       </c>
       <c r="L31" t="s">
-        <v>908</v>
+        <v>946</v>
       </c>
       <c r="M31" t="s">
         <v>299</v>
@@ -4797,7 +4926,7 @@
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31" t="s">
-        <v>974</v>
+        <v>1015</v>
       </c>
       <c r="S31" t="s">
         <v>301</v>
@@ -4811,10 +4940,10 @@
         <v>303</v>
       </c>
       <c r="B32" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="C32" t="s">
-        <v>739</v>
+        <v>771</v>
       </c>
       <c r="D32" t="s">
         <v>304</v>
@@ -4823,7 +4952,7 @@
         <v>305</v>
       </c>
       <c r="F32" t="s">
-        <v>812</v>
+        <v>847</v>
       </c>
       <c r="G32" t="s">
         <v>306</v>
@@ -4832,7 +4961,7 @@
         <v>307</v>
       </c>
       <c r="I32" t="s">
-        <v>739</v>
+        <v>771</v>
       </c>
       <c r="J32" t="s">
         <v>304</v>
@@ -4841,7 +4970,7 @@
         <v>305</v>
       </c>
       <c r="L32" t="s">
-        <v>909</v>
+        <v>947</v>
       </c>
       <c r="M32" t="s">
         <v>308</v>
@@ -4852,7 +4981,7 @@
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32" t="s">
-        <v>975</v>
+        <v>1016</v>
       </c>
       <c r="S32" t="s">
         <v>310</v>
@@ -4866,10 +4995,10 @@
         <v>312</v>
       </c>
       <c r="B33" t="s">
-        <v>701</v>
+        <v>729</v>
       </c>
       <c r="C33" t="s">
-        <v>740</v>
+        <v>772</v>
       </c>
       <c r="D33" t="s">
         <v>313</v>
@@ -4878,7 +5007,7 @@
         <v>314</v>
       </c>
       <c r="F33" t="s">
-        <v>813</v>
+        <v>848</v>
       </c>
       <c r="G33" t="s">
         <v>315</v>
@@ -4887,7 +5016,7 @@
         <v>316</v>
       </c>
       <c r="I33" t="s">
-        <v>740</v>
+        <v>772</v>
       </c>
       <c r="J33" t="s">
         <v>313</v>
@@ -4896,7 +5025,7 @@
         <v>314</v>
       </c>
       <c r="L33" t="s">
-        <v>910</v>
+        <v>948</v>
       </c>
       <c r="M33" t="s">
         <v>317</v>
@@ -4907,7 +5036,7 @@
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33" t="s">
-        <v>976</v>
+        <v>1017</v>
       </c>
       <c r="S33" t="s">
         <v>319</v>
@@ -4921,10 +5050,10 @@
         <v>321</v>
       </c>
       <c r="B34" t="s">
-        <v>702</v>
+        <v>730</v>
       </c>
       <c r="C34" t="s">
-        <v>741</v>
+        <v>773</v>
       </c>
       <c r="D34" t="s">
         <v>322</v>
@@ -4933,7 +5062,7 @@
         <v>323</v>
       </c>
       <c r="F34" t="s">
-        <v>814</v>
+        <v>849</v>
       </c>
       <c r="G34" t="s">
         <v>324</v>
@@ -4942,7 +5071,7 @@
         <v>325</v>
       </c>
       <c r="I34" t="s">
-        <v>741</v>
+        <v>773</v>
       </c>
       <c r="J34" t="s">
         <v>326</v>
@@ -4951,7 +5080,7 @@
         <v>323</v>
       </c>
       <c r="L34" t="s">
-        <v>911</v>
+        <v>949</v>
       </c>
       <c r="M34" t="s">
         <v>327</v>
@@ -4962,7 +5091,7 @@
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34" t="s">
-        <v>977</v>
+        <v>1018</v>
       </c>
       <c r="S34" t="s">
         <v>329</v>
@@ -4976,10 +5105,10 @@
         <v>331</v>
       </c>
       <c r="B35" t="s">
-        <v>701</v>
+        <v>731</v>
       </c>
       <c r="C35" t="s">
-        <v>742</v>
+        <v>333</v>
       </c>
       <c r="D35" t="s">
         <v>332</v>
@@ -4988,7 +5117,7 @@
         <v>333</v>
       </c>
       <c r="F35" t="s">
-        <v>815</v>
+        <v>850</v>
       </c>
       <c r="G35" t="s">
         <v>334</v>
@@ -4997,71 +5126,71 @@
         <v>335</v>
       </c>
       <c r="I35" t="s">
-        <v>742</v>
+        <v>333</v>
       </c>
       <c r="J35" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K35" t="s">
         <v>333</v>
       </c>
       <c r="L35" t="s">
-        <v>912</v>
+        <v>950</v>
       </c>
       <c r="M35" t="s">
+        <v>336</v>
+      </c>
+      <c r="N35" t="s">
         <v>337</v>
-      </c>
-      <c r="N35" t="s">
-        <v>338</v>
       </c>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>978</v>
+        <v>1019</v>
       </c>
       <c r="S35" t="s">
+        <v>338</v>
+      </c>
+      <c r="T35" t="s">
         <v>339</v>
-      </c>
-      <c r="T35" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>340</v>
+      </c>
+      <c r="B36" t="s">
+        <v>729</v>
+      </c>
+      <c r="C36" t="s">
+        <v>774</v>
+      </c>
+      <c r="D36" t="s">
         <v>341</v>
       </c>
-      <c r="B36" t="s">
-        <v>701</v>
-      </c>
-      <c r="C36" t="s">
-        <v>743</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>342</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
+        <v>851</v>
+      </c>
+      <c r="G36" t="s">
         <v>343</v>
       </c>
-      <c r="F36" t="s">
-        <v>816</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>344</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
+        <v>774</v>
+      </c>
+      <c r="J36" t="s">
         <v>345</v>
       </c>
-      <c r="I36" t="s">
-        <v>743</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>342</v>
       </c>
-      <c r="K36" t="s">
-        <v>343</v>
-      </c>
       <c r="L36" t="s">
-        <v>913</v>
+        <v>951</v>
       </c>
       <c r="M36" t="s">
         <v>346</v>
@@ -5072,7 +5201,7 @@
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36" t="s">
-        <v>979</v>
+        <v>1020</v>
       </c>
       <c r="S36" t="s">
         <v>348</v>
@@ -5086,10 +5215,10 @@
         <v>350</v>
       </c>
       <c r="B37" t="s">
-        <v>703</v>
+        <v>732</v>
       </c>
       <c r="C37" t="s">
-        <v>744</v>
+        <v>775</v>
       </c>
       <c r="D37" t="s">
         <v>351</v>
@@ -5098,7 +5227,7 @@
         <v>352</v>
       </c>
       <c r="F37" t="s">
-        <v>817</v>
+        <v>852</v>
       </c>
       <c r="G37" t="s">
         <v>353</v>
@@ -5107,7 +5236,7 @@
         <v>354</v>
       </c>
       <c r="I37" t="s">
-        <v>744</v>
+        <v>775</v>
       </c>
       <c r="J37" t="s">
         <v>351</v>
@@ -5115,310 +5244,303 @@
       <c r="K37" t="s">
         <v>352</v>
       </c>
-      <c r="M37"/>
-      <c r="N37"/>
+      <c r="L37" t="s">
+        <v>952</v>
+      </c>
+      <c r="M37" t="s">
+        <v>355</v>
+      </c>
+      <c r="N37" t="s">
+        <v>356</v>
+      </c>
       <c r="P37"/>
       <c r="Q37"/>
-      <c r="S37"/>
-      <c r="T37"/>
+      <c r="R37" t="s">
+        <v>1021</v>
+      </c>
+      <c r="S37" t="s">
+        <v>357</v>
+      </c>
+      <c r="T37" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B38" t="s">
-        <v>704</v>
+        <v>729</v>
       </c>
       <c r="C38" t="s">
-        <v>745</v>
+        <v>776</v>
       </c>
       <c r="D38" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E38" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F38" t="s">
-        <v>818</v>
+        <v>853</v>
       </c>
       <c r="G38" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H38" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="I38" t="s">
-        <v>745</v>
+        <v>776</v>
       </c>
       <c r="J38" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K38" t="s">
-        <v>357</v>
-      </c>
-      <c r="M38"/>
-      <c r="N38"/>
+        <v>361</v>
+      </c>
+      <c r="L38" t="s">
+        <v>953</v>
+      </c>
+      <c r="M38" t="s">
+        <v>364</v>
+      </c>
+      <c r="N38" t="s">
+        <v>365</v>
+      </c>
       <c r="P38"/>
       <c r="Q38"/>
-      <c r="S38"/>
-      <c r="T38"/>
+      <c r="R38" t="s">
+        <v>1022</v>
+      </c>
+      <c r="S38" t="s">
+        <v>366</v>
+      </c>
+      <c r="T38" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B39" t="s">
-        <v>705</v>
+        <v>733</v>
       </c>
       <c r="C39" t="s">
-        <v>746</v>
+        <v>777</v>
       </c>
       <c r="D39" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="E39" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="F39" t="s">
-        <v>819</v>
+        <v>854</v>
       </c>
       <c r="G39" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H39" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="I39" t="s">
-        <v>746</v>
+        <v>777</v>
       </c>
       <c r="J39" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="K39" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L39" t="s">
-        <v>914</v>
+        <v>954</v>
       </c>
       <c r="M39" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="N39" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="P39"/>
       <c r="Q39"/>
-      <c r="R39" t="s">
-        <v>980</v>
-      </c>
-      <c r="S39" t="s">
-        <v>367</v>
-      </c>
-      <c r="T39" t="s">
-        <v>368</v>
-      </c>
+      <c r="S39"/>
+      <c r="T39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B40" t="s">
-        <v>693</v>
+        <v>734</v>
       </c>
       <c r="C40" t="s">
-        <v>747</v>
+        <v>778</v>
       </c>
       <c r="D40" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="E40" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F40" t="s">
-        <v>820</v>
+        <v>855</v>
       </c>
       <c r="G40" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="H40" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="I40" t="s">
-        <v>747</v>
+        <v>778</v>
       </c>
       <c r="J40" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K40" t="s">
-        <v>371</v>
-      </c>
-      <c r="L40" t="s">
-        <v>915</v>
-      </c>
-      <c r="M40" t="s">
-        <v>375</v>
-      </c>
-      <c r="N40" t="s">
-        <v>376</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="M40"/>
+      <c r="N40"/>
       <c r="P40"/>
       <c r="Q40"/>
-      <c r="R40" t="s">
-        <v>981</v>
-      </c>
-      <c r="S40" t="s">
-        <v>377</v>
-      </c>
-      <c r="T40" t="s">
-        <v>378</v>
-      </c>
+      <c r="S40"/>
+      <c r="T40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B41" t="s">
-        <v>693</v>
+        <v>735</v>
       </c>
       <c r="C41" t="s">
-        <v>748</v>
+        <v>779</v>
       </c>
       <c r="D41" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E41" t="s">
+        <v>382</v>
+      </c>
+      <c r="F41" t="s">
+        <v>856</v>
+      </c>
+      <c r="G41" t="s">
+        <v>383</v>
+      </c>
+      <c r="H41" t="s">
+        <v>384</v>
+      </c>
+      <c r="I41" t="s">
+        <v>779</v>
+      </c>
+      <c r="J41" t="s">
         <v>381</v>
       </c>
-      <c r="F41" t="s">
-        <v>821</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="K41" t="s">
         <v>382</v>
       </c>
-      <c r="H41" t="s">
-        <v>383</v>
-      </c>
-      <c r="I41" t="s">
-        <v>748</v>
-      </c>
-      <c r="J41" t="s">
-        <v>380</v>
-      </c>
-      <c r="K41" t="s">
-        <v>381</v>
-      </c>
-      <c r="L41" t="s">
-        <v>916</v>
-      </c>
-      <c r="M41" t="s">
-        <v>384</v>
-      </c>
-      <c r="N41" t="s">
-        <v>385</v>
-      </c>
+      <c r="M41"/>
+      <c r="N41"/>
       <c r="P41"/>
       <c r="Q41"/>
-      <c r="R41" t="s">
-        <v>982</v>
-      </c>
-      <c r="S41" t="s">
-        <v>310</v>
-      </c>
-      <c r="T41" t="s">
-        <v>311</v>
-      </c>
+      <c r="S41"/>
+      <c r="T41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>385</v>
+      </c>
+      <c r="B42" t="s">
+        <v>736</v>
+      </c>
+      <c r="C42" t="s">
+        <v>780</v>
+      </c>
+      <c r="D42" t="s">
         <v>386</v>
       </c>
-      <c r="B42" t="s">
-        <v>693</v>
-      </c>
-      <c r="C42" t="s">
-        <v>749</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>387</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
+        <v>857</v>
+      </c>
+      <c r="G42" t="s">
         <v>388</v>
       </c>
-      <c r="F42" t="s">
-        <v>822</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>389</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
+        <v>780</v>
+      </c>
+      <c r="J42" t="s">
+        <v>386</v>
+      </c>
+      <c r="K42" t="s">
+        <v>387</v>
+      </c>
+      <c r="L42" t="s">
+        <v>955</v>
+      </c>
+      <c r="M42" t="s">
         <v>390</v>
       </c>
-      <c r="I42" t="s">
-        <v>749</v>
-      </c>
-      <c r="J42" t="s">
-        <v>387</v>
-      </c>
-      <c r="K42" t="s">
-        <v>388</v>
-      </c>
-      <c r="L42" t="s">
-        <v>917</v>
-      </c>
-      <c r="M42" t="s">
+      <c r="N42" t="s">
         <v>391</v>
-      </c>
-      <c r="N42" t="s">
-        <v>392</v>
       </c>
       <c r="P42"/>
       <c r="Q42"/>
       <c r="R42" t="s">
-        <v>983</v>
+        <v>1023</v>
       </c>
       <c r="S42" t="s">
+        <v>392</v>
+      </c>
+      <c r="T42" t="s">
         <v>393</v>
-      </c>
-      <c r="T42" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>394</v>
+      </c>
+      <c r="B43" t="s">
+        <v>721</v>
+      </c>
+      <c r="C43" t="s">
+        <v>781</v>
+      </c>
+      <c r="D43" t="s">
         <v>395</v>
       </c>
-      <c r="B43" t="s">
-        <v>690</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
+        <v>396</v>
+      </c>
+      <c r="F43" t="s">
+        <v>858</v>
+      </c>
+      <c r="G43" t="s">
         <v>397</v>
       </c>
-      <c r="D43" t="s">
+      <c r="H43" t="s">
+        <v>398</v>
+      </c>
+      <c r="I43" t="s">
+        <v>781</v>
+      </c>
+      <c r="J43" t="s">
+        <v>399</v>
+      </c>
+      <c r="K43" t="s">
         <v>396</v>
       </c>
-      <c r="E43" t="s">
-        <v>397</v>
-      </c>
-      <c r="F43" t="s">
-        <v>823</v>
-      </c>
-      <c r="G43" t="s">
-        <v>398</v>
-      </c>
-      <c r="H43" t="s">
-        <v>399</v>
-      </c>
-      <c r="I43" t="s">
-        <v>397</v>
-      </c>
-      <c r="J43" t="s">
-        <v>396</v>
-      </c>
-      <c r="K43" t="s">
-        <v>397</v>
-      </c>
       <c r="L43" t="s">
-        <v>918</v>
+        <v>956</v>
       </c>
       <c r="M43" t="s">
         <v>400</v>
@@ -5428,470 +5550,491 @@
       </c>
       <c r="P43"/>
       <c r="Q43"/>
-      <c r="S43"/>
-      <c r="T43"/>
+      <c r="R43" t="s">
+        <v>1024</v>
+      </c>
+      <c r="S43" t="s">
+        <v>402</v>
+      </c>
+      <c r="T43" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B44" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="C44" t="s">
-        <v>750</v>
+        <v>782</v>
       </c>
       <c r="D44" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E44" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F44" t="s">
-        <v>824</v>
+        <v>859</v>
       </c>
       <c r="G44" t="s">
+        <v>407</v>
+      </c>
+      <c r="H44" t="s">
+        <v>408</v>
+      </c>
+      <c r="I44" t="s">
+        <v>782</v>
+      </c>
+      <c r="J44" t="s">
         <v>405</v>
       </c>
-      <c r="H44" t="s">
+      <c r="K44" t="s">
         <v>406</v>
       </c>
-      <c r="I44" t="s">
-        <v>750</v>
-      </c>
-      <c r="J44" t="s">
-        <v>407</v>
-      </c>
-      <c r="K44" t="s">
-        <v>404</v>
-      </c>
       <c r="L44" t="s">
-        <v>919</v>
+        <v>957</v>
       </c>
       <c r="M44" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N44" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44" t="s">
-        <v>984</v>
+        <v>1025</v>
       </c>
       <c r="S44" t="s">
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="T44" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>411</v>
+      </c>
+      <c r="B45" t="s">
+        <v>721</v>
+      </c>
+      <c r="C45" t="s">
+        <v>783</v>
+      </c>
+      <c r="D45" t="s">
         <v>412</v>
       </c>
-      <c r="B45" t="s">
-        <v>707</v>
-      </c>
-      <c r="C45" t="s">
-        <v>751</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>413</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
+        <v>860</v>
+      </c>
+      <c r="G45" t="s">
         <v>414</v>
       </c>
-      <c r="F45" t="s">
-        <v>825</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>415</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
+        <v>783</v>
+      </c>
+      <c r="J45" t="s">
+        <v>412</v>
+      </c>
+      <c r="K45" t="s">
+        <v>413</v>
+      </c>
+      <c r="L45" t="s">
+        <v>958</v>
+      </c>
+      <c r="M45" t="s">
         <v>416</v>
       </c>
-      <c r="I45" t="s">
-        <v>751</v>
-      </c>
-      <c r="J45" t="s">
-        <v>413</v>
-      </c>
-      <c r="K45" t="s">
-        <v>414</v>
-      </c>
-      <c r="L45" t="s">
-        <v>920</v>
-      </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>417</v>
-      </c>
-      <c r="N45" t="s">
-        <v>418</v>
       </c>
       <c r="P45"/>
       <c r="Q45"/>
       <c r="R45" t="s">
-        <v>985</v>
+        <v>1026</v>
       </c>
       <c r="S45" t="s">
+        <v>418</v>
+      </c>
+      <c r="T45" t="s">
         <v>419</v>
-      </c>
-      <c r="T45" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>420</v>
+      </c>
+      <c r="B46" t="s">
+        <v>718</v>
+      </c>
+      <c r="C46" t="s">
+        <v>422</v>
+      </c>
+      <c r="D46" t="s">
         <v>421</v>
       </c>
-      <c r="B46" t="s">
-        <v>707</v>
-      </c>
-      <c r="C46" t="s">
-        <v>752</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>422</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
+        <v>861</v>
+      </c>
+      <c r="G46" t="s">
         <v>423</v>
       </c>
-      <c r="F46" t="s">
-        <v>826</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>424</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
+        <v>422</v>
+      </c>
+      <c r="J46" t="s">
+        <v>421</v>
+      </c>
+      <c r="K46" t="s">
+        <v>422</v>
+      </c>
+      <c r="L46" t="s">
+        <v>959</v>
+      </c>
+      <c r="M46" t="s">
         <v>425</v>
       </c>
-      <c r="I46" t="s">
-        <v>752</v>
-      </c>
-      <c r="J46" t="s">
-        <v>422</v>
-      </c>
-      <c r="K46" t="s">
-        <v>423</v>
-      </c>
-      <c r="L46" t="s">
-        <v>921</v>
-      </c>
-      <c r="M46" t="s">
+      <c r="N46" t="s">
         <v>426</v>
-      </c>
-      <c r="N46" t="s">
-        <v>427</v>
       </c>
       <c r="P46"/>
       <c r="Q46"/>
-      <c r="R46" t="s">
-        <v>985</v>
-      </c>
-      <c r="S46" t="s">
-        <v>419</v>
-      </c>
-      <c r="T46" t="s">
-        <v>420</v>
-      </c>
+      <c r="S46"/>
+      <c r="T46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>427</v>
+      </c>
+      <c r="B47" t="s">
+        <v>737</v>
+      </c>
+      <c r="C47" t="s">
+        <v>784</v>
+      </c>
+      <c r="D47" t="s">
         <v>428</v>
       </c>
-      <c r="B47" t="s">
-        <v>707</v>
-      </c>
-      <c r="C47" t="s">
-        <v>753</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>429</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
+        <v>862</v>
+      </c>
+      <c r="G47" t="s">
         <v>430</v>
       </c>
-      <c r="F47" t="s">
-        <v>826</v>
-      </c>
-      <c r="G47" t="s">
-        <v>424</v>
-      </c>
       <c r="H47" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="I47" t="s">
-        <v>753</v>
+        <v>784</v>
       </c>
       <c r="J47" t="s">
+        <v>432</v>
+      </c>
+      <c r="K47" t="s">
         <v>429</v>
       </c>
-      <c r="K47" t="s">
-        <v>430</v>
-      </c>
       <c r="L47" t="s">
-        <v>921</v>
+        <v>960</v>
       </c>
       <c r="M47" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="N47" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="P47"/>
       <c r="Q47"/>
       <c r="R47" t="s">
-        <v>985</v>
+        <v>1027</v>
       </c>
       <c r="S47" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="T47" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B48" t="s">
-        <v>700</v>
+        <v>738</v>
       </c>
       <c r="C48" t="s">
-        <v>754</v>
+        <v>785</v>
       </c>
       <c r="D48" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="E48" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="F48" t="s">
-        <v>827</v>
+        <v>863</v>
       </c>
       <c r="G48" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="H48" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="I48" t="s">
-        <v>754</v>
+        <v>785</v>
       </c>
       <c r="J48" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="K48" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="L48" t="s">
-        <v>922</v>
+        <v>961</v>
       </c>
       <c r="M48" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="N48" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="P48"/>
       <c r="Q48"/>
-      <c r="S48"/>
-      <c r="T48"/>
+      <c r="R48" t="s">
+        <v>1028</v>
+      </c>
+      <c r="S48" t="s">
+        <v>444</v>
+      </c>
+      <c r="T48" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="B49" t="s">
-        <v>693</v>
+        <v>738</v>
       </c>
       <c r="C49" t="s">
-        <v>440</v>
+        <v>786</v>
       </c>
       <c r="D49" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="E49" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="F49" t="s">
-        <v>828</v>
+        <v>864</v>
       </c>
       <c r="G49" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="H49" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="I49" t="s">
-        <v>440</v>
+        <v>786</v>
       </c>
       <c r="J49" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="K49" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="L49" t="s">
-        <v>923</v>
+        <v>962</v>
       </c>
       <c r="M49" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="N49" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49" t="s">
-        <v>986</v>
+        <v>1028</v>
       </c>
       <c r="S49" t="s">
+        <v>444</v>
+      </c>
+      <c r="T49" t="s">
         <v>445</v>
-      </c>
-      <c r="T49" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B50" t="s">
-        <v>700</v>
+        <v>738</v>
       </c>
       <c r="C50" t="s">
-        <v>755</v>
+        <v>787</v>
       </c>
       <c r="D50" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="E50" t="s">
+        <v>455</v>
+      </c>
+      <c r="F50" t="s">
+        <v>864</v>
+      </c>
+      <c r="G50" t="s">
         <v>449</v>
       </c>
-      <c r="F50" t="s">
-        <v>829</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>450</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
+        <v>787</v>
+      </c>
+      <c r="J50" t="s">
+        <v>454</v>
+      </c>
+      <c r="K50" t="s">
+        <v>455</v>
+      </c>
+      <c r="L50" t="s">
+        <v>962</v>
+      </c>
+      <c r="M50" t="s">
         <v>451</v>
       </c>
-      <c r="I50" t="s">
-        <v>755</v>
-      </c>
-      <c r="J50" t="s">
-        <v>448</v>
-      </c>
-      <c r="K50" t="s">
-        <v>449</v>
-      </c>
-      <c r="L50" t="s">
-        <v>924</v>
-      </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>452</v>
-      </c>
-      <c r="N50" t="s">
-        <v>453</v>
       </c>
       <c r="P50"/>
       <c r="Q50"/>
-      <c r="S50"/>
-      <c r="T50"/>
+      <c r="R50" t="s">
+        <v>1028</v>
+      </c>
+      <c r="S50" t="s">
+        <v>444</v>
+      </c>
+      <c r="T50" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B51" t="s">
-        <v>700</v>
+        <v>739</v>
       </c>
       <c r="C51" t="s">
-        <v>456</v>
+        <v>788</v>
       </c>
       <c r="D51" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E51" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F51" t="s">
-        <v>830</v>
+        <v>864</v>
       </c>
       <c r="G51" t="s">
+        <v>449</v>
+      </c>
+      <c r="H51" t="s">
+        <v>450</v>
+      </c>
+      <c r="I51" t="s">
+        <v>788</v>
+      </c>
+      <c r="J51" t="s">
         <v>457</v>
       </c>
-      <c r="H51" t="s">
+      <c r="K51" t="s">
         <v>458</v>
       </c>
-      <c r="I51" t="s">
-        <v>456</v>
-      </c>
-      <c r="J51" t="s">
-        <v>455</v>
-      </c>
-      <c r="K51" t="s">
-        <v>456</v>
-      </c>
       <c r="L51" t="s">
-        <v>925</v>
+        <v>962</v>
       </c>
       <c r="M51" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="N51" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="P51"/>
       <c r="Q51"/>
-      <c r="S51"/>
-      <c r="T51"/>
+      <c r="R51" t="s">
+        <v>1028</v>
+      </c>
+      <c r="S51" t="s">
+        <v>444</v>
+      </c>
+      <c r="T51" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>459</v>
+      </c>
+      <c r="B52" t="s">
+        <v>728</v>
+      </c>
+      <c r="C52" t="s">
+        <v>789</v>
+      </c>
+      <c r="D52" t="s">
+        <v>460</v>
+      </c>
+      <c r="E52" t="s">
         <v>461</v>
       </c>
-      <c r="B52" t="s">
-        <v>708</v>
-      </c>
-      <c r="C52" t="s">
-        <v>756</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
+        <v>865</v>
+      </c>
+      <c r="G52" t="s">
         <v>462</v>
       </c>
-      <c r="E52" t="s">
+      <c r="H52" t="s">
         <v>463</v>
       </c>
-      <c r="F52" t="s">
-        <v>831</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="I52" t="s">
+        <v>789</v>
+      </c>
+      <c r="J52" t="s">
+        <v>460</v>
+      </c>
+      <c r="K52" t="s">
+        <v>461</v>
+      </c>
+      <c r="L52" t="s">
+        <v>963</v>
+      </c>
+      <c r="M52" t="s">
         <v>464</v>
       </c>
-      <c r="H52" t="s">
+      <c r="N52" t="s">
         <v>465</v>
-      </c>
-      <c r="I52" t="s">
-        <v>756</v>
-      </c>
-      <c r="J52" t="s">
-        <v>462</v>
-      </c>
-      <c r="K52" t="s">
-        <v>463</v>
-      </c>
-      <c r="L52" t="s">
-        <v>926</v>
-      </c>
-      <c r="M52" t="s">
-        <v>466</v>
-      </c>
-      <c r="N52" t="s">
-        <v>467</v>
       </c>
       <c r="P52"/>
       <c r="Q52"/>
@@ -5900,101 +6043,101 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>466</v>
+      </c>
+      <c r="B53" t="s">
+        <v>732</v>
+      </c>
+      <c r="C53" t="s">
         <v>468</v>
       </c>
-      <c r="B53" t="s">
-        <v>707</v>
-      </c>
-      <c r="C53" t="s">
-        <v>757</v>
-      </c>
       <c r="D53" t="s">
+        <v>467</v>
+      </c>
+      <c r="E53" t="s">
+        <v>468</v>
+      </c>
+      <c r="F53" t="s">
+        <v>866</v>
+      </c>
+      <c r="G53" t="s">
         <v>469</v>
       </c>
-      <c r="E53" t="s">
+      <c r="H53" t="s">
         <v>470</v>
       </c>
-      <c r="F53" t="s">
-        <v>832</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="I53" t="s">
+        <v>468</v>
+      </c>
+      <c r="J53" t="s">
+        <v>467</v>
+      </c>
+      <c r="K53" t="s">
+        <v>468</v>
+      </c>
+      <c r="L53" t="s">
+        <v>964</v>
+      </c>
+      <c r="M53" t="s">
         <v>471</v>
       </c>
-      <c r="H53" t="s">
+      <c r="N53" t="s">
         <v>472</v>
-      </c>
-      <c r="I53" t="s">
-        <v>757</v>
-      </c>
-      <c r="J53" t="s">
-        <v>469</v>
-      </c>
-      <c r="K53" t="s">
-        <v>470</v>
-      </c>
-      <c r="L53" t="s">
-        <v>927</v>
-      </c>
-      <c r="M53" t="s">
-        <v>473</v>
-      </c>
-      <c r="N53" t="s">
-        <v>474</v>
       </c>
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53" t="s">
-        <v>987</v>
+        <v>1029</v>
       </c>
       <c r="S53" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="T53" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>475</v>
+      </c>
+      <c r="B54" t="s">
+        <v>728</v>
+      </c>
+      <c r="C54" t="s">
+        <v>790</v>
+      </c>
+      <c r="D54" t="s">
+        <v>476</v>
+      </c>
+      <c r="E54" t="s">
         <v>477</v>
       </c>
-      <c r="B54" t="s">
-        <v>700</v>
-      </c>
-      <c r="C54" t="s">
-        <v>758</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="F54" t="s">
+        <v>867</v>
+      </c>
+      <c r="G54" t="s">
         <v>478</v>
       </c>
-      <c r="E54" t="s">
+      <c r="H54" t="s">
         <v>479</v>
       </c>
-      <c r="F54" t="s">
-        <v>833</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="I54" t="s">
+        <v>790</v>
+      </c>
+      <c r="J54" t="s">
+        <v>476</v>
+      </c>
+      <c r="K54" t="s">
+        <v>477</v>
+      </c>
+      <c r="L54" t="s">
+        <v>965</v>
+      </c>
+      <c r="M54" t="s">
         <v>480</v>
       </c>
-      <c r="H54" t="s">
+      <c r="N54" t="s">
         <v>481</v>
-      </c>
-      <c r="I54" t="s">
-        <v>758</v>
-      </c>
-      <c r="J54" t="s">
-        <v>478</v>
-      </c>
-      <c r="K54" t="s">
-        <v>479</v>
-      </c>
-      <c r="L54" t="s">
-        <v>928</v>
-      </c>
-      <c r="M54" t="s">
-        <v>482</v>
-      </c>
-      <c r="N54" t="s">
-        <v>483</v>
       </c>
       <c r="P54"/>
       <c r="Q54"/>
@@ -6003,46 +6146,46 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>482</v>
+      </c>
+      <c r="B55" t="s">
+        <v>728</v>
+      </c>
+      <c r="C55" t="s">
         <v>484</v>
       </c>
-      <c r="B55" t="s">
-        <v>701</v>
-      </c>
-      <c r="C55" t="s">
-        <v>759</v>
-      </c>
       <c r="D55" t="s">
+        <v>483</v>
+      </c>
+      <c r="E55" t="s">
+        <v>484</v>
+      </c>
+      <c r="F55" t="s">
+        <v>868</v>
+      </c>
+      <c r="G55" t="s">
         <v>485</v>
       </c>
-      <c r="E55" t="s">
+      <c r="H55" t="s">
         <v>486</v>
       </c>
-      <c r="F55" t="s">
-        <v>834</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="I55" t="s">
+        <v>484</v>
+      </c>
+      <c r="J55" t="s">
+        <v>483</v>
+      </c>
+      <c r="K55" t="s">
+        <v>484</v>
+      </c>
+      <c r="L55" t="s">
+        <v>966</v>
+      </c>
+      <c r="M55" t="s">
         <v>487</v>
       </c>
-      <c r="H55" t="s">
+      <c r="N55" t="s">
         <v>488</v>
-      </c>
-      <c r="I55" t="s">
-        <v>759</v>
-      </c>
-      <c r="J55" t="s">
-        <v>485</v>
-      </c>
-      <c r="K55" t="s">
-        <v>486</v>
-      </c>
-      <c r="L55" t="s">
-        <v>929</v>
-      </c>
-      <c r="M55" t="s">
-        <v>489</v>
-      </c>
-      <c r="N55" t="s">
-        <v>490</v>
       </c>
       <c r="P55"/>
       <c r="Q55"/>
@@ -6051,198 +6194,198 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>489</v>
+      </c>
+      <c r="B56" t="s">
+        <v>740</v>
+      </c>
+      <c r="C56" t="s">
+        <v>791</v>
+      </c>
+      <c r="D56" t="s">
+        <v>490</v>
+      </c>
+      <c r="E56" t="s">
         <v>491</v>
       </c>
-      <c r="B56" t="s">
-        <v>693</v>
-      </c>
-      <c r="C56" t="s">
-        <v>760</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
+        <v>869</v>
+      </c>
+      <c r="G56" t="s">
         <v>492</v>
       </c>
-      <c r="E56" t="s">
+      <c r="H56" t="s">
         <v>493</v>
       </c>
-      <c r="F56" t="s">
-        <v>835</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="I56" t="s">
+        <v>791</v>
+      </c>
+      <c r="J56" t="s">
+        <v>490</v>
+      </c>
+      <c r="K56" t="s">
+        <v>491</v>
+      </c>
+      <c r="L56" t="s">
+        <v>967</v>
+      </c>
+      <c r="M56" t="s">
         <v>494</v>
       </c>
-      <c r="H56" t="s">
+      <c r="N56" t="s">
         <v>495</v>
-      </c>
-      <c r="I56" t="s">
-        <v>867</v>
-      </c>
-      <c r="J56" t="s">
-        <v>496</v>
-      </c>
-      <c r="K56" t="s">
-        <v>497</v>
-      </c>
-      <c r="L56" t="s">
-        <v>930</v>
-      </c>
-      <c r="M56" t="s">
-        <v>498</v>
-      </c>
-      <c r="N56" t="s">
-        <v>499</v>
       </c>
       <c r="P56"/>
       <c r="Q56"/>
-      <c r="R56" t="s">
-        <v>988</v>
-      </c>
-      <c r="S56" t="s">
-        <v>500</v>
-      </c>
-      <c r="T56" t="s">
-        <v>501</v>
-      </c>
+      <c r="S56"/>
+      <c r="T56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>496</v>
+      </c>
+      <c r="B57" t="s">
+        <v>738</v>
+      </c>
+      <c r="C57" t="s">
+        <v>792</v>
+      </c>
+      <c r="D57" t="s">
+        <v>497</v>
+      </c>
+      <c r="E57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F57" t="s">
+        <v>870</v>
+      </c>
+      <c r="G57" t="s">
+        <v>499</v>
+      </c>
+      <c r="H57" t="s">
+        <v>500</v>
+      </c>
+      <c r="I57" t="s">
+        <v>792</v>
+      </c>
+      <c r="J57" t="s">
+        <v>497</v>
+      </c>
+      <c r="K57" t="s">
+        <v>498</v>
+      </c>
+      <c r="L57" t="s">
+        <v>968</v>
+      </c>
+      <c r="M57" t="s">
+        <v>501</v>
+      </c>
+      <c r="N57" t="s">
         <v>502</v>
-      </c>
-      <c r="B57" t="s">
-        <v>693</v>
-      </c>
-      <c r="C57" t="s">
-        <v>761</v>
-      </c>
-      <c r="D57" t="s">
-        <v>503</v>
-      </c>
-      <c r="E57" t="s">
-        <v>504</v>
-      </c>
-      <c r="F57" t="s">
-        <v>836</v>
-      </c>
-      <c r="G57" t="s">
-        <v>505</v>
-      </c>
-      <c r="H57" t="s">
-        <v>506</v>
-      </c>
-      <c r="I57" t="s">
-        <v>868</v>
-      </c>
-      <c r="J57" t="s">
-        <v>507</v>
-      </c>
-      <c r="K57" t="s">
-        <v>508</v>
-      </c>
-      <c r="L57" t="s">
-        <v>931</v>
-      </c>
-      <c r="M57" t="s">
-        <v>509</v>
-      </c>
-      <c r="N57" t="s">
-        <v>510</v>
       </c>
       <c r="P57"/>
       <c r="Q57"/>
       <c r="R57" t="s">
-        <v>989</v>
+        <v>1030</v>
       </c>
       <c r="S57" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="T57" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B58" t="s">
-        <v>693</v>
+        <v>728</v>
       </c>
       <c r="C58" t="s">
-        <v>762</v>
+        <v>793</v>
       </c>
       <c r="D58" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E58" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F58" t="s">
-        <v>837</v>
+        <v>871</v>
       </c>
       <c r="G58" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="H58" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="I58" t="s">
-        <v>762</v>
+        <v>793</v>
       </c>
       <c r="J58" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="K58" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="L58" t="s">
-        <v>932</v>
+        <v>969</v>
       </c>
       <c r="M58" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="N58" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="P58"/>
       <c r="Q58"/>
-      <c r="R58" t="s">
-        <v>990</v>
-      </c>
-      <c r="S58" t="s">
-        <v>520</v>
-      </c>
-      <c r="T58" t="s">
-        <v>521</v>
-      </c>
+      <c r="S58"/>
+      <c r="T58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B59" t="s">
-        <v>693</v>
+        <v>729</v>
       </c>
       <c r="C59" t="s">
-        <v>763</v>
+        <v>794</v>
       </c>
       <c r="D59" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="E59" t="s">
-        <v>524</v>
-      </c>
-      <c r="G59"/>
-      <c r="H59"/>
+        <v>514</v>
+      </c>
+      <c r="F59" t="s">
+        <v>872</v>
+      </c>
+      <c r="G59" t="s">
+        <v>515</v>
+      </c>
+      <c r="H59" t="s">
+        <v>516</v>
+      </c>
       <c r="I59" t="s">
-        <v>763</v>
+        <v>794</v>
       </c>
       <c r="J59" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="K59" t="s">
-        <v>524</v>
-      </c>
-      <c r="M59"/>
-      <c r="N59"/>
+        <v>514</v>
+      </c>
+      <c r="L59" t="s">
+        <v>970</v>
+      </c>
+      <c r="M59" t="s">
+        <v>517</v>
+      </c>
+      <c r="N59" t="s">
+        <v>518</v>
+      </c>
       <c r="P59"/>
       <c r="Q59"/>
       <c r="S59"/>
@@ -6250,188 +6393,195 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>519</v>
+      </c>
+      <c r="B60" t="s">
+        <v>721</v>
+      </c>
+      <c r="C60" t="s">
+        <v>795</v>
+      </c>
+      <c r="D60" t="s">
+        <v>520</v>
+      </c>
+      <c r="E60" t="s">
+        <v>521</v>
+      </c>
+      <c r="F60" t="s">
+        <v>873</v>
+      </c>
+      <c r="G60" t="s">
+        <v>522</v>
+      </c>
+      <c r="H60" t="s">
+        <v>523</v>
+      </c>
+      <c r="I60" t="s">
+        <v>905</v>
+      </c>
+      <c r="J60" t="s">
+        <v>524</v>
+      </c>
+      <c r="K60" t="s">
         <v>525</v>
       </c>
-      <c r="B60" t="s">
-        <v>693</v>
-      </c>
-      <c r="C60" t="s">
-        <v>764</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="L60" t="s">
+        <v>971</v>
+      </c>
+      <c r="M60" t="s">
         <v>526</v>
       </c>
-      <c r="E60" t="s">
+      <c r="N60" t="s">
         <v>527</v>
-      </c>
-      <c r="F60" t="s">
-        <v>838</v>
-      </c>
-      <c r="G60" t="s">
-        <v>528</v>
-      </c>
-      <c r="H60" t="s">
-        <v>529</v>
-      </c>
-      <c r="I60" t="s">
-        <v>764</v>
-      </c>
-      <c r="J60" t="s">
-        <v>526</v>
-      </c>
-      <c r="K60" t="s">
-        <v>527</v>
-      </c>
-      <c r="L60" t="s">
-        <v>933</v>
-      </c>
-      <c r="M60" t="s">
-        <v>530</v>
-      </c>
-      <c r="N60" t="s">
-        <v>531</v>
       </c>
       <c r="P60"/>
       <c r="Q60"/>
       <c r="R60" t="s">
-        <v>991</v>
+        <v>1031</v>
       </c>
       <c r="S60" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="T60" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>530</v>
+      </c>
+      <c r="B61" t="s">
+        <v>721</v>
+      </c>
+      <c r="C61" t="s">
+        <v>796</v>
+      </c>
+      <c r="D61" t="s">
+        <v>531</v>
+      </c>
+      <c r="E61" t="s">
+        <v>532</v>
+      </c>
+      <c r="F61" t="s">
+        <v>874</v>
+      </c>
+      <c r="G61" t="s">
+        <v>533</v>
+      </c>
+      <c r="H61" t="s">
         <v>534</v>
       </c>
-      <c r="B61" t="s">
-        <v>709</v>
-      </c>
-      <c r="C61" t="s">
-        <v>765</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="I61" t="s">
+        <v>906</v>
+      </c>
+      <c r="J61" t="s">
         <v>535</v>
       </c>
-      <c r="E61" t="s">
+      <c r="K61" t="s">
         <v>536</v>
       </c>
-      <c r="F61" t="s">
-        <v>839</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="L61" t="s">
+        <v>972</v>
+      </c>
+      <c r="M61" t="s">
         <v>537</v>
       </c>
-      <c r="H61" t="s">
+      <c r="N61" t="s">
         <v>538</v>
-      </c>
-      <c r="I61" t="s">
-        <v>869</v>
-      </c>
-      <c r="J61" t="s">
-        <v>539</v>
-      </c>
-      <c r="K61" t="s">
-        <v>540</v>
-      </c>
-      <c r="L61" t="s">
-        <v>934</v>
-      </c>
-      <c r="M61" t="s">
-        <v>541</v>
-      </c>
-      <c r="N61" t="s">
-        <v>542</v>
       </c>
       <c r="P61"/>
       <c r="Q61"/>
       <c r="R61" t="s">
-        <v>992</v>
+        <v>1032</v>
       </c>
       <c r="S61" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="T61" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>541</v>
+      </c>
+      <c r="B62" t="s">
+        <v>721</v>
+      </c>
+      <c r="C62" t="s">
+        <v>797</v>
+      </c>
+      <c r="D62" t="s">
+        <v>542</v>
+      </c>
+      <c r="E62" t="s">
+        <v>543</v>
+      </c>
+      <c r="F62" t="s">
+        <v>875</v>
+      </c>
+      <c r="G62" t="s">
+        <v>544</v>
+      </c>
+      <c r="H62" t="s">
         <v>545</v>
       </c>
-      <c r="B62" t="s">
-        <v>693</v>
-      </c>
-      <c r="C62" t="s">
-        <v>766</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="I62" t="s">
+        <v>797</v>
+      </c>
+      <c r="J62" t="s">
+        <v>542</v>
+      </c>
+      <c r="K62" t="s">
+        <v>543</v>
+      </c>
+      <c r="L62" t="s">
+        <v>973</v>
+      </c>
+      <c r="M62" t="s">
         <v>546</v>
       </c>
-      <c r="E62" t="s">
+      <c r="N62" t="s">
         <v>547</v>
       </c>
-      <c r="F62" t="s">
-        <v>840</v>
-      </c>
-      <c r="G62" t="s">
-        <v>548</v>
-      </c>
-      <c r="H62" t="s">
-        <v>549</v>
-      </c>
-      <c r="I62" t="s">
-        <v>766</v>
-      </c>
-      <c r="J62" t="s">
-        <v>550</v>
-      </c>
-      <c r="K62" t="s">
-        <v>547</v>
-      </c>
-      <c r="M62"/>
-      <c r="N62"/>
       <c r="P62"/>
       <c r="Q62"/>
-      <c r="S62"/>
-      <c r="T62"/>
+      <c r="R62" t="s">
+        <v>1033</v>
+      </c>
+      <c r="S62" t="s">
+        <v>548</v>
+      </c>
+      <c r="T62" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>550</v>
+      </c>
+      <c r="B63" t="s">
+        <v>721</v>
+      </c>
+      <c r="C63" t="s">
+        <v>798</v>
+      </c>
+      <c r="D63" t="s">
         <v>551</v>
       </c>
-      <c r="B63" t="s">
-        <v>710</v>
-      </c>
-      <c r="C63" t="s">
-        <v>767</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>552</v>
       </c>
-      <c r="E63" t="s">
-        <v>553</v>
-      </c>
-      <c r="F63" t="s">
-        <v>841</v>
-      </c>
-      <c r="G63" t="s">
-        <v>554</v>
-      </c>
-      <c r="H63" t="s">
-        <v>555</v>
-      </c>
+      <c r="G63"/>
+      <c r="H63"/>
       <c r="I63" t="s">
-        <v>767</v>
+        <v>798</v>
       </c>
       <c r="J63" t="s">
+        <v>551</v>
+      </c>
+      <c r="K63" t="s">
         <v>552</v>
-      </c>
-      <c r="K63" t="s">
-        <v>553</v>
       </c>
       <c r="M63"/>
       <c r="N63"/>
@@ -6442,202 +6592,188 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>553</v>
+      </c>
+      <c r="B64" t="s">
+        <v>721</v>
+      </c>
+      <c r="C64" t="s">
+        <v>799</v>
+      </c>
+      <c r="D64" t="s">
+        <v>554</v>
+      </c>
+      <c r="E64" t="s">
+        <v>555</v>
+      </c>
+      <c r="F64" t="s">
+        <v>876</v>
+      </c>
+      <c r="G64" t="s">
         <v>556</v>
       </c>
-      <c r="B64" t="s">
-        <v>693</v>
-      </c>
-      <c r="C64" t="s">
-        <v>768</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="H64" t="s">
         <v>557</v>
       </c>
-      <c r="E64" t="s">
+      <c r="I64" t="s">
+        <v>799</v>
+      </c>
+      <c r="J64" t="s">
+        <v>554</v>
+      </c>
+      <c r="K64" t="s">
+        <v>555</v>
+      </c>
+      <c r="L64" t="s">
+        <v>974</v>
+      </c>
+      <c r="M64" t="s">
         <v>558</v>
       </c>
-      <c r="F64" t="s">
-        <v>842</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="N64" t="s">
         <v>559</v>
-      </c>
-      <c r="H64" t="s">
-        <v>560</v>
-      </c>
-      <c r="I64" t="s">
-        <v>768</v>
-      </c>
-      <c r="J64" t="s">
-        <v>557</v>
-      </c>
-      <c r="K64" t="s">
-        <v>558</v>
-      </c>
-      <c r="L64" t="s">
-        <v>935</v>
-      </c>
-      <c r="M64" t="s">
-        <v>561</v>
-      </c>
-      <c r="N64" t="s">
-        <v>562</v>
       </c>
       <c r="P64"/>
       <c r="Q64"/>
       <c r="R64" t="s">
-        <v>993</v>
+        <v>1034</v>
       </c>
       <c r="S64" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="T64" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>562</v>
+      </c>
+      <c r="B65" t="s">
+        <v>741</v>
+      </c>
+      <c r="C65" t="s">
+        <v>800</v>
+      </c>
+      <c r="D65" t="s">
+        <v>563</v>
+      </c>
+      <c r="E65" t="s">
+        <v>564</v>
+      </c>
+      <c r="F65" t="s">
+        <v>877</v>
+      </c>
+      <c r="G65" t="s">
         <v>565</v>
       </c>
-      <c r="B65" t="s">
-        <v>711</v>
-      </c>
-      <c r="C65" t="s">
-        <v>769</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="H65" t="s">
         <v>566</v>
       </c>
-      <c r="E65" t="s">
+      <c r="I65" t="s">
+        <v>907</v>
+      </c>
+      <c r="J65" t="s">
         <v>567</v>
       </c>
-      <c r="F65" t="s">
-        <v>843</v>
-      </c>
-      <c r="G65" t="s">
+      <c r="K65" t="s">
         <v>568</v>
       </c>
-      <c r="H65" t="s">
+      <c r="L65" t="s">
+        <v>975</v>
+      </c>
+      <c r="M65" t="s">
         <v>569</v>
       </c>
-      <c r="I65" t="s">
-        <v>870</v>
-      </c>
-      <c r="J65" t="s">
+      <c r="N65" t="s">
         <v>570</v>
-      </c>
-      <c r="K65" t="s">
-        <v>571</v>
-      </c>
-      <c r="L65" t="s">
-        <v>936</v>
-      </c>
-      <c r="M65" t="s">
-        <v>572</v>
-      </c>
-      <c r="N65" t="s">
-        <v>573</v>
       </c>
       <c r="P65"/>
       <c r="Q65"/>
       <c r="R65" t="s">
-        <v>994</v>
+        <v>1035</v>
       </c>
       <c r="S65" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="T65" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>573</v>
+      </c>
+      <c r="B66" t="s">
+        <v>721</v>
+      </c>
+      <c r="C66" t="s">
+        <v>801</v>
+      </c>
+      <c r="D66" t="s">
+        <v>574</v>
+      </c>
+      <c r="E66" t="s">
+        <v>575</v>
+      </c>
+      <c r="F66" t="s">
+        <v>878</v>
+      </c>
+      <c r="G66" t="s">
         <v>576</v>
       </c>
-      <c r="B66" t="s">
-        <v>693</v>
-      </c>
-      <c r="C66" t="s">
-        <v>770</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="H66" t="s">
         <v>577</v>
       </c>
-      <c r="E66" t="s">
+      <c r="I66" t="s">
+        <v>801</v>
+      </c>
+      <c r="J66" t="s">
         <v>578</v>
       </c>
-      <c r="F66" t="s">
-        <v>844</v>
-      </c>
-      <c r="G66" t="s">
-        <v>579</v>
-      </c>
-      <c r="H66" t="s">
-        <v>580</v>
-      </c>
-      <c r="I66" t="s">
-        <v>871</v>
-      </c>
-      <c r="J66" t="s">
-        <v>581</v>
-      </c>
       <c r="K66" t="s">
-        <v>582</v>
-      </c>
-      <c r="L66" t="s">
-        <v>937</v>
-      </c>
-      <c r="M66" t="s">
-        <v>583</v>
-      </c>
-      <c r="N66" t="s">
-        <v>584</v>
-      </c>
-      <c r="O66" t="s">
-        <v>946</v>
-      </c>
-      <c r="P66" t="s">
-        <v>585</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>586</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
       <c r="S66"/>
       <c r="T66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B67" t="s">
-        <v>693</v>
+        <v>742</v>
       </c>
       <c r="C67" t="s">
-        <v>589</v>
+        <v>802</v>
       </c>
       <c r="D67" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="E67" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F67" t="s">
-        <v>845</v>
+        <v>879</v>
       </c>
       <c r="G67" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="H67" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="I67" t="s">
-        <v>872</v>
+        <v>802</v>
       </c>
       <c r="J67" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="K67" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="M67"/>
       <c r="N67"/>
@@ -6648,104 +6784,132 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="B68" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="C68" t="s">
-        <v>771</v>
+        <v>803</v>
       </c>
       <c r="D68" t="s">
-        <v>159</v>
+        <v>585</v>
       </c>
       <c r="E68" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F68" t="s">
-        <v>846</v>
+        <v>880</v>
       </c>
       <c r="G68" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="H68" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="I68" t="s">
-        <v>598</v>
+        <v>803</v>
       </c>
       <c r="J68" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="K68" t="s">
-        <v>598</v>
-      </c>
-      <c r="M68"/>
-      <c r="N68"/>
+        <v>586</v>
+      </c>
+      <c r="L68" t="s">
+        <v>976</v>
+      </c>
+      <c r="M68" t="s">
+        <v>589</v>
+      </c>
+      <c r="N68" t="s">
+        <v>590</v>
+      </c>
       <c r="P68"/>
       <c r="Q68"/>
-      <c r="S68"/>
-      <c r="T68"/>
+      <c r="R68" t="s">
+        <v>1036</v>
+      </c>
+      <c r="S68" t="s">
+        <v>591</v>
+      </c>
+      <c r="T68" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>593</v>
+      </c>
+      <c r="B69" t="s">
+        <v>743</v>
+      </c>
+      <c r="C69" t="s">
+        <v>804</v>
+      </c>
+      <c r="D69" t="s">
+        <v>594</v>
+      </c>
+      <c r="E69" t="s">
+        <v>595</v>
+      </c>
+      <c r="F69" t="s">
+        <v>881</v>
+      </c>
+      <c r="G69" t="s">
+        <v>596</v>
+      </c>
+      <c r="H69" t="s">
+        <v>597</v>
+      </c>
+      <c r="I69" t="s">
+        <v>908</v>
+      </c>
+      <c r="J69" t="s">
+        <v>598</v>
+      </c>
+      <c r="K69" t="s">
         <v>599</v>
       </c>
-      <c r="B69" t="s">
-        <v>697</v>
-      </c>
-      <c r="C69" t="s">
-        <v>772</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="L69" t="s">
+        <v>977</v>
+      </c>
+      <c r="M69" t="s">
         <v>600</v>
       </c>
-      <c r="E69" t="s">
+      <c r="N69" t="s">
         <v>601</v>
       </c>
-      <c r="F69" t="s">
-        <v>847</v>
-      </c>
-      <c r="G69" t="s">
-        <v>602</v>
-      </c>
-      <c r="H69" t="s">
-        <v>603</v>
-      </c>
-      <c r="I69" t="s">
-        <v>873</v>
-      </c>
-      <c r="J69" t="s">
-        <v>604</v>
-      </c>
-      <c r="K69" t="s">
-        <v>605</v>
-      </c>
-      <c r="M69"/>
-      <c r="N69"/>
       <c r="P69"/>
       <c r="Q69"/>
-      <c r="S69"/>
-      <c r="T69"/>
+      <c r="R69" t="s">
+        <v>1037</v>
+      </c>
+      <c r="S69" t="s">
+        <v>602</v>
+      </c>
+      <c r="T69" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>604</v>
+      </c>
+      <c r="B70" t="s">
+        <v>721</v>
+      </c>
+      <c r="C70" t="s">
+        <v>805</v>
+      </c>
+      <c r="D70" t="s">
+        <v>605</v>
+      </c>
+      <c r="E70" t="s">
         <v>606</v>
       </c>
-      <c r="B70" t="s">
-        <v>693</v>
-      </c>
-      <c r="C70" t="s">
-        <v>103</v>
-      </c>
-      <c r="D70" t="s">
-        <v>102</v>
-      </c>
-      <c r="E70" t="s">
-        <v>103</v>
-      </c>
       <c r="F70" t="s">
-        <v>848</v>
+        <v>882</v>
       </c>
       <c r="G70" t="s">
         <v>607</v>
@@ -6754,7 +6918,7 @@
         <v>608</v>
       </c>
       <c r="I70" t="s">
-        <v>874</v>
+        <v>909</v>
       </c>
       <c r="J70" t="s">
         <v>609</v>
@@ -6763,7 +6927,7 @@
         <v>610</v>
       </c>
       <c r="L70" t="s">
-        <v>938</v>
+        <v>978</v>
       </c>
       <c r="M70" t="s">
         <v>611</v>
@@ -6772,7 +6936,7 @@
         <v>612</v>
       </c>
       <c r="O70" t="s">
-        <v>947</v>
+        <v>987</v>
       </c>
       <c r="P70" t="s">
         <v>613</v>
@@ -6788,10 +6952,10 @@
         <v>615</v>
       </c>
       <c r="B71" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="C71" t="s">
-        <v>773</v>
+        <v>617</v>
       </c>
       <c r="D71" t="s">
         <v>616</v>
@@ -6799,16 +6963,23 @@
       <c r="E71" t="s">
         <v>617</v>
       </c>
-      <c r="G71"/>
-      <c r="H71"/>
+      <c r="F71" t="s">
+        <v>883</v>
+      </c>
+      <c r="G71" t="s">
+        <v>618</v>
+      </c>
+      <c r="H71" t="s">
+        <v>619</v>
+      </c>
       <c r="I71" t="s">
-        <v>875</v>
+        <v>910</v>
       </c>
       <c r="J71" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K71" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="M71"/>
       <c r="N71"/>
@@ -6819,30 +6990,37 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B72" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="C72" t="s">
-        <v>774</v>
+        <v>806</v>
       </c>
       <c r="D72" t="s">
-        <v>621</v>
+        <v>159</v>
       </c>
       <c r="E72" t="s">
-        <v>622</v>
-      </c>
-      <c r="G72"/>
-      <c r="H72"/>
+        <v>623</v>
+      </c>
+      <c r="F72" t="s">
+        <v>884</v>
+      </c>
+      <c r="G72" t="s">
+        <v>624</v>
+      </c>
+      <c r="H72" t="s">
+        <v>625</v>
+      </c>
       <c r="I72" t="s">
-        <v>876</v>
+        <v>626</v>
       </c>
       <c r="J72" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="K72" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="M72"/>
       <c r="N72"/>
@@ -6853,37 +7031,37 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B73" t="s">
-        <v>693</v>
+        <v>725</v>
       </c>
       <c r="C73" t="s">
-        <v>775</v>
+        <v>807</v>
       </c>
       <c r="D73" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E73" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F73" t="s">
-        <v>849</v>
+        <v>885</v>
       </c>
       <c r="G73" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H73" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="I73" t="s">
-        <v>877</v>
+        <v>911</v>
       </c>
       <c r="J73" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="K73" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="M73"/>
       <c r="N73"/>
@@ -6894,57 +7072,85 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B74" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="C74" t="s">
-        <v>776</v>
+        <v>103</v>
       </c>
       <c r="D74" t="s">
-        <v>633</v>
+        <v>102</v>
       </c>
       <c r="E74" t="s">
-        <v>634</v>
-      </c>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="J74"/>
-      <c r="K74"/>
-      <c r="M74"/>
-      <c r="N74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
+        <v>103</v>
+      </c>
+      <c r="F74" t="s">
+        <v>886</v>
+      </c>
+      <c r="G74" t="s">
+        <v>635</v>
+      </c>
+      <c r="H74" t="s">
+        <v>636</v>
+      </c>
+      <c r="I74" t="s">
+        <v>912</v>
+      </c>
+      <c r="J74" t="s">
+        <v>637</v>
+      </c>
+      <c r="K74" t="s">
+        <v>638</v>
+      </c>
+      <c r="L74" t="s">
+        <v>979</v>
+      </c>
+      <c r="M74" t="s">
+        <v>639</v>
+      </c>
+      <c r="N74" t="s">
+        <v>640</v>
+      </c>
+      <c r="O74" t="s">
+        <v>988</v>
+      </c>
+      <c r="P74" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>642</v>
+      </c>
       <c r="S74"/>
       <c r="T74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="B75" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="C75" t="s">
-        <v>637</v>
+        <v>808</v>
       </c>
       <c r="D75" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="E75" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="s">
-        <v>878</v>
+        <v>913</v>
       </c>
       <c r="J75" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="K75" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="M75"/>
       <c r="N75"/>
@@ -6955,30 +7161,30 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="B76" t="s">
-        <v>697</v>
+        <v>721</v>
       </c>
       <c r="C76" t="s">
-        <v>773</v>
+        <v>809</v>
       </c>
       <c r="D76" t="s">
-        <v>616</v>
+        <v>649</v>
       </c>
       <c r="E76" t="s">
-        <v>617</v>
+        <v>650</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76" t="s">
-        <v>879</v>
+        <v>914</v>
       </c>
       <c r="J76" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="K76" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="M76"/>
       <c r="N76"/>
@@ -6989,93 +7195,65 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="B77" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="C77" t="s">
-        <v>777</v>
+        <v>810</v>
       </c>
       <c r="D77" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="E77" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="F77" t="s">
-        <v>850</v>
+        <v>887</v>
       </c>
       <c r="G77" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="H77" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="I77" t="s">
-        <v>777</v>
+        <v>915</v>
       </c>
       <c r="J77" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="K77" t="s">
-        <v>645</v>
-      </c>
-      <c r="L77" t="s">
-        <v>939</v>
-      </c>
-      <c r="M77" t="s">
-        <v>648</v>
-      </c>
-      <c r="N77" t="s">
-        <v>649</v>
-      </c>
+        <v>659</v>
+      </c>
+      <c r="M77"/>
+      <c r="N77"/>
       <c r="P77"/>
       <c r="Q77"/>
-      <c r="R77" t="s">
-        <v>987</v>
-      </c>
-      <c r="S77" t="s">
-        <v>475</v>
-      </c>
-      <c r="T77" t="s">
-        <v>476</v>
-      </c>
+      <c r="S77"/>
+      <c r="T77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="B78" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="C78" t="s">
-        <v>778</v>
+        <v>811</v>
       </c>
       <c r="D78" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="E78" t="s">
-        <v>652</v>
-      </c>
-      <c r="F78" t="s">
-        <v>851</v>
-      </c>
-      <c r="G78" t="s">
-        <v>653</v>
-      </c>
-      <c r="H78" t="s">
-        <v>654</v>
-      </c>
-      <c r="I78" t="s">
-        <v>778</v>
-      </c>
-      <c r="J78" t="s">
-        <v>651</v>
-      </c>
-      <c r="K78" t="s">
-        <v>652</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="J78"/>
+      <c r="K78"/>
       <c r="M78"/>
       <c r="N78"/>
       <c r="P78"/>
@@ -7085,109 +7263,81 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="B79" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="C79" t="s">
-        <v>779</v>
+        <v>665</v>
       </c>
       <c r="D79" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="E79" t="s">
-        <v>657</v>
-      </c>
-      <c r="F79" t="s">
-        <v>852</v>
-      </c>
-      <c r="G79" t="s">
-        <v>658</v>
-      </c>
-      <c r="H79" t="s">
-        <v>659</v>
-      </c>
-      <c r="J79"/>
-      <c r="K79"/>
-      <c r="L79" t="s">
-        <v>940</v>
-      </c>
-      <c r="M79" t="s">
-        <v>660</v>
-      </c>
-      <c r="N79" t="s">
-        <v>661</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79" t="s">
+        <v>916</v>
+      </c>
+      <c r="J79" t="s">
+        <v>666</v>
+      </c>
+      <c r="K79" t="s">
+        <v>667</v>
+      </c>
+      <c r="M79"/>
+      <c r="N79"/>
       <c r="P79"/>
       <c r="Q79"/>
-      <c r="R79" t="s">
-        <v>995</v>
-      </c>
-      <c r="S79" t="s">
-        <v>662</v>
-      </c>
-      <c r="T79" t="s">
-        <v>663</v>
-      </c>
+      <c r="S79"/>
+      <c r="T79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B80" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="C80" t="s">
-        <v>780</v>
+        <v>808</v>
       </c>
       <c r="D80" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="E80" t="s">
-        <v>666</v>
-      </c>
-      <c r="F80" t="s">
-        <v>853</v>
-      </c>
-      <c r="G80" t="s">
-        <v>667</v>
-      </c>
-      <c r="H80" t="s">
-        <v>668</v>
-      </c>
-      <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80" t="s">
-        <v>941</v>
-      </c>
-      <c r="M80" t="s">
+        <v>645</v>
+      </c>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80" t="s">
+        <v>917</v>
+      </c>
+      <c r="J80" t="s">
         <v>669</v>
       </c>
-      <c r="N80" t="s">
+      <c r="K80" t="s">
         <v>670</v>
       </c>
+      <c r="M80"/>
+      <c r="N80"/>
       <c r="P80"/>
       <c r="Q80"/>
-      <c r="R80" t="s">
-        <v>995</v>
-      </c>
-      <c r="S80" t="s">
-        <v>662</v>
-      </c>
-      <c r="T80" t="s">
-        <v>663</v>
-      </c>
+      <c r="S80"/>
+      <c r="T80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>671</v>
       </c>
       <c r="B81" t="s">
-        <v>714</v>
+        <v>744</v>
       </c>
       <c r="C81" t="s">
-        <v>781</v>
+        <v>812</v>
       </c>
       <c r="D81" t="s">
         <v>672</v>
@@ -7196,7 +7346,7 @@
         <v>673</v>
       </c>
       <c r="F81" t="s">
-        <v>854</v>
+        <v>888</v>
       </c>
       <c r="G81" t="s">
         <v>674</v>
@@ -7204,86 +7354,86 @@
       <c r="H81" t="s">
         <v>675</v>
       </c>
-      <c r="J81"/>
-      <c r="K81"/>
+      <c r="I81" t="s">
+        <v>812</v>
+      </c>
+      <c r="J81" t="s">
+        <v>672</v>
+      </c>
+      <c r="K81" t="s">
+        <v>673</v>
+      </c>
       <c r="L81" t="s">
-        <v>941</v>
+        <v>980</v>
       </c>
       <c r="M81" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="N81" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="P81"/>
       <c r="Q81"/>
       <c r="R81" t="s">
-        <v>995</v>
+        <v>1030</v>
       </c>
       <c r="S81" t="s">
-        <v>662</v>
+        <v>503</v>
       </c>
       <c r="T81" t="s">
-        <v>663</v>
+        <v>504</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B82" t="s">
-        <v>715</v>
+        <v>745</v>
       </c>
       <c r="C82" t="s">
-        <v>782</v>
+        <v>813</v>
       </c>
       <c r="D82" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="E82" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F82" t="s">
-        <v>855</v>
+        <v>889</v>
       </c>
       <c r="G82" t="s">
+        <v>681</v>
+      </c>
+      <c r="H82" t="s">
+        <v>682</v>
+      </c>
+      <c r="I82" t="s">
+        <v>813</v>
+      </c>
+      <c r="J82" t="s">
         <v>679</v>
       </c>
-      <c r="H82" t="s">
+      <c r="K82" t="s">
         <v>680</v>
       </c>
-      <c r="J82"/>
-      <c r="K82"/>
-      <c r="L82" t="s">
-        <v>942</v>
-      </c>
-      <c r="M82" t="s">
-        <v>681</v>
-      </c>
-      <c r="N82" t="s">
-        <v>682</v>
-      </c>
+      <c r="M82"/>
+      <c r="N82"/>
       <c r="P82"/>
       <c r="Q82"/>
-      <c r="R82" t="s">
-        <v>995</v>
-      </c>
-      <c r="S82" t="s">
-        <v>662</v>
-      </c>
-      <c r="T82" t="s">
-        <v>663</v>
-      </c>
+      <c r="S82"/>
+      <c r="T82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>683</v>
       </c>
       <c r="B83" t="s">
-        <v>715</v>
+        <v>746</v>
       </c>
       <c r="C83" t="s">
-        <v>783</v>
+        <v>814</v>
       </c>
       <c r="D83" t="s">
         <v>684</v>
@@ -7292,7 +7442,7 @@
         <v>685</v>
       </c>
       <c r="F83" t="s">
-        <v>856</v>
+        <v>890</v>
       </c>
       <c r="G83" t="s">
         <v>686</v>
@@ -7303,7 +7453,7 @@
       <c r="J83"/>
       <c r="K83"/>
       <c r="L83" t="s">
-        <v>943</v>
+        <v>981</v>
       </c>
       <c r="M83" t="s">
         <v>688</v>
@@ -7314,13 +7464,205 @@
       <c r="P83"/>
       <c r="Q83"/>
       <c r="R83" t="s">
-        <v>995</v>
+        <v>1038</v>
       </c>
       <c r="S83" t="s">
-        <v>662</v>
+        <v>690</v>
       </c>
       <c r="T83" t="s">
-        <v>663</v>
+        <v>691</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>692</v>
+      </c>
+      <c r="B84" t="s">
+        <v>746</v>
+      </c>
+      <c r="C84" t="s">
+        <v>815</v>
+      </c>
+      <c r="D84" t="s">
+        <v>693</v>
+      </c>
+      <c r="E84" t="s">
+        <v>694</v>
+      </c>
+      <c r="F84" t="s">
+        <v>891</v>
+      </c>
+      <c r="G84" t="s">
+        <v>695</v>
+      </c>
+      <c r="H84" t="s">
+        <v>696</v>
+      </c>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84" t="s">
+        <v>982</v>
+      </c>
+      <c r="M84" t="s">
+        <v>697</v>
+      </c>
+      <c r="N84" t="s">
+        <v>698</v>
+      </c>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84" t="s">
+        <v>1038</v>
+      </c>
+      <c r="S84" t="s">
+        <v>690</v>
+      </c>
+      <c r="T84" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>699</v>
+      </c>
+      <c r="B85" t="s">
+        <v>746</v>
+      </c>
+      <c r="C85" t="s">
+        <v>816</v>
+      </c>
+      <c r="D85" t="s">
+        <v>700</v>
+      </c>
+      <c r="E85" t="s">
+        <v>701</v>
+      </c>
+      <c r="F85" t="s">
+        <v>892</v>
+      </c>
+      <c r="G85" t="s">
+        <v>702</v>
+      </c>
+      <c r="H85" t="s">
+        <v>703</v>
+      </c>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85" t="s">
+        <v>982</v>
+      </c>
+      <c r="M85" t="s">
+        <v>697</v>
+      </c>
+      <c r="N85" t="s">
+        <v>698</v>
+      </c>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85" t="s">
+        <v>1038</v>
+      </c>
+      <c r="S85" t="s">
+        <v>690</v>
+      </c>
+      <c r="T85" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>704</v>
+      </c>
+      <c r="B86" t="s">
+        <v>747</v>
+      </c>
+      <c r="C86" t="s">
+        <v>817</v>
+      </c>
+      <c r="D86" t="s">
+        <v>705</v>
+      </c>
+      <c r="E86" t="s">
+        <v>706</v>
+      </c>
+      <c r="F86" t="s">
+        <v>893</v>
+      </c>
+      <c r="G86" t="s">
+        <v>707</v>
+      </c>
+      <c r="H86" t="s">
+        <v>708</v>
+      </c>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86" t="s">
+        <v>983</v>
+      </c>
+      <c r="M86" t="s">
+        <v>709</v>
+      </c>
+      <c r="N86" t="s">
+        <v>710</v>
+      </c>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86" t="s">
+        <v>1038</v>
+      </c>
+      <c r="S86" t="s">
+        <v>690</v>
+      </c>
+      <c r="T86" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>711</v>
+      </c>
+      <c r="B87" t="s">
+        <v>747</v>
+      </c>
+      <c r="C87" t="s">
+        <v>818</v>
+      </c>
+      <c r="D87" t="s">
+        <v>712</v>
+      </c>
+      <c r="E87" t="s">
+        <v>713</v>
+      </c>
+      <c r="F87" t="s">
+        <v>894</v>
+      </c>
+      <c r="G87" t="s">
+        <v>714</v>
+      </c>
+      <c r="H87" t="s">
+        <v>715</v>
+      </c>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87" t="s">
+        <v>984</v>
+      </c>
+      <c r="M87" t="s">
+        <v>716</v>
+      </c>
+      <c r="N87" t="s">
+        <v>717</v>
+      </c>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87" t="s">
+        <v>1038</v>
+      </c>
+      <c r="S87" t="s">
+        <v>690</v>
+      </c>
+      <c r="T87" t="s">
+        <v>691</v>
       </c>
     </row>
   </sheetData>

--- a/Original/CN/Game/Stat.xlsx
+++ b/Original/CN/Game/Stat.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="1072">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>
@@ -192,6 +192,33 @@
   </si>
   <si>
     <t xml:space="preserve">#1は優しい目つきになった。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hymn of Sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">眠りの歌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A condition that puts nearby creatures to sleep. Consume mana while maintaining the song.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">周囲の生物を眠らせる状態。歌を維持している間はマナが減少する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 begin(s) to sing a lullaby.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1は子守唄を歌い始めた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 stop(s) singing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1は歌うのを止めた。</t>
   </si>
   <si>
     <t xml:space="preserve">23</t>
@@ -1361,6 +1388,27 @@
     <t xml:space="preserve">#1は元に戻った。</t>
   </si>
   <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seventh Sense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">セブンセンシズ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 awaken(s) to the Seventh Sense!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1はセブンセンシズに目覚めた！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#your cosmo fade(s) away.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1の小宇宙は燃え尽きた。</t>
+  </si>
+  <si>
     <t xml:space="preserve">69</t>
   </si>
   <si>
@@ -1833,6 +1881,21 @@
   </si>
   <si>
     <t xml:space="preserve">#1はリロードを終えた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fractured Valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">折れかけの心</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A condition where your spirit falters and the effect of Guts no longer activates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">心がくじけかけ、不屈の効果が発動しない状態。</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -2208,6 +2271,9 @@
     <t xml:space="preserve">EA 23.78</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.166</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 16.1</t>
   </si>
   <si>
@@ -2262,6 +2328,9 @@
     <t xml:space="preserve">Alpha 20.64</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.195</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.143</t>
   </si>
   <si>
@@ -2277,6 +2346,9 @@
     <t xml:space="preserve">Beta 22.79</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.191</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 18.1</t>
   </si>
   <si>
@@ -2301,6 +2373,9 @@
     <t xml:space="preserve">怒意</t>
   </si>
   <si>
+    <t xml:space="preserve">安眠之歌</t>
+  </si>
+  <si>
     <t xml:space="preserve">呼吸困难</t>
   </si>
   <si>
@@ -2403,6 +2478,9 @@
     <t xml:space="preserve">觉醒</t>
   </si>
   <si>
+    <t xml:space="preserve">第七感</t>
+  </si>
+  <si>
     <t xml:space="preserve">扫帚变形</t>
   </si>
   <si>
@@ -2460,6 +2538,9 @@
     <t xml:space="preserve">装弹中！</t>
   </si>
   <si>
+    <t xml:space="preserve">屈服之心</t>
+  </si>
+  <si>
     <t xml:space="preserve">进餐</t>
   </si>
   <si>
@@ -2514,6 +2595,9 @@
     <t xml:space="preserve">每次攻击被闪避时，攻击威力都会上升的状态。</t>
   </si>
   <si>
+    <t xml:space="preserve">让周围生物陷入睡眠状态。维持歌唱期间魔力会减少。</t>
+  </si>
+  <si>
     <t xml:space="preserve">中毒导致每次行动都会让体力减少的状态。</t>
   </si>
   <si>
@@ -2556,10 +2640,10 @@
     <t xml:space="preserve">受冻后使移动速度降低的状态。</t>
   </si>
   <si>
-    <t xml:space="preserve">持续回复体力的加护。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">持续回复体力。</t>
+    <t xml:space="preserve">持续恢复体力的加护。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">持续恢复体力。</t>
   </si>
   <si>
     <t xml:space="preserve">缓解睡意但是会对好感度造成负面影响。</t>
@@ -2691,6 +2775,9 @@
     <t xml:space="preserve">进行装弹无法使用远程武器的状态。</t>
   </si>
   <si>
+    <t xml:space="preserve">心灵屈服，无法发动不屈效果的状态。</t>
+  </si>
+  <si>
     <t xml:space="preserve">饱腹度。肚子饿会让速度变慢，停止自愈，最终会饿死。</t>
   </si>
   <si>
@@ -2809,6 +2896,9 @@
   </si>
   <si>
     <t xml:space="preserve">#1开始愤怒地扫视四周。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1开始唱摇篮曲了。</t>
   </si>
   <si>
     <t xml:space="preserve">#1中了毒。
@@ -2932,6 +3022,9 @@
   </si>
   <si>
     <t xml:space="preserve">#1觉醒了！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1的第七感觉醒了！</t>
   </si>
   <si>
     <t xml:space="preserve">#1变形了。</t>
@@ -3038,6 +3131,9 @@
     <t xml:space="preserve">#1的目光温和起来了。</t>
   </si>
   <si>
+    <t xml:space="preserve">#1停止唱歌了。</t>
+  </si>
+  <si>
     <t xml:space="preserve">#1的身体摆脱了毒素。</t>
   </si>
   <si>
@@ -3144,6 +3240,9 @@
   </si>
   <si>
     <t xml:space="preserve">#1恢复了原状。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1的小宇宙燃尽了。</t>
   </si>
   <si>
     <t xml:space="preserve">#1的身体恢复原本的轻盈。</t>
@@ -3345,10 +3444,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>718</v>
+        <v>739</v>
       </c>
       <c r="C3" t="s">
-        <v>748</v>
+        <v>772</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -3357,7 +3456,7 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>819</v>
+        <v>846</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
@@ -3366,7 +3465,7 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>895</v>
+        <v>924</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
@@ -3375,7 +3474,7 @@
         <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>918</v>
+        <v>947</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
@@ -3386,7 +3485,7 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3" t="s">
-        <v>989</v>
+        <v>1020</v>
       </c>
       <c r="S3" t="s">
         <v>30</v>
@@ -3400,10 +3499,10 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>719</v>
+        <v>740</v>
       </c>
       <c r="C4" t="s">
-        <v>749</v>
+        <v>773</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -3412,7 +3511,7 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>820</v>
+        <v>847</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -3421,7 +3520,7 @@
         <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>749</v>
+        <v>773</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
@@ -3430,7 +3529,7 @@
         <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>919</v>
+        <v>948</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -3441,7 +3540,7 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4" t="s">
-        <v>990</v>
+        <v>1021</v>
       </c>
       <c r="S4" t="s">
         <v>39</v>
@@ -3455,10 +3554,10 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>720</v>
+        <v>741</v>
       </c>
       <c r="C5" t="s">
-        <v>750</v>
+        <v>774</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3467,7 +3566,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>821</v>
+        <v>848</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -3476,7 +3575,7 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>750</v>
+        <v>774</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
@@ -3485,7 +3584,7 @@
         <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="M5" t="s">
         <v>46</v>
@@ -3496,7 +3595,7 @@
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5" t="s">
-        <v>991</v>
+        <v>1022</v>
       </c>
       <c r="S5" t="s">
         <v>48</v>
@@ -3510,10 +3609,10 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>720</v>
+        <v>741</v>
       </c>
       <c r="C6" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -3522,7 +3621,7 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>822</v>
+        <v>849</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -3531,7 +3630,7 @@
         <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
       <c r="J6" t="s">
         <v>51</v>
@@ -3540,7 +3639,7 @@
         <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>921</v>
+        <v>950</v>
       </c>
       <c r="M6" t="s">
         <v>55</v>
@@ -3551,7 +3650,7 @@
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6" t="s">
-        <v>992</v>
+        <v>1023</v>
       </c>
       <c r="S6" t="s">
         <v>57</v>
@@ -3565,10 +3664,10 @@
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>721</v>
+        <v>742</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>776</v>
       </c>
       <c r="D7" t="s">
         <v>60</v>
@@ -3577,7 +3676,7 @@
         <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>823</v>
+        <v>850</v>
       </c>
       <c r="G7" t="s">
         <v>62</v>
@@ -3586,133 +3685,133 @@
         <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>896</v>
+        <v>776</v>
       </c>
       <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" t="s">
+        <v>951</v>
+      </c>
+      <c r="M7" t="s">
         <v>64</v>
       </c>
-      <c r="K7" t="s">
+      <c r="N7" t="s">
         <v>65</v>
       </c>
-      <c r="L7" t="s">
-        <v>922</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="S7" t="s">
         <v>66</v>
       </c>
-      <c r="N7" t="s">
+      <c r="T7" t="s">
         <v>67</v>
-      </c>
-      <c r="O7" t="s">
-        <v>985</v>
-      </c>
-      <c r="P7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>69</v>
-      </c>
-      <c r="R7" t="s">
-        <v>993</v>
-      </c>
-      <c r="S7" t="s">
-        <v>70</v>
-      </c>
-      <c r="T7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>743</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>851</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
         <v>72</v>
       </c>
-      <c r="B8" t="s">
-        <v>722</v>
-      </c>
-      <c r="C8" t="s">
-        <v>752</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="I8" t="s">
+        <v>925</v>
+      </c>
+      <c r="J8" t="s">
         <v>73</v>
       </c>
-      <c r="E8" t="s">
+      <c r="K8" t="s">
         <v>74</v>
       </c>
-      <c r="F8" t="s">
-        <v>824</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="L8" t="s">
+        <v>952</v>
+      </c>
+      <c r="M8" t="s">
         <v>75</v>
       </c>
-      <c r="H8" t="s">
+      <c r="N8" t="s">
         <v>76</v>
       </c>
-      <c r="I8" t="s">
-        <v>897</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="O8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="P8" t="s">
         <v>77</v>
       </c>
-      <c r="K8" t="s">
+      <c r="Q8" t="s">
         <v>78</v>
       </c>
-      <c r="L8" t="s">
-        <v>923</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="R8" t="s">
+        <v>1025</v>
+      </c>
+      <c r="S8" t="s">
         <v>79</v>
       </c>
-      <c r="N8" t="s">
+      <c r="T8" t="s">
         <v>80</v>
       </c>
-      <c r="O8" t="s">
-        <v>986</v>
-      </c>
-      <c r="P8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>82</v>
-      </c>
-      <c r="S8"/>
-      <c r="T8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>744</v>
+      </c>
+      <c r="C9" t="s">
+        <v>777</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
         <v>83</v>
       </c>
-      <c r="B9" t="s">
-        <v>721</v>
-      </c>
-      <c r="C9" t="s">
-        <v>753</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
+        <v>852</v>
+      </c>
+      <c r="G9" t="s">
         <v>84</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>85</v>
       </c>
-      <c r="F9" t="s">
-        <v>825</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
+        <v>926</v>
+      </c>
+      <c r="J9" t="s">
         <v>86</v>
       </c>
-      <c r="H9" t="s">
+      <c r="K9" t="s">
         <v>87</v>
       </c>
-      <c r="I9" t="s">
-        <v>753</v>
-      </c>
-      <c r="J9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" t="s">
-        <v>85</v>
-      </c>
       <c r="L9" t="s">
-        <v>924</v>
+        <v>953</v>
       </c>
       <c r="M9" t="s">
         <v>88</v>
@@ -3720,27 +3819,27 @@
       <c r="N9" t="s">
         <v>89</v>
       </c>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9" t="s">
-        <v>994</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="O9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="P9" t="s">
         <v>90</v>
       </c>
-      <c r="T9" t="s">
+      <c r="Q9" t="s">
         <v>91</v>
       </c>
+      <c r="S9"/>
+      <c r="T9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="C10" t="s">
-        <v>754</v>
+        <v>778</v>
       </c>
       <c r="D10" t="s">
         <v>93</v>
@@ -3749,7 +3848,7 @@
         <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>826</v>
+        <v>853</v>
       </c>
       <c r="G10" t="s">
         <v>95</v>
@@ -3758,7 +3857,7 @@
         <v>96</v>
       </c>
       <c r="I10" t="s">
-        <v>754</v>
+        <v>778</v>
       </c>
       <c r="J10" t="s">
         <v>93</v>
@@ -3767,7 +3866,7 @@
         <v>94</v>
       </c>
       <c r="L10" t="s">
-        <v>925</v>
+        <v>954</v>
       </c>
       <c r="M10" t="s">
         <v>97</v>
@@ -3778,7 +3877,7 @@
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10" t="s">
-        <v>995</v>
+        <v>1026</v>
       </c>
       <c r="S10" t="s">
         <v>99</v>
@@ -3792,10 +3891,10 @@
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>779</v>
       </c>
       <c r="D11" t="s">
         <v>102</v>
@@ -3804,7 +3903,7 @@
         <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>827</v>
+        <v>854</v>
       </c>
       <c r="G11" t="s">
         <v>104</v>
@@ -3813,291 +3912,291 @@
         <v>105</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>779</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s">
         <v>103</v>
       </c>
       <c r="L11" t="s">
-        <v>926</v>
+        <v>955</v>
       </c>
       <c r="M11" t="s">
+        <v>106</v>
+      </c>
+      <c r="N11" t="s">
         <v>107</v>
-      </c>
-      <c r="N11" t="s">
-        <v>108</v>
       </c>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11" t="s">
-        <v>996</v>
+        <v>1027</v>
       </c>
       <c r="S11" t="s">
+        <v>108</v>
+      </c>
+      <c r="T11" t="s">
         <v>109</v>
-      </c>
-      <c r="T11" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>743</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
         <v>111</v>
       </c>
-      <c r="B12" t="s">
-        <v>721</v>
-      </c>
-      <c r="C12" t="s">
-        <v>755</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>112</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>855</v>
+      </c>
+      <c r="G12" t="s">
         <v>113</v>
       </c>
-      <c r="F12" t="s">
-        <v>828</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>114</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
         <v>115</v>
       </c>
-      <c r="I12" t="s">
-        <v>755</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" t="s">
+        <v>956</v>
+      </c>
+      <c r="M12" t="s">
         <v>116</v>
       </c>
-      <c r="K12" t="s">
-        <v>113</v>
-      </c>
-      <c r="L12" t="s">
-        <v>927</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>117</v>
-      </c>
-      <c r="N12" t="s">
-        <v>118</v>
       </c>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12" t="s">
-        <v>997</v>
+        <v>1028</v>
       </c>
       <c r="S12" t="s">
+        <v>118</v>
+      </c>
+      <c r="T12" t="s">
         <v>119</v>
-      </c>
-      <c r="T12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>743</v>
+      </c>
+      <c r="C13" t="s">
+        <v>780</v>
+      </c>
+      <c r="D13" t="s">
         <v>121</v>
       </c>
-      <c r="B13" t="s">
-        <v>723</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" t="s">
+        <v>856</v>
+      </c>
+      <c r="G13" t="s">
         <v>123</v>
       </c>
-      <c r="D13" t="s">
+      <c r="H13" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" t="s">
+        <v>780</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
         <v>122</v>
       </c>
-      <c r="E13" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" t="s">
-        <v>829</v>
-      </c>
-      <c r="G13" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13" t="s">
-        <v>123</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
+        <v>957</v>
+      </c>
+      <c r="M13" t="s">
         <v>126</v>
       </c>
-      <c r="K13" t="s">
-        <v>123</v>
-      </c>
-      <c r="L13" t="s">
-        <v>928</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>127</v>
-      </c>
-      <c r="N13" t="s">
-        <v>128</v>
       </c>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13" t="s">
-        <v>998</v>
+        <v>1029</v>
       </c>
       <c r="S13" t="s">
+        <v>128</v>
+      </c>
+      <c r="T13" t="s">
         <v>129</v>
-      </c>
-      <c r="T13" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>745</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" t="s">
         <v>131</v>
       </c>
-      <c r="B14" t="s">
-        <v>721</v>
-      </c>
-      <c r="C14" t="s">
-        <v>756</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>132</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>857</v>
+      </c>
+      <c r="G14" t="s">
         <v>133</v>
       </c>
-      <c r="F14" t="s">
-        <v>828</v>
-      </c>
-      <c r="G14" t="s">
-        <v>114</v>
-      </c>
       <c r="H14" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="I14" t="s">
-        <v>756</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s">
-        <v>929</v>
+        <v>958</v>
       </c>
       <c r="M14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14" t="s">
-        <v>999</v>
+        <v>1030</v>
       </c>
       <c r="S14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="T14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="C15" t="s">
+        <v>781</v>
+      </c>
+      <c r="D15" t="s">
         <v>141</v>
       </c>
-      <c r="D15" t="s">
-        <v>140</v>
-      </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F15" t="s">
-        <v>830</v>
+        <v>856</v>
       </c>
       <c r="G15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" t="s">
+        <v>781</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s">
         <v>142</v>
       </c>
-      <c r="H15" t="s">
-        <v>143</v>
-      </c>
-      <c r="I15" t="s">
-        <v>141</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
+        <v>959</v>
+      </c>
+      <c r="M15" t="s">
         <v>144</v>
       </c>
-      <c r="K15" t="s">
-        <v>141</v>
-      </c>
-      <c r="L15" t="s">
-        <v>930</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>145</v>
-      </c>
-      <c r="N15" t="s">
-        <v>146</v>
       </c>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15" t="s">
-        <v>1000</v>
+        <v>1031</v>
       </c>
       <c r="S15" t="s">
+        <v>146</v>
+      </c>
+      <c r="T15" t="s">
         <v>147</v>
-      </c>
-      <c r="T15" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" t="s">
+        <v>743</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" t="s">
         <v>149</v>
       </c>
-      <c r="B16" t="s">
-        <v>721</v>
-      </c>
-      <c r="C16" t="s">
-        <v>757</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>150</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>858</v>
+      </c>
+      <c r="G16" t="s">
         <v>151</v>
       </c>
-      <c r="F16" t="s">
-        <v>831</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>152</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16" t="s">
         <v>153</v>
       </c>
-      <c r="I16" t="s">
-        <v>757</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>150</v>
       </c>
-      <c r="K16" t="s">
-        <v>151</v>
-      </c>
       <c r="L16" t="s">
-        <v>931</v>
+        <v>960</v>
       </c>
       <c r="M16" t="s">
         <v>154</v>
@@ -4108,7 +4207,7 @@
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16" t="s">
-        <v>1001</v>
+        <v>1032</v>
       </c>
       <c r="S16" t="s">
         <v>156</v>
@@ -4122,10 +4221,10 @@
         <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="C17" t="s">
-        <v>758</v>
+        <v>782</v>
       </c>
       <c r="D17" t="s">
         <v>159</v>
@@ -4134,7 +4233,7 @@
         <v>160</v>
       </c>
       <c r="F17" t="s">
-        <v>832</v>
+        <v>859</v>
       </c>
       <c r="G17" t="s">
         <v>161</v>
@@ -4143,291 +4242,291 @@
         <v>162</v>
       </c>
       <c r="I17" t="s">
-        <v>898</v>
+        <v>782</v>
       </c>
       <c r="J17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s">
+        <v>961</v>
+      </c>
+      <c r="M17" t="s">
         <v>163</v>
       </c>
-      <c r="K17" t="s">
+      <c r="N17" t="s">
         <v>164</v>
-      </c>
-      <c r="L17" t="s">
-        <v>932</v>
-      </c>
-      <c r="M17" t="s">
-        <v>165</v>
-      </c>
-      <c r="N17" t="s">
-        <v>166</v>
       </c>
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17" t="s">
-        <v>1002</v>
+        <v>1033</v>
       </c>
       <c r="S17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="T17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" t="s">
+        <v>743</v>
+      </c>
+      <c r="C18" t="s">
+        <v>783</v>
+      </c>
+      <c r="D18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" t="s">
         <v>169</v>
       </c>
-      <c r="B18" t="s">
-        <v>721</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="F18" t="s">
+        <v>860</v>
+      </c>
+      <c r="G18" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" t="s">
         <v>171</v>
       </c>
-      <c r="D18" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" t="s">
-        <v>171</v>
-      </c>
-      <c r="F18" t="s">
-        <v>833</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
+        <v>927</v>
+      </c>
+      <c r="J18" t="s">
         <v>172</v>
       </c>
-      <c r="H18" t="s">
+      <c r="K18" t="s">
         <v>173</v>
       </c>
-      <c r="I18" t="s">
-        <v>899</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
+        <v>962</v>
+      </c>
+      <c r="M18" t="s">
         <v>174</v>
       </c>
-      <c r="K18" t="s">
+      <c r="N18" t="s">
         <v>175</v>
-      </c>
-      <c r="L18" t="s">
-        <v>933</v>
-      </c>
-      <c r="M18" t="s">
-        <v>176</v>
-      </c>
-      <c r="N18" t="s">
-        <v>177</v>
       </c>
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18" t="s">
-        <v>1003</v>
+        <v>1034</v>
       </c>
       <c r="S18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="T18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" t="s">
+        <v>743</v>
+      </c>
+      <c r="C19" t="s">
         <v>180</v>
       </c>
-      <c r="B19" t="s">
-        <v>721</v>
-      </c>
-      <c r="C19" t="s">
-        <v>759</v>
-      </c>
       <c r="D19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19" t="s">
+        <v>861</v>
+      </c>
+      <c r="G19" t="s">
         <v>181</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
         <v>182</v>
       </c>
-      <c r="F19" t="s">
-        <v>834</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
+        <v>928</v>
+      </c>
+      <c r="J19" t="s">
         <v>183</v>
       </c>
-      <c r="H19" t="s">
+      <c r="K19" t="s">
         <v>184</v>
       </c>
-      <c r="I19" t="s">
-        <v>900</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
+        <v>963</v>
+      </c>
+      <c r="M19" t="s">
         <v>185</v>
       </c>
-      <c r="K19" t="s">
+      <c r="N19" t="s">
         <v>186</v>
-      </c>
-      <c r="L19" t="s">
-        <v>934</v>
-      </c>
-      <c r="M19" t="s">
-        <v>187</v>
-      </c>
-      <c r="N19" t="s">
-        <v>188</v>
       </c>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19" t="s">
-        <v>1004</v>
+        <v>1035</v>
       </c>
       <c r="S19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" t="s">
+        <v>743</v>
+      </c>
+      <c r="C20" t="s">
+        <v>784</v>
+      </c>
+      <c r="D20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" t="s">
         <v>191</v>
       </c>
-      <c r="B20" t="s">
-        <v>724</v>
-      </c>
-      <c r="C20" t="s">
-        <v>760</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
+        <v>862</v>
+      </c>
+      <c r="G20" t="s">
         <v>192</v>
       </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>193</v>
       </c>
-      <c r="F20" t="s">
-        <v>835</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
+        <v>929</v>
+      </c>
+      <c r="J20" t="s">
         <v>194</v>
       </c>
-      <c r="H20" t="s">
+      <c r="K20" t="s">
         <v>195</v>
       </c>
-      <c r="I20" t="s">
-        <v>901</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
+        <v>964</v>
+      </c>
+      <c r="M20" t="s">
         <v>196</v>
       </c>
-      <c r="K20" t="s">
+      <c r="N20" t="s">
         <v>197</v>
-      </c>
-      <c r="L20" t="s">
-        <v>935</v>
-      </c>
-      <c r="M20" t="s">
-        <v>198</v>
-      </c>
-      <c r="N20" t="s">
-        <v>199</v>
       </c>
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20" t="s">
-        <v>1005</v>
+        <v>1036</v>
       </c>
       <c r="S20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="T20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" t="s">
+        <v>746</v>
+      </c>
+      <c r="C21" t="s">
+        <v>785</v>
+      </c>
+      <c r="D21" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" t="s">
         <v>202</v>
       </c>
-      <c r="B21" t="s">
-        <v>718</v>
-      </c>
-      <c r="C21" t="s">
-        <v>761</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
+        <v>863</v>
+      </c>
+      <c r="G21" t="s">
         <v>203</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
         <v>204</v>
       </c>
-      <c r="F21" t="s">
-        <v>836</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
+        <v>930</v>
+      </c>
+      <c r="J21" t="s">
         <v>205</v>
       </c>
-      <c r="H21" t="s">
+      <c r="K21" t="s">
         <v>206</v>
       </c>
-      <c r="I21" t="s">
-        <v>902</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
+        <v>965</v>
+      </c>
+      <c r="M21" t="s">
         <v>207</v>
       </c>
-      <c r="K21" t="s">
+      <c r="N21" t="s">
         <v>208</v>
-      </c>
-      <c r="L21" t="s">
-        <v>936</v>
-      </c>
-      <c r="M21" t="s">
-        <v>209</v>
-      </c>
-      <c r="N21" t="s">
-        <v>210</v>
       </c>
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21" t="s">
-        <v>1006</v>
+        <v>1037</v>
       </c>
       <c r="S21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="T21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" t="s">
+        <v>739</v>
+      </c>
+      <c r="C22" t="s">
+        <v>786</v>
+      </c>
+      <c r="D22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" t="s">
         <v>213</v>
       </c>
-      <c r="B22" t="s">
-        <v>721</v>
-      </c>
-      <c r="C22" t="s">
-        <v>762</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
+        <v>864</v>
+      </c>
+      <c r="G22" t="s">
         <v>214</v>
       </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
         <v>215</v>
       </c>
-      <c r="F22" t="s">
-        <v>837</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
+        <v>931</v>
+      </c>
+      <c r="J22" t="s">
         <v>216</v>
       </c>
-      <c r="H22" t="s">
+      <c r="K22" t="s">
         <v>217</v>
       </c>
-      <c r="I22" t="s">
-        <v>762</v>
-      </c>
-      <c r="J22" t="s">
-        <v>214</v>
-      </c>
-      <c r="K22" t="s">
-        <v>215</v>
-      </c>
       <c r="L22" t="s">
-        <v>937</v>
+        <v>966</v>
       </c>
       <c r="M22" t="s">
         <v>218</v>
@@ -4438,7 +4537,7 @@
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22" t="s">
-        <v>1007</v>
+        <v>1038</v>
       </c>
       <c r="S22" t="s">
         <v>220</v>
@@ -4452,10 +4551,10 @@
         <v>222</v>
       </c>
       <c r="B23" t="s">
-        <v>725</v>
+        <v>743</v>
       </c>
       <c r="C23" t="s">
-        <v>763</v>
+        <v>787</v>
       </c>
       <c r="D23" t="s">
         <v>223</v>
@@ -4464,7 +4563,7 @@
         <v>224</v>
       </c>
       <c r="F23" t="s">
-        <v>838</v>
+        <v>865</v>
       </c>
       <c r="G23" t="s">
         <v>225</v>
@@ -4473,7 +4572,7 @@
         <v>226</v>
       </c>
       <c r="I23" t="s">
-        <v>903</v>
+        <v>787</v>
       </c>
       <c r="J23" t="s">
         <v>223</v>
@@ -4482,7 +4581,7 @@
         <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>938</v>
+        <v>967</v>
       </c>
       <c r="M23" t="s">
         <v>227</v>
@@ -4492,73 +4591,73 @@
       </c>
       <c r="P23"/>
       <c r="Q23"/>
-      <c r="S23"/>
-      <c r="T23"/>
+      <c r="R23" t="s">
+        <v>1039</v>
+      </c>
+      <c r="S23" t="s">
+        <v>229</v>
+      </c>
+      <c r="T23" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s">
-        <v>726</v>
+        <v>747</v>
       </c>
       <c r="C24" t="s">
-        <v>764</v>
+        <v>788</v>
       </c>
       <c r="D24" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E24" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F24" t="s">
-        <v>839</v>
+        <v>866</v>
       </c>
       <c r="G24" t="s">
+        <v>234</v>
+      </c>
+      <c r="H24" t="s">
+        <v>235</v>
+      </c>
+      <c r="I24" t="s">
+        <v>932</v>
+      </c>
+      <c r="J24" t="s">
         <v>232</v>
       </c>
-      <c r="H24" t="s">
+      <c r="K24" t="s">
         <v>233</v>
       </c>
-      <c r="I24" t="s">
-        <v>764</v>
-      </c>
-      <c r="J24" t="s">
-        <v>230</v>
-      </c>
-      <c r="K24" t="s">
-        <v>231</v>
-      </c>
       <c r="L24" t="s">
-        <v>939</v>
+        <v>968</v>
       </c>
       <c r="M24" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N24" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P24"/>
       <c r="Q24"/>
-      <c r="R24" t="s">
-        <v>1008</v>
-      </c>
-      <c r="S24" t="s">
-        <v>236</v>
-      </c>
-      <c r="T24" t="s">
-        <v>237</v>
-      </c>
+      <c r="S24"/>
+      <c r="T24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>238</v>
       </c>
       <c r="B25" t="s">
-        <v>727</v>
+        <v>748</v>
       </c>
       <c r="C25" t="s">
-        <v>765</v>
+        <v>789</v>
       </c>
       <c r="D25" t="s">
         <v>239</v>
@@ -4567,7 +4666,7 @@
         <v>240</v>
       </c>
       <c r="F25" t="s">
-        <v>840</v>
+        <v>867</v>
       </c>
       <c r="G25" t="s">
         <v>241</v>
@@ -4576,7 +4675,7 @@
         <v>242</v>
       </c>
       <c r="I25" t="s">
-        <v>765</v>
+        <v>789</v>
       </c>
       <c r="J25" t="s">
         <v>239</v>
@@ -4585,7 +4684,7 @@
         <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>940</v>
+        <v>969</v>
       </c>
       <c r="M25" t="s">
         <v>243</v>
@@ -4596,7 +4695,7 @@
       <c r="P25"/>
       <c r="Q25"/>
       <c r="R25" t="s">
-        <v>1009</v>
+        <v>1040</v>
       </c>
       <c r="S25" t="s">
         <v>245</v>
@@ -4610,10 +4709,10 @@
         <v>247</v>
       </c>
       <c r="B26" t="s">
-        <v>718</v>
+        <v>749</v>
       </c>
       <c r="C26" t="s">
-        <v>766</v>
+        <v>790</v>
       </c>
       <c r="D26" t="s">
         <v>248</v>
@@ -4622,7 +4721,7 @@
         <v>249</v>
       </c>
       <c r="F26" t="s">
-        <v>841</v>
+        <v>868</v>
       </c>
       <c r="G26" t="s">
         <v>250</v>
@@ -4631,7 +4730,7 @@
         <v>251</v>
       </c>
       <c r="I26" t="s">
-        <v>766</v>
+        <v>790</v>
       </c>
       <c r="J26" t="s">
         <v>248</v>
@@ -4640,7 +4739,7 @@
         <v>249</v>
       </c>
       <c r="L26" t="s">
-        <v>941</v>
+        <v>970</v>
       </c>
       <c r="M26" t="s">
         <v>252</v>
@@ -4651,7 +4750,7 @@
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26" t="s">
-        <v>1010</v>
+        <v>1041</v>
       </c>
       <c r="S26" t="s">
         <v>254</v>
@@ -4665,10 +4764,10 @@
         <v>256</v>
       </c>
       <c r="B27" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="C27" t="s">
-        <v>767</v>
+        <v>791</v>
       </c>
       <c r="D27" t="s">
         <v>257</v>
@@ -4677,7 +4776,7 @@
         <v>258</v>
       </c>
       <c r="F27" t="s">
-        <v>842</v>
+        <v>869</v>
       </c>
       <c r="G27" t="s">
         <v>259</v>
@@ -4686,7 +4785,7 @@
         <v>260</v>
       </c>
       <c r="I27" t="s">
-        <v>767</v>
+        <v>791</v>
       </c>
       <c r="J27" t="s">
         <v>257</v>
@@ -4695,7 +4794,7 @@
         <v>258</v>
       </c>
       <c r="L27" t="s">
-        <v>942</v>
+        <v>971</v>
       </c>
       <c r="M27" t="s">
         <v>261</v>
@@ -4706,7 +4805,7 @@
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27" t="s">
-        <v>1011</v>
+        <v>1042</v>
       </c>
       <c r="S27" t="s">
         <v>263</v>
@@ -4720,10 +4819,10 @@
         <v>265</v>
       </c>
       <c r="B28" t="s">
-        <v>728</v>
+        <v>750</v>
       </c>
       <c r="C28" t="s">
-        <v>267</v>
+        <v>792</v>
       </c>
       <c r="D28" t="s">
         <v>266</v>
@@ -4732,7 +4831,7 @@
         <v>267</v>
       </c>
       <c r="F28" t="s">
-        <v>843</v>
+        <v>870</v>
       </c>
       <c r="G28" t="s">
         <v>268</v>
@@ -4741,7 +4840,7 @@
         <v>269</v>
       </c>
       <c r="I28" t="s">
-        <v>267</v>
+        <v>792</v>
       </c>
       <c r="J28" t="s">
         <v>266</v>
@@ -4750,7 +4849,7 @@
         <v>267</v>
       </c>
       <c r="L28" t="s">
-        <v>943</v>
+        <v>972</v>
       </c>
       <c r="M28" t="s">
         <v>270</v>
@@ -4761,7 +4860,7 @@
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28" t="s">
-        <v>1012</v>
+        <v>1043</v>
       </c>
       <c r="S28" t="s">
         <v>272</v>
@@ -4775,10 +4874,10 @@
         <v>274</v>
       </c>
       <c r="B29" t="s">
-        <v>728</v>
+        <v>750</v>
       </c>
       <c r="C29" t="s">
-        <v>768</v>
+        <v>276</v>
       </c>
       <c r="D29" t="s">
         <v>275</v>
@@ -4787,7 +4886,7 @@
         <v>276</v>
       </c>
       <c r="F29" t="s">
-        <v>844</v>
+        <v>871</v>
       </c>
       <c r="G29" t="s">
         <v>277</v>
@@ -4796,7 +4895,7 @@
         <v>278</v>
       </c>
       <c r="I29" t="s">
-        <v>768</v>
+        <v>276</v>
       </c>
       <c r="J29" t="s">
         <v>275</v>
@@ -4805,7 +4904,7 @@
         <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>944</v>
+        <v>973</v>
       </c>
       <c r="M29" t="s">
         <v>279</v>
@@ -4816,7 +4915,7 @@
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29" t="s">
-        <v>1013</v>
+        <v>1044</v>
       </c>
       <c r="S29" t="s">
         <v>281</v>
@@ -4830,10 +4929,10 @@
         <v>283</v>
       </c>
       <c r="B30" t="s">
-        <v>728</v>
+        <v>750</v>
       </c>
       <c r="C30" t="s">
-        <v>769</v>
+        <v>793</v>
       </c>
       <c r="D30" t="s">
         <v>284</v>
@@ -4842,7 +4941,7 @@
         <v>285</v>
       </c>
       <c r="F30" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="G30" t="s">
         <v>286</v>
@@ -4851,7 +4950,7 @@
         <v>287</v>
       </c>
       <c r="I30" t="s">
-        <v>769</v>
+        <v>793</v>
       </c>
       <c r="J30" t="s">
         <v>284</v>
@@ -4860,7 +4959,7 @@
         <v>285</v>
       </c>
       <c r="L30" t="s">
-        <v>945</v>
+        <v>974</v>
       </c>
       <c r="M30" t="s">
         <v>288</v>
@@ -4871,7 +4970,7 @@
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30" t="s">
-        <v>1014</v>
+        <v>1045</v>
       </c>
       <c r="S30" t="s">
         <v>290</v>
@@ -4885,10 +4984,10 @@
         <v>292</v>
       </c>
       <c r="B31" t="s">
-        <v>721</v>
+        <v>750</v>
       </c>
       <c r="C31" t="s">
-        <v>770</v>
+        <v>794</v>
       </c>
       <c r="D31" t="s">
         <v>293</v>
@@ -4897,7 +4996,7 @@
         <v>294</v>
       </c>
       <c r="F31" t="s">
-        <v>846</v>
+        <v>873</v>
       </c>
       <c r="G31" t="s">
         <v>295</v>
@@ -4906,71 +5005,71 @@
         <v>296</v>
       </c>
       <c r="I31" t="s">
-        <v>904</v>
+        <v>794</v>
       </c>
       <c r="J31" t="s">
+        <v>293</v>
+      </c>
+      <c r="K31" t="s">
+        <v>294</v>
+      </c>
+      <c r="L31" t="s">
+        <v>975</v>
+      </c>
+      <c r="M31" t="s">
         <v>297</v>
       </c>
-      <c r="K31" t="s">
+      <c r="N31" t="s">
         <v>298</v>
-      </c>
-      <c r="L31" t="s">
-        <v>946</v>
-      </c>
-      <c r="M31" t="s">
-        <v>299</v>
-      </c>
-      <c r="N31" t="s">
-        <v>300</v>
       </c>
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31" t="s">
-        <v>1015</v>
+        <v>1046</v>
       </c>
       <c r="S31" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="T31" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>301</v>
+      </c>
+      <c r="B32" t="s">
+        <v>743</v>
+      </c>
+      <c r="C32" t="s">
+        <v>795</v>
+      </c>
+      <c r="D32" t="s">
+        <v>302</v>
+      </c>
+      <c r="E32" t="s">
         <v>303</v>
       </c>
-      <c r="B32" t="s">
-        <v>721</v>
-      </c>
-      <c r="C32" t="s">
-        <v>771</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
+        <v>874</v>
+      </c>
+      <c r="G32" t="s">
         <v>304</v>
       </c>
-      <c r="E32" t="s">
+      <c r="H32" t="s">
         <v>305</v>
       </c>
-      <c r="F32" t="s">
-        <v>847</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
+        <v>933</v>
+      </c>
+      <c r="J32" t="s">
         <v>306</v>
       </c>
-      <c r="H32" t="s">
+      <c r="K32" t="s">
         <v>307</v>
       </c>
-      <c r="I32" t="s">
-        <v>771</v>
-      </c>
-      <c r="J32" t="s">
-        <v>304</v>
-      </c>
-      <c r="K32" t="s">
-        <v>305</v>
-      </c>
       <c r="L32" t="s">
-        <v>947</v>
+        <v>976</v>
       </c>
       <c r="M32" t="s">
         <v>308</v>
@@ -4981,7 +5080,7 @@
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32" t="s">
-        <v>1016</v>
+        <v>1047</v>
       </c>
       <c r="S32" t="s">
         <v>310</v>
@@ -4995,10 +5094,10 @@
         <v>312</v>
       </c>
       <c r="B33" t="s">
-        <v>729</v>
+        <v>743</v>
       </c>
       <c r="C33" t="s">
-        <v>772</v>
+        <v>796</v>
       </c>
       <c r="D33" t="s">
         <v>313</v>
@@ -5007,7 +5106,7 @@
         <v>314</v>
       </c>
       <c r="F33" t="s">
-        <v>848</v>
+        <v>875</v>
       </c>
       <c r="G33" t="s">
         <v>315</v>
@@ -5016,7 +5115,7 @@
         <v>316</v>
       </c>
       <c r="I33" t="s">
-        <v>772</v>
+        <v>796</v>
       </c>
       <c r="J33" t="s">
         <v>313</v>
@@ -5025,7 +5124,7 @@
         <v>314</v>
       </c>
       <c r="L33" t="s">
-        <v>948</v>
+        <v>977</v>
       </c>
       <c r="M33" t="s">
         <v>317</v>
@@ -5036,7 +5135,7 @@
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33" t="s">
-        <v>1017</v>
+        <v>1048</v>
       </c>
       <c r="S33" t="s">
         <v>319</v>
@@ -5050,10 +5149,10 @@
         <v>321</v>
       </c>
       <c r="B34" t="s">
-        <v>730</v>
+        <v>751</v>
       </c>
       <c r="C34" t="s">
-        <v>773</v>
+        <v>797</v>
       </c>
       <c r="D34" t="s">
         <v>322</v>
@@ -5062,7 +5161,7 @@
         <v>323</v>
       </c>
       <c r="F34" t="s">
-        <v>849</v>
+        <v>876</v>
       </c>
       <c r="G34" t="s">
         <v>324</v>
@@ -5071,71 +5170,71 @@
         <v>325</v>
       </c>
       <c r="I34" t="s">
-        <v>773</v>
+        <v>797</v>
       </c>
       <c r="J34" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K34" t="s">
         <v>323</v>
       </c>
       <c r="L34" t="s">
-        <v>949</v>
+        <v>978</v>
       </c>
       <c r="M34" t="s">
+        <v>326</v>
+      </c>
+      <c r="N34" t="s">
         <v>327</v>
-      </c>
-      <c r="N34" t="s">
-        <v>328</v>
       </c>
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34" t="s">
-        <v>1018</v>
+        <v>1049</v>
       </c>
       <c r="S34" t="s">
+        <v>328</v>
+      </c>
+      <c r="T34" t="s">
         <v>329</v>
-      </c>
-      <c r="T34" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>330</v>
+      </c>
+      <c r="B35" t="s">
+        <v>752</v>
+      </c>
+      <c r="C35" t="s">
+        <v>798</v>
+      </c>
+      <c r="D35" t="s">
         <v>331</v>
       </c>
-      <c r="B35" t="s">
-        <v>731</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
+        <v>332</v>
+      </c>
+      <c r="F35" t="s">
+        <v>877</v>
+      </c>
+      <c r="G35" t="s">
         <v>333</v>
       </c>
-      <c r="D35" t="s">
+      <c r="H35" t="s">
+        <v>334</v>
+      </c>
+      <c r="I35" t="s">
+        <v>798</v>
+      </c>
+      <c r="J35" t="s">
+        <v>335</v>
+      </c>
+      <c r="K35" t="s">
         <v>332</v>
       </c>
-      <c r="E35" t="s">
-        <v>333</v>
-      </c>
-      <c r="F35" t="s">
-        <v>850</v>
-      </c>
-      <c r="G35" t="s">
-        <v>334</v>
-      </c>
-      <c r="H35" t="s">
-        <v>335</v>
-      </c>
-      <c r="I35" t="s">
-        <v>333</v>
-      </c>
-      <c r="J35" t="s">
-        <v>332</v>
-      </c>
-      <c r="K35" t="s">
-        <v>333</v>
-      </c>
       <c r="L35" t="s">
-        <v>950</v>
+        <v>979</v>
       </c>
       <c r="M35" t="s">
         <v>336</v>
@@ -5146,7 +5245,7 @@
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>1019</v>
+        <v>1050</v>
       </c>
       <c r="S35" t="s">
         <v>338</v>
@@ -5160,10 +5259,10 @@
         <v>340</v>
       </c>
       <c r="B36" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C36" t="s">
-        <v>774</v>
+        <v>342</v>
       </c>
       <c r="D36" t="s">
         <v>341</v>
@@ -5172,7 +5271,7 @@
         <v>342</v>
       </c>
       <c r="F36" t="s">
-        <v>851</v>
+        <v>878</v>
       </c>
       <c r="G36" t="s">
         <v>343</v>
@@ -5181,71 +5280,71 @@
         <v>344</v>
       </c>
       <c r="I36" t="s">
-        <v>774</v>
+        <v>342</v>
       </c>
       <c r="J36" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K36" t="s">
         <v>342</v>
       </c>
       <c r="L36" t="s">
-        <v>951</v>
+        <v>980</v>
       </c>
       <c r="M36" t="s">
+        <v>345</v>
+      </c>
+      <c r="N36" t="s">
         <v>346</v>
-      </c>
-      <c r="N36" t="s">
-        <v>347</v>
       </c>
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36" t="s">
-        <v>1020</v>
+        <v>1051</v>
       </c>
       <c r="S36" t="s">
+        <v>347</v>
+      </c>
+      <c r="T36" t="s">
         <v>348</v>
-      </c>
-      <c r="T36" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>349</v>
+      </c>
+      <c r="B37" t="s">
+        <v>751</v>
+      </c>
+      <c r="C37" t="s">
+        <v>799</v>
+      </c>
+      <c r="D37" t="s">
         <v>350</v>
       </c>
-      <c r="B37" t="s">
-        <v>732</v>
-      </c>
-      <c r="C37" t="s">
-        <v>775</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>351</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
+        <v>879</v>
+      </c>
+      <c r="G37" t="s">
         <v>352</v>
       </c>
-      <c r="F37" t="s">
-        <v>852</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>353</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
+        <v>799</v>
+      </c>
+      <c r="J37" t="s">
         <v>354</v>
       </c>
-      <c r="I37" t="s">
-        <v>775</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>351</v>
       </c>
-      <c r="K37" t="s">
-        <v>352</v>
-      </c>
       <c r="L37" t="s">
-        <v>952</v>
+        <v>981</v>
       </c>
       <c r="M37" t="s">
         <v>355</v>
@@ -5256,7 +5355,7 @@
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37" t="s">
-        <v>1021</v>
+        <v>1052</v>
       </c>
       <c r="S37" t="s">
         <v>357</v>
@@ -5270,10 +5369,10 @@
         <v>359</v>
       </c>
       <c r="B38" t="s">
-        <v>729</v>
+        <v>754</v>
       </c>
       <c r="C38" t="s">
-        <v>776</v>
+        <v>800</v>
       </c>
       <c r="D38" t="s">
         <v>360</v>
@@ -5282,7 +5381,7 @@
         <v>361</v>
       </c>
       <c r="F38" t="s">
-        <v>853</v>
+        <v>880</v>
       </c>
       <c r="G38" t="s">
         <v>362</v>
@@ -5291,7 +5390,7 @@
         <v>363</v>
       </c>
       <c r="I38" t="s">
-        <v>776</v>
+        <v>800</v>
       </c>
       <c r="J38" t="s">
         <v>360</v>
@@ -5300,7 +5399,7 @@
         <v>361</v>
       </c>
       <c r="L38" t="s">
-        <v>953</v>
+        <v>982</v>
       </c>
       <c r="M38" t="s">
         <v>364</v>
@@ -5311,7 +5410,7 @@
       <c r="P38"/>
       <c r="Q38"/>
       <c r="R38" t="s">
-        <v>1022</v>
+        <v>1053</v>
       </c>
       <c r="S38" t="s">
         <v>366</v>
@@ -5325,10 +5424,10 @@
         <v>368</v>
       </c>
       <c r="B39" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
       <c r="C39" t="s">
-        <v>777</v>
+        <v>801</v>
       </c>
       <c r="D39" t="s">
         <v>369</v>
@@ -5337,7 +5436,7 @@
         <v>370</v>
       </c>
       <c r="F39" t="s">
-        <v>854</v>
+        <v>881</v>
       </c>
       <c r="G39" t="s">
         <v>371</v>
@@ -5346,7 +5445,7 @@
         <v>372</v>
       </c>
       <c r="I39" t="s">
-        <v>777</v>
+        <v>801</v>
       </c>
       <c r="J39" t="s">
         <v>369</v>
@@ -5355,7 +5454,7 @@
         <v>370</v>
       </c>
       <c r="L39" t="s">
-        <v>954</v>
+        <v>983</v>
       </c>
       <c r="M39" t="s">
         <v>373</v>
@@ -5365,45 +5464,59 @@
       </c>
       <c r="P39"/>
       <c r="Q39"/>
-      <c r="S39"/>
-      <c r="T39"/>
+      <c r="R39" t="s">
+        <v>1054</v>
+      </c>
+      <c r="S39" t="s">
+        <v>375</v>
+      </c>
+      <c r="T39" t="s">
+        <v>376</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B40" t="s">
-        <v>734</v>
+        <v>755</v>
       </c>
       <c r="C40" t="s">
-        <v>778</v>
+        <v>802</v>
       </c>
       <c r="D40" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E40" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F40" t="s">
-        <v>855</v>
+        <v>882</v>
       </c>
       <c r="G40" t="s">
+        <v>380</v>
+      </c>
+      <c r="H40" t="s">
+        <v>381</v>
+      </c>
+      <c r="I40" t="s">
+        <v>802</v>
+      </c>
+      <c r="J40" t="s">
         <v>378</v>
       </c>
-      <c r="H40" t="s">
+      <c r="K40" t="s">
         <v>379</v>
       </c>
-      <c r="I40" t="s">
-        <v>778</v>
-      </c>
-      <c r="J40" t="s">
-        <v>376</v>
-      </c>
-      <c r="K40" t="s">
-        <v>377</v>
-      </c>
-      <c r="M40"/>
-      <c r="N40"/>
+      <c r="L40" t="s">
+        <v>984</v>
+      </c>
+      <c r="M40" t="s">
+        <v>382</v>
+      </c>
+      <c r="N40" t="s">
+        <v>383</v>
+      </c>
       <c r="P40"/>
       <c r="Q40"/>
       <c r="S40"/>
@@ -5411,37 +5524,37 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B41" t="s">
-        <v>735</v>
+        <v>756</v>
       </c>
       <c r="C41" t="s">
-        <v>779</v>
+        <v>803</v>
       </c>
       <c r="D41" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E41" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F41" t="s">
-        <v>856</v>
+        <v>883</v>
       </c>
       <c r="G41" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H41" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="I41" t="s">
-        <v>779</v>
+        <v>803</v>
       </c>
       <c r="J41" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K41" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M41"/>
       <c r="N41"/>
@@ -5452,68 +5565,54 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B42" t="s">
-        <v>736</v>
+        <v>757</v>
       </c>
       <c r="C42" t="s">
-        <v>780</v>
+        <v>804</v>
       </c>
       <c r="D42" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E42" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F42" t="s">
-        <v>857</v>
+        <v>884</v>
       </c>
       <c r="G42" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="H42" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="I42" t="s">
-        <v>780</v>
+        <v>804</v>
       </c>
       <c r="J42" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="K42" t="s">
-        <v>387</v>
-      </c>
-      <c r="L42" t="s">
-        <v>955</v>
-      </c>
-      <c r="M42" t="s">
-        <v>390</v>
-      </c>
-      <c r="N42" t="s">
         <v>391</v>
       </c>
+      <c r="M42"/>
+      <c r="N42"/>
       <c r="P42"/>
       <c r="Q42"/>
-      <c r="R42" t="s">
-        <v>1023</v>
-      </c>
-      <c r="S42" t="s">
-        <v>392</v>
-      </c>
-      <c r="T42" t="s">
-        <v>393</v>
-      </c>
+      <c r="S42"/>
+      <c r="T42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>394</v>
       </c>
       <c r="B43" t="s">
-        <v>721</v>
+        <v>758</v>
       </c>
       <c r="C43" t="s">
-        <v>781</v>
+        <v>805</v>
       </c>
       <c r="D43" t="s">
         <v>395</v>
@@ -5522,7 +5621,7 @@
         <v>396</v>
       </c>
       <c r="F43" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="G43" t="s">
         <v>397</v>
@@ -5531,71 +5630,71 @@
         <v>398</v>
       </c>
       <c r="I43" t="s">
-        <v>781</v>
+        <v>805</v>
       </c>
       <c r="J43" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K43" t="s">
         <v>396</v>
       </c>
       <c r="L43" t="s">
-        <v>956</v>
+        <v>985</v>
       </c>
       <c r="M43" t="s">
+        <v>399</v>
+      </c>
+      <c r="N43" t="s">
         <v>400</v>
-      </c>
-      <c r="N43" t="s">
-        <v>401</v>
       </c>
       <c r="P43"/>
       <c r="Q43"/>
       <c r="R43" t="s">
-        <v>1024</v>
+        <v>1055</v>
       </c>
       <c r="S43" t="s">
+        <v>401</v>
+      </c>
+      <c r="T43" t="s">
         <v>402</v>
-      </c>
-      <c r="T43" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>403</v>
+      </c>
+      <c r="B44" t="s">
+        <v>743</v>
+      </c>
+      <c r="C44" t="s">
+        <v>806</v>
+      </c>
+      <c r="D44" t="s">
         <v>404</v>
       </c>
-      <c r="B44" t="s">
-        <v>721</v>
-      </c>
-      <c r="C44" t="s">
-        <v>782</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>405</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
+        <v>886</v>
+      </c>
+      <c r="G44" t="s">
         <v>406</v>
       </c>
-      <c r="F44" t="s">
-        <v>859</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>407</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
+        <v>806</v>
+      </c>
+      <c r="J44" t="s">
         <v>408</v>
       </c>
-      <c r="I44" t="s">
-        <v>782</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>405</v>
       </c>
-      <c r="K44" t="s">
-        <v>406</v>
-      </c>
       <c r="L44" t="s">
-        <v>957</v>
+        <v>986</v>
       </c>
       <c r="M44" t="s">
         <v>409</v>
@@ -5606,68 +5705,68 @@
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44" t="s">
-        <v>1025</v>
+        <v>1056</v>
       </c>
       <c r="S44" t="s">
-        <v>310</v>
+        <v>411</v>
       </c>
       <c r="T44" t="s">
-        <v>311</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B45" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="C45" t="s">
-        <v>783</v>
+        <v>807</v>
       </c>
       <c r="D45" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E45" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F45" t="s">
-        <v>860</v>
+        <v>887</v>
       </c>
       <c r="G45" t="s">
+        <v>416</v>
+      </c>
+      <c r="H45" t="s">
+        <v>417</v>
+      </c>
+      <c r="I45" t="s">
+        <v>807</v>
+      </c>
+      <c r="J45" t="s">
         <v>414</v>
       </c>
-      <c r="H45" t="s">
+      <c r="K45" t="s">
         <v>415</v>
       </c>
-      <c r="I45" t="s">
-        <v>783</v>
-      </c>
-      <c r="J45" t="s">
-        <v>412</v>
-      </c>
-      <c r="K45" t="s">
-        <v>413</v>
-      </c>
       <c r="L45" t="s">
-        <v>958</v>
+        <v>987</v>
       </c>
       <c r="M45" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="N45" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="P45"/>
       <c r="Q45"/>
       <c r="R45" t="s">
-        <v>1026</v>
+        <v>1057</v>
       </c>
       <c r="S45" t="s">
-        <v>418</v>
+        <v>319</v>
       </c>
       <c r="T45" t="s">
-        <v>419</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46">
@@ -5675,10 +5774,10 @@
         <v>420</v>
       </c>
       <c r="B46" t="s">
-        <v>718</v>
+        <v>743</v>
       </c>
       <c r="C46" t="s">
-        <v>422</v>
+        <v>808</v>
       </c>
       <c r="D46" t="s">
         <v>421</v>
@@ -5687,7 +5786,7 @@
         <v>422</v>
       </c>
       <c r="F46" t="s">
-        <v>861</v>
+        <v>888</v>
       </c>
       <c r="G46" t="s">
         <v>423</v>
@@ -5696,7 +5795,7 @@
         <v>424</v>
       </c>
       <c r="I46" t="s">
-        <v>422</v>
+        <v>808</v>
       </c>
       <c r="J46" t="s">
         <v>421</v>
@@ -5705,7 +5804,7 @@
         <v>422</v>
       </c>
       <c r="L46" t="s">
-        <v>959</v>
+        <v>988</v>
       </c>
       <c r="M46" t="s">
         <v>425</v>
@@ -5715,100 +5814,100 @@
       </c>
       <c r="P46"/>
       <c r="Q46"/>
-      <c r="S46"/>
-      <c r="T46"/>
+      <c r="R46" t="s">
+        <v>1058</v>
+      </c>
+      <c r="S46" t="s">
+        <v>427</v>
+      </c>
+      <c r="T46" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B47" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C47" t="s">
-        <v>784</v>
+        <v>431</v>
       </c>
       <c r="D47" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E47" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F47" t="s">
-        <v>862</v>
+        <v>889</v>
       </c>
       <c r="G47" t="s">
+        <v>432</v>
+      </c>
+      <c r="H47" t="s">
+        <v>433</v>
+      </c>
+      <c r="I47" t="s">
+        <v>431</v>
+      </c>
+      <c r="J47" t="s">
         <v>430</v>
       </c>
-      <c r="H47" t="s">
+      <c r="K47" t="s">
         <v>431</v>
       </c>
-      <c r="I47" t="s">
-        <v>784</v>
-      </c>
-      <c r="J47" t="s">
-        <v>432</v>
-      </c>
-      <c r="K47" t="s">
-        <v>429</v>
-      </c>
       <c r="L47" t="s">
-        <v>960</v>
+        <v>989</v>
       </c>
       <c r="M47" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N47" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P47"/>
       <c r="Q47"/>
-      <c r="R47" t="s">
-        <v>1027</v>
-      </c>
-      <c r="S47" t="s">
-        <v>435</v>
-      </c>
-      <c r="T47" t="s">
-        <v>436</v>
-      </c>
+      <c r="S47"/>
+      <c r="T47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>436</v>
+      </c>
+      <c r="B48" t="s">
+        <v>759</v>
+      </c>
+      <c r="C48" t="s">
+        <v>809</v>
+      </c>
+      <c r="D48" t="s">
         <v>437</v>
       </c>
-      <c r="B48" t="s">
-        <v>738</v>
-      </c>
-      <c r="C48" t="s">
-        <v>785</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>438</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
+        <v>890</v>
+      </c>
+      <c r="G48" t="s">
         <v>439</v>
       </c>
-      <c r="F48" t="s">
-        <v>863</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>440</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
+        <v>809</v>
+      </c>
+      <c r="J48" t="s">
         <v>441</v>
       </c>
-      <c r="I48" t="s">
-        <v>785</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>438</v>
       </c>
-      <c r="K48" t="s">
-        <v>439</v>
-      </c>
       <c r="L48" t="s">
-        <v>961</v>
+        <v>990</v>
       </c>
       <c r="M48" t="s">
         <v>442</v>
@@ -5819,7 +5918,7 @@
       <c r="P48"/>
       <c r="Q48"/>
       <c r="R48" t="s">
-        <v>1028</v>
+        <v>1059</v>
       </c>
       <c r="S48" t="s">
         <v>444</v>
@@ -5833,10 +5932,10 @@
         <v>446</v>
       </c>
       <c r="B49" t="s">
-        <v>738</v>
+        <v>760</v>
       </c>
       <c r="C49" t="s">
-        <v>786</v>
+        <v>810</v>
       </c>
       <c r="D49" t="s">
         <v>447</v>
@@ -5845,7 +5944,7 @@
         <v>448</v>
       </c>
       <c r="F49" t="s">
-        <v>864</v>
+        <v>891</v>
       </c>
       <c r="G49" t="s">
         <v>449</v>
@@ -5854,7 +5953,7 @@
         <v>450</v>
       </c>
       <c r="I49" t="s">
-        <v>786</v>
+        <v>810</v>
       </c>
       <c r="J49" t="s">
         <v>447</v>
@@ -5863,7 +5962,7 @@
         <v>448</v>
       </c>
       <c r="L49" t="s">
-        <v>962</v>
+        <v>991</v>
       </c>
       <c r="M49" t="s">
         <v>451</v>
@@ -5874,33 +5973,33 @@
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49" t="s">
-        <v>1028</v>
+        <v>1060</v>
       </c>
       <c r="S49" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="T49" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B50" t="s">
-        <v>738</v>
+        <v>761</v>
       </c>
       <c r="C50" t="s">
-        <v>787</v>
+        <v>811</v>
       </c>
       <c r="D50" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E50" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F50" t="s">
-        <v>864</v>
+        <v>891</v>
       </c>
       <c r="G50" t="s">
         <v>449</v>
@@ -5909,191 +6008,198 @@
         <v>450</v>
       </c>
       <c r="I50" t="s">
-        <v>787</v>
+        <v>811</v>
       </c>
       <c r="J50" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="K50" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L50" t="s">
-        <v>962</v>
+        <v>992</v>
       </c>
       <c r="M50" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="N50" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50" t="s">
-        <v>1028</v>
+        <v>1061</v>
       </c>
       <c r="S50" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="T50" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B51" t="s">
-        <v>739</v>
+        <v>760</v>
       </c>
       <c r="C51" t="s">
-        <v>788</v>
+        <v>812</v>
       </c>
       <c r="D51" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="E51" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="F51" t="s">
-        <v>864</v>
+        <v>892</v>
       </c>
       <c r="G51" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
       <c r="H51" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="I51" t="s">
-        <v>788</v>
+        <v>812</v>
       </c>
       <c r="J51" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="K51" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="L51" t="s">
-        <v>962</v>
+        <v>993</v>
       </c>
       <c r="M51" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="N51" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51" t="s">
-        <v>1028</v>
+        <v>1060</v>
       </c>
       <c r="S51" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="T51" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="B52" t="s">
-        <v>728</v>
+        <v>760</v>
       </c>
       <c r="C52" t="s">
-        <v>789</v>
+        <v>813</v>
       </c>
       <c r="D52" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="E52" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="F52" t="s">
-        <v>865</v>
+        <v>892</v>
       </c>
       <c r="G52" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="H52" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="I52" t="s">
-        <v>789</v>
+        <v>813</v>
       </c>
       <c r="J52" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="K52" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="L52" t="s">
-        <v>963</v>
+        <v>993</v>
       </c>
       <c r="M52" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="N52" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="P52"/>
       <c r="Q52"/>
-      <c r="S52"/>
-      <c r="T52"/>
+      <c r="R52" t="s">
+        <v>1060</v>
+      </c>
+      <c r="S52" t="s">
+        <v>453</v>
+      </c>
+      <c r="T52" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>472</v>
+      </c>
+      <c r="B53" t="s">
+        <v>762</v>
+      </c>
+      <c r="C53" t="s">
+        <v>814</v>
+      </c>
+      <c r="D53" t="s">
+        <v>473</v>
+      </c>
+      <c r="E53" t="s">
+        <v>474</v>
+      </c>
+      <c r="F53" t="s">
+        <v>892</v>
+      </c>
+      <c r="G53" t="s">
+        <v>465</v>
+      </c>
+      <c r="H53" t="s">
         <v>466</v>
       </c>
-      <c r="B53" t="s">
-        <v>732</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="I53" t="s">
+        <v>814</v>
+      </c>
+      <c r="J53" t="s">
+        <v>473</v>
+      </c>
+      <c r="K53" t="s">
+        <v>474</v>
+      </c>
+      <c r="L53" t="s">
+        <v>993</v>
+      </c>
+      <c r="M53" t="s">
+        <v>467</v>
+      </c>
+      <c r="N53" t="s">
         <v>468</v>
-      </c>
-      <c r="D53" t="s">
-        <v>467</v>
-      </c>
-      <c r="E53" t="s">
-        <v>468</v>
-      </c>
-      <c r="F53" t="s">
-        <v>866</v>
-      </c>
-      <c r="G53" t="s">
-        <v>469</v>
-      </c>
-      <c r="H53" t="s">
-        <v>470</v>
-      </c>
-      <c r="I53" t="s">
-        <v>468</v>
-      </c>
-      <c r="J53" t="s">
-        <v>467</v>
-      </c>
-      <c r="K53" t="s">
-        <v>468</v>
-      </c>
-      <c r="L53" t="s">
-        <v>964</v>
-      </c>
-      <c r="M53" t="s">
-        <v>471</v>
-      </c>
-      <c r="N53" t="s">
-        <v>472</v>
       </c>
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53" t="s">
-        <v>1029</v>
+        <v>1060</v>
       </c>
       <c r="S53" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="T53" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54">
@@ -6101,10 +6207,10 @@
         <v>475</v>
       </c>
       <c r="B54" t="s">
-        <v>728</v>
+        <v>750</v>
       </c>
       <c r="C54" t="s">
-        <v>790</v>
+        <v>815</v>
       </c>
       <c r="D54" t="s">
         <v>476</v>
@@ -6113,7 +6219,7 @@
         <v>477</v>
       </c>
       <c r="F54" t="s">
-        <v>867</v>
+        <v>893</v>
       </c>
       <c r="G54" t="s">
         <v>478</v>
@@ -6122,7 +6228,7 @@
         <v>479</v>
       </c>
       <c r="I54" t="s">
-        <v>790</v>
+        <v>815</v>
       </c>
       <c r="J54" t="s">
         <v>476</v>
@@ -6131,7 +6237,7 @@
         <v>477</v>
       </c>
       <c r="L54" t="s">
-        <v>965</v>
+        <v>994</v>
       </c>
       <c r="M54" t="s">
         <v>480</v>
@@ -6149,7 +6255,7 @@
         <v>482</v>
       </c>
       <c r="B55" t="s">
-        <v>728</v>
+        <v>754</v>
       </c>
       <c r="C55" t="s">
         <v>484</v>
@@ -6161,7 +6267,7 @@
         <v>484</v>
       </c>
       <c r="F55" t="s">
-        <v>868</v>
+        <v>894</v>
       </c>
       <c r="G55" t="s">
         <v>485</v>
@@ -6179,7 +6285,7 @@
         <v>484</v>
       </c>
       <c r="L55" t="s">
-        <v>966</v>
+        <v>995</v>
       </c>
       <c r="M55" t="s">
         <v>487</v>
@@ -6189,51 +6295,58 @@
       </c>
       <c r="P55"/>
       <c r="Q55"/>
-      <c r="S55"/>
-      <c r="T55"/>
+      <c r="R55" t="s">
+        <v>1062</v>
+      </c>
+      <c r="S55" t="s">
+        <v>489</v>
+      </c>
+      <c r="T55" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B56" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="C56" t="s">
-        <v>791</v>
+        <v>816</v>
       </c>
       <c r="D56" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E56" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F56" t="s">
-        <v>869</v>
+        <v>895</v>
       </c>
       <c r="G56" t="s">
+        <v>494</v>
+      </c>
+      <c r="H56" t="s">
+        <v>495</v>
+      </c>
+      <c r="I56" t="s">
+        <v>816</v>
+      </c>
+      <c r="J56" t="s">
         <v>492</v>
       </c>
-      <c r="H56" t="s">
+      <c r="K56" t="s">
         <v>493</v>
       </c>
-      <c r="I56" t="s">
-        <v>791</v>
-      </c>
-      <c r="J56" t="s">
-        <v>490</v>
-      </c>
-      <c r="K56" t="s">
-        <v>491</v>
-      </c>
       <c r="L56" t="s">
-        <v>967</v>
+        <v>996</v>
       </c>
       <c r="M56" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N56" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="P56"/>
       <c r="Q56"/>
@@ -6242,68 +6355,61 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B57" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="C57" t="s">
-        <v>792</v>
+        <v>500</v>
       </c>
       <c r="D57" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E57" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F57" t="s">
-        <v>870</v>
+        <v>896</v>
       </c>
       <c r="G57" t="s">
+        <v>501</v>
+      </c>
+      <c r="H57" t="s">
+        <v>502</v>
+      </c>
+      <c r="I57" t="s">
+        <v>500</v>
+      </c>
+      <c r="J57" t="s">
         <v>499</v>
       </c>
-      <c r="H57" t="s">
+      <c r="K57" t="s">
         <v>500</v>
       </c>
-      <c r="I57" t="s">
-        <v>792</v>
-      </c>
-      <c r="J57" t="s">
-        <v>497</v>
-      </c>
-      <c r="K57" t="s">
-        <v>498</v>
-      </c>
       <c r="L57" t="s">
-        <v>968</v>
+        <v>997</v>
       </c>
       <c r="M57" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="N57" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="P57"/>
       <c r="Q57"/>
-      <c r="R57" t="s">
-        <v>1030</v>
-      </c>
-      <c r="S57" t="s">
-        <v>503</v>
-      </c>
-      <c r="T57" t="s">
-        <v>504</v>
-      </c>
+      <c r="S57"/>
+      <c r="T57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>505</v>
       </c>
       <c r="B58" t="s">
-        <v>728</v>
+        <v>763</v>
       </c>
       <c r="C58" t="s">
-        <v>793</v>
+        <v>817</v>
       </c>
       <c r="D58" t="s">
         <v>506</v>
@@ -6312,7 +6418,7 @@
         <v>507</v>
       </c>
       <c r="F58" t="s">
-        <v>871</v>
+        <v>897</v>
       </c>
       <c r="G58" t="s">
         <v>508</v>
@@ -6321,7 +6427,7 @@
         <v>509</v>
       </c>
       <c r="I58" t="s">
-        <v>793</v>
+        <v>817</v>
       </c>
       <c r="J58" t="s">
         <v>506</v>
@@ -6330,7 +6436,7 @@
         <v>507</v>
       </c>
       <c r="L58" t="s">
-        <v>969</v>
+        <v>998</v>
       </c>
       <c r="M58" t="s">
         <v>510</v>
@@ -6348,10 +6454,10 @@
         <v>512</v>
       </c>
       <c r="B59" t="s">
-        <v>729</v>
+        <v>760</v>
       </c>
       <c r="C59" t="s">
-        <v>794</v>
+        <v>818</v>
       </c>
       <c r="D59" t="s">
         <v>513</v>
@@ -6360,7 +6466,7 @@
         <v>514</v>
       </c>
       <c r="F59" t="s">
-        <v>872</v>
+        <v>898</v>
       </c>
       <c r="G59" t="s">
         <v>515</v>
@@ -6369,7 +6475,7 @@
         <v>516</v>
       </c>
       <c r="I59" t="s">
-        <v>794</v>
+        <v>818</v>
       </c>
       <c r="J59" t="s">
         <v>513</v>
@@ -6378,7 +6484,7 @@
         <v>514</v>
       </c>
       <c r="L59" t="s">
-        <v>970</v>
+        <v>999</v>
       </c>
       <c r="M59" t="s">
         <v>517</v>
@@ -6388,45 +6494,52 @@
       </c>
       <c r="P59"/>
       <c r="Q59"/>
-      <c r="S59"/>
-      <c r="T59"/>
+      <c r="R59" t="s">
+        <v>1063</v>
+      </c>
+      <c r="S59" t="s">
+        <v>519</v>
+      </c>
+      <c r="T59" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B60" t="s">
-        <v>721</v>
+        <v>750</v>
       </c>
       <c r="C60" t="s">
-        <v>795</v>
+        <v>819</v>
       </c>
       <c r="D60" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E60" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F60" t="s">
-        <v>873</v>
+        <v>899</v>
       </c>
       <c r="G60" t="s">
+        <v>524</v>
+      </c>
+      <c r="H60" t="s">
+        <v>525</v>
+      </c>
+      <c r="I60" t="s">
+        <v>819</v>
+      </c>
+      <c r="J60" t="s">
         <v>522</v>
       </c>
-      <c r="H60" t="s">
+      <c r="K60" t="s">
         <v>523</v>
       </c>
-      <c r="I60" t="s">
-        <v>905</v>
-      </c>
-      <c r="J60" t="s">
-        <v>524</v>
-      </c>
-      <c r="K60" t="s">
-        <v>525</v>
-      </c>
       <c r="L60" t="s">
-        <v>971</v>
+        <v>1000</v>
       </c>
       <c r="M60" t="s">
         <v>526</v>
@@ -6436,146 +6549,139 @@
       </c>
       <c r="P60"/>
       <c r="Q60"/>
-      <c r="R60" t="s">
-        <v>1031</v>
-      </c>
-      <c r="S60" t="s">
-        <v>528</v>
-      </c>
-      <c r="T60" t="s">
-        <v>529</v>
-      </c>
+      <c r="S60"/>
+      <c r="T60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>528</v>
+      </c>
+      <c r="B61" t="s">
+        <v>751</v>
+      </c>
+      <c r="C61" t="s">
+        <v>820</v>
+      </c>
+      <c r="D61" t="s">
+        <v>529</v>
+      </c>
+      <c r="E61" t="s">
         <v>530</v>
       </c>
-      <c r="B61" t="s">
-        <v>721</v>
-      </c>
-      <c r="C61" t="s">
-        <v>796</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="F61" t="s">
+        <v>900</v>
+      </c>
+      <c r="G61" t="s">
         <v>531</v>
       </c>
-      <c r="E61" t="s">
+      <c r="H61" t="s">
         <v>532</v>
       </c>
-      <c r="F61" t="s">
-        <v>874</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="I61" t="s">
+        <v>820</v>
+      </c>
+      <c r="J61" t="s">
+        <v>529</v>
+      </c>
+      <c r="K61" t="s">
+        <v>530</v>
+      </c>
+      <c r="L61" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M61" t="s">
         <v>533</v>
       </c>
-      <c r="H61" t="s">
+      <c r="N61" t="s">
         <v>534</v>
-      </c>
-      <c r="I61" t="s">
-        <v>906</v>
-      </c>
-      <c r="J61" t="s">
-        <v>535</v>
-      </c>
-      <c r="K61" t="s">
-        <v>536</v>
-      </c>
-      <c r="L61" t="s">
-        <v>972</v>
-      </c>
-      <c r="M61" t="s">
-        <v>537</v>
-      </c>
-      <c r="N61" t="s">
-        <v>538</v>
       </c>
       <c r="P61"/>
       <c r="Q61"/>
-      <c r="R61" t="s">
-        <v>1032</v>
-      </c>
-      <c r="S61" t="s">
-        <v>539</v>
-      </c>
-      <c r="T61" t="s">
-        <v>540</v>
-      </c>
+      <c r="S61"/>
+      <c r="T61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>535</v>
+      </c>
+      <c r="B62" t="s">
+        <v>743</v>
+      </c>
+      <c r="C62" t="s">
+        <v>821</v>
+      </c>
+      <c r="D62" t="s">
+        <v>536</v>
+      </c>
+      <c r="E62" t="s">
+        <v>537</v>
+      </c>
+      <c r="F62" t="s">
+        <v>901</v>
+      </c>
+      <c r="G62" t="s">
+        <v>538</v>
+      </c>
+      <c r="H62" t="s">
+        <v>539</v>
+      </c>
+      <c r="I62" t="s">
+        <v>934</v>
+      </c>
+      <c r="J62" t="s">
+        <v>540</v>
+      </c>
+      <c r="K62" t="s">
         <v>541</v>
       </c>
-      <c r="B62" t="s">
-        <v>721</v>
-      </c>
-      <c r="C62" t="s">
-        <v>797</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="L62" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M62" t="s">
         <v>542</v>
       </c>
-      <c r="E62" t="s">
+      <c r="N62" t="s">
         <v>543</v>
-      </c>
-      <c r="F62" t="s">
-        <v>875</v>
-      </c>
-      <c r="G62" t="s">
-        <v>544</v>
-      </c>
-      <c r="H62" t="s">
-        <v>545</v>
-      </c>
-      <c r="I62" t="s">
-        <v>797</v>
-      </c>
-      <c r="J62" t="s">
-        <v>542</v>
-      </c>
-      <c r="K62" t="s">
-        <v>543</v>
-      </c>
-      <c r="L62" t="s">
-        <v>973</v>
-      </c>
-      <c r="M62" t="s">
-        <v>546</v>
-      </c>
-      <c r="N62" t="s">
-        <v>547</v>
       </c>
       <c r="P62"/>
       <c r="Q62"/>
       <c r="R62" t="s">
-        <v>1033</v>
+        <v>1064</v>
       </c>
       <c r="S62" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="T62" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>546</v>
+      </c>
+      <c r="B63" t="s">
+        <v>743</v>
+      </c>
+      <c r="C63" t="s">
+        <v>822</v>
+      </c>
+      <c r="D63" t="s">
+        <v>547</v>
+      </c>
+      <c r="E63" t="s">
+        <v>548</v>
+      </c>
+      <c r="F63" t="s">
+        <v>902</v>
+      </c>
+      <c r="G63" t="s">
+        <v>549</v>
+      </c>
+      <c r="H63" t="s">
         <v>550</v>
       </c>
-      <c r="B63" t="s">
-        <v>721</v>
-      </c>
-      <c r="C63" t="s">
-        <v>798</v>
-      </c>
-      <c r="D63" t="s">
-        <v>551</v>
-      </c>
-      <c r="E63" t="s">
-        <v>552</v>
-      </c>
-      <c r="G63"/>
-      <c r="H63"/>
       <c r="I63" t="s">
-        <v>798</v>
+        <v>935</v>
       </c>
       <c r="J63" t="s">
         <v>551</v>
@@ -6583,95 +6689,102 @@
       <c r="K63" t="s">
         <v>552</v>
       </c>
-      <c r="M63"/>
-      <c r="N63"/>
+      <c r="L63" t="s">
+        <v>1003</v>
+      </c>
+      <c r="M63" t="s">
+        <v>553</v>
+      </c>
+      <c r="N63" t="s">
+        <v>554</v>
+      </c>
       <c r="P63"/>
       <c r="Q63"/>
-      <c r="S63"/>
-      <c r="T63"/>
+      <c r="R63" t="s">
+        <v>1065</v>
+      </c>
+      <c r="S63" t="s">
+        <v>555</v>
+      </c>
+      <c r="T63" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B64" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="C64" t="s">
-        <v>799</v>
+        <v>823</v>
       </c>
       <c r="D64" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="E64" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="F64" t="s">
-        <v>876</v>
+        <v>903</v>
       </c>
       <c r="G64" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="H64" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="I64" t="s">
-        <v>799</v>
+        <v>823</v>
       </c>
       <c r="J64" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="K64" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="L64" t="s">
-        <v>974</v>
+        <v>1004</v>
       </c>
       <c r="M64" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="N64" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="P64"/>
       <c r="Q64"/>
       <c r="R64" t="s">
-        <v>1034</v>
+        <v>1066</v>
       </c>
       <c r="S64" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="T64" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B65" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C65" t="s">
-        <v>800</v>
+        <v>824</v>
       </c>
       <c r="D65" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="E65" t="s">
-        <v>564</v>
-      </c>
-      <c r="F65" t="s">
-        <v>877</v>
-      </c>
-      <c r="G65" t="s">
-        <v>565</v>
-      </c>
-      <c r="H65" t="s">
-        <v>566</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="G65"/>
+      <c r="H65"/>
       <c r="I65" t="s">
-        <v>907</v>
+        <v>824</v>
       </c>
       <c r="J65" t="s">
         <v>567</v>
@@ -6679,348 +6792,348 @@
       <c r="K65" t="s">
         <v>568</v>
       </c>
-      <c r="L65" t="s">
-        <v>975</v>
-      </c>
-      <c r="M65" t="s">
-        <v>569</v>
-      </c>
-      <c r="N65" t="s">
-        <v>570</v>
-      </c>
+      <c r="M65"/>
+      <c r="N65"/>
       <c r="P65"/>
       <c r="Q65"/>
-      <c r="R65" t="s">
-        <v>1035</v>
-      </c>
-      <c r="S65" t="s">
-        <v>571</v>
-      </c>
-      <c r="T65" t="s">
-        <v>572</v>
-      </c>
+      <c r="S65"/>
+      <c r="T65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>569</v>
+      </c>
+      <c r="B66" t="s">
+        <v>743</v>
+      </c>
+      <c r="C66" t="s">
+        <v>825</v>
+      </c>
+      <c r="D66" t="s">
+        <v>570</v>
+      </c>
+      <c r="E66" t="s">
+        <v>571</v>
+      </c>
+      <c r="F66" t="s">
+        <v>904</v>
+      </c>
+      <c r="G66" t="s">
+        <v>572</v>
+      </c>
+      <c r="H66" t="s">
         <v>573</v>
       </c>
-      <c r="B66" t="s">
-        <v>721</v>
-      </c>
-      <c r="C66" t="s">
-        <v>801</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="I66" t="s">
+        <v>825</v>
+      </c>
+      <c r="J66" t="s">
+        <v>570</v>
+      </c>
+      <c r="K66" t="s">
+        <v>571</v>
+      </c>
+      <c r="L66" t="s">
+        <v>1005</v>
+      </c>
+      <c r="M66" t="s">
         <v>574</v>
       </c>
-      <c r="E66" t="s">
+      <c r="N66" t="s">
         <v>575</v>
       </c>
-      <c r="F66" t="s">
-        <v>878</v>
-      </c>
-      <c r="G66" t="s">
-        <v>576</v>
-      </c>
-      <c r="H66" t="s">
-        <v>577</v>
-      </c>
-      <c r="I66" t="s">
-        <v>801</v>
-      </c>
-      <c r="J66" t="s">
-        <v>578</v>
-      </c>
-      <c r="K66" t="s">
-        <v>575</v>
-      </c>
-      <c r="M66"/>
-      <c r="N66"/>
       <c r="P66"/>
       <c r="Q66"/>
-      <c r="S66"/>
-      <c r="T66"/>
+      <c r="R66" t="s">
+        <v>1067</v>
+      </c>
+      <c r="S66" t="s">
+        <v>576</v>
+      </c>
+      <c r="T66" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>578</v>
+      </c>
+      <c r="B67" t="s">
+        <v>764</v>
+      </c>
+      <c r="C67" t="s">
+        <v>826</v>
+      </c>
+      <c r="D67" t="s">
         <v>579</v>
       </c>
-      <c r="B67" t="s">
-        <v>742</v>
-      </c>
-      <c r="C67" t="s">
-        <v>802</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>580</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
+        <v>905</v>
+      </c>
+      <c r="G67" t="s">
         <v>581</v>
       </c>
-      <c r="F67" t="s">
-        <v>879</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>582</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
+        <v>936</v>
+      </c>
+      <c r="J67" t="s">
         <v>583</v>
       </c>
-      <c r="I67" t="s">
-        <v>802</v>
-      </c>
-      <c r="J67" t="s">
-        <v>580</v>
-      </c>
       <c r="K67" t="s">
-        <v>581</v>
-      </c>
-      <c r="M67"/>
-      <c r="N67"/>
+        <v>584</v>
+      </c>
+      <c r="L67" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M67" t="s">
+        <v>585</v>
+      </c>
+      <c r="N67" t="s">
+        <v>586</v>
+      </c>
       <c r="P67"/>
       <c r="Q67"/>
-      <c r="S67"/>
-      <c r="T67"/>
+      <c r="R67" t="s">
+        <v>1068</v>
+      </c>
+      <c r="S67" t="s">
+        <v>587</v>
+      </c>
+      <c r="T67" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B68" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="C68" t="s">
-        <v>803</v>
+        <v>827</v>
       </c>
       <c r="D68" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="E68" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="F68" t="s">
-        <v>880</v>
+        <v>906</v>
       </c>
       <c r="G68" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="H68" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="I68" t="s">
-        <v>803</v>
+        <v>827</v>
       </c>
       <c r="J68" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="K68" t="s">
-        <v>586</v>
-      </c>
-      <c r="L68" t="s">
-        <v>976</v>
-      </c>
-      <c r="M68" t="s">
-        <v>589</v>
-      </c>
-      <c r="N68" t="s">
-        <v>590</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="M68"/>
+      <c r="N68"/>
       <c r="P68"/>
       <c r="Q68"/>
-      <c r="R68" t="s">
-        <v>1036</v>
-      </c>
-      <c r="S68" t="s">
-        <v>591</v>
-      </c>
-      <c r="T68" t="s">
-        <v>592</v>
-      </c>
+      <c r="S68"/>
+      <c r="T68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B69" t="s">
-        <v>743</v>
+        <v>765</v>
       </c>
       <c r="C69" t="s">
-        <v>804</v>
+        <v>828</v>
       </c>
       <c r="D69" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E69" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F69" t="s">
-        <v>881</v>
+        <v>907</v>
       </c>
       <c r="G69" t="s">
+        <v>598</v>
+      </c>
+      <c r="H69" t="s">
+        <v>599</v>
+      </c>
+      <c r="I69" t="s">
+        <v>828</v>
+      </c>
+      <c r="J69" t="s">
         <v>596</v>
       </c>
-      <c r="H69" t="s">
+      <c r="K69" t="s">
         <v>597</v>
       </c>
-      <c r="I69" t="s">
-        <v>908</v>
-      </c>
-      <c r="J69" t="s">
-        <v>598</v>
-      </c>
-      <c r="K69" t="s">
-        <v>599</v>
-      </c>
-      <c r="L69" t="s">
-        <v>977</v>
-      </c>
-      <c r="M69" t="s">
-        <v>600</v>
-      </c>
-      <c r="N69" t="s">
-        <v>601</v>
-      </c>
+      <c r="M69"/>
+      <c r="N69"/>
       <c r="P69"/>
       <c r="Q69"/>
-      <c r="R69" t="s">
-        <v>1037</v>
-      </c>
-      <c r="S69" t="s">
-        <v>602</v>
-      </c>
-      <c r="T69" t="s">
-        <v>603</v>
-      </c>
+      <c r="S69"/>
+      <c r="T69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>600</v>
+      </c>
+      <c r="B70" t="s">
+        <v>743</v>
+      </c>
+      <c r="C70" t="s">
+        <v>829</v>
+      </c>
+      <c r="D70" t="s">
+        <v>601</v>
+      </c>
+      <c r="E70" t="s">
+        <v>602</v>
+      </c>
+      <c r="F70" t="s">
+        <v>908</v>
+      </c>
+      <c r="G70" t="s">
+        <v>603</v>
+      </c>
+      <c r="H70" t="s">
         <v>604</v>
       </c>
-      <c r="B70" t="s">
-        <v>721</v>
-      </c>
-      <c r="C70" t="s">
-        <v>805</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="I70" t="s">
+        <v>829</v>
+      </c>
+      <c r="J70" t="s">
+        <v>601</v>
+      </c>
+      <c r="K70" t="s">
+        <v>602</v>
+      </c>
+      <c r="L70" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M70" t="s">
         <v>605</v>
       </c>
-      <c r="E70" t="s">
+      <c r="N70" t="s">
         <v>606</v>
       </c>
-      <c r="F70" t="s">
-        <v>882</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70" t="s">
+        <v>1069</v>
+      </c>
+      <c r="S70" t="s">
         <v>607</v>
       </c>
-      <c r="H70" t="s">
+      <c r="T70" t="s">
         <v>608</v>
       </c>
-      <c r="I70" t="s">
-        <v>909</v>
-      </c>
-      <c r="J70" t="s">
-        <v>609</v>
-      </c>
-      <c r="K70" t="s">
-        <v>610</v>
-      </c>
-      <c r="L70" t="s">
-        <v>978</v>
-      </c>
-      <c r="M70" t="s">
-        <v>611</v>
-      </c>
-      <c r="N70" t="s">
-        <v>612</v>
-      </c>
-      <c r="O70" t="s">
-        <v>987</v>
-      </c>
-      <c r="P70" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>614</v>
-      </c>
-      <c r="S70"/>
-      <c r="T70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>609</v>
+      </c>
+      <c r="B71" t="s">
+        <v>766</v>
+      </c>
+      <c r="C71" t="s">
+        <v>830</v>
+      </c>
+      <c r="D71" t="s">
+        <v>610</v>
+      </c>
+      <c r="E71" t="s">
+        <v>611</v>
+      </c>
+      <c r="F71" t="s">
+        <v>909</v>
+      </c>
+      <c r="G71" t="s">
+        <v>612</v>
+      </c>
+      <c r="H71" t="s">
+        <v>613</v>
+      </c>
+      <c r="I71" t="s">
+        <v>937</v>
+      </c>
+      <c r="J71" t="s">
+        <v>614</v>
+      </c>
+      <c r="K71" t="s">
         <v>615</v>
       </c>
-      <c r="B71" t="s">
-        <v>721</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="L71" t="s">
+        <v>1008</v>
+      </c>
+      <c r="M71" t="s">
+        <v>616</v>
+      </c>
+      <c r="N71" t="s">
         <v>617</v>
       </c>
-      <c r="D71" t="s">
-        <v>616</v>
-      </c>
-      <c r="E71" t="s">
-        <v>617</v>
-      </c>
-      <c r="F71" t="s">
-        <v>883</v>
-      </c>
-      <c r="G71" t="s">
-        <v>618</v>
-      </c>
-      <c r="H71" t="s">
-        <v>619</v>
-      </c>
-      <c r="I71" t="s">
-        <v>910</v>
-      </c>
-      <c r="J71" t="s">
-        <v>620</v>
-      </c>
-      <c r="K71" t="s">
-        <v>621</v>
-      </c>
-      <c r="M71"/>
-      <c r="N71"/>
       <c r="P71"/>
       <c r="Q71"/>
-      <c r="S71"/>
-      <c r="T71"/>
+      <c r="R71" t="s">
+        <v>1070</v>
+      </c>
+      <c r="S71" t="s">
+        <v>618</v>
+      </c>
+      <c r="T71" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>620</v>
+      </c>
+      <c r="B72" t="s">
+        <v>767</v>
+      </c>
+      <c r="C72" t="s">
+        <v>831</v>
+      </c>
+      <c r="D72" t="s">
+        <v>621</v>
+      </c>
+      <c r="E72" t="s">
         <v>622</v>
       </c>
-      <c r="B72" t="s">
-        <v>721</v>
-      </c>
-      <c r="C72" t="s">
-        <v>806</v>
-      </c>
-      <c r="D72" t="s">
-        <v>159</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
+        <v>910</v>
+      </c>
+      <c r="G72" t="s">
         <v>623</v>
       </c>
-      <c r="F72" t="s">
-        <v>884</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>624</v>
       </c>
-      <c r="H72" t="s">
-        <v>625</v>
-      </c>
       <c r="I72" t="s">
-        <v>626</v>
+        <v>831</v>
       </c>
       <c r="J72" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="K72" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M72"/>
       <c r="N72"/>
@@ -7031,97 +7144,97 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>625</v>
+      </c>
+      <c r="B73" t="s">
+        <v>743</v>
+      </c>
+      <c r="C73" t="s">
+        <v>832</v>
+      </c>
+      <c r="D73" t="s">
+        <v>626</v>
+      </c>
+      <c r="E73" t="s">
         <v>627</v>
       </c>
-      <c r="B73" t="s">
-        <v>725</v>
-      </c>
-      <c r="C73" t="s">
-        <v>807</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="F73" t="s">
+        <v>911</v>
+      </c>
+      <c r="G73" t="s">
         <v>628</v>
       </c>
-      <c r="E73" t="s">
+      <c r="H73" t="s">
         <v>629</v>
       </c>
-      <c r="F73" t="s">
-        <v>885</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="I73" t="s">
+        <v>938</v>
+      </c>
+      <c r="J73" t="s">
         <v>630</v>
       </c>
-      <c r="H73" t="s">
+      <c r="K73" t="s">
         <v>631</v>
       </c>
-      <c r="I73" t="s">
-        <v>911</v>
-      </c>
-      <c r="J73" t="s">
+      <c r="L73" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M73" t="s">
         <v>632</v>
       </c>
-      <c r="K73" t="s">
+      <c r="N73" t="s">
         <v>633</v>
       </c>
-      <c r="M73"/>
-      <c r="N73"/>
-      <c r="P73"/>
-      <c r="Q73"/>
+      <c r="O73" t="s">
+        <v>1018</v>
+      </c>
+      <c r="P73" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>635</v>
+      </c>
       <c r="S73"/>
       <c r="T73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B74" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="C74" t="s">
-        <v>103</v>
+        <v>638</v>
       </c>
       <c r="D74" t="s">
-        <v>102</v>
+        <v>637</v>
       </c>
       <c r="E74" t="s">
-        <v>103</v>
+        <v>638</v>
       </c>
       <c r="F74" t="s">
-        <v>886</v>
+        <v>912</v>
       </c>
       <c r="G74" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="H74" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="I74" t="s">
-        <v>912</v>
+        <v>939</v>
       </c>
       <c r="J74" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="K74" t="s">
-        <v>638</v>
-      </c>
-      <c r="L74" t="s">
-        <v>979</v>
-      </c>
-      <c r="M74" t="s">
-        <v>639</v>
-      </c>
-      <c r="N74" t="s">
-        <v>640</v>
-      </c>
-      <c r="O74" t="s">
-        <v>988</v>
-      </c>
-      <c r="P74" t="s">
-        <v>641</v>
-      </c>
-      <c r="Q74" t="s">
         <v>642</v>
       </c>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
       <c r="S74"/>
       <c r="T74"/>
     </row>
@@ -7130,24 +7243,31 @@
         <v>643</v>
       </c>
       <c r="B75" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="C75" t="s">
-        <v>808</v>
+        <v>833</v>
       </c>
       <c r="D75" t="s">
+        <v>168</v>
+      </c>
+      <c r="E75" t="s">
         <v>644</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
+        <v>913</v>
+      </c>
+      <c r="G75" t="s">
         <v>645</v>
       </c>
-      <c r="G75"/>
-      <c r="H75"/>
+      <c r="H75" t="s">
+        <v>646</v>
+      </c>
       <c r="I75" t="s">
-        <v>913</v>
+        <v>647</v>
       </c>
       <c r="J75" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="K75" t="s">
         <v>647</v>
@@ -7164,10 +7284,10 @@
         <v>648</v>
       </c>
       <c r="B76" t="s">
-        <v>721</v>
+        <v>747</v>
       </c>
       <c r="C76" t="s">
-        <v>809</v>
+        <v>834</v>
       </c>
       <c r="D76" t="s">
         <v>649</v>
@@ -7175,16 +7295,23 @@
       <c r="E76" t="s">
         <v>650</v>
       </c>
-      <c r="G76"/>
-      <c r="H76"/>
+      <c r="F76" t="s">
+        <v>914</v>
+      </c>
+      <c r="G76" t="s">
+        <v>651</v>
+      </c>
+      <c r="H76" t="s">
+        <v>652</v>
+      </c>
       <c r="I76" t="s">
-        <v>914</v>
+        <v>940</v>
       </c>
       <c r="J76" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="K76" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="M76"/>
       <c r="N76"/>
@@ -7195,22 +7322,22 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B77" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="C77" t="s">
-        <v>810</v>
+        <v>112</v>
       </c>
       <c r="D77" t="s">
-        <v>654</v>
+        <v>111</v>
       </c>
       <c r="E77" t="s">
-        <v>655</v>
+        <v>112</v>
       </c>
       <c r="F77" t="s">
-        <v>887</v>
+        <v>915</v>
       </c>
       <c r="G77" t="s">
         <v>656</v>
@@ -7219,7 +7346,7 @@
         <v>657</v>
       </c>
       <c r="I77" t="s">
-        <v>915</v>
+        <v>941</v>
       </c>
       <c r="J77" t="s">
         <v>658</v>
@@ -7227,33 +7354,54 @@
       <c r="K77" t="s">
         <v>659</v>
       </c>
-      <c r="M77"/>
-      <c r="N77"/>
-      <c r="P77"/>
-      <c r="Q77"/>
+      <c r="L77" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M77" t="s">
+        <v>660</v>
+      </c>
+      <c r="N77" t="s">
+        <v>661</v>
+      </c>
+      <c r="O77" t="s">
+        <v>1019</v>
+      </c>
+      <c r="P77" t="s">
+        <v>662</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>663</v>
+      </c>
       <c r="S77"/>
       <c r="T77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B78" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="C78" t="s">
-        <v>811</v>
+        <v>835</v>
       </c>
       <c r="D78" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="E78" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="G78"/>
       <c r="H78"/>
-      <c r="J78"/>
-      <c r="K78"/>
+      <c r="I78" t="s">
+        <v>942</v>
+      </c>
+      <c r="J78" t="s">
+        <v>667</v>
+      </c>
+      <c r="K78" t="s">
+        <v>668</v>
+      </c>
       <c r="M78"/>
       <c r="N78"/>
       <c r="P78"/>
@@ -7263,30 +7411,30 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="B79" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="C79" t="s">
-        <v>665</v>
+        <v>836</v>
       </c>
       <c r="D79" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="E79" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79" t="s">
-        <v>916</v>
+        <v>943</v>
       </c>
       <c r="J79" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="K79" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="M79"/>
       <c r="N79"/>
@@ -7297,30 +7445,37 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="B80" t="s">
-        <v>725</v>
+        <v>743</v>
       </c>
       <c r="C80" t="s">
-        <v>808</v>
+        <v>837</v>
       </c>
       <c r="D80" t="s">
-        <v>644</v>
+        <v>675</v>
       </c>
       <c r="E80" t="s">
-        <v>645</v>
-      </c>
-      <c r="G80"/>
-      <c r="H80"/>
+        <v>676</v>
+      </c>
+      <c r="F80" t="s">
+        <v>916</v>
+      </c>
+      <c r="G80" t="s">
+        <v>677</v>
+      </c>
+      <c r="H80" t="s">
+        <v>678</v>
+      </c>
       <c r="I80" t="s">
-        <v>917</v>
+        <v>944</v>
       </c>
       <c r="J80" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="K80" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="M80"/>
       <c r="N80"/>
@@ -7331,92 +7486,57 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="B81" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C81" t="s">
-        <v>812</v>
+        <v>838</v>
       </c>
       <c r="D81" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="E81" t="s">
-        <v>673</v>
-      </c>
-      <c r="F81" t="s">
-        <v>888</v>
-      </c>
-      <c r="G81" t="s">
-        <v>674</v>
-      </c>
-      <c r="H81" t="s">
-        <v>675</v>
-      </c>
-      <c r="I81" t="s">
-        <v>812</v>
-      </c>
-      <c r="J81" t="s">
-        <v>672</v>
-      </c>
-      <c r="K81" t="s">
-        <v>673</v>
-      </c>
-      <c r="L81" t="s">
-        <v>980</v>
-      </c>
-      <c r="M81" t="s">
-        <v>676</v>
-      </c>
-      <c r="N81" t="s">
-        <v>677</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="M81"/>
+      <c r="N81"/>
       <c r="P81"/>
       <c r="Q81"/>
-      <c r="R81" t="s">
-        <v>1030</v>
-      </c>
-      <c r="S81" t="s">
-        <v>503</v>
-      </c>
-      <c r="T81" t="s">
-        <v>504</v>
-      </c>
+      <c r="S81"/>
+      <c r="T81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B82" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C82" t="s">
-        <v>813</v>
+        <v>686</v>
       </c>
       <c r="D82" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="E82" t="s">
-        <v>680</v>
-      </c>
-      <c r="F82" t="s">
-        <v>889</v>
-      </c>
-      <c r="G82" t="s">
-        <v>681</v>
-      </c>
-      <c r="H82" t="s">
-        <v>682</v>
-      </c>
+        <v>686</v>
+      </c>
+      <c r="G82"/>
+      <c r="H82"/>
       <c r="I82" t="s">
-        <v>813</v>
+        <v>945</v>
       </c>
       <c r="J82" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="K82" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="M82"/>
       <c r="N82"/>
@@ -7427,61 +7547,47 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="B83" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C83" t="s">
-        <v>814</v>
+        <v>835</v>
       </c>
       <c r="D83" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
       <c r="E83" t="s">
-        <v>685</v>
-      </c>
-      <c r="F83" t="s">
-        <v>890</v>
-      </c>
-      <c r="G83" t="s">
-        <v>686</v>
-      </c>
-      <c r="H83" t="s">
-        <v>687</v>
-      </c>
-      <c r="J83"/>
-      <c r="K83"/>
-      <c r="L83" t="s">
-        <v>981</v>
-      </c>
-      <c r="M83" t="s">
-        <v>688</v>
-      </c>
-      <c r="N83" t="s">
-        <v>689</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83" t="s">
+        <v>946</v>
+      </c>
+      <c r="J83" t="s">
+        <v>690</v>
+      </c>
+      <c r="K83" t="s">
+        <v>691</v>
+      </c>
+      <c r="M83"/>
+      <c r="N83"/>
       <c r="P83"/>
       <c r="Q83"/>
-      <c r="R83" t="s">
-        <v>1038</v>
-      </c>
-      <c r="S83" t="s">
-        <v>690</v>
-      </c>
-      <c r="T83" t="s">
-        <v>691</v>
-      </c>
+      <c r="S83"/>
+      <c r="T83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>692</v>
       </c>
       <c r="B84" t="s">
-        <v>746</v>
+        <v>768</v>
       </c>
       <c r="C84" t="s">
-        <v>815</v>
+        <v>839</v>
       </c>
       <c r="D84" t="s">
         <v>693</v>
@@ -7490,7 +7596,7 @@
         <v>694</v>
       </c>
       <c r="F84" t="s">
-        <v>891</v>
+        <v>917</v>
       </c>
       <c r="G84" t="s">
         <v>695</v>
@@ -7498,10 +7604,17 @@
       <c r="H84" t="s">
         <v>696</v>
       </c>
-      <c r="J84"/>
-      <c r="K84"/>
+      <c r="I84" t="s">
+        <v>839</v>
+      </c>
+      <c r="J84" t="s">
+        <v>693</v>
+      </c>
+      <c r="K84" t="s">
+        <v>694</v>
+      </c>
       <c r="L84" t="s">
-        <v>982</v>
+        <v>1011</v>
       </c>
       <c r="M84" t="s">
         <v>697</v>
@@ -7512,13 +7625,13 @@
       <c r="P84"/>
       <c r="Q84"/>
       <c r="R84" t="s">
-        <v>1038</v>
+        <v>1063</v>
       </c>
       <c r="S84" t="s">
-        <v>690</v>
+        <v>519</v>
       </c>
       <c r="T84" t="s">
-        <v>691</v>
+        <v>520</v>
       </c>
     </row>
     <row r="85">
@@ -7526,10 +7639,10 @@
         <v>699</v>
       </c>
       <c r="B85" t="s">
-        <v>746</v>
+        <v>769</v>
       </c>
       <c r="C85" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
       <c r="D85" t="s">
         <v>700</v>
@@ -7538,7 +7651,7 @@
         <v>701</v>
       </c>
       <c r="F85" t="s">
-        <v>892</v>
+        <v>918</v>
       </c>
       <c r="G85" t="s">
         <v>702</v>
@@ -7546,38 +7659,31 @@
       <c r="H85" t="s">
         <v>703</v>
       </c>
-      <c r="J85"/>
-      <c r="K85"/>
-      <c r="L85" t="s">
-        <v>982</v>
-      </c>
-      <c r="M85" t="s">
-        <v>697</v>
-      </c>
-      <c r="N85" t="s">
-        <v>698</v>
-      </c>
+      <c r="I85" t="s">
+        <v>840</v>
+      </c>
+      <c r="J85" t="s">
+        <v>700</v>
+      </c>
+      <c r="K85" t="s">
+        <v>701</v>
+      </c>
+      <c r="M85"/>
+      <c r="N85"/>
       <c r="P85"/>
       <c r="Q85"/>
-      <c r="R85" t="s">
-        <v>1038</v>
-      </c>
-      <c r="S85" t="s">
-        <v>690</v>
-      </c>
-      <c r="T85" t="s">
-        <v>691</v>
-      </c>
+      <c r="S85"/>
+      <c r="T85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>704</v>
       </c>
       <c r="B86" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="C86" t="s">
-        <v>817</v>
+        <v>841</v>
       </c>
       <c r="D86" t="s">
         <v>705</v>
@@ -7586,7 +7692,7 @@
         <v>706</v>
       </c>
       <c r="F86" t="s">
-        <v>893</v>
+        <v>919</v>
       </c>
       <c r="G86" t="s">
         <v>707</v>
@@ -7597,7 +7703,7 @@
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86" t="s">
-        <v>983</v>
+        <v>1012</v>
       </c>
       <c r="M86" t="s">
         <v>709</v>
@@ -7608,61 +7714,205 @@
       <c r="P86"/>
       <c r="Q86"/>
       <c r="R86" t="s">
-        <v>1038</v>
+        <v>1071</v>
       </c>
       <c r="S86" t="s">
-        <v>690</v>
+        <v>711</v>
       </c>
       <c r="T86" t="s">
-        <v>691</v>
+        <v>712</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B87" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="C87" t="s">
-        <v>818</v>
+        <v>842</v>
       </c>
       <c r="D87" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E87" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F87" t="s">
-        <v>894</v>
+        <v>920</v>
       </c>
       <c r="G87" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H87" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87" t="s">
-        <v>984</v>
+        <v>1013</v>
       </c>
       <c r="M87" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="N87" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="P87"/>
       <c r="Q87"/>
       <c r="R87" t="s">
-        <v>1038</v>
+        <v>1071</v>
       </c>
       <c r="S87" t="s">
-        <v>690</v>
+        <v>711</v>
       </c>
       <c r="T87" t="s">
-        <v>691</v>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>720</v>
+      </c>
+      <c r="B88" t="s">
+        <v>770</v>
+      </c>
+      <c r="C88" t="s">
+        <v>843</v>
+      </c>
+      <c r="D88" t="s">
+        <v>721</v>
+      </c>
+      <c r="E88" t="s">
+        <v>722</v>
+      </c>
+      <c r="F88" t="s">
+        <v>921</v>
+      </c>
+      <c r="G88" t="s">
+        <v>723</v>
+      </c>
+      <c r="H88" t="s">
+        <v>724</v>
+      </c>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M88" t="s">
+        <v>718</v>
+      </c>
+      <c r="N88" t="s">
+        <v>719</v>
+      </c>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S88" t="s">
+        <v>711</v>
+      </c>
+      <c r="T88" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>725</v>
+      </c>
+      <c r="B89" t="s">
+        <v>771</v>
+      </c>
+      <c r="C89" t="s">
+        <v>844</v>
+      </c>
+      <c r="D89" t="s">
+        <v>726</v>
+      </c>
+      <c r="E89" t="s">
+        <v>727</v>
+      </c>
+      <c r="F89" t="s">
+        <v>922</v>
+      </c>
+      <c r="G89" t="s">
+        <v>728</v>
+      </c>
+      <c r="H89" t="s">
+        <v>729</v>
+      </c>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89" t="s">
+        <v>1014</v>
+      </c>
+      <c r="M89" t="s">
+        <v>730</v>
+      </c>
+      <c r="N89" t="s">
+        <v>731</v>
+      </c>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S89" t="s">
+        <v>711</v>
+      </c>
+      <c r="T89" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>732</v>
+      </c>
+      <c r="B90" t="s">
+        <v>771</v>
+      </c>
+      <c r="C90" t="s">
+        <v>845</v>
+      </c>
+      <c r="D90" t="s">
+        <v>733</v>
+      </c>
+      <c r="E90" t="s">
+        <v>734</v>
+      </c>
+      <c r="F90" t="s">
+        <v>923</v>
+      </c>
+      <c r="G90" t="s">
+        <v>735</v>
+      </c>
+      <c r="H90" t="s">
+        <v>736</v>
+      </c>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90" t="s">
+        <v>1015</v>
+      </c>
+      <c r="M90" t="s">
+        <v>737</v>
+      </c>
+      <c r="N90" t="s">
+        <v>738</v>
+      </c>
+      <c r="P90"/>
+      <c r="Q90"/>
+      <c r="R90" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S90" t="s">
+        <v>711</v>
+      </c>
+      <c r="T90" t="s">
+        <v>712</v>
       </c>
     </row>
   </sheetData>

--- a/Original/CN/Game/Stat.xlsx
+++ b/Original/CN/Game/Stat.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="1106">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.252</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">眠りの歌</t>
   </si>
   <si>
-    <t xml:space="preserve">A condition that puts nearby creatures to sleep. Consume mana while maintaining the song.</t>
+    <t xml:space="preserve">A condition that grants sleep to nearby creatures. Consume mana while maintaining the song.</t>
   </si>
   <si>
     <t xml:space="preserve">周囲の生物を眠らせる状態。歌を維持している間はマナが減少する。</t>
@@ -219,6 +219,27 @@
   </si>
   <si>
     <t xml:space="preserve">#1は歌うのを止めた。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hymn of Valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">勇気の歌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A condition that grants courage to nearby creatures. Consume mana while maintaining the song.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">周囲の生物に勇気を与える状態。歌を維持している間はマナが減少する。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 begin(s) to sing a song of valor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1は勇ましい歌を歌い始めた。</t>
   </si>
   <si>
     <t xml:space="preserve">23</t>
@@ -1448,6 +1469,27 @@
     <t xml:space="preserve">猫変容</t>
   </si>
   <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bat Transformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コウモリ変容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vampirism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吸血症</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#</t>
+  </si>
+  <si>
     <t xml:space="preserve">50</t>
   </si>
   <si>
@@ -1728,6 +1770,33 @@
   </si>
   <si>
     <t xml:space="preserve">松明</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Concealment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">潜行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A condition where you are hidden in darkness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闇に潜んだ状態。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 don(s) darkness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1は闇に潜った。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1 cast(s) off darkness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1は闇を抜けた。</t>
   </si>
   <si>
     <t xml:space="preserve">24</t>
@@ -1980,9 +2049,6 @@
     <t xml:space="preserve">精神の不安定さ。悪化すると気がくるって死ぬ。</t>
   </si>
   <si>
-    <t xml:space="preserve">#</t>
-  </si>
-  <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
@@ -2274,6 +2340,9 @@
     <t xml:space="preserve">EA 23.166</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.220</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 16.1</t>
   </si>
   <si>
@@ -2334,9 +2403,18 @@
     <t xml:space="preserve">EA 23.143</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.239</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alpha 20.48</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.241</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beta 22.60</t>
   </si>
   <si>
@@ -2376,6 +2454,9 @@
     <t xml:space="preserve">安眠之歌</t>
   </si>
   <si>
+    <t xml:space="preserve">勇气之歌</t>
+  </si>
+  <si>
     <t xml:space="preserve">呼吸困难</t>
   </si>
   <si>
@@ -2490,6 +2571,9 @@
     <t xml:space="preserve">猫变形</t>
   </si>
   <si>
+    <t xml:space="preserve">蝙蝠变形</t>
+  </si>
+  <si>
     <t xml:space="preserve">瘴气</t>
   </si>
   <si>
@@ -2592,10 +2676,13 @@
     <t xml:space="preserve">命中率和伤害倍率会根据未进行攻击的回合数逐步提升，直到到达上限的状态。</t>
   </si>
   <si>
-    <t xml:space="preserve">每次攻击被闪避时，攻击威力都会上升的状态。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">让周围生物陷入睡眠状态。维持歌唱期间魔力会减少。</t>
+    <t xml:space="preserve">每次攻击被闪避时，攻击威力都会提升的状态。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">让周围生物陷入睡眠的状态。维持歌唱期间魔力会减少。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">给予周围生物得到勇气的状态。维持歌唱期间魔力会减少。</t>
   </si>
   <si>
     <t xml:space="preserve">中毒导致每次行动都会让体力减少的状态。</t>
@@ -2757,6 +2844,9 @@
     <t xml:space="preserve">吃什么吐什么的状态。</t>
   </si>
   <si>
+    <t xml:space="preserve">潜入黑暗的状态。</t>
+  </si>
+  <si>
     <t xml:space="preserve">湿身状态。电击抗性减弱。</t>
   </si>
   <si>
@@ -2899,6 +2989,9 @@
   </si>
   <si>
     <t xml:space="preserve">#1开始唱摇篮曲了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1开始唱激昂之歌了。</t>
   </si>
   <si>
     <t xml:space="preserve">#1中了毒。
@@ -3061,6 +3154,9 @@
   </si>
   <si>
     <t xml:space="preserve">#1得了厌食症。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1潜入了黑暗。</t>
   </si>
   <si>
     <t xml:space="preserve">#1湿了。</t>
@@ -3134,6 +3230,9 @@
     <t xml:space="preserve">#1停止唱歌了。</t>
   </si>
   <si>
+    <t xml:space="preserve">#2停止唱歌了。</t>
+  </si>
+  <si>
     <t xml:space="preserve">#1的身体摆脱了毒素。</t>
   </si>
   <si>
@@ -3258,6 +3357,9 @@
   </si>
   <si>
     <t xml:space="preserve">#1的厌食症治愈了。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1从黑暗中现形。</t>
   </si>
   <si>
     <t xml:space="preserve">#1身上的水干了。</t>
@@ -3444,10 +3546,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>739</v>
+        <v>761</v>
       </c>
       <c r="C3" t="s">
-        <v>772</v>
+        <v>798</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -3456,7 +3558,7 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>846</v>
+        <v>874</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
@@ -3465,7 +3567,7 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>924</v>
+        <v>954</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
@@ -3474,7 +3576,7 @@
         <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>947</v>
+        <v>977</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
@@ -3485,7 +3587,7 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3" t="s">
-        <v>1020</v>
+        <v>1052</v>
       </c>
       <c r="S3" t="s">
         <v>30</v>
@@ -3499,10 +3601,10 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>740</v>
+        <v>762</v>
       </c>
       <c r="C4" t="s">
-        <v>773</v>
+        <v>799</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -3511,7 +3613,7 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>847</v>
+        <v>875</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -3520,7 +3622,7 @@
         <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>773</v>
+        <v>799</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
@@ -3529,7 +3631,7 @@
         <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>948</v>
+        <v>978</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -3540,7 +3642,7 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4" t="s">
-        <v>1021</v>
+        <v>1053</v>
       </c>
       <c r="S4" t="s">
         <v>39</v>
@@ -3554,10 +3656,10 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>741</v>
+        <v>763</v>
       </c>
       <c r="C5" t="s">
-        <v>774</v>
+        <v>800</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3566,7 +3668,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>848</v>
+        <v>876</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -3575,7 +3677,7 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>774</v>
+        <v>800</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
@@ -3584,7 +3686,7 @@
         <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>949</v>
+        <v>979</v>
       </c>
       <c r="M5" t="s">
         <v>46</v>
@@ -3595,7 +3697,7 @@
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5" t="s">
-        <v>1022</v>
+        <v>1054</v>
       </c>
       <c r="S5" t="s">
         <v>48</v>
@@ -3609,10 +3711,10 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>741</v>
+        <v>763</v>
       </c>
       <c r="C6" t="s">
-        <v>775</v>
+        <v>801</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -3621,7 +3723,7 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>849</v>
+        <v>877</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -3630,7 +3732,7 @@
         <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>775</v>
+        <v>801</v>
       </c>
       <c r="J6" t="s">
         <v>51</v>
@@ -3639,7 +3741,7 @@
         <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="M6" t="s">
         <v>55</v>
@@ -3650,7 +3752,7 @@
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6" t="s">
-        <v>1023</v>
+        <v>1055</v>
       </c>
       <c r="S6" t="s">
         <v>57</v>
@@ -3664,10 +3766,10 @@
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>742</v>
+        <v>764</v>
       </c>
       <c r="C7" t="s">
-        <v>776</v>
+        <v>802</v>
       </c>
       <c r="D7" t="s">
         <v>60</v>
@@ -3676,7 +3778,7 @@
         <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>850</v>
+        <v>878</v>
       </c>
       <c r="G7" t="s">
         <v>62</v>
@@ -3685,7 +3787,7 @@
         <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>776</v>
+        <v>802</v>
       </c>
       <c r="J7" t="s">
         <v>60</v>
@@ -3694,7 +3796,7 @@
         <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>951</v>
+        <v>981</v>
       </c>
       <c r="M7" t="s">
         <v>64</v>
@@ -3705,7 +3807,7 @@
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7" t="s">
-        <v>1024</v>
+        <v>1056</v>
       </c>
       <c r="S7" t="s">
         <v>66</v>
@@ -3719,10 +3821,10 @@
         <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>743</v>
+        <v>765</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>803</v>
       </c>
       <c r="D8" t="s">
         <v>69</v>
@@ -3731,7 +3833,7 @@
         <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>851</v>
+        <v>879</v>
       </c>
       <c r="G8" t="s">
         <v>71</v>
@@ -3740,124 +3842,124 @@
         <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>925</v>
+        <v>803</v>
       </c>
       <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" t="s">
+        <v>982</v>
+      </c>
+      <c r="M8" t="s">
         <v>73</v>
       </c>
-      <c r="K8" t="s">
+      <c r="N8" t="s">
         <v>74</v>
       </c>
-      <c r="L8" t="s">
-        <v>952</v>
-      </c>
-      <c r="M8" t="s">
-        <v>75</v>
-      </c>
-      <c r="N8" t="s">
-        <v>76</v>
-      </c>
-      <c r="O8" t="s">
-        <v>1016</v>
-      </c>
-      <c r="P8" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>78</v>
-      </c>
+      <c r="P8"/>
+      <c r="Q8"/>
       <c r="R8" t="s">
-        <v>1025</v>
+        <v>1057</v>
       </c>
       <c r="S8" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="T8" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>766</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
+        <v>880</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s">
+        <v>955</v>
+      </c>
+      <c r="J9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" t="s">
-        <v>744</v>
-      </c>
-      <c r="C9" t="s">
-        <v>777</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="L9" t="s">
+        <v>983</v>
+      </c>
+      <c r="M9" t="s">
         <v>82</v>
       </c>
-      <c r="E9" t="s">
+      <c r="N9" t="s">
         <v>83</v>
       </c>
-      <c r="F9" t="s">
-        <v>852</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="O9" t="s">
+        <v>1048</v>
+      </c>
+      <c r="P9" t="s">
         <v>84</v>
       </c>
-      <c r="H9" t="s">
+      <c r="Q9" t="s">
         <v>85</v>
       </c>
-      <c r="I9" t="s">
-        <v>926</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="R9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="S9" t="s">
         <v>86</v>
       </c>
-      <c r="K9" t="s">
+      <c r="T9" t="s">
         <v>87</v>
       </c>
-      <c r="L9" t="s">
-        <v>953</v>
-      </c>
-      <c r="M9" t="s">
-        <v>88</v>
-      </c>
-      <c r="N9" t="s">
-        <v>89</v>
-      </c>
-      <c r="O9" t="s">
-        <v>1017</v>
-      </c>
-      <c r="P9" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>91</v>
-      </c>
-      <c r="S9"/>
-      <c r="T9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>767</v>
+      </c>
+      <c r="C10" t="s">
+        <v>804</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>881</v>
+      </c>
+      <c r="G10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" t="s">
         <v>92</v>
       </c>
-      <c r="B10" t="s">
-        <v>743</v>
-      </c>
-      <c r="C10" t="s">
-        <v>778</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" t="s">
-        <v>853</v>
-      </c>
-      <c r="G10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H10" t="s">
-        <v>96</v>
-      </c>
       <c r="I10" t="s">
-        <v>778</v>
+        <v>956</v>
       </c>
       <c r="J10" t="s">
         <v>93</v>
@@ -3866,713 +3968,713 @@
         <v>94</v>
       </c>
       <c r="L10" t="s">
-        <v>954</v>
+        <v>984</v>
       </c>
       <c r="M10" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1049</v>
+      </c>
+      <c r="P10" t="s">
         <v>97</v>
       </c>
-      <c r="N10" t="s">
+      <c r="Q10" t="s">
         <v>98</v>
       </c>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10" t="s">
-        <v>1026</v>
-      </c>
-      <c r="S10" t="s">
-        <v>99</v>
-      </c>
-      <c r="T10" t="s">
-        <v>100</v>
-      </c>
+      <c r="S10"/>
+      <c r="T10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>766</v>
+      </c>
+      <c r="C11" t="s">
+        <v>805</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" t="s">
         <v>101</v>
       </c>
-      <c r="B11" t="s">
-        <v>743</v>
-      </c>
-      <c r="C11" t="s">
-        <v>779</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>882</v>
+      </c>
+      <c r="G11" t="s">
         <v>102</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>103</v>
       </c>
-      <c r="F11" t="s">
-        <v>854</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
+        <v>805</v>
+      </c>
+      <c r="J11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" t="s">
+        <v>985</v>
+      </c>
+      <c r="M11" t="s">
         <v>104</v>
       </c>
-      <c r="H11" t="s">
+      <c r="N11" t="s">
         <v>105</v>
-      </c>
-      <c r="I11" t="s">
-        <v>779</v>
-      </c>
-      <c r="J11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" t="s">
-        <v>103</v>
-      </c>
-      <c r="L11" t="s">
-        <v>955</v>
-      </c>
-      <c r="M11" t="s">
-        <v>106</v>
-      </c>
-      <c r="N11" t="s">
-        <v>107</v>
       </c>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11" t="s">
-        <v>1027</v>
+        <v>1059</v>
       </c>
       <c r="S11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>766</v>
+      </c>
+      <c r="C12" t="s">
+        <v>806</v>
+      </c>
+      <c r="D12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" t="s">
         <v>110</v>
       </c>
-      <c r="B12" t="s">
-        <v>743</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
+        <v>883</v>
+      </c>
+      <c r="G12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" t="s">
         <v>112</v>
       </c>
-      <c r="D12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F12" t="s">
-        <v>855</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
+        <v>806</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>986</v>
+      </c>
+      <c r="M12" t="s">
         <v>113</v>
       </c>
-      <c r="H12" t="s">
+      <c r="N12" t="s">
         <v>114</v>
-      </c>
-      <c r="I12" t="s">
-        <v>112</v>
-      </c>
-      <c r="J12" t="s">
-        <v>115</v>
-      </c>
-      <c r="K12" t="s">
-        <v>112</v>
-      </c>
-      <c r="L12" t="s">
-        <v>956</v>
-      </c>
-      <c r="M12" t="s">
-        <v>116</v>
-      </c>
-      <c r="N12" t="s">
-        <v>117</v>
       </c>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12" t="s">
-        <v>1028</v>
+        <v>1060</v>
       </c>
       <c r="S12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="T12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
+        <v>766</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" t="s">
+        <v>884</v>
+      </c>
+      <c r="G13" t="s">
         <v>120</v>
       </c>
-      <c r="B13" t="s">
-        <v>743</v>
-      </c>
-      <c r="C13" t="s">
-        <v>780</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="H13" t="s">
         <v>121</v>
       </c>
-      <c r="E13" t="s">
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
         <v>122</v>
       </c>
-      <c r="F13" t="s">
-        <v>856</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>987</v>
+      </c>
+      <c r="M13" t="s">
         <v>123</v>
       </c>
-      <c r="H13" t="s">
+      <c r="N13" t="s">
         <v>124</v>
-      </c>
-      <c r="I13" t="s">
-        <v>780</v>
-      </c>
-      <c r="J13" t="s">
-        <v>125</v>
-      </c>
-      <c r="K13" t="s">
-        <v>122</v>
-      </c>
-      <c r="L13" t="s">
-        <v>957</v>
-      </c>
-      <c r="M13" t="s">
-        <v>126</v>
-      </c>
-      <c r="N13" t="s">
-        <v>127</v>
       </c>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13" t="s">
-        <v>1029</v>
+        <v>1061</v>
       </c>
       <c r="S13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="T13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" t="s">
+        <v>766</v>
+      </c>
+      <c r="C14" t="s">
+        <v>807</v>
+      </c>
+      <c r="D14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" t="s">
+        <v>885</v>
+      </c>
+      <c r="G14" t="s">
         <v>130</v>
       </c>
-      <c r="B14" t="s">
-        <v>745</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="H14" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" t="s">
+        <v>807</v>
+      </c>
+      <c r="J14" t="s">
         <v>132</v>
       </c>
-      <c r="D14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" t="s">
-        <v>857</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>988</v>
+      </c>
+      <c r="M14" t="s">
         <v>133</v>
       </c>
-      <c r="H14" t="s">
+      <c r="N14" t="s">
         <v>134</v>
-      </c>
-      <c r="I14" t="s">
-        <v>132</v>
-      </c>
-      <c r="J14" t="s">
-        <v>135</v>
-      </c>
-      <c r="K14" t="s">
-        <v>132</v>
-      </c>
-      <c r="L14" t="s">
-        <v>958</v>
-      </c>
-      <c r="M14" t="s">
-        <v>136</v>
-      </c>
-      <c r="N14" t="s">
-        <v>137</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14" t="s">
-        <v>1030</v>
+        <v>1062</v>
       </c>
       <c r="S14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="T14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" t="s">
+        <v>768</v>
+      </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" t="s">
+        <v>886</v>
+      </c>
+      <c r="G15" t="s">
         <v>140</v>
       </c>
-      <c r="B15" t="s">
-        <v>743</v>
-      </c>
-      <c r="C15" t="s">
-        <v>781</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="H15" t="s">
         <v>141</v>
       </c>
-      <c r="E15" t="s">
+      <c r="I15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
         <v>142</v>
       </c>
-      <c r="F15" t="s">
-        <v>856</v>
-      </c>
-      <c r="G15" t="s">
-        <v>123</v>
-      </c>
-      <c r="H15" t="s">
-        <v>124</v>
-      </c>
-      <c r="I15" t="s">
-        <v>781</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s">
+        <v>989</v>
+      </c>
+      <c r="M15" t="s">
         <v>143</v>
       </c>
-      <c r="K15" t="s">
-        <v>142</v>
-      </c>
-      <c r="L15" t="s">
-        <v>959</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>144</v>
-      </c>
-      <c r="N15" t="s">
-        <v>145</v>
       </c>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15" t="s">
-        <v>1031</v>
+        <v>1063</v>
       </c>
       <c r="S15" t="s">
+        <v>145</v>
+      </c>
+      <c r="T15" t="s">
         <v>146</v>
-      </c>
-      <c r="T15" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" t="s">
+        <v>766</v>
+      </c>
+      <c r="C16" t="s">
+        <v>808</v>
+      </c>
+      <c r="D16" t="s">
         <v>148</v>
       </c>
-      <c r="B16" t="s">
-        <v>743</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" t="s">
+        <v>885</v>
+      </c>
+      <c r="G16" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" t="s">
+        <v>808</v>
+      </c>
+      <c r="J16" t="s">
         <v>150</v>
       </c>
-      <c r="D16" t="s">
+      <c r="K16" t="s">
         <v>149</v>
       </c>
-      <c r="E16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" t="s">
-        <v>858</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="L16" t="s">
+        <v>990</v>
+      </c>
+      <c r="M16" t="s">
         <v>151</v>
       </c>
-      <c r="H16" t="s">
+      <c r="N16" t="s">
         <v>152</v>
-      </c>
-      <c r="I16" t="s">
-        <v>150</v>
-      </c>
-      <c r="J16" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" t="s">
-        <v>150</v>
-      </c>
-      <c r="L16" t="s">
-        <v>960</v>
-      </c>
-      <c r="M16" t="s">
-        <v>154</v>
-      </c>
-      <c r="N16" t="s">
-        <v>155</v>
       </c>
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16" t="s">
-        <v>1032</v>
+        <v>1064</v>
       </c>
       <c r="S16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="T16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" t="s">
+        <v>766</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" t="s">
+        <v>887</v>
+      </c>
+      <c r="G17" t="s">
         <v>158</v>
       </c>
-      <c r="B17" t="s">
-        <v>743</v>
-      </c>
-      <c r="C17" t="s">
-        <v>782</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="H17" t="s">
         <v>159</v>
       </c>
-      <c r="E17" t="s">
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
         <v>160</v>
       </c>
-      <c r="F17" t="s">
-        <v>859</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="K17" t="s">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s">
+        <v>991</v>
+      </c>
+      <c r="M17" t="s">
         <v>161</v>
       </c>
-      <c r="H17" t="s">
+      <c r="N17" t="s">
         <v>162</v>
-      </c>
-      <c r="I17" t="s">
-        <v>782</v>
-      </c>
-      <c r="J17" t="s">
-        <v>159</v>
-      </c>
-      <c r="K17" t="s">
-        <v>160</v>
-      </c>
-      <c r="L17" t="s">
-        <v>961</v>
-      </c>
-      <c r="M17" t="s">
-        <v>163</v>
-      </c>
-      <c r="N17" t="s">
-        <v>164</v>
       </c>
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17" t="s">
-        <v>1033</v>
+        <v>1065</v>
       </c>
       <c r="S17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="T17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" t="s">
+        <v>766</v>
+      </c>
+      <c r="C18" t="s">
+        <v>809</v>
+      </c>
+      <c r="D18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" t="s">
         <v>167</v>
       </c>
-      <c r="B18" t="s">
-        <v>743</v>
-      </c>
-      <c r="C18" t="s">
-        <v>783</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
+        <v>888</v>
+      </c>
+      <c r="G18" t="s">
         <v>168</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>169</v>
       </c>
-      <c r="F18" t="s">
-        <v>860</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
+        <v>809</v>
+      </c>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s">
+        <v>992</v>
+      </c>
+      <c r="M18" t="s">
         <v>170</v>
       </c>
-      <c r="H18" t="s">
+      <c r="N18" t="s">
         <v>171</v>
-      </c>
-      <c r="I18" t="s">
-        <v>927</v>
-      </c>
-      <c r="J18" t="s">
-        <v>172</v>
-      </c>
-      <c r="K18" t="s">
-        <v>173</v>
-      </c>
-      <c r="L18" t="s">
-        <v>962</v>
-      </c>
-      <c r="M18" t="s">
-        <v>174</v>
-      </c>
-      <c r="N18" t="s">
-        <v>175</v>
       </c>
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18" t="s">
-        <v>1034</v>
+        <v>1066</v>
       </c>
       <c r="S18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="T18" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" t="s">
+        <v>766</v>
+      </c>
+      <c r="C19" t="s">
+        <v>810</v>
+      </c>
+      <c r="D19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" t="s">
+        <v>889</v>
+      </c>
+      <c r="G19" t="s">
+        <v>177</v>
+      </c>
+      <c r="H19" t="s">
         <v>178</v>
       </c>
-      <c r="B19" t="s">
-        <v>743</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="I19" t="s">
+        <v>957</v>
+      </c>
+      <c r="J19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" t="s">
         <v>180</v>
       </c>
-      <c r="D19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E19" t="s">
-        <v>180</v>
-      </c>
-      <c r="F19" t="s">
-        <v>861</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="L19" t="s">
+        <v>993</v>
+      </c>
+      <c r="M19" t="s">
         <v>181</v>
       </c>
-      <c r="H19" t="s">
+      <c r="N19" t="s">
         <v>182</v>
-      </c>
-      <c r="I19" t="s">
-        <v>928</v>
-      </c>
-      <c r="J19" t="s">
-        <v>183</v>
-      </c>
-      <c r="K19" t="s">
-        <v>184</v>
-      </c>
-      <c r="L19" t="s">
-        <v>963</v>
-      </c>
-      <c r="M19" t="s">
-        <v>185</v>
-      </c>
-      <c r="N19" t="s">
-        <v>186</v>
       </c>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19" t="s">
-        <v>1035</v>
+        <v>1067</v>
       </c>
       <c r="S19" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="T19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" t="s">
+        <v>766</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" t="s">
+        <v>890</v>
+      </c>
+      <c r="G20" t="s">
+        <v>188</v>
+      </c>
+      <c r="H20" t="s">
         <v>189</v>
       </c>
-      <c r="B20" t="s">
-        <v>743</v>
-      </c>
-      <c r="C20" t="s">
-        <v>784</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="I20" t="s">
+        <v>958</v>
+      </c>
+      <c r="J20" t="s">
         <v>190</v>
       </c>
-      <c r="E20" t="s">
+      <c r="K20" t="s">
         <v>191</v>
       </c>
-      <c r="F20" t="s">
-        <v>862</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="L20" t="s">
+        <v>994</v>
+      </c>
+      <c r="M20" t="s">
         <v>192</v>
       </c>
-      <c r="H20" t="s">
+      <c r="N20" t="s">
         <v>193</v>
-      </c>
-      <c r="I20" t="s">
-        <v>929</v>
-      </c>
-      <c r="J20" t="s">
-        <v>194</v>
-      </c>
-      <c r="K20" t="s">
-        <v>195</v>
-      </c>
-      <c r="L20" t="s">
-        <v>964</v>
-      </c>
-      <c r="M20" t="s">
-        <v>196</v>
-      </c>
-      <c r="N20" t="s">
-        <v>197</v>
       </c>
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20" t="s">
-        <v>1036</v>
+        <v>1068</v>
       </c>
       <c r="S20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="T20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" t="s">
+        <v>766</v>
+      </c>
+      <c r="C21" t="s">
+        <v>811</v>
+      </c>
+      <c r="D21" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" t="s">
+        <v>891</v>
+      </c>
+      <c r="G21" t="s">
+        <v>199</v>
+      </c>
+      <c r="H21" t="s">
         <v>200</v>
       </c>
-      <c r="B21" t="s">
-        <v>746</v>
-      </c>
-      <c r="C21" t="s">
-        <v>785</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="I21" t="s">
+        <v>959</v>
+      </c>
+      <c r="J21" t="s">
         <v>201</v>
       </c>
-      <c r="E21" t="s">
+      <c r="K21" t="s">
         <v>202</v>
       </c>
-      <c r="F21" t="s">
-        <v>863</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="L21" t="s">
+        <v>995</v>
+      </c>
+      <c r="M21" t="s">
         <v>203</v>
       </c>
-      <c r="H21" t="s">
+      <c r="N21" t="s">
         <v>204</v>
-      </c>
-      <c r="I21" t="s">
-        <v>930</v>
-      </c>
-      <c r="J21" t="s">
-        <v>205</v>
-      </c>
-      <c r="K21" t="s">
-        <v>206</v>
-      </c>
-      <c r="L21" t="s">
-        <v>965</v>
-      </c>
-      <c r="M21" t="s">
-        <v>207</v>
-      </c>
-      <c r="N21" t="s">
-        <v>208</v>
       </c>
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21" t="s">
-        <v>1037</v>
+        <v>1069</v>
       </c>
       <c r="S21" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="T21" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" t="s">
+        <v>769</v>
+      </c>
+      <c r="C22" t="s">
+        <v>812</v>
+      </c>
+      <c r="D22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" t="s">
+        <v>209</v>
+      </c>
+      <c r="F22" t="s">
+        <v>892</v>
+      </c>
+      <c r="G22" t="s">
+        <v>210</v>
+      </c>
+      <c r="H22" t="s">
         <v>211</v>
       </c>
-      <c r="B22" t="s">
-        <v>739</v>
-      </c>
-      <c r="C22" t="s">
-        <v>786</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="I22" t="s">
+        <v>960</v>
+      </c>
+      <c r="J22" t="s">
         <v>212</v>
       </c>
-      <c r="E22" t="s">
+      <c r="K22" t="s">
         <v>213</v>
       </c>
-      <c r="F22" t="s">
-        <v>864</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="L22" t="s">
+        <v>996</v>
+      </c>
+      <c r="M22" t="s">
         <v>214</v>
       </c>
-      <c r="H22" t="s">
+      <c r="N22" t="s">
         <v>215</v>
-      </c>
-      <c r="I22" t="s">
-        <v>931</v>
-      </c>
-      <c r="J22" t="s">
-        <v>216</v>
-      </c>
-      <c r="K22" t="s">
-        <v>217</v>
-      </c>
-      <c r="L22" t="s">
-        <v>966</v>
-      </c>
-      <c r="M22" t="s">
-        <v>218</v>
-      </c>
-      <c r="N22" t="s">
-        <v>219</v>
       </c>
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22" t="s">
-        <v>1038</v>
+        <v>1070</v>
       </c>
       <c r="S22" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="T22" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" t="s">
+        <v>761</v>
+      </c>
+      <c r="C23" t="s">
+        <v>813</v>
+      </c>
+      <c r="D23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23" t="s">
+        <v>220</v>
+      </c>
+      <c r="F23" t="s">
+        <v>893</v>
+      </c>
+      <c r="G23" t="s">
+        <v>221</v>
+      </c>
+      <c r="H23" t="s">
         <v>222</v>
       </c>
-      <c r="B23" t="s">
-        <v>743</v>
-      </c>
-      <c r="C23" t="s">
-        <v>787</v>
-      </c>
-      <c r="D23" t="s">
-        <v>223</v>
-      </c>
-      <c r="E23" t="s">
-        <v>224</v>
-      </c>
-      <c r="F23" t="s">
-        <v>865</v>
-      </c>
-      <c r="G23" t="s">
-        <v>225</v>
-      </c>
-      <c r="H23" t="s">
-        <v>226</v>
-      </c>
       <c r="I23" t="s">
-        <v>787</v>
+        <v>961</v>
       </c>
       <c r="J23" t="s">
         <v>223</v>
@@ -4581,83 +4683,90 @@
         <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>967</v>
+        <v>997</v>
       </c>
       <c r="M23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23" t="s">
-        <v>1039</v>
+        <v>1071</v>
       </c>
       <c r="S23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="T23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" t="s">
+        <v>766</v>
+      </c>
+      <c r="C24" t="s">
+        <v>814</v>
+      </c>
+      <c r="D24" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" t="s">
         <v>231</v>
       </c>
-      <c r="B24" t="s">
-        <v>747</v>
-      </c>
-      <c r="C24" t="s">
-        <v>788</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="F24" t="s">
+        <v>894</v>
+      </c>
+      <c r="G24" t="s">
         <v>232</v>
       </c>
-      <c r="E24" t="s">
+      <c r="H24" t="s">
         <v>233</v>
       </c>
-      <c r="F24" t="s">
-        <v>866</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
+        <v>814</v>
+      </c>
+      <c r="J24" t="s">
+        <v>230</v>
+      </c>
+      <c r="K24" t="s">
+        <v>231</v>
+      </c>
+      <c r="L24" t="s">
+        <v>998</v>
+      </c>
+      <c r="M24" t="s">
         <v>234</v>
       </c>
-      <c r="H24" t="s">
+      <c r="N24" t="s">
         <v>235</v>
-      </c>
-      <c r="I24" t="s">
-        <v>932</v>
-      </c>
-      <c r="J24" t="s">
-        <v>232</v>
-      </c>
-      <c r="K24" t="s">
-        <v>233</v>
-      </c>
-      <c r="L24" t="s">
-        <v>968</v>
-      </c>
-      <c r="M24" t="s">
-        <v>236</v>
-      </c>
-      <c r="N24" t="s">
-        <v>237</v>
       </c>
       <c r="P24"/>
       <c r="Q24"/>
-      <c r="S24"/>
-      <c r="T24"/>
+      <c r="R24" t="s">
+        <v>1072</v>
+      </c>
+      <c r="S24" t="s">
+        <v>236</v>
+      </c>
+      <c r="T24" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>238</v>
       </c>
       <c r="B25" t="s">
-        <v>748</v>
+        <v>770</v>
       </c>
       <c r="C25" t="s">
-        <v>789</v>
+        <v>815</v>
       </c>
       <c r="D25" t="s">
         <v>239</v>
@@ -4666,7 +4775,7 @@
         <v>240</v>
       </c>
       <c r="F25" t="s">
-        <v>867</v>
+        <v>895</v>
       </c>
       <c r="G25" t="s">
         <v>241</v>
@@ -4675,7 +4784,7 @@
         <v>242</v>
       </c>
       <c r="I25" t="s">
-        <v>789</v>
+        <v>962</v>
       </c>
       <c r="J25" t="s">
         <v>239</v>
@@ -4684,7 +4793,7 @@
         <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>969</v>
+        <v>999</v>
       </c>
       <c r="M25" t="s">
         <v>243</v>
@@ -4694,428 +4803,421 @@
       </c>
       <c r="P25"/>
       <c r="Q25"/>
-      <c r="R25" t="s">
-        <v>1040</v>
-      </c>
-      <c r="S25" t="s">
-        <v>245</v>
-      </c>
-      <c r="T25" t="s">
-        <v>246</v>
-      </c>
+      <c r="S25"/>
+      <c r="T25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>245</v>
+      </c>
+      <c r="B26" t="s">
+        <v>771</v>
+      </c>
+      <c r="C26" t="s">
+        <v>816</v>
+      </c>
+      <c r="D26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E26" t="s">
         <v>247</v>
       </c>
-      <c r="B26" t="s">
-        <v>749</v>
-      </c>
-      <c r="C26" t="s">
-        <v>790</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="F26" t="s">
+        <v>896</v>
+      </c>
+      <c r="G26" t="s">
         <v>248</v>
       </c>
-      <c r="E26" t="s">
+      <c r="H26" t="s">
         <v>249</v>
       </c>
-      <c r="F26" t="s">
-        <v>868</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
+        <v>816</v>
+      </c>
+      <c r="J26" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" t="s">
+        <v>247</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1000</v>
+      </c>
+      <c r="M26" t="s">
         <v>250</v>
       </c>
-      <c r="H26" t="s">
+      <c r="N26" t="s">
         <v>251</v>
-      </c>
-      <c r="I26" t="s">
-        <v>790</v>
-      </c>
-      <c r="J26" t="s">
-        <v>248</v>
-      </c>
-      <c r="K26" t="s">
-        <v>249</v>
-      </c>
-      <c r="L26" t="s">
-        <v>970</v>
-      </c>
-      <c r="M26" t="s">
-        <v>252</v>
-      </c>
-      <c r="N26" t="s">
-        <v>253</v>
       </c>
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26" t="s">
-        <v>1041</v>
+        <v>1073</v>
       </c>
       <c r="S26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="T26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" t="s">
+        <v>772</v>
+      </c>
+      <c r="C27" t="s">
+        <v>817</v>
+      </c>
+      <c r="D27" t="s">
+        <v>255</v>
+      </c>
+      <c r="E27" t="s">
         <v>256</v>
       </c>
-      <c r="B27" t="s">
-        <v>739</v>
-      </c>
-      <c r="C27" t="s">
-        <v>791</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
+        <v>897</v>
+      </c>
+      <c r="G27" t="s">
         <v>257</v>
       </c>
-      <c r="E27" t="s">
+      <c r="H27" t="s">
         <v>258</v>
       </c>
-      <c r="F27" t="s">
-        <v>869</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="I27" t="s">
+        <v>817</v>
+      </c>
+      <c r="J27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1001</v>
+      </c>
+      <c r="M27" t="s">
         <v>259</v>
       </c>
-      <c r="H27" t="s">
+      <c r="N27" t="s">
         <v>260</v>
-      </c>
-      <c r="I27" t="s">
-        <v>791</v>
-      </c>
-      <c r="J27" t="s">
-        <v>257</v>
-      </c>
-      <c r="K27" t="s">
-        <v>258</v>
-      </c>
-      <c r="L27" t="s">
-        <v>971</v>
-      </c>
-      <c r="M27" t="s">
-        <v>261</v>
-      </c>
-      <c r="N27" t="s">
-        <v>262</v>
       </c>
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27" t="s">
-        <v>1042</v>
+        <v>1074</v>
       </c>
       <c r="S27" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="T27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>263</v>
+      </c>
+      <c r="B28" t="s">
+        <v>761</v>
+      </c>
+      <c r="C28" t="s">
+        <v>818</v>
+      </c>
+      <c r="D28" t="s">
+        <v>264</v>
+      </c>
+      <c r="E28" t="s">
         <v>265</v>
       </c>
-      <c r="B28" t="s">
-        <v>750</v>
-      </c>
-      <c r="C28" t="s">
-        <v>792</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
+        <v>898</v>
+      </c>
+      <c r="G28" t="s">
         <v>266</v>
       </c>
-      <c r="E28" t="s">
+      <c r="H28" t="s">
         <v>267</v>
       </c>
-      <c r="F28" t="s">
-        <v>870</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
+        <v>818</v>
+      </c>
+      <c r="J28" t="s">
+        <v>264</v>
+      </c>
+      <c r="K28" t="s">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M28" t="s">
         <v>268</v>
       </c>
-      <c r="H28" t="s">
+      <c r="N28" t="s">
         <v>269</v>
-      </c>
-      <c r="I28" t="s">
-        <v>792</v>
-      </c>
-      <c r="J28" t="s">
-        <v>266</v>
-      </c>
-      <c r="K28" t="s">
-        <v>267</v>
-      </c>
-      <c r="L28" t="s">
-        <v>972</v>
-      </c>
-      <c r="M28" t="s">
-        <v>270</v>
-      </c>
-      <c r="N28" t="s">
-        <v>271</v>
       </c>
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28" t="s">
-        <v>1043</v>
+        <v>1075</v>
       </c>
       <c r="S28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="T28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>272</v>
+      </c>
+      <c r="B29" t="s">
+        <v>773</v>
+      </c>
+      <c r="C29" t="s">
+        <v>819</v>
+      </c>
+      <c r="D29" t="s">
+        <v>273</v>
+      </c>
+      <c r="E29" t="s">
         <v>274</v>
       </c>
-      <c r="B29" t="s">
-        <v>750</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="F29" t="s">
+        <v>899</v>
+      </c>
+      <c r="G29" t="s">
+        <v>275</v>
+      </c>
+      <c r="H29" t="s">
         <v>276</v>
       </c>
-      <c r="D29" t="s">
-        <v>275</v>
-      </c>
-      <c r="E29" t="s">
-        <v>276</v>
-      </c>
-      <c r="F29" t="s">
-        <v>871</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
+        <v>819</v>
+      </c>
+      <c r="J29" t="s">
+        <v>273</v>
+      </c>
+      <c r="K29" t="s">
+        <v>274</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1003</v>
+      </c>
+      <c r="M29" t="s">
         <v>277</v>
       </c>
-      <c r="H29" t="s">
+      <c r="N29" t="s">
         <v>278</v>
-      </c>
-      <c r="I29" t="s">
-        <v>276</v>
-      </c>
-      <c r="J29" t="s">
-        <v>275</v>
-      </c>
-      <c r="K29" t="s">
-        <v>276</v>
-      </c>
-      <c r="L29" t="s">
-        <v>973</v>
-      </c>
-      <c r="M29" t="s">
-        <v>279</v>
-      </c>
-      <c r="N29" t="s">
-        <v>280</v>
       </c>
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29" t="s">
-        <v>1044</v>
+        <v>1076</v>
       </c>
       <c r="S29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="T29" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>281</v>
+      </c>
+      <c r="B30" t="s">
+        <v>773</v>
+      </c>
+      <c r="C30" t="s">
         <v>283</v>
       </c>
-      <c r="B30" t="s">
-        <v>750</v>
-      </c>
-      <c r="C30" t="s">
-        <v>793</v>
-      </c>
       <c r="D30" t="s">
+        <v>282</v>
+      </c>
+      <c r="E30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F30" t="s">
+        <v>900</v>
+      </c>
+      <c r="G30" t="s">
         <v>284</v>
       </c>
-      <c r="E30" t="s">
+      <c r="H30" t="s">
         <v>285</v>
       </c>
-      <c r="F30" t="s">
-        <v>872</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="I30" t="s">
+        <v>283</v>
+      </c>
+      <c r="J30" t="s">
+        <v>282</v>
+      </c>
+      <c r="K30" t="s">
+        <v>283</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1004</v>
+      </c>
+      <c r="M30" t="s">
         <v>286</v>
       </c>
-      <c r="H30" t="s">
+      <c r="N30" t="s">
         <v>287</v>
-      </c>
-      <c r="I30" t="s">
-        <v>793</v>
-      </c>
-      <c r="J30" t="s">
-        <v>284</v>
-      </c>
-      <c r="K30" t="s">
-        <v>285</v>
-      </c>
-      <c r="L30" t="s">
-        <v>974</v>
-      </c>
-      <c r="M30" t="s">
-        <v>288</v>
-      </c>
-      <c r="N30" t="s">
-        <v>289</v>
       </c>
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30" t="s">
-        <v>1045</v>
+        <v>1077</v>
       </c>
       <c r="S30" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="T30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>290</v>
+      </c>
+      <c r="B31" t="s">
+        <v>773</v>
+      </c>
+      <c r="C31" t="s">
+        <v>820</v>
+      </c>
+      <c r="D31" t="s">
+        <v>291</v>
+      </c>
+      <c r="E31" t="s">
         <v>292</v>
       </c>
-      <c r="B31" t="s">
-        <v>750</v>
-      </c>
-      <c r="C31" t="s">
-        <v>794</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="F31" t="s">
+        <v>901</v>
+      </c>
+      <c r="G31" t="s">
         <v>293</v>
       </c>
-      <c r="E31" t="s">
+      <c r="H31" t="s">
         <v>294</v>
       </c>
-      <c r="F31" t="s">
-        <v>873</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
+        <v>820</v>
+      </c>
+      <c r="J31" t="s">
+        <v>291</v>
+      </c>
+      <c r="K31" t="s">
+        <v>292</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1005</v>
+      </c>
+      <c r="M31" t="s">
         <v>295</v>
       </c>
-      <c r="H31" t="s">
+      <c r="N31" t="s">
         <v>296</v>
-      </c>
-      <c r="I31" t="s">
-        <v>794</v>
-      </c>
-      <c r="J31" t="s">
-        <v>293</v>
-      </c>
-      <c r="K31" t="s">
-        <v>294</v>
-      </c>
-      <c r="L31" t="s">
-        <v>975</v>
-      </c>
-      <c r="M31" t="s">
-        <v>297</v>
-      </c>
-      <c r="N31" t="s">
-        <v>298</v>
       </c>
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31" t="s">
-        <v>1046</v>
+        <v>1078</v>
       </c>
       <c r="S31" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="T31" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>299</v>
+      </c>
+      <c r="B32" t="s">
+        <v>773</v>
+      </c>
+      <c r="C32" t="s">
+        <v>821</v>
+      </c>
+      <c r="D32" t="s">
+        <v>300</v>
+      </c>
+      <c r="E32" t="s">
         <v>301</v>
       </c>
-      <c r="B32" t="s">
-        <v>743</v>
-      </c>
-      <c r="C32" t="s">
-        <v>795</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
+        <v>902</v>
+      </c>
+      <c r="G32" t="s">
         <v>302</v>
       </c>
-      <c r="E32" t="s">
+      <c r="H32" t="s">
         <v>303</v>
       </c>
-      <c r="F32" t="s">
-        <v>874</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
+        <v>821</v>
+      </c>
+      <c r="J32" t="s">
+        <v>300</v>
+      </c>
+      <c r="K32" t="s">
+        <v>301</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M32" t="s">
         <v>304</v>
       </c>
-      <c r="H32" t="s">
+      <c r="N32" t="s">
         <v>305</v>
-      </c>
-      <c r="I32" t="s">
-        <v>933</v>
-      </c>
-      <c r="J32" t="s">
-        <v>306</v>
-      </c>
-      <c r="K32" t="s">
-        <v>307</v>
-      </c>
-      <c r="L32" t="s">
-        <v>976</v>
-      </c>
-      <c r="M32" t="s">
-        <v>308</v>
-      </c>
-      <c r="N32" t="s">
-        <v>309</v>
       </c>
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32" t="s">
-        <v>1047</v>
+        <v>1079</v>
       </c>
       <c r="S32" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="T32" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>308</v>
+      </c>
+      <c r="B33" t="s">
+        <v>766</v>
+      </c>
+      <c r="C33" t="s">
+        <v>822</v>
+      </c>
+      <c r="D33" t="s">
+        <v>309</v>
+      </c>
+      <c r="E33" t="s">
+        <v>310</v>
+      </c>
+      <c r="F33" t="s">
+        <v>903</v>
+      </c>
+      <c r="G33" t="s">
+        <v>311</v>
+      </c>
+      <c r="H33" t="s">
         <v>312</v>
       </c>
-      <c r="B33" t="s">
-        <v>743</v>
-      </c>
-      <c r="C33" t="s">
-        <v>796</v>
-      </c>
-      <c r="D33" t="s">
-        <v>313</v>
-      </c>
-      <c r="E33" t="s">
-        <v>314</v>
-      </c>
-      <c r="F33" t="s">
-        <v>875</v>
-      </c>
-      <c r="G33" t="s">
-        <v>315</v>
-      </c>
-      <c r="H33" t="s">
-        <v>316</v>
-      </c>
       <c r="I33" t="s">
-        <v>796</v>
+        <v>963</v>
       </c>
       <c r="J33" t="s">
         <v>313</v>
@@ -5124,413 +5226,420 @@
         <v>314</v>
       </c>
       <c r="L33" t="s">
-        <v>977</v>
+        <v>1007</v>
       </c>
       <c r="M33" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N33" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33" t="s">
-        <v>1048</v>
+        <v>1080</v>
       </c>
       <c r="S33" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="T33" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>319</v>
+      </c>
+      <c r="B34" t="s">
+        <v>766</v>
+      </c>
+      <c r="C34" t="s">
+        <v>823</v>
+      </c>
+      <c r="D34" t="s">
+        <v>320</v>
+      </c>
+      <c r="E34" t="s">
         <v>321</v>
       </c>
-      <c r="B34" t="s">
-        <v>751</v>
-      </c>
-      <c r="C34" t="s">
-        <v>797</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
+        <v>904</v>
+      </c>
+      <c r="G34" t="s">
         <v>322</v>
       </c>
-      <c r="E34" t="s">
+      <c r="H34" t="s">
         <v>323</v>
       </c>
-      <c r="F34" t="s">
-        <v>876</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="I34" t="s">
+        <v>823</v>
+      </c>
+      <c r="J34" t="s">
+        <v>320</v>
+      </c>
+      <c r="K34" t="s">
+        <v>321</v>
+      </c>
+      <c r="L34" t="s">
+        <v>1008</v>
+      </c>
+      <c r="M34" t="s">
         <v>324</v>
       </c>
-      <c r="H34" t="s">
+      <c r="N34" t="s">
         <v>325</v>
-      </c>
-      <c r="I34" t="s">
-        <v>797</v>
-      </c>
-      <c r="J34" t="s">
-        <v>322</v>
-      </c>
-      <c r="K34" t="s">
-        <v>323</v>
-      </c>
-      <c r="L34" t="s">
-        <v>978</v>
-      </c>
-      <c r="M34" t="s">
-        <v>326</v>
-      </c>
-      <c r="N34" t="s">
-        <v>327</v>
       </c>
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34" t="s">
-        <v>1049</v>
+        <v>1081</v>
       </c>
       <c r="S34" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="T34" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>328</v>
+      </c>
+      <c r="B35" t="s">
+        <v>774</v>
+      </c>
+      <c r="C35" t="s">
+        <v>824</v>
+      </c>
+      <c r="D35" t="s">
+        <v>329</v>
+      </c>
+      <c r="E35" t="s">
         <v>330</v>
       </c>
-      <c r="B35" t="s">
-        <v>752</v>
-      </c>
-      <c r="C35" t="s">
-        <v>798</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
+        <v>905</v>
+      </c>
+      <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="E35" t="s">
+      <c r="H35" t="s">
         <v>332</v>
       </c>
-      <c r="F35" t="s">
-        <v>877</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="I35" t="s">
+        <v>824</v>
+      </c>
+      <c r="J35" t="s">
+        <v>329</v>
+      </c>
+      <c r="K35" t="s">
+        <v>330</v>
+      </c>
+      <c r="L35" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M35" t="s">
         <v>333</v>
       </c>
-      <c r="H35" t="s">
+      <c r="N35" t="s">
         <v>334</v>
-      </c>
-      <c r="I35" t="s">
-        <v>798</v>
-      </c>
-      <c r="J35" t="s">
-        <v>335</v>
-      </c>
-      <c r="K35" t="s">
-        <v>332</v>
-      </c>
-      <c r="L35" t="s">
-        <v>979</v>
-      </c>
-      <c r="M35" t="s">
-        <v>336</v>
-      </c>
-      <c r="N35" t="s">
-        <v>337</v>
       </c>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>1050</v>
+        <v>1082</v>
       </c>
       <c r="S35" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="T35" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>337</v>
+      </c>
+      <c r="B36" t="s">
+        <v>775</v>
+      </c>
+      <c r="C36" t="s">
+        <v>825</v>
+      </c>
+      <c r="D36" t="s">
+        <v>338</v>
+      </c>
+      <c r="E36" t="s">
+        <v>339</v>
+      </c>
+      <c r="F36" t="s">
+        <v>906</v>
+      </c>
+      <c r="G36" t="s">
         <v>340</v>
       </c>
-      <c r="B36" t="s">
-        <v>753</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="H36" t="s">
+        <v>341</v>
+      </c>
+      <c r="I36" t="s">
+        <v>825</v>
+      </c>
+      <c r="J36" t="s">
         <v>342</v>
       </c>
-      <c r="D36" t="s">
-        <v>341</v>
-      </c>
-      <c r="E36" t="s">
-        <v>342</v>
-      </c>
-      <c r="F36" t="s">
-        <v>878</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="K36" t="s">
+        <v>339</v>
+      </c>
+      <c r="L36" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M36" t="s">
         <v>343</v>
       </c>
-      <c r="H36" t="s">
+      <c r="N36" t="s">
         <v>344</v>
-      </c>
-      <c r="I36" t="s">
-        <v>342</v>
-      </c>
-      <c r="J36" t="s">
-        <v>341</v>
-      </c>
-      <c r="K36" t="s">
-        <v>342</v>
-      </c>
-      <c r="L36" t="s">
-        <v>980</v>
-      </c>
-      <c r="M36" t="s">
-        <v>345</v>
-      </c>
-      <c r="N36" t="s">
-        <v>346</v>
       </c>
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36" t="s">
-        <v>1051</v>
+        <v>1083</v>
       </c>
       <c r="S36" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="T36" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>347</v>
+      </c>
+      <c r="B37" t="s">
+        <v>776</v>
+      </c>
+      <c r="C37" t="s">
         <v>349</v>
       </c>
-      <c r="B37" t="s">
-        <v>751</v>
-      </c>
-      <c r="C37" t="s">
-        <v>799</v>
-      </c>
       <c r="D37" t="s">
+        <v>348</v>
+      </c>
+      <c r="E37" t="s">
+        <v>349</v>
+      </c>
+      <c r="F37" t="s">
+        <v>907</v>
+      </c>
+      <c r="G37" t="s">
         <v>350</v>
       </c>
-      <c r="E37" t="s">
+      <c r="H37" t="s">
         <v>351</v>
       </c>
-      <c r="F37" t="s">
-        <v>879</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="I37" t="s">
+        <v>349</v>
+      </c>
+      <c r="J37" t="s">
+        <v>348</v>
+      </c>
+      <c r="K37" t="s">
+        <v>349</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M37" t="s">
         <v>352</v>
       </c>
-      <c r="H37" t="s">
+      <c r="N37" t="s">
         <v>353</v>
-      </c>
-      <c r="I37" t="s">
-        <v>799</v>
-      </c>
-      <c r="J37" t="s">
-        <v>354</v>
-      </c>
-      <c r="K37" t="s">
-        <v>351</v>
-      </c>
-      <c r="L37" t="s">
-        <v>981</v>
-      </c>
-      <c r="M37" t="s">
-        <v>355</v>
-      </c>
-      <c r="N37" t="s">
-        <v>356</v>
       </c>
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37" t="s">
-        <v>1052</v>
+        <v>1084</v>
       </c>
       <c r="S37" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="T37" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>356</v>
+      </c>
+      <c r="B38" t="s">
+        <v>774</v>
+      </c>
+      <c r="C38" t="s">
+        <v>826</v>
+      </c>
+      <c r="D38" t="s">
+        <v>357</v>
+      </c>
+      <c r="E38" t="s">
+        <v>358</v>
+      </c>
+      <c r="F38" t="s">
+        <v>908</v>
+      </c>
+      <c r="G38" t="s">
         <v>359</v>
       </c>
-      <c r="B38" t="s">
-        <v>754</v>
-      </c>
-      <c r="C38" t="s">
-        <v>800</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="H38" t="s">
         <v>360</v>
       </c>
-      <c r="E38" t="s">
+      <c r="I38" t="s">
+        <v>826</v>
+      </c>
+      <c r="J38" t="s">
         <v>361</v>
       </c>
-      <c r="F38" t="s">
-        <v>880</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="K38" t="s">
+        <v>358</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M38" t="s">
         <v>362</v>
       </c>
-      <c r="H38" t="s">
+      <c r="N38" t="s">
         <v>363</v>
-      </c>
-      <c r="I38" t="s">
-        <v>800</v>
-      </c>
-      <c r="J38" t="s">
-        <v>360</v>
-      </c>
-      <c r="K38" t="s">
-        <v>361</v>
-      </c>
-      <c r="L38" t="s">
-        <v>982</v>
-      </c>
-      <c r="M38" t="s">
-        <v>364</v>
-      </c>
-      <c r="N38" t="s">
-        <v>365</v>
       </c>
       <c r="P38"/>
       <c r="Q38"/>
       <c r="R38" t="s">
-        <v>1053</v>
+        <v>1085</v>
       </c>
       <c r="S38" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="T38" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>366</v>
+      </c>
+      <c r="B39" t="s">
+        <v>777</v>
+      </c>
+      <c r="C39" t="s">
+        <v>827</v>
+      </c>
+      <c r="D39" t="s">
+        <v>367</v>
+      </c>
+      <c r="E39" t="s">
         <v>368</v>
       </c>
-      <c r="B39" t="s">
-        <v>751</v>
-      </c>
-      <c r="C39" t="s">
-        <v>801</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
+        <v>909</v>
+      </c>
+      <c r="G39" t="s">
         <v>369</v>
       </c>
-      <c r="E39" t="s">
+      <c r="H39" t="s">
         <v>370</v>
       </c>
-      <c r="F39" t="s">
-        <v>881</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="I39" t="s">
+        <v>827</v>
+      </c>
+      <c r="J39" t="s">
+        <v>367</v>
+      </c>
+      <c r="K39" t="s">
+        <v>368</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M39" t="s">
         <v>371</v>
       </c>
-      <c r="H39" t="s">
+      <c r="N39" t="s">
         <v>372</v>
-      </c>
-      <c r="I39" t="s">
-        <v>801</v>
-      </c>
-      <c r="J39" t="s">
-        <v>369</v>
-      </c>
-      <c r="K39" t="s">
-        <v>370</v>
-      </c>
-      <c r="L39" t="s">
-        <v>983</v>
-      </c>
-      <c r="M39" t="s">
-        <v>373</v>
-      </c>
-      <c r="N39" t="s">
-        <v>374</v>
       </c>
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39" t="s">
-        <v>1054</v>
+        <v>1086</v>
       </c>
       <c r="S39" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="T39" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>375</v>
+      </c>
+      <c r="B40" t="s">
+        <v>774</v>
+      </c>
+      <c r="C40" t="s">
+        <v>828</v>
+      </c>
+      <c r="D40" t="s">
+        <v>376</v>
+      </c>
+      <c r="E40" t="s">
         <v>377</v>
       </c>
-      <c r="B40" t="s">
-        <v>755</v>
-      </c>
-      <c r="C40" t="s">
-        <v>802</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
+        <v>910</v>
+      </c>
+      <c r="G40" t="s">
         <v>378</v>
       </c>
-      <c r="E40" t="s">
+      <c r="H40" t="s">
         <v>379</v>
       </c>
-      <c r="F40" t="s">
-        <v>882</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="I40" t="s">
+        <v>828</v>
+      </c>
+      <c r="J40" t="s">
+        <v>376</v>
+      </c>
+      <c r="K40" t="s">
+        <v>377</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1014</v>
+      </c>
+      <c r="M40" t="s">
         <v>380</v>
       </c>
-      <c r="H40" t="s">
+      <c r="N40" t="s">
         <v>381</v>
-      </c>
-      <c r="I40" t="s">
-        <v>802</v>
-      </c>
-      <c r="J40" t="s">
-        <v>378</v>
-      </c>
-      <c r="K40" t="s">
-        <v>379</v>
-      </c>
-      <c r="L40" t="s">
-        <v>984</v>
-      </c>
-      <c r="M40" t="s">
-        <v>382</v>
-      </c>
-      <c r="N40" t="s">
-        <v>383</v>
       </c>
       <c r="P40"/>
       <c r="Q40"/>
-      <c r="S40"/>
-      <c r="T40"/>
+      <c r="R40" t="s">
+        <v>1087</v>
+      </c>
+      <c r="S40" t="s">
+        <v>382</v>
+      </c>
+      <c r="T40" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>384</v>
       </c>
       <c r="B41" t="s">
-        <v>756</v>
+        <v>778</v>
       </c>
       <c r="C41" t="s">
-        <v>803</v>
+        <v>829</v>
       </c>
       <c r="D41" t="s">
         <v>385</v>
@@ -5539,7 +5648,7 @@
         <v>386</v>
       </c>
       <c r="F41" t="s">
-        <v>883</v>
+        <v>911</v>
       </c>
       <c r="G41" t="s">
         <v>387</v>
@@ -5548,7 +5657,7 @@
         <v>388</v>
       </c>
       <c r="I41" t="s">
-        <v>803</v>
+        <v>829</v>
       </c>
       <c r="J41" t="s">
         <v>385</v>
@@ -5556,8 +5665,15 @@
       <c r="K41" t="s">
         <v>386</v>
       </c>
-      <c r="M41"/>
-      <c r="N41"/>
+      <c r="L41" t="s">
+        <v>1015</v>
+      </c>
+      <c r="M41" t="s">
+        <v>389</v>
+      </c>
+      <c r="N41" t="s">
+        <v>390</v>
+      </c>
       <c r="P41"/>
       <c r="Q41"/>
       <c r="S41"/>
@@ -5565,37 +5681,37 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B42" t="s">
-        <v>757</v>
+        <v>779</v>
       </c>
       <c r="C42" t="s">
-        <v>804</v>
+        <v>830</v>
       </c>
       <c r="D42" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E42" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F42" t="s">
-        <v>884</v>
+        <v>912</v>
       </c>
       <c r="G42" t="s">
+        <v>394</v>
+      </c>
+      <c r="H42" t="s">
+        <v>395</v>
+      </c>
+      <c r="I42" t="s">
+        <v>830</v>
+      </c>
+      <c r="J42" t="s">
         <v>392</v>
       </c>
-      <c r="H42" t="s">
+      <c r="K42" t="s">
         <v>393</v>
-      </c>
-      <c r="I42" t="s">
-        <v>804</v>
-      </c>
-      <c r="J42" t="s">
-        <v>390</v>
-      </c>
-      <c r="K42" t="s">
-        <v>391</v>
       </c>
       <c r="M42"/>
       <c r="N42"/>
@@ -5606,167 +5722,153 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B43" t="s">
-        <v>758</v>
+        <v>780</v>
       </c>
       <c r="C43" t="s">
-        <v>805</v>
+        <v>831</v>
       </c>
       <c r="D43" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E43" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F43" t="s">
-        <v>885</v>
+        <v>913</v>
       </c>
       <c r="G43" t="s">
+        <v>399</v>
+      </c>
+      <c r="H43" t="s">
+        <v>400</v>
+      </c>
+      <c r="I43" t="s">
+        <v>831</v>
+      </c>
+      <c r="J43" t="s">
         <v>397</v>
       </c>
-      <c r="H43" t="s">
+      <c r="K43" t="s">
         <v>398</v>
       </c>
-      <c r="I43" t="s">
-        <v>805</v>
-      </c>
-      <c r="J43" t="s">
-        <v>395</v>
-      </c>
-      <c r="K43" t="s">
-        <v>396</v>
-      </c>
-      <c r="L43" t="s">
-        <v>985</v>
-      </c>
-      <c r="M43" t="s">
-        <v>399</v>
-      </c>
-      <c r="N43" t="s">
-        <v>400</v>
-      </c>
+      <c r="M43"/>
+      <c r="N43"/>
       <c r="P43"/>
       <c r="Q43"/>
-      <c r="R43" t="s">
-        <v>1055</v>
-      </c>
-      <c r="S43" t="s">
-        <v>401</v>
-      </c>
-      <c r="T43" t="s">
-        <v>402</v>
-      </c>
+      <c r="S43"/>
+      <c r="T43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>401</v>
+      </c>
+      <c r="B44" t="s">
+        <v>781</v>
+      </c>
+      <c r="C44" t="s">
+        <v>832</v>
+      </c>
+      <c r="D44" t="s">
+        <v>402</v>
+      </c>
+      <c r="E44" t="s">
         <v>403</v>
       </c>
-      <c r="B44" t="s">
-        <v>743</v>
-      </c>
-      <c r="C44" t="s">
-        <v>806</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
+        <v>914</v>
+      </c>
+      <c r="G44" t="s">
         <v>404</v>
       </c>
-      <c r="E44" t="s">
+      <c r="H44" t="s">
         <v>405</v>
       </c>
-      <c r="F44" t="s">
-        <v>886</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="I44" t="s">
+        <v>832</v>
+      </c>
+      <c r="J44" t="s">
+        <v>402</v>
+      </c>
+      <c r="K44" t="s">
+        <v>403</v>
+      </c>
+      <c r="L44" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M44" t="s">
         <v>406</v>
       </c>
-      <c r="H44" t="s">
+      <c r="N44" t="s">
         <v>407</v>
-      </c>
-      <c r="I44" t="s">
-        <v>806</v>
-      </c>
-      <c r="J44" t="s">
-        <v>408</v>
-      </c>
-      <c r="K44" t="s">
-        <v>405</v>
-      </c>
-      <c r="L44" t="s">
-        <v>986</v>
-      </c>
-      <c r="M44" t="s">
-        <v>409</v>
-      </c>
-      <c r="N44" t="s">
-        <v>410</v>
       </c>
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44" t="s">
-        <v>1056</v>
+        <v>1088</v>
       </c>
       <c r="S44" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="T44" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>410</v>
+      </c>
+      <c r="B45" t="s">
+        <v>766</v>
+      </c>
+      <c r="C45" t="s">
+        <v>833</v>
+      </c>
+      <c r="D45" t="s">
+        <v>411</v>
+      </c>
+      <c r="E45" t="s">
+        <v>412</v>
+      </c>
+      <c r="F45" t="s">
+        <v>915</v>
+      </c>
+      <c r="G45" t="s">
         <v>413</v>
       </c>
-      <c r="B45" t="s">
-        <v>743</v>
-      </c>
-      <c r="C45" t="s">
-        <v>807</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="H45" t="s">
         <v>414</v>
       </c>
-      <c r="E45" t="s">
+      <c r="I45" t="s">
+        <v>833</v>
+      </c>
+      <c r="J45" t="s">
         <v>415</v>
       </c>
-      <c r="F45" t="s">
-        <v>887</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="K45" t="s">
+        <v>412</v>
+      </c>
+      <c r="L45" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M45" t="s">
         <v>416</v>
       </c>
-      <c r="H45" t="s">
+      <c r="N45" t="s">
         <v>417</v>
-      </c>
-      <c r="I45" t="s">
-        <v>807</v>
-      </c>
-      <c r="J45" t="s">
-        <v>414</v>
-      </c>
-      <c r="K45" t="s">
-        <v>415</v>
-      </c>
-      <c r="L45" t="s">
-        <v>987</v>
-      </c>
-      <c r="M45" t="s">
-        <v>418</v>
-      </c>
-      <c r="N45" t="s">
-        <v>419</v>
       </c>
       <c r="P45"/>
       <c r="Q45"/>
       <c r="R45" t="s">
-        <v>1057</v>
+        <v>1089</v>
       </c>
       <c r="S45" t="s">
-        <v>319</v>
+        <v>418</v>
       </c>
       <c r="T45" t="s">
-        <v>320</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46">
@@ -5774,10 +5876,10 @@
         <v>420</v>
       </c>
       <c r="B46" t="s">
-        <v>743</v>
+        <v>766</v>
       </c>
       <c r="C46" t="s">
-        <v>808</v>
+        <v>834</v>
       </c>
       <c r="D46" t="s">
         <v>421</v>
@@ -5786,7 +5888,7 @@
         <v>422</v>
       </c>
       <c r="F46" t="s">
-        <v>888</v>
+        <v>916</v>
       </c>
       <c r="G46" t="s">
         <v>423</v>
@@ -5795,7 +5897,7 @@
         <v>424</v>
       </c>
       <c r="I46" t="s">
-        <v>808</v>
+        <v>834</v>
       </c>
       <c r="J46" t="s">
         <v>421</v>
@@ -5804,7 +5906,7 @@
         <v>422</v>
       </c>
       <c r="L46" t="s">
-        <v>988</v>
+        <v>1018</v>
       </c>
       <c r="M46" t="s">
         <v>425</v>
@@ -5815,72 +5917,79 @@
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46" t="s">
-        <v>1058</v>
+        <v>1090</v>
       </c>
       <c r="S46" t="s">
-        <v>427</v>
+        <v>326</v>
       </c>
       <c r="T46" t="s">
-        <v>428</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>427</v>
+      </c>
+      <c r="B47" t="s">
+        <v>766</v>
+      </c>
+      <c r="C47" t="s">
+        <v>835</v>
+      </c>
+      <c r="D47" t="s">
+        <v>428</v>
+      </c>
+      <c r="E47" t="s">
         <v>429</v>
       </c>
-      <c r="B47" t="s">
-        <v>739</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="F47" t="s">
+        <v>917</v>
+      </c>
+      <c r="G47" t="s">
+        <v>430</v>
+      </c>
+      <c r="H47" t="s">
         <v>431</v>
       </c>
-      <c r="D47" t="s">
-        <v>430</v>
-      </c>
-      <c r="E47" t="s">
-        <v>431</v>
-      </c>
-      <c r="F47" t="s">
-        <v>889</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="I47" t="s">
+        <v>835</v>
+      </c>
+      <c r="J47" t="s">
+        <v>428</v>
+      </c>
+      <c r="K47" t="s">
+        <v>429</v>
+      </c>
+      <c r="L47" t="s">
+        <v>1019</v>
+      </c>
+      <c r="M47" t="s">
         <v>432</v>
       </c>
-      <c r="H47" t="s">
+      <c r="N47" t="s">
         <v>433</v>
-      </c>
-      <c r="I47" t="s">
-        <v>431</v>
-      </c>
-      <c r="J47" t="s">
-        <v>430</v>
-      </c>
-      <c r="K47" t="s">
-        <v>431</v>
-      </c>
-      <c r="L47" t="s">
-        <v>989</v>
-      </c>
-      <c r="M47" t="s">
-        <v>434</v>
-      </c>
-      <c r="N47" t="s">
-        <v>435</v>
       </c>
       <c r="P47"/>
       <c r="Q47"/>
-      <c r="S47"/>
-      <c r="T47"/>
+      <c r="R47" t="s">
+        <v>1091</v>
+      </c>
+      <c r="S47" t="s">
+        <v>434</v>
+      </c>
+      <c r="T47" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>436</v>
       </c>
       <c r="B48" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C48" t="s">
-        <v>809</v>
+        <v>438</v>
       </c>
       <c r="D48" t="s">
         <v>437</v>
@@ -5889,7 +5998,7 @@
         <v>438</v>
       </c>
       <c r="F48" t="s">
-        <v>890</v>
+        <v>918</v>
       </c>
       <c r="G48" t="s">
         <v>439</v>
@@ -5898,126 +6007,119 @@
         <v>440</v>
       </c>
       <c r="I48" t="s">
-        <v>809</v>
+        <v>438</v>
       </c>
       <c r="J48" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K48" t="s">
         <v>438</v>
       </c>
       <c r="L48" t="s">
-        <v>990</v>
+        <v>1020</v>
       </c>
       <c r="M48" t="s">
+        <v>441</v>
+      </c>
+      <c r="N48" t="s">
         <v>442</v>
-      </c>
-      <c r="N48" t="s">
-        <v>443</v>
       </c>
       <c r="P48"/>
       <c r="Q48"/>
-      <c r="R48" t="s">
-        <v>1059</v>
-      </c>
-      <c r="S48" t="s">
-        <v>444</v>
-      </c>
-      <c r="T48" t="s">
-        <v>445</v>
-      </c>
+      <c r="S48"/>
+      <c r="T48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>443</v>
+      </c>
+      <c r="B49" t="s">
+        <v>782</v>
+      </c>
+      <c r="C49" t="s">
+        <v>836</v>
+      </c>
+      <c r="D49" t="s">
+        <v>444</v>
+      </c>
+      <c r="E49" t="s">
+        <v>445</v>
+      </c>
+      <c r="F49" t="s">
+        <v>919</v>
+      </c>
+      <c r="G49" t="s">
         <v>446</v>
       </c>
-      <c r="B49" t="s">
-        <v>760</v>
-      </c>
-      <c r="C49" t="s">
-        <v>810</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="H49" t="s">
         <v>447</v>
       </c>
-      <c r="E49" t="s">
+      <c r="I49" t="s">
+        <v>836</v>
+      </c>
+      <c r="J49" t="s">
         <v>448</v>
       </c>
-      <c r="F49" t="s">
-        <v>891</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="K49" t="s">
+        <v>445</v>
+      </c>
+      <c r="L49" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M49" t="s">
         <v>449</v>
       </c>
-      <c r="H49" t="s">
+      <c r="N49" t="s">
         <v>450</v>
-      </c>
-      <c r="I49" t="s">
-        <v>810</v>
-      </c>
-      <c r="J49" t="s">
-        <v>447</v>
-      </c>
-      <c r="K49" t="s">
-        <v>448</v>
-      </c>
-      <c r="L49" t="s">
-        <v>991</v>
-      </c>
-      <c r="M49" t="s">
-        <v>451</v>
-      </c>
-      <c r="N49" t="s">
-        <v>452</v>
       </c>
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49" t="s">
-        <v>1060</v>
+        <v>1092</v>
       </c>
       <c r="S49" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="T49" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>453</v>
+      </c>
+      <c r="B50" t="s">
+        <v>783</v>
+      </c>
+      <c r="C50" t="s">
+        <v>837</v>
+      </c>
+      <c r="D50" t="s">
+        <v>454</v>
+      </c>
+      <c r="E50" t="s">
         <v>455</v>
       </c>
-      <c r="B50" t="s">
-        <v>761</v>
-      </c>
-      <c r="C50" t="s">
-        <v>811</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
+        <v>920</v>
+      </c>
+      <c r="G50" t="s">
         <v>456</v>
       </c>
-      <c r="E50" t="s">
+      <c r="H50" t="s">
         <v>457</v>
       </c>
-      <c r="F50" t="s">
-        <v>891</v>
-      </c>
-      <c r="G50" t="s">
-        <v>449</v>
-      </c>
-      <c r="H50" t="s">
-        <v>450</v>
-      </c>
       <c r="I50" t="s">
-        <v>811</v>
+        <v>837</v>
       </c>
       <c r="J50" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K50" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L50" t="s">
-        <v>992</v>
+        <v>1022</v>
       </c>
       <c r="M50" t="s">
         <v>458</v>
@@ -6028,7 +6130,7 @@
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50" t="s">
-        <v>1061</v>
+        <v>1093</v>
       </c>
       <c r="S50" t="s">
         <v>460</v>
@@ -6042,10 +6144,10 @@
         <v>462</v>
       </c>
       <c r="B51" t="s">
-        <v>760</v>
+        <v>784</v>
       </c>
       <c r="C51" t="s">
-        <v>812</v>
+        <v>838</v>
       </c>
       <c r="D51" t="s">
         <v>463</v>
@@ -6054,16 +6156,16 @@
         <v>464</v>
       </c>
       <c r="F51" t="s">
-        <v>892</v>
+        <v>920</v>
       </c>
       <c r="G51" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="H51" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="I51" t="s">
-        <v>812</v>
+        <v>838</v>
       </c>
       <c r="J51" t="s">
         <v>463</v>
@@ -6072,24 +6174,24 @@
         <v>464</v>
       </c>
       <c r="L51" t="s">
-        <v>993</v>
+        <v>1023</v>
       </c>
       <c r="M51" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="N51" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51" t="s">
-        <v>1060</v>
+        <v>1094</v>
       </c>
       <c r="S51" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="T51" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
     </row>
     <row r="52">
@@ -6097,10 +6199,10 @@
         <v>469</v>
       </c>
       <c r="B52" t="s">
-        <v>760</v>
+        <v>783</v>
       </c>
       <c r="C52" t="s">
-        <v>813</v>
+        <v>839</v>
       </c>
       <c r="D52" t="s">
         <v>470</v>
@@ -6109,16 +6211,16 @@
         <v>471</v>
       </c>
       <c r="F52" t="s">
-        <v>892</v>
+        <v>921</v>
       </c>
       <c r="G52" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="H52" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="I52" t="s">
-        <v>813</v>
+        <v>839</v>
       </c>
       <c r="J52" t="s">
         <v>470</v>
@@ -6127,138 +6229,145 @@
         <v>471</v>
       </c>
       <c r="L52" t="s">
-        <v>993</v>
+        <v>1024</v>
       </c>
       <c r="M52" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="N52" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52" t="s">
-        <v>1060</v>
+        <v>1093</v>
       </c>
       <c r="S52" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="T52" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>476</v>
+      </c>
+      <c r="B53" t="s">
+        <v>783</v>
+      </c>
+      <c r="C53" t="s">
+        <v>840</v>
+      </c>
+      <c r="D53" t="s">
+        <v>477</v>
+      </c>
+      <c r="E53" t="s">
+        <v>478</v>
+      </c>
+      <c r="F53" t="s">
+        <v>921</v>
+      </c>
+      <c r="G53" t="s">
         <v>472</v>
       </c>
-      <c r="B53" t="s">
-        <v>762</v>
-      </c>
-      <c r="C53" t="s">
-        <v>814</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="H53" t="s">
         <v>473</v>
       </c>
-      <c r="E53" t="s">
+      <c r="I53" t="s">
+        <v>840</v>
+      </c>
+      <c r="J53" t="s">
+        <v>477</v>
+      </c>
+      <c r="K53" t="s">
+        <v>478</v>
+      </c>
+      <c r="L53" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M53" t="s">
         <v>474</v>
       </c>
-      <c r="F53" t="s">
-        <v>892</v>
-      </c>
-      <c r="G53" t="s">
-        <v>465</v>
-      </c>
-      <c r="H53" t="s">
-        <v>466</v>
-      </c>
-      <c r="I53" t="s">
-        <v>814</v>
-      </c>
-      <c r="J53" t="s">
-        <v>473</v>
-      </c>
-      <c r="K53" t="s">
-        <v>474</v>
-      </c>
-      <c r="L53" t="s">
-        <v>993</v>
-      </c>
-      <c r="M53" t="s">
-        <v>467</v>
-      </c>
       <c r="N53" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53" t="s">
-        <v>1060</v>
+        <v>1093</v>
       </c>
       <c r="S53" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="T53" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>479</v>
+      </c>
+      <c r="B54" t="s">
+        <v>785</v>
+      </c>
+      <c r="C54" t="s">
+        <v>841</v>
+      </c>
+      <c r="D54" t="s">
+        <v>480</v>
+      </c>
+      <c r="E54" t="s">
+        <v>481</v>
+      </c>
+      <c r="F54" t="s">
+        <v>921</v>
+      </c>
+      <c r="G54" t="s">
+        <v>472</v>
+      </c>
+      <c r="H54" t="s">
+        <v>473</v>
+      </c>
+      <c r="I54" t="s">
+        <v>841</v>
+      </c>
+      <c r="J54" t="s">
+        <v>480</v>
+      </c>
+      <c r="K54" t="s">
+        <v>481</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M54" t="s">
+        <v>474</v>
+      </c>
+      <c r="N54" t="s">
         <v>475</v>
-      </c>
-      <c r="B54" t="s">
-        <v>750</v>
-      </c>
-      <c r="C54" t="s">
-        <v>815</v>
-      </c>
-      <c r="D54" t="s">
-        <v>476</v>
-      </c>
-      <c r="E54" t="s">
-        <v>477</v>
-      </c>
-      <c r="F54" t="s">
-        <v>893</v>
-      </c>
-      <c r="G54" t="s">
-        <v>478</v>
-      </c>
-      <c r="H54" t="s">
-        <v>479</v>
-      </c>
-      <c r="I54" t="s">
-        <v>815</v>
-      </c>
-      <c r="J54" t="s">
-        <v>476</v>
-      </c>
-      <c r="K54" t="s">
-        <v>477</v>
-      </c>
-      <c r="L54" t="s">
-        <v>994</v>
-      </c>
-      <c r="M54" t="s">
-        <v>480</v>
-      </c>
-      <c r="N54" t="s">
-        <v>481</v>
       </c>
       <c r="P54"/>
       <c r="Q54"/>
-      <c r="S54"/>
-      <c r="T54"/>
+      <c r="R54" t="s">
+        <v>1093</v>
+      </c>
+      <c r="S54" t="s">
+        <v>460</v>
+      </c>
+      <c r="T54" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>482</v>
       </c>
       <c r="B55" t="s">
-        <v>754</v>
+        <v>786</v>
       </c>
       <c r="C55" t="s">
-        <v>484</v>
+        <v>842</v>
       </c>
       <c r="D55" t="s">
         <v>483</v>
@@ -6267,16 +6376,16 @@
         <v>484</v>
       </c>
       <c r="F55" t="s">
-        <v>894</v>
+        <v>921</v>
       </c>
       <c r="G55" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="H55" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="I55" t="s">
-        <v>484</v>
+        <v>842</v>
       </c>
       <c r="J55" t="s">
         <v>483</v>
@@ -6285,69 +6394,55 @@
         <v>484</v>
       </c>
       <c r="L55" t="s">
-        <v>995</v>
+        <v>1024</v>
       </c>
       <c r="M55" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="N55" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="P55"/>
       <c r="Q55"/>
       <c r="R55" t="s">
-        <v>1062</v>
+        <v>1093</v>
       </c>
       <c r="S55" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="T55" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B56" t="s">
-        <v>750</v>
+        <v>787</v>
       </c>
       <c r="C56" t="s">
-        <v>816</v>
+        <v>487</v>
       </c>
       <c r="D56" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E56" t="s">
-        <v>493</v>
-      </c>
-      <c r="F56" t="s">
-        <v>895</v>
-      </c>
-      <c r="G56" t="s">
-        <v>494</v>
-      </c>
-      <c r="H56" t="s">
-        <v>495</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="G56"/>
+      <c r="H56"/>
       <c r="I56" t="s">
-        <v>816</v>
+        <v>488</v>
       </c>
       <c r="J56" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K56" t="s">
-        <v>493</v>
-      </c>
-      <c r="L56" t="s">
-        <v>996</v>
-      </c>
-      <c r="M56" t="s">
-        <v>496</v>
-      </c>
-      <c r="N56" t="s">
-        <v>497</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="M56"/>
+      <c r="N56"/>
       <c r="P56"/>
       <c r="Q56"/>
       <c r="S56"/>
@@ -6355,46 +6450,46 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="B57" t="s">
-        <v>750</v>
+        <v>773</v>
       </c>
       <c r="C57" t="s">
-        <v>500</v>
+        <v>843</v>
       </c>
       <c r="D57" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="E57" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="F57" t="s">
-        <v>896</v>
+        <v>922</v>
       </c>
       <c r="G57" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="H57" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="I57" t="s">
-        <v>500</v>
+        <v>843</v>
       </c>
       <c r="J57" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="K57" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="L57" t="s">
-        <v>997</v>
+        <v>1025</v>
       </c>
       <c r="M57" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="N57" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="P57"/>
       <c r="Q57"/>
@@ -6403,149 +6498,149 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="B58" t="s">
-        <v>763</v>
+        <v>777</v>
       </c>
       <c r="C58" t="s">
-        <v>817</v>
+        <v>498</v>
       </c>
       <c r="D58" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="E58" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F58" t="s">
-        <v>897</v>
+        <v>923</v>
       </c>
       <c r="G58" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="H58" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="I58" t="s">
-        <v>817</v>
+        <v>498</v>
       </c>
       <c r="J58" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="K58" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="L58" t="s">
-        <v>998</v>
+        <v>1026</v>
       </c>
       <c r="M58" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="N58" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="P58"/>
       <c r="Q58"/>
-      <c r="S58"/>
-      <c r="T58"/>
+      <c r="R58" t="s">
+        <v>1095</v>
+      </c>
+      <c r="S58" t="s">
+        <v>503</v>
+      </c>
+      <c r="T58" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B59" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="C59" t="s">
-        <v>818</v>
+        <v>844</v>
       </c>
       <c r="D59" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="E59" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="F59" t="s">
-        <v>898</v>
+        <v>924</v>
       </c>
       <c r="G59" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="H59" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="I59" t="s">
-        <v>818</v>
+        <v>844</v>
       </c>
       <c r="J59" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="K59" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L59" t="s">
-        <v>999</v>
+        <v>1027</v>
       </c>
       <c r="M59" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="N59" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="P59"/>
       <c r="Q59"/>
-      <c r="R59" t="s">
-        <v>1063</v>
-      </c>
-      <c r="S59" t="s">
-        <v>519</v>
-      </c>
-      <c r="T59" t="s">
-        <v>520</v>
-      </c>
+      <c r="S59"/>
+      <c r="T59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="B60" t="s">
-        <v>750</v>
+        <v>773</v>
       </c>
       <c r="C60" t="s">
-        <v>819</v>
+        <v>514</v>
       </c>
       <c r="D60" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="E60" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="F60" t="s">
-        <v>899</v>
+        <v>925</v>
       </c>
       <c r="G60" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="H60" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="I60" t="s">
-        <v>819</v>
+        <v>514</v>
       </c>
       <c r="J60" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="K60" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="L60" t="s">
-        <v>1000</v>
+        <v>1028</v>
       </c>
       <c r="M60" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="N60" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="P60"/>
       <c r="Q60"/>
@@ -6554,46 +6649,46 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B61" t="s">
-        <v>751</v>
+        <v>788</v>
       </c>
       <c r="C61" t="s">
-        <v>820</v>
+        <v>845</v>
       </c>
       <c r="D61" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="E61" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="F61" t="s">
-        <v>900</v>
+        <v>926</v>
       </c>
       <c r="G61" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="H61" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="I61" t="s">
-        <v>820</v>
+        <v>845</v>
       </c>
       <c r="J61" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="K61" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="L61" t="s">
-        <v>1001</v>
+        <v>1029</v>
       </c>
       <c r="M61" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="N61" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="P61"/>
       <c r="Q61"/>
@@ -6602,346 +6697,346 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B62" t="s">
-        <v>743</v>
+        <v>783</v>
       </c>
       <c r="C62" t="s">
-        <v>821</v>
+        <v>846</v>
       </c>
       <c r="D62" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="E62" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F62" t="s">
-        <v>901</v>
+        <v>927</v>
       </c>
       <c r="G62" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="H62" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="I62" t="s">
-        <v>934</v>
+        <v>846</v>
       </c>
       <c r="J62" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="K62" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="L62" t="s">
-        <v>1002</v>
+        <v>1030</v>
       </c>
       <c r="M62" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="N62" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="P62"/>
       <c r="Q62"/>
       <c r="R62" t="s">
-        <v>1064</v>
+        <v>1096</v>
       </c>
       <c r="S62" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="T62" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="B63" t="s">
-        <v>743</v>
+        <v>773</v>
       </c>
       <c r="C63" t="s">
-        <v>822</v>
+        <v>847</v>
       </c>
       <c r="D63" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="E63" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F63" t="s">
-        <v>902</v>
+        <v>928</v>
       </c>
       <c r="G63" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="H63" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="I63" t="s">
-        <v>935</v>
+        <v>847</v>
       </c>
       <c r="J63" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="K63" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="L63" t="s">
-        <v>1003</v>
+        <v>1031</v>
       </c>
       <c r="M63" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="N63" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="P63"/>
       <c r="Q63"/>
-      <c r="R63" t="s">
-        <v>1065</v>
-      </c>
-      <c r="S63" t="s">
-        <v>555</v>
-      </c>
-      <c r="T63" t="s">
-        <v>556</v>
-      </c>
+      <c r="S63"/>
+      <c r="T63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="B64" t="s">
-        <v>743</v>
+        <v>774</v>
       </c>
       <c r="C64" t="s">
-        <v>823</v>
+        <v>848</v>
       </c>
       <c r="D64" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="E64" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="F64" t="s">
-        <v>903</v>
+        <v>929</v>
       </c>
       <c r="G64" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="H64" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="I64" t="s">
-        <v>823</v>
+        <v>848</v>
       </c>
       <c r="J64" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="K64" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="L64" t="s">
-        <v>1004</v>
+        <v>1032</v>
       </c>
       <c r="M64" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="N64" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="P64"/>
       <c r="Q64"/>
-      <c r="R64" t="s">
-        <v>1066</v>
-      </c>
-      <c r="S64" t="s">
-        <v>564</v>
-      </c>
-      <c r="T64" t="s">
-        <v>565</v>
-      </c>
+      <c r="S64"/>
+      <c r="T64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="B65" t="s">
-        <v>743</v>
+        <v>766</v>
       </c>
       <c r="C65" t="s">
-        <v>824</v>
+        <v>849</v>
       </c>
       <c r="D65" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="E65" t="s">
-        <v>568</v>
-      </c>
-      <c r="G65"/>
-      <c r="H65"/>
+        <v>551</v>
+      </c>
+      <c r="F65" t="s">
+        <v>930</v>
+      </c>
+      <c r="G65" t="s">
+        <v>552</v>
+      </c>
+      <c r="H65" t="s">
+        <v>553</v>
+      </c>
       <c r="I65" t="s">
-        <v>824</v>
+        <v>964</v>
       </c>
       <c r="J65" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="K65" t="s">
-        <v>568</v>
-      </c>
-      <c r="M65"/>
-      <c r="N65"/>
+        <v>555</v>
+      </c>
+      <c r="L65" t="s">
+        <v>1033</v>
+      </c>
+      <c r="M65" t="s">
+        <v>556</v>
+      </c>
+      <c r="N65" t="s">
+        <v>557</v>
+      </c>
       <c r="P65"/>
       <c r="Q65"/>
-      <c r="S65"/>
-      <c r="T65"/>
+      <c r="R65" t="s">
+        <v>1097</v>
+      </c>
+      <c r="S65" t="s">
+        <v>558</v>
+      </c>
+      <c r="T65" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="B66" t="s">
-        <v>743</v>
+        <v>766</v>
       </c>
       <c r="C66" t="s">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="D66" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="E66" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F66" t="s">
-        <v>904</v>
+        <v>931</v>
       </c>
       <c r="G66" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="H66" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="I66" t="s">
-        <v>825</v>
+        <v>965</v>
       </c>
       <c r="J66" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="K66" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="L66" t="s">
-        <v>1005</v>
+        <v>1034</v>
       </c>
       <c r="M66" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="N66" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="P66"/>
       <c r="Q66"/>
       <c r="R66" t="s">
-        <v>1067</v>
+        <v>1098</v>
       </c>
       <c r="S66" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="T66" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B67" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C67" t="s">
-        <v>826</v>
+        <v>851</v>
       </c>
       <c r="D67" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="E67" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="F67" t="s">
-        <v>905</v>
+        <v>932</v>
       </c>
       <c r="G67" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="H67" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="I67" t="s">
-        <v>936</v>
+        <v>851</v>
       </c>
       <c r="J67" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="K67" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="L67" t="s">
-        <v>1006</v>
+        <v>1035</v>
       </c>
       <c r="M67" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="N67" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="P67"/>
       <c r="Q67"/>
       <c r="R67" t="s">
-        <v>1068</v>
+        <v>1099</v>
       </c>
       <c r="S67" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="T67" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="B68" t="s">
-        <v>743</v>
+        <v>766</v>
       </c>
       <c r="C68" t="s">
-        <v>827</v>
+        <v>852</v>
       </c>
       <c r="D68" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="E68" t="s">
-        <v>591</v>
-      </c>
-      <c r="F68" t="s">
-        <v>906</v>
-      </c>
-      <c r="G68" t="s">
-        <v>592</v>
-      </c>
-      <c r="H68" t="s">
-        <v>593</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="G68"/>
+      <c r="H68"/>
       <c r="I68" t="s">
-        <v>827</v>
+        <v>852</v>
       </c>
       <c r="J68" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="K68" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="M68"/>
       <c r="N68"/>
@@ -6952,188 +7047,202 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="B69" t="s">
-        <v>765</v>
+        <v>789</v>
       </c>
       <c r="C69" t="s">
-        <v>828</v>
+        <v>585</v>
       </c>
       <c r="D69" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="E69" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="F69" t="s">
-        <v>907</v>
+        <v>933</v>
       </c>
       <c r="G69" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="H69" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="I69" t="s">
-        <v>828</v>
+        <v>585</v>
       </c>
       <c r="J69" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="K69" t="s">
-        <v>597</v>
-      </c>
-      <c r="M69"/>
-      <c r="N69"/>
+        <v>585</v>
+      </c>
+      <c r="L69" t="s">
+        <v>1036</v>
+      </c>
+      <c r="M69" t="s">
+        <v>588</v>
+      </c>
+      <c r="N69" t="s">
+        <v>589</v>
+      </c>
       <c r="P69"/>
       <c r="Q69"/>
-      <c r="S69"/>
-      <c r="T69"/>
+      <c r="R69" t="s">
+        <v>1100</v>
+      </c>
+      <c r="S69" t="s">
+        <v>590</v>
+      </c>
+      <c r="T69" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B70" t="s">
-        <v>743</v>
+        <v>766</v>
       </c>
       <c r="C70" t="s">
-        <v>829</v>
+        <v>853</v>
       </c>
       <c r="D70" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="E70" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="F70" t="s">
-        <v>908</v>
+        <v>934</v>
       </c>
       <c r="G70" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="H70" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="I70" t="s">
-        <v>829</v>
+        <v>853</v>
       </c>
       <c r="J70" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="K70" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="L70" t="s">
-        <v>1007</v>
+        <v>1037</v>
       </c>
       <c r="M70" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="N70" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="P70"/>
       <c r="Q70"/>
       <c r="R70" t="s">
-        <v>1069</v>
+        <v>1101</v>
       </c>
       <c r="S70" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="T70" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>601</v>
+      </c>
+      <c r="B71" t="s">
+        <v>790</v>
+      </c>
+      <c r="C71" t="s">
+        <v>854</v>
+      </c>
+      <c r="D71" t="s">
+        <v>602</v>
+      </c>
+      <c r="E71" t="s">
+        <v>603</v>
+      </c>
+      <c r="F71" t="s">
+        <v>935</v>
+      </c>
+      <c r="G71" t="s">
+        <v>604</v>
+      </c>
+      <c r="H71" t="s">
+        <v>605</v>
+      </c>
+      <c r="I71" t="s">
+        <v>966</v>
+      </c>
+      <c r="J71" t="s">
+        <v>606</v>
+      </c>
+      <c r="K71" t="s">
+        <v>607</v>
+      </c>
+      <c r="L71" t="s">
+        <v>1038</v>
+      </c>
+      <c r="M71" t="s">
+        <v>608</v>
+      </c>
+      <c r="N71" t="s">
         <v>609</v>
-      </c>
-      <c r="B71" t="s">
-        <v>766</v>
-      </c>
-      <c r="C71" t="s">
-        <v>830</v>
-      </c>
-      <c r="D71" t="s">
-        <v>610</v>
-      </c>
-      <c r="E71" t="s">
-        <v>611</v>
-      </c>
-      <c r="F71" t="s">
-        <v>909</v>
-      </c>
-      <c r="G71" t="s">
-        <v>612</v>
-      </c>
-      <c r="H71" t="s">
-        <v>613</v>
-      </c>
-      <c r="I71" t="s">
-        <v>937</v>
-      </c>
-      <c r="J71" t="s">
-        <v>614</v>
-      </c>
-      <c r="K71" t="s">
-        <v>615</v>
-      </c>
-      <c r="L71" t="s">
-        <v>1008</v>
-      </c>
-      <c r="M71" t="s">
-        <v>616</v>
-      </c>
-      <c r="N71" t="s">
-        <v>617</v>
       </c>
       <c r="P71"/>
       <c r="Q71"/>
       <c r="R71" t="s">
-        <v>1070</v>
+        <v>1102</v>
       </c>
       <c r="S71" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="T71" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B72" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C72" t="s">
-        <v>831</v>
+        <v>855</v>
       </c>
       <c r="D72" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="E72" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="F72" t="s">
-        <v>910</v>
+        <v>936</v>
       </c>
       <c r="G72" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="H72" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="I72" t="s">
-        <v>831</v>
+        <v>855</v>
       </c>
       <c r="J72" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="K72" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="M72"/>
       <c r="N72"/>
@@ -7144,174 +7253,188 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B73" t="s">
-        <v>743</v>
+        <v>791</v>
       </c>
       <c r="C73" t="s">
-        <v>832</v>
+        <v>856</v>
       </c>
       <c r="D73" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="E73" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F73" t="s">
-        <v>911</v>
+        <v>937</v>
       </c>
       <c r="G73" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="H73" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="I73" t="s">
-        <v>938</v>
+        <v>856</v>
       </c>
       <c r="J73" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="K73" t="s">
-        <v>631</v>
-      </c>
-      <c r="L73" t="s">
-        <v>1009</v>
-      </c>
-      <c r="M73" t="s">
-        <v>632</v>
-      </c>
-      <c r="N73" t="s">
-        <v>633</v>
-      </c>
-      <c r="O73" t="s">
-        <v>1018</v>
-      </c>
-      <c r="P73" t="s">
-        <v>634</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>635</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
       <c r="S73"/>
       <c r="T73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="B74" t="s">
-        <v>743</v>
+        <v>766</v>
       </c>
       <c r="C74" t="s">
-        <v>638</v>
+        <v>857</v>
       </c>
       <c r="D74" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="E74" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="F74" t="s">
-        <v>912</v>
+        <v>938</v>
       </c>
       <c r="G74" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="H74" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="I74" t="s">
-        <v>939</v>
+        <v>857</v>
       </c>
       <c r="J74" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="K74" t="s">
-        <v>642</v>
-      </c>
-      <c r="M74"/>
-      <c r="N74"/>
+        <v>625</v>
+      </c>
+      <c r="L74" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M74" t="s">
+        <v>628</v>
+      </c>
+      <c r="N74" t="s">
+        <v>629</v>
+      </c>
       <c r="P74"/>
       <c r="Q74"/>
-      <c r="S74"/>
-      <c r="T74"/>
+      <c r="R74" t="s">
+        <v>1103</v>
+      </c>
+      <c r="S74" t="s">
+        <v>630</v>
+      </c>
+      <c r="T74" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="B75" t="s">
-        <v>743</v>
+        <v>792</v>
       </c>
       <c r="C75" t="s">
-        <v>833</v>
+        <v>858</v>
       </c>
       <c r="D75" t="s">
-        <v>168</v>
+        <v>633</v>
       </c>
       <c r="E75" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="F75" t="s">
-        <v>913</v>
+        <v>939</v>
       </c>
       <c r="G75" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="H75" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="I75" t="s">
-        <v>647</v>
+        <v>967</v>
       </c>
       <c r="J75" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="K75" t="s">
-        <v>647</v>
-      </c>
-      <c r="M75"/>
-      <c r="N75"/>
+        <v>638</v>
+      </c>
+      <c r="L75" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M75" t="s">
+        <v>639</v>
+      </c>
+      <c r="N75" t="s">
+        <v>640</v>
+      </c>
       <c r="P75"/>
       <c r="Q75"/>
-      <c r="S75"/>
-      <c r="T75"/>
+      <c r="R75" t="s">
+        <v>1104</v>
+      </c>
+      <c r="S75" t="s">
+        <v>641</v>
+      </c>
+      <c r="T75" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B76" t="s">
-        <v>747</v>
+        <v>793</v>
       </c>
       <c r="C76" t="s">
-        <v>834</v>
+        <v>859</v>
       </c>
       <c r="D76" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="E76" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="F76" t="s">
-        <v>914</v>
+        <v>940</v>
       </c>
       <c r="G76" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H76" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="I76" t="s">
-        <v>940</v>
+        <v>859</v>
       </c>
       <c r="J76" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="K76" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="M76"/>
       <c r="N76"/>
@@ -7322,85 +7445,92 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>648</v>
+      </c>
+      <c r="B77" t="s">
+        <v>766</v>
+      </c>
+      <c r="C77" t="s">
+        <v>860</v>
+      </c>
+      <c r="D77" t="s">
+        <v>649</v>
+      </c>
+      <c r="E77" t="s">
+        <v>650</v>
+      </c>
+      <c r="F77" t="s">
+        <v>941</v>
+      </c>
+      <c r="G77" t="s">
+        <v>651</v>
+      </c>
+      <c r="H77" t="s">
+        <v>652</v>
+      </c>
+      <c r="I77" t="s">
+        <v>968</v>
+      </c>
+      <c r="J77" t="s">
+        <v>653</v>
+      </c>
+      <c r="K77" t="s">
+        <v>654</v>
+      </c>
+      <c r="L77" t="s">
+        <v>1041</v>
+      </c>
+      <c r="M77" t="s">
         <v>655</v>
       </c>
-      <c r="B77" t="s">
-        <v>743</v>
-      </c>
-      <c r="C77" t="s">
-        <v>112</v>
-      </c>
-      <c r="D77" t="s">
-        <v>111</v>
-      </c>
-      <c r="E77" t="s">
-        <v>112</v>
-      </c>
-      <c r="F77" t="s">
-        <v>915</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="N77" t="s">
         <v>656</v>
       </c>
-      <c r="H77" t="s">
+      <c r="O77" t="s">
+        <v>1050</v>
+      </c>
+      <c r="P77" t="s">
         <v>657</v>
       </c>
-      <c r="I77" t="s">
-        <v>941</v>
-      </c>
-      <c r="J77" t="s">
+      <c r="Q77" t="s">
         <v>658</v>
-      </c>
-      <c r="K77" t="s">
-        <v>659</v>
-      </c>
-      <c r="L77" t="s">
-        <v>1010</v>
-      </c>
-      <c r="M77" t="s">
-        <v>660</v>
-      </c>
-      <c r="N77" t="s">
-        <v>661</v>
-      </c>
-      <c r="O77" t="s">
-        <v>1019</v>
-      </c>
-      <c r="P77" t="s">
-        <v>662</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>663</v>
       </c>
       <c r="S77"/>
       <c r="T77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>659</v>
+      </c>
+      <c r="B78" t="s">
+        <v>766</v>
+      </c>
+      <c r="C78" t="s">
+        <v>661</v>
+      </c>
+      <c r="D78" t="s">
+        <v>660</v>
+      </c>
+      <c r="E78" t="s">
+        <v>661</v>
+      </c>
+      <c r="F78" t="s">
+        <v>942</v>
+      </c>
+      <c r="G78" t="s">
+        <v>662</v>
+      </c>
+      <c r="H78" t="s">
+        <v>663</v>
+      </c>
+      <c r="I78" t="s">
+        <v>969</v>
+      </c>
+      <c r="J78" t="s">
         <v>664</v>
       </c>
-      <c r="B78" t="s">
-        <v>743</v>
-      </c>
-      <c r="C78" t="s">
-        <v>835</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="K78" t="s">
         <v>665</v>
-      </c>
-      <c r="E78" t="s">
-        <v>666</v>
-      </c>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78" t="s">
-        <v>942</v>
-      </c>
-      <c r="J78" t="s">
-        <v>667</v>
-      </c>
-      <c r="K78" t="s">
-        <v>668</v>
       </c>
       <c r="M78"/>
       <c r="N78"/>
@@ -7411,30 +7541,37 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>666</v>
+      </c>
+      <c r="B79" t="s">
+        <v>766</v>
+      </c>
+      <c r="C79" t="s">
+        <v>861</v>
+      </c>
+      <c r="D79" t="s">
+        <v>175</v>
+      </c>
+      <c r="E79" t="s">
+        <v>667</v>
+      </c>
+      <c r="F79" t="s">
+        <v>943</v>
+      </c>
+      <c r="G79" t="s">
+        <v>668</v>
+      </c>
+      <c r="H79" t="s">
         <v>669</v>
       </c>
-      <c r="B79" t="s">
-        <v>743</v>
-      </c>
-      <c r="C79" t="s">
-        <v>836</v>
-      </c>
-      <c r="D79" t="s">
-        <v>670</v>
-      </c>
-      <c r="E79" t="s">
-        <v>671</v>
-      </c>
-      <c r="G79"/>
-      <c r="H79"/>
       <c r="I79" t="s">
-        <v>943</v>
+        <v>488</v>
       </c>
       <c r="J79" t="s">
-        <v>672</v>
+        <v>488</v>
       </c>
       <c r="K79" t="s">
-        <v>673</v>
+        <v>488</v>
       </c>
       <c r="M79"/>
       <c r="N79"/>
@@ -7445,37 +7582,37 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>670</v>
+      </c>
+      <c r="B80" t="s">
+        <v>770</v>
+      </c>
+      <c r="C80" t="s">
+        <v>862</v>
+      </c>
+      <c r="D80" t="s">
+        <v>671</v>
+      </c>
+      <c r="E80" t="s">
+        <v>672</v>
+      </c>
+      <c r="F80" t="s">
+        <v>944</v>
+      </c>
+      <c r="G80" t="s">
+        <v>673</v>
+      </c>
+      <c r="H80" t="s">
         <v>674</v>
       </c>
-      <c r="B80" t="s">
-        <v>743</v>
-      </c>
-      <c r="C80" t="s">
-        <v>837</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="I80" t="s">
+        <v>970</v>
+      </c>
+      <c r="J80" t="s">
         <v>675</v>
       </c>
-      <c r="E80" t="s">
+      <c r="K80" t="s">
         <v>676</v>
-      </c>
-      <c r="F80" t="s">
-        <v>916</v>
-      </c>
-      <c r="G80" t="s">
-        <v>677</v>
-      </c>
-      <c r="H80" t="s">
-        <v>678</v>
-      </c>
-      <c r="I80" t="s">
-        <v>944</v>
-      </c>
-      <c r="J80" t="s">
-        <v>679</v>
-      </c>
-      <c r="K80" t="s">
-        <v>680</v>
       </c>
       <c r="M80"/>
       <c r="N80"/>
@@ -7486,57 +7623,85 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>677</v>
+      </c>
+      <c r="B81" t="s">
+        <v>766</v>
+      </c>
+      <c r="C81" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" t="s">
+        <v>118</v>
+      </c>
+      <c r="E81" t="s">
+        <v>119</v>
+      </c>
+      <c r="F81" t="s">
+        <v>945</v>
+      </c>
+      <c r="G81" t="s">
+        <v>678</v>
+      </c>
+      <c r="H81" t="s">
+        <v>679</v>
+      </c>
+      <c r="I81" t="s">
+        <v>971</v>
+      </c>
+      <c r="J81" t="s">
+        <v>680</v>
+      </c>
+      <c r="K81" t="s">
         <v>681</v>
       </c>
-      <c r="B81" t="s">
-        <v>743</v>
-      </c>
-      <c r="C81" t="s">
-        <v>838</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="L81" t="s">
+        <v>1042</v>
+      </c>
+      <c r="M81" t="s">
         <v>682</v>
       </c>
-      <c r="E81" t="s">
+      <c r="N81" t="s">
         <v>683</v>
       </c>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="J81"/>
-      <c r="K81"/>
-      <c r="M81"/>
-      <c r="N81"/>
-      <c r="P81"/>
-      <c r="Q81"/>
+      <c r="O81" t="s">
+        <v>1051</v>
+      </c>
+      <c r="P81" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>685</v>
+      </c>
       <c r="S81"/>
       <c r="T81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B82" t="s">
-        <v>743</v>
+        <v>766</v>
       </c>
       <c r="C82" t="s">
-        <v>686</v>
+        <v>863</v>
       </c>
       <c r="D82" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E82" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
       <c r="I82" t="s">
-        <v>945</v>
+        <v>972</v>
       </c>
       <c r="J82" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="K82" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="M82"/>
       <c r="N82"/>
@@ -7547,30 +7712,30 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B83" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="C83" t="s">
-        <v>835</v>
+        <v>864</v>
       </c>
       <c r="D83" t="s">
-        <v>665</v>
+        <v>692</v>
       </c>
       <c r="E83" t="s">
-        <v>666</v>
+        <v>693</v>
       </c>
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83" t="s">
-        <v>946</v>
+        <v>973</v>
       </c>
       <c r="J83" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="K83" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="M83"/>
       <c r="N83"/>
@@ -7581,93 +7746,65 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="B84" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C84" t="s">
-        <v>839</v>
+        <v>865</v>
       </c>
       <c r="D84" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="E84" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="F84" t="s">
-        <v>917</v>
+        <v>946</v>
       </c>
       <c r="G84" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="H84" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="I84" t="s">
-        <v>839</v>
+        <v>974</v>
       </c>
       <c r="J84" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="K84" t="s">
-        <v>694</v>
-      </c>
-      <c r="L84" t="s">
-        <v>1011</v>
-      </c>
-      <c r="M84" t="s">
-        <v>697</v>
-      </c>
-      <c r="N84" t="s">
-        <v>698</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="M84"/>
+      <c r="N84"/>
       <c r="P84"/>
       <c r="Q84"/>
-      <c r="R84" t="s">
-        <v>1063</v>
-      </c>
-      <c r="S84" t="s">
-        <v>519</v>
-      </c>
-      <c r="T84" t="s">
-        <v>520</v>
-      </c>
+      <c r="S84"/>
+      <c r="T84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="B85" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C85" t="s">
-        <v>840</v>
+        <v>866</v>
       </c>
       <c r="D85" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="E85" t="s">
-        <v>701</v>
-      </c>
-      <c r="F85" t="s">
-        <v>918</v>
-      </c>
-      <c r="G85" t="s">
-        <v>702</v>
-      </c>
-      <c r="H85" t="s">
-        <v>703</v>
-      </c>
-      <c r="I85" t="s">
-        <v>840</v>
-      </c>
-      <c r="J85" t="s">
-        <v>700</v>
-      </c>
-      <c r="K85" t="s">
-        <v>701</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="J85"/>
+      <c r="K85"/>
       <c r="M85"/>
       <c r="N85"/>
       <c r="P85"/>
@@ -7677,242 +7814,406 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B86" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C86" t="s">
-        <v>841</v>
+        <v>708</v>
       </c>
       <c r="D86" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E86" t="s">
-        <v>706</v>
-      </c>
-      <c r="F86" t="s">
-        <v>919</v>
-      </c>
-      <c r="G86" t="s">
-        <v>707</v>
-      </c>
-      <c r="H86" t="s">
         <v>708</v>
       </c>
-      <c r="J86"/>
-      <c r="K86"/>
-      <c r="L86" t="s">
-        <v>1012</v>
-      </c>
-      <c r="M86" t="s">
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86" t="s">
+        <v>975</v>
+      </c>
+      <c r="J86" t="s">
         <v>709</v>
       </c>
-      <c r="N86" t="s">
+      <c r="K86" t="s">
         <v>710</v>
       </c>
+      <c r="M86"/>
+      <c r="N86"/>
       <c r="P86"/>
       <c r="Q86"/>
-      <c r="R86" t="s">
-        <v>1071</v>
-      </c>
-      <c r="S86" t="s">
-        <v>711</v>
-      </c>
-      <c r="T86" t="s">
-        <v>712</v>
-      </c>
+      <c r="S86"/>
+      <c r="T86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B87" t="s">
         <v>770</v>
       </c>
       <c r="C87" t="s">
-        <v>842</v>
+        <v>863</v>
       </c>
       <c r="D87" t="s">
-        <v>714</v>
+        <v>687</v>
       </c>
       <c r="E87" t="s">
-        <v>715</v>
-      </c>
-      <c r="F87" t="s">
-        <v>920</v>
-      </c>
-      <c r="G87" t="s">
-        <v>716</v>
-      </c>
-      <c r="H87" t="s">
-        <v>717</v>
-      </c>
-      <c r="J87"/>
-      <c r="K87"/>
-      <c r="L87" t="s">
-        <v>1013</v>
-      </c>
-      <c r="M87" t="s">
-        <v>718</v>
-      </c>
-      <c r="N87" t="s">
-        <v>719</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87" t="s">
+        <v>976</v>
+      </c>
+      <c r="J87" t="s">
+        <v>712</v>
+      </c>
+      <c r="K87" t="s">
+        <v>713</v>
+      </c>
+      <c r="M87"/>
+      <c r="N87"/>
       <c r="P87"/>
       <c r="Q87"/>
-      <c r="R87" t="s">
-        <v>1071</v>
-      </c>
-      <c r="S87" t="s">
-        <v>711</v>
-      </c>
-      <c r="T87" t="s">
-        <v>712</v>
-      </c>
+      <c r="S87"/>
+      <c r="T87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>714</v>
+      </c>
+      <c r="B88" t="s">
+        <v>794</v>
+      </c>
+      <c r="C88" t="s">
+        <v>867</v>
+      </c>
+      <c r="D88" t="s">
+        <v>715</v>
+      </c>
+      <c r="E88" t="s">
+        <v>716</v>
+      </c>
+      <c r="F88" t="s">
+        <v>947</v>
+      </c>
+      <c r="G88" t="s">
+        <v>717</v>
+      </c>
+      <c r="H88" t="s">
+        <v>718</v>
+      </c>
+      <c r="I88" t="s">
+        <v>867</v>
+      </c>
+      <c r="J88" t="s">
+        <v>715</v>
+      </c>
+      <c r="K88" t="s">
+        <v>716</v>
+      </c>
+      <c r="L88" t="s">
+        <v>1043</v>
+      </c>
+      <c r="M88" t="s">
+        <v>719</v>
+      </c>
+      <c r="N88" t="s">
         <v>720</v>
-      </c>
-      <c r="B88" t="s">
-        <v>770</v>
-      </c>
-      <c r="C88" t="s">
-        <v>843</v>
-      </c>
-      <c r="D88" t="s">
-        <v>721</v>
-      </c>
-      <c r="E88" t="s">
-        <v>722</v>
-      </c>
-      <c r="F88" t="s">
-        <v>921</v>
-      </c>
-      <c r="G88" t="s">
-        <v>723</v>
-      </c>
-      <c r="H88" t="s">
-        <v>724</v>
-      </c>
-      <c r="J88"/>
-      <c r="K88"/>
-      <c r="L88" t="s">
-        <v>1013</v>
-      </c>
-      <c r="M88" t="s">
-        <v>718</v>
-      </c>
-      <c r="N88" t="s">
-        <v>719</v>
       </c>
       <c r="P88"/>
       <c r="Q88"/>
       <c r="R88" t="s">
-        <v>1071</v>
+        <v>1096</v>
       </c>
       <c r="S88" t="s">
-        <v>711</v>
+        <v>533</v>
       </c>
       <c r="T88" t="s">
-        <v>712</v>
+        <v>534</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>721</v>
+      </c>
+      <c r="B89" t="s">
+        <v>795</v>
+      </c>
+      <c r="C89" t="s">
+        <v>868</v>
+      </c>
+      <c r="D89" t="s">
+        <v>722</v>
+      </c>
+      <c r="E89" t="s">
+        <v>723</v>
+      </c>
+      <c r="F89" t="s">
+        <v>948</v>
+      </c>
+      <c r="G89" t="s">
+        <v>724</v>
+      </c>
+      <c r="H89" t="s">
         <v>725</v>
       </c>
-      <c r="B89" t="s">
-        <v>771</v>
-      </c>
-      <c r="C89" t="s">
-        <v>844</v>
-      </c>
-      <c r="D89" t="s">
-        <v>726</v>
-      </c>
-      <c r="E89" t="s">
-        <v>727</v>
-      </c>
-      <c r="F89" t="s">
-        <v>922</v>
-      </c>
-      <c r="G89" t="s">
-        <v>728</v>
-      </c>
-      <c r="H89" t="s">
-        <v>729</v>
-      </c>
-      <c r="J89"/>
-      <c r="K89"/>
-      <c r="L89" t="s">
-        <v>1014</v>
-      </c>
-      <c r="M89" t="s">
-        <v>730</v>
-      </c>
-      <c r="N89" t="s">
-        <v>731</v>
-      </c>
+      <c r="I89" t="s">
+        <v>868</v>
+      </c>
+      <c r="J89" t="s">
+        <v>722</v>
+      </c>
+      <c r="K89" t="s">
+        <v>723</v>
+      </c>
+      <c r="M89"/>
+      <c r="N89"/>
       <c r="P89"/>
       <c r="Q89"/>
-      <c r="R89" t="s">
-        <v>1071</v>
-      </c>
-      <c r="S89" t="s">
-        <v>711</v>
-      </c>
-      <c r="T89" t="s">
-        <v>712</v>
-      </c>
+      <c r="S89"/>
+      <c r="T89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B90" t="s">
-        <v>771</v>
+        <v>796</v>
       </c>
       <c r="C90" t="s">
-        <v>845</v>
+        <v>869</v>
       </c>
       <c r="D90" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="E90" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="F90" t="s">
-        <v>923</v>
+        <v>949</v>
       </c>
       <c r="G90" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H90" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="J90"/>
       <c r="K90"/>
       <c r="L90" t="s">
-        <v>1015</v>
+        <v>1044</v>
       </c>
       <c r="M90" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="N90" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="P90"/>
       <c r="Q90"/>
       <c r="R90" t="s">
-        <v>1071</v>
+        <v>1105</v>
       </c>
       <c r="S90" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
       <c r="T90" t="s">
-        <v>712</v>
+        <v>734</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>735</v>
+      </c>
+      <c r="B91" t="s">
+        <v>796</v>
+      </c>
+      <c r="C91" t="s">
+        <v>870</v>
+      </c>
+      <c r="D91" t="s">
+        <v>736</v>
+      </c>
+      <c r="E91" t="s">
+        <v>737</v>
+      </c>
+      <c r="F91" t="s">
+        <v>950</v>
+      </c>
+      <c r="G91" t="s">
+        <v>738</v>
+      </c>
+      <c r="H91" t="s">
+        <v>739</v>
+      </c>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91" t="s">
+        <v>1045</v>
+      </c>
+      <c r="M91" t="s">
+        <v>740</v>
+      </c>
+      <c r="N91" t="s">
+        <v>741</v>
+      </c>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91" t="s">
+        <v>1105</v>
+      </c>
+      <c r="S91" t="s">
+        <v>733</v>
+      </c>
+      <c r="T91" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>742</v>
+      </c>
+      <c r="B92" t="s">
+        <v>796</v>
+      </c>
+      <c r="C92" t="s">
+        <v>871</v>
+      </c>
+      <c r="D92" t="s">
+        <v>743</v>
+      </c>
+      <c r="E92" t="s">
+        <v>744</v>
+      </c>
+      <c r="F92" t="s">
+        <v>951</v>
+      </c>
+      <c r="G92" t="s">
+        <v>745</v>
+      </c>
+      <c r="H92" t="s">
+        <v>746</v>
+      </c>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92" t="s">
+        <v>1045</v>
+      </c>
+      <c r="M92" t="s">
+        <v>740</v>
+      </c>
+      <c r="N92" t="s">
+        <v>741</v>
+      </c>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92" t="s">
+        <v>1105</v>
+      </c>
+      <c r="S92" t="s">
+        <v>733</v>
+      </c>
+      <c r="T92" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>747</v>
+      </c>
+      <c r="B93" t="s">
+        <v>797</v>
+      </c>
+      <c r="C93" t="s">
+        <v>872</v>
+      </c>
+      <c r="D93" t="s">
+        <v>748</v>
+      </c>
+      <c r="E93" t="s">
+        <v>749</v>
+      </c>
+      <c r="F93" t="s">
+        <v>952</v>
+      </c>
+      <c r="G93" t="s">
+        <v>750</v>
+      </c>
+      <c r="H93" t="s">
+        <v>751</v>
+      </c>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93" t="s">
+        <v>1046</v>
+      </c>
+      <c r="M93" t="s">
+        <v>752</v>
+      </c>
+      <c r="N93" t="s">
+        <v>753</v>
+      </c>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93" t="s">
+        <v>1105</v>
+      </c>
+      <c r="S93" t="s">
+        <v>733</v>
+      </c>
+      <c r="T93" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>754</v>
+      </c>
+      <c r="B94" t="s">
+        <v>797</v>
+      </c>
+      <c r="C94" t="s">
+        <v>873</v>
+      </c>
+      <c r="D94" t="s">
+        <v>755</v>
+      </c>
+      <c r="E94" t="s">
+        <v>756</v>
+      </c>
+      <c r="F94" t="s">
+        <v>953</v>
+      </c>
+      <c r="G94" t="s">
+        <v>757</v>
+      </c>
+      <c r="H94" t="s">
+        <v>758</v>
+      </c>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M94" t="s">
+        <v>759</v>
+      </c>
+      <c r="N94" t="s">
+        <v>760</v>
+      </c>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94" t="s">
+        <v>1105</v>
+      </c>
+      <c r="S94" t="s">
+        <v>733</v>
+      </c>
+      <c r="T94" t="s">
+        <v>734</v>
       </c>
     </row>
   </sheetData>

--- a/Original/CN/Game/Stat.xlsx
+++ b/Original/CN/Game/Stat.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="1072">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">Taunt</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">眠りの歌</t>
   </si>
   <si>
-    <t xml:space="preserve">A condition that grants sleep to nearby creatures. Consume mana while maintaining the song.</t>
+    <t xml:space="preserve">A condition that puts nearby creatures to sleep. Consume mana while maintaining the song.</t>
   </si>
   <si>
     <t xml:space="preserve">周囲の生物を眠らせる状態。歌を維持している間はマナが減少する。</t>
@@ -219,27 +219,6 @@
   </si>
   <si>
     <t xml:space="preserve">#1は歌うのを止めた。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hymn of Valor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">勇気の歌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A condition that grants courage to nearby creatures. Consume mana while maintaining the song.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">周囲の生物に勇気を与える状態。歌を維持している間はマナが減少する。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 begin(s) to sing a song of valor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1は勇ましい歌を歌い始めた。</t>
   </si>
   <si>
     <t xml:space="preserve">23</t>
@@ -1469,27 +1448,6 @@
     <t xml:space="preserve">猫変容</t>
   </si>
   <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bat Transformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">コウモリ変容</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vampirism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">吸血症</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#</t>
-  </si>
-  <si>
     <t xml:space="preserve">50</t>
   </si>
   <si>
@@ -1770,33 +1728,6 @@
   </si>
   <si>
     <t xml:space="preserve">松明</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dark Concealment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">潜行</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A condition where you are hidden in darkness.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">闇に潜んだ状態。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 don(s) darkness.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1は闇に潜った。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1 cast(s) off darkness.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1は闇を抜けた。</t>
   </si>
   <si>
     <t xml:space="preserve">24</t>
@@ -2049,6 +1980,9 @@
     <t xml:space="preserve">精神の不安定さ。悪化すると気がくるって死ぬ。</t>
   </si>
   <si>
+    <t xml:space="preserve">#</t>
+  </si>
+  <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
@@ -2340,9 +2274,6 @@
     <t xml:space="preserve">EA 23.166</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.220</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alpha 16.1</t>
   </si>
   <si>
@@ -2403,18 +2334,9 @@
     <t xml:space="preserve">EA 23.143</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.239</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alpha 20.48</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.241</t>
-  </si>
-  <si>
     <t xml:space="preserve">Beta 22.60</t>
   </si>
   <si>
@@ -2454,9 +2376,6 @@
     <t xml:space="preserve">安眠之歌</t>
   </si>
   <si>
-    <t xml:space="preserve">勇气之歌</t>
-  </si>
-  <si>
     <t xml:space="preserve">呼吸困难</t>
   </si>
   <si>
@@ -2571,9 +2490,6 @@
     <t xml:space="preserve">猫变形</t>
   </si>
   <si>
-    <t xml:space="preserve">蝙蝠变形</t>
-  </si>
-  <si>
     <t xml:space="preserve">瘴气</t>
   </si>
   <si>
@@ -2676,13 +2592,10 @@
     <t xml:space="preserve">命中率和伤害倍率会根据未进行攻击的回合数逐步提升，直到到达上限的状态。</t>
   </si>
   <si>
-    <t xml:space="preserve">每次攻击被闪避时，攻击威力都会提升的状态。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">让周围生物陷入睡眠的状态。维持歌唱期间魔力会减少。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">给予周围生物得到勇气的状态。维持歌唱期间魔力会减少。</t>
+    <t xml:space="preserve">每次攻击被闪避时，攻击威力都会上升的状态。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">让周围生物陷入睡眠状态。维持歌唱期间魔力会减少。</t>
   </si>
   <si>
     <t xml:space="preserve">中毒导致每次行动都会让体力减少的状态。</t>
@@ -2844,9 +2757,6 @@
     <t xml:space="preserve">吃什么吐什么的状态。</t>
   </si>
   <si>
-    <t xml:space="preserve">潜入黑暗的状态。</t>
-  </si>
-  <si>
     <t xml:space="preserve">湿身状态。电击抗性减弱。</t>
   </si>
   <si>
@@ -2989,9 +2899,6 @@
   </si>
   <si>
     <t xml:space="preserve">#1开始唱摇篮曲了。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1开始唱激昂之歌了。</t>
   </si>
   <si>
     <t xml:space="preserve">#1中了毒。
@@ -3154,9 +3061,6 @@
   </si>
   <si>
     <t xml:space="preserve">#1得了厌食症。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1潜入了黑暗。</t>
   </si>
   <si>
     <t xml:space="preserve">#1湿了。</t>
@@ -3230,9 +3134,6 @@
     <t xml:space="preserve">#1停止唱歌了。</t>
   </si>
   <si>
-    <t xml:space="preserve">#2停止唱歌了。</t>
-  </si>
-  <si>
     <t xml:space="preserve">#1的身体摆脱了毒素。</t>
   </si>
   <si>
@@ -3357,9 +3258,6 @@
   </si>
   <si>
     <t xml:space="preserve">#1的厌食症治愈了。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1从黑暗中现形。</t>
   </si>
   <si>
     <t xml:space="preserve">#1身上的水干了。</t>
@@ -3546,10 +3444,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="C3" t="s">
-        <v>798</v>
+        <v>772</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -3558,7 +3456,7 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>874</v>
+        <v>846</v>
       </c>
       <c r="G3" t="s">
         <v>24</v>
@@ -3567,7 +3465,7 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>954</v>
+        <v>924</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
@@ -3576,7 +3474,7 @@
         <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>977</v>
+        <v>947</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
@@ -3587,7 +3485,7 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3" t="s">
-        <v>1052</v>
+        <v>1020</v>
       </c>
       <c r="S3" t="s">
         <v>30</v>
@@ -3601,10 +3499,10 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="C4" t="s">
-        <v>799</v>
+        <v>773</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -3613,7 +3511,7 @@
         <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>875</v>
+        <v>847</v>
       </c>
       <c r="G4" t="s">
         <v>35</v>
@@ -3622,7 +3520,7 @@
         <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>799</v>
+        <v>773</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
@@ -3631,7 +3529,7 @@
         <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>978</v>
+        <v>948</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
@@ -3642,7 +3540,7 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4" t="s">
-        <v>1053</v>
+        <v>1021</v>
       </c>
       <c r="S4" t="s">
         <v>39</v>
@@ -3656,10 +3554,10 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="C5" t="s">
-        <v>800</v>
+        <v>774</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3668,7 +3566,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>876</v>
+        <v>848</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
@@ -3677,7 +3575,7 @@
         <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>800</v>
+        <v>774</v>
       </c>
       <c r="J5" t="s">
         <v>42</v>
@@ -3686,7 +3584,7 @@
         <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>979</v>
+        <v>949</v>
       </c>
       <c r="M5" t="s">
         <v>46</v>
@@ -3697,7 +3595,7 @@
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5" t="s">
-        <v>1054</v>
+        <v>1022</v>
       </c>
       <c r="S5" t="s">
         <v>48</v>
@@ -3711,10 +3609,10 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="C6" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -3723,7 +3621,7 @@
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>877</v>
+        <v>849</v>
       </c>
       <c r="G6" t="s">
         <v>53</v>
@@ -3732,7 +3630,7 @@
         <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="J6" t="s">
         <v>51</v>
@@ -3741,7 +3639,7 @@
         <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="M6" t="s">
         <v>55</v>
@@ -3752,7 +3650,7 @@
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6" t="s">
-        <v>1055</v>
+        <v>1023</v>
       </c>
       <c r="S6" t="s">
         <v>57</v>
@@ -3766,10 +3664,10 @@
         <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="C7" t="s">
-        <v>802</v>
+        <v>776</v>
       </c>
       <c r="D7" t="s">
         <v>60</v>
@@ -3778,7 +3676,7 @@
         <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>878</v>
+        <v>850</v>
       </c>
       <c r="G7" t="s">
         <v>62</v>
@@ -3787,7 +3685,7 @@
         <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>802</v>
+        <v>776</v>
       </c>
       <c r="J7" t="s">
         <v>60</v>
@@ -3796,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>981</v>
+        <v>951</v>
       </c>
       <c r="M7" t="s">
         <v>64</v>
@@ -3807,7 +3705,7 @@
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7" t="s">
-        <v>1056</v>
+        <v>1024</v>
       </c>
       <c r="S7" t="s">
         <v>66</v>
@@ -3821,10 +3719,10 @@
         <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="C8" t="s">
-        <v>803</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
         <v>69</v>
@@ -3833,7 +3731,7 @@
         <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>879</v>
+        <v>851</v>
       </c>
       <c r="G8" t="s">
         <v>71</v>
@@ -3842,124 +3740,124 @@
         <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>803</v>
+        <v>925</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>982</v>
+        <v>952</v>
       </c>
       <c r="M8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N8" t="s">
-        <v>74</v>
-      </c>
-      <c r="P8"/>
-      <c r="Q8"/>
+        <v>76</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="P8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>78</v>
+      </c>
       <c r="R8" t="s">
-        <v>1057</v>
+        <v>1025</v>
       </c>
       <c r="S8" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>766</v>
+        <v>744</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>777</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>880</v>
+        <v>852</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I9" t="s">
-        <v>955</v>
+        <v>926</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L9" t="s">
-        <v>983</v>
+        <v>953</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="N9" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O9" t="s">
-        <v>1048</v>
+        <v>1017</v>
       </c>
       <c r="P9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Q9" t="s">
-        <v>85</v>
-      </c>
-      <c r="R9" t="s">
-        <v>1058</v>
-      </c>
-      <c r="S9" t="s">
-        <v>86</v>
-      </c>
-      <c r="T9" t="s">
-        <v>87</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="S9"/>
+      <c r="T9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>767</v>
+        <v>743</v>
       </c>
       <c r="C10" t="s">
-        <v>804</v>
+        <v>778</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>881</v>
+        <v>853</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I10" t="s">
-        <v>956</v>
+        <v>778</v>
       </c>
       <c r="J10" t="s">
         <v>93</v>
@@ -3968,713 +3866,713 @@
         <v>94</v>
       </c>
       <c r="L10" t="s">
-        <v>984</v>
+        <v>954</v>
       </c>
       <c r="M10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
-      </c>
-      <c r="O10" t="s">
-        <v>1049</v>
-      </c>
-      <c r="P10" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q10" t="s">
         <v>98</v>
       </c>
-      <c r="S10"/>
-      <c r="T10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10" t="s">
+        <v>1026</v>
+      </c>
+      <c r="S10" t="s">
+        <v>99</v>
+      </c>
+      <c r="T10" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="C11" t="s">
-        <v>805</v>
+        <v>779</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>882</v>
+        <v>854</v>
       </c>
       <c r="G11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" t="s">
+        <v>779</v>
+      </c>
+      <c r="J11" t="s">
         <v>102</v>
       </c>
-      <c r="H11" t="s">
+      <c r="K11" t="s">
         <v>103</v>
       </c>
-      <c r="I11" t="s">
-        <v>805</v>
-      </c>
-      <c r="J11" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" t="s">
-        <v>101</v>
-      </c>
       <c r="L11" t="s">
-        <v>985</v>
+        <v>955</v>
       </c>
       <c r="M11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11" t="s">
-        <v>1059</v>
+        <v>1027</v>
       </c>
       <c r="S11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="T11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="C12" t="s">
-        <v>806</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
-        <v>883</v>
+        <v>855</v>
       </c>
       <c r="G12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" t="s">
         <v>112</v>
       </c>
-      <c r="I12" t="s">
-        <v>806</v>
-      </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s">
-        <v>986</v>
+        <v>956</v>
       </c>
       <c r="M12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12" t="s">
-        <v>1060</v>
+        <v>1028</v>
       </c>
       <c r="S12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="T12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>780</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F13" t="s">
-        <v>884</v>
+        <v>856</v>
       </c>
       <c r="G13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>780</v>
       </c>
       <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
         <v>122</v>
       </c>
-      <c r="K13" t="s">
-        <v>119</v>
-      </c>
       <c r="L13" t="s">
-        <v>987</v>
+        <v>957</v>
       </c>
       <c r="M13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13" t="s">
-        <v>1061</v>
+        <v>1029</v>
       </c>
       <c r="S13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="T13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
       <c r="C14" t="s">
-        <v>807</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F14" t="s">
-        <v>885</v>
+        <v>857</v>
       </c>
       <c r="G14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I14" t="s">
-        <v>807</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
         <v>132</v>
       </c>
-      <c r="K14" t="s">
-        <v>129</v>
-      </c>
       <c r="L14" t="s">
-        <v>988</v>
+        <v>958</v>
       </c>
       <c r="M14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14" t="s">
-        <v>1062</v>
+        <v>1030</v>
       </c>
       <c r="S14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="T14" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>768</v>
+        <v>743</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>781</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F15" t="s">
-        <v>886</v>
+        <v>856</v>
       </c>
       <c r="G15" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="H15" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>781</v>
       </c>
       <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s">
         <v>142</v>
       </c>
-      <c r="K15" t="s">
-        <v>139</v>
-      </c>
       <c r="L15" t="s">
-        <v>989</v>
+        <v>959</v>
       </c>
       <c r="M15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15" t="s">
-        <v>1063</v>
+        <v>1031</v>
       </c>
       <c r="S15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="C16" t="s">
-        <v>808</v>
+        <v>150</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F16" t="s">
-        <v>885</v>
+        <v>858</v>
       </c>
       <c r="G16" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="H16" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="I16" t="s">
-        <v>808</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s">
         <v>150</v>
       </c>
-      <c r="K16" t="s">
-        <v>149</v>
-      </c>
       <c r="L16" t="s">
-        <v>990</v>
+        <v>960</v>
       </c>
       <c r="M16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N16" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16" t="s">
-        <v>1064</v>
+        <v>1032</v>
       </c>
       <c r="S16" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="T16" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>782</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F17" t="s">
-        <v>887</v>
+        <v>859</v>
       </c>
       <c r="G17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H17" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" t="s">
+        <v>782</v>
+      </c>
+      <c r="J17" t="s">
         <v>159</v>
       </c>
-      <c r="I17" t="s">
-        <v>157</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>160</v>
       </c>
-      <c r="K17" t="s">
-        <v>157</v>
-      </c>
       <c r="L17" t="s">
-        <v>991</v>
+        <v>961</v>
       </c>
       <c r="M17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17" t="s">
-        <v>1065</v>
+        <v>1033</v>
       </c>
       <c r="S17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="T17" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="C18" t="s">
-        <v>809</v>
+        <v>783</v>
       </c>
       <c r="D18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F18" t="s">
-        <v>888</v>
+        <v>860</v>
       </c>
       <c r="G18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I18" t="s">
-        <v>809</v>
+        <v>927</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>992</v>
+        <v>962</v>
       </c>
       <c r="M18" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="N18" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P18"/>
       <c r="Q18"/>
       <c r="R18" t="s">
-        <v>1066</v>
+        <v>1034</v>
       </c>
       <c r="S18" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="T18" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="C19" t="s">
-        <v>810</v>
+        <v>180</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F19" t="s">
-        <v>889</v>
+        <v>861</v>
       </c>
       <c r="G19" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H19" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I19" t="s">
-        <v>957</v>
+        <v>928</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>993</v>
+        <v>963</v>
       </c>
       <c r="M19" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N19" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19" t="s">
-        <v>1067</v>
+        <v>1035</v>
       </c>
       <c r="S19" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="T19" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B20" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="C20" t="s">
-        <v>187</v>
+        <v>784</v>
       </c>
       <c r="D20" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E20" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F20" t="s">
-        <v>890</v>
+        <v>862</v>
       </c>
       <c r="G20" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H20" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="I20" t="s">
-        <v>958</v>
+        <v>929</v>
       </c>
       <c r="J20" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K20" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L20" t="s">
-        <v>994</v>
+        <v>964</v>
       </c>
       <c r="M20" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="N20" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20" t="s">
-        <v>1068</v>
+        <v>1036</v>
       </c>
       <c r="S20" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="T20" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s">
-        <v>766</v>
+        <v>746</v>
       </c>
       <c r="C21" t="s">
-        <v>811</v>
+        <v>785</v>
       </c>
       <c r="D21" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F21" t="s">
-        <v>891</v>
+        <v>863</v>
       </c>
       <c r="G21" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H21" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I21" t="s">
-        <v>959</v>
+        <v>930</v>
       </c>
       <c r="J21" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K21" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s">
-        <v>995</v>
+        <v>965</v>
       </c>
       <c r="M21" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="N21" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21" t="s">
-        <v>1069</v>
+        <v>1037</v>
       </c>
       <c r="S21" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="T21" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s">
-        <v>769</v>
+        <v>739</v>
       </c>
       <c r="C22" t="s">
-        <v>812</v>
+        <v>786</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E22" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F22" t="s">
-        <v>892</v>
+        <v>864</v>
       </c>
       <c r="G22" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H22" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I22" t="s">
-        <v>960</v>
+        <v>931</v>
       </c>
       <c r="J22" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>996</v>
+        <v>966</v>
       </c>
       <c r="M22" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="N22" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22" t="s">
-        <v>1070</v>
+        <v>1038</v>
       </c>
       <c r="S22" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="T22" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B23" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
       <c r="C23" t="s">
-        <v>813</v>
+        <v>787</v>
       </c>
       <c r="D23" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E23" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F23" t="s">
-        <v>893</v>
+        <v>865</v>
       </c>
       <c r="G23" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H23" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="I23" t="s">
-        <v>961</v>
+        <v>787</v>
       </c>
       <c r="J23" t="s">
         <v>223</v>
@@ -4683,90 +4581,83 @@
         <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>997</v>
+        <v>967</v>
       </c>
       <c r="M23" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N23" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P23"/>
       <c r="Q23"/>
       <c r="R23" t="s">
-        <v>1071</v>
+        <v>1039</v>
       </c>
       <c r="S23" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="T23" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
       <c r="C24" t="s">
-        <v>814</v>
+        <v>788</v>
       </c>
       <c r="D24" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E24" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F24" t="s">
-        <v>894</v>
+        <v>866</v>
       </c>
       <c r="G24" t="s">
+        <v>234</v>
+      </c>
+      <c r="H24" t="s">
+        <v>235</v>
+      </c>
+      <c r="I24" t="s">
+        <v>932</v>
+      </c>
+      <c r="J24" t="s">
         <v>232</v>
       </c>
-      <c r="H24" t="s">
+      <c r="K24" t="s">
         <v>233</v>
       </c>
-      <c r="I24" t="s">
-        <v>814</v>
-      </c>
-      <c r="J24" t="s">
-        <v>230</v>
-      </c>
-      <c r="K24" t="s">
-        <v>231</v>
-      </c>
       <c r="L24" t="s">
-        <v>998</v>
+        <v>968</v>
       </c>
       <c r="M24" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N24" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P24"/>
       <c r="Q24"/>
-      <c r="R24" t="s">
-        <v>1072</v>
-      </c>
-      <c r="S24" t="s">
-        <v>236</v>
-      </c>
-      <c r="T24" t="s">
-        <v>237</v>
-      </c>
+      <c r="S24"/>
+      <c r="T24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>238</v>
       </c>
       <c r="B25" t="s">
-        <v>770</v>
+        <v>748</v>
       </c>
       <c r="C25" t="s">
-        <v>815</v>
+        <v>789</v>
       </c>
       <c r="D25" t="s">
         <v>239</v>
@@ -4775,7 +4666,7 @@
         <v>240</v>
       </c>
       <c r="F25" t="s">
-        <v>895</v>
+        <v>867</v>
       </c>
       <c r="G25" t="s">
         <v>241</v>
@@ -4784,7 +4675,7 @@
         <v>242</v>
       </c>
       <c r="I25" t="s">
-        <v>962</v>
+        <v>789</v>
       </c>
       <c r="J25" t="s">
         <v>239</v>
@@ -4793,7 +4684,7 @@
         <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="M25" t="s">
         <v>243</v>
@@ -4803,421 +4694,428 @@
       </c>
       <c r="P25"/>
       <c r="Q25"/>
-      <c r="S25"/>
-      <c r="T25"/>
+      <c r="R25" t="s">
+        <v>1040</v>
+      </c>
+      <c r="S25" t="s">
+        <v>245</v>
+      </c>
+      <c r="T25" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="C26" t="s">
-        <v>816</v>
+        <v>790</v>
       </c>
       <c r="D26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E26" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F26" t="s">
-        <v>896</v>
+        <v>868</v>
       </c>
       <c r="G26" t="s">
+        <v>250</v>
+      </c>
+      <c r="H26" t="s">
+        <v>251</v>
+      </c>
+      <c r="I26" t="s">
+        <v>790</v>
+      </c>
+      <c r="J26" t="s">
         <v>248</v>
       </c>
-      <c r="H26" t="s">
+      <c r="K26" t="s">
         <v>249</v>
       </c>
-      <c r="I26" t="s">
-        <v>816</v>
-      </c>
-      <c r="J26" t="s">
-        <v>246</v>
-      </c>
-      <c r="K26" t="s">
-        <v>247</v>
-      </c>
       <c r="L26" t="s">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="M26" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N26" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P26"/>
       <c r="Q26"/>
       <c r="R26" t="s">
-        <v>1073</v>
+        <v>1041</v>
       </c>
       <c r="S26" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="T26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s">
-        <v>772</v>
+        <v>739</v>
       </c>
       <c r="C27" t="s">
-        <v>817</v>
+        <v>791</v>
       </c>
       <c r="D27" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E27" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F27" t="s">
-        <v>897</v>
+        <v>869</v>
       </c>
       <c r="G27" t="s">
+        <v>259</v>
+      </c>
+      <c r="H27" t="s">
+        <v>260</v>
+      </c>
+      <c r="I27" t="s">
+        <v>791</v>
+      </c>
+      <c r="J27" t="s">
         <v>257</v>
       </c>
-      <c r="H27" t="s">
+      <c r="K27" t="s">
         <v>258</v>
       </c>
-      <c r="I27" t="s">
-        <v>817</v>
-      </c>
-      <c r="J27" t="s">
-        <v>255</v>
-      </c>
-      <c r="K27" t="s">
-        <v>256</v>
-      </c>
       <c r="L27" t="s">
-        <v>1001</v>
+        <v>971</v>
       </c>
       <c r="M27" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N27" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27" t="s">
-        <v>1074</v>
+        <v>1042</v>
       </c>
       <c r="S27" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="T27" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="C28" t="s">
-        <v>818</v>
+        <v>792</v>
       </c>
       <c r="D28" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E28" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F28" t="s">
-        <v>898</v>
+        <v>870</v>
       </c>
       <c r="G28" t="s">
+        <v>268</v>
+      </c>
+      <c r="H28" t="s">
+        <v>269</v>
+      </c>
+      <c r="I28" t="s">
+        <v>792</v>
+      </c>
+      <c r="J28" t="s">
         <v>266</v>
       </c>
-      <c r="H28" t="s">
+      <c r="K28" t="s">
         <v>267</v>
       </c>
-      <c r="I28" t="s">
-        <v>818</v>
-      </c>
-      <c r="J28" t="s">
-        <v>264</v>
-      </c>
-      <c r="K28" t="s">
-        <v>265</v>
-      </c>
       <c r="L28" t="s">
-        <v>1002</v>
+        <v>972</v>
       </c>
       <c r="M28" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N28" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P28"/>
       <c r="Q28"/>
       <c r="R28" t="s">
-        <v>1075</v>
+        <v>1043</v>
       </c>
       <c r="S28" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="T28" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s">
-        <v>773</v>
+        <v>750</v>
       </c>
       <c r="C29" t="s">
-        <v>819</v>
+        <v>276</v>
       </c>
       <c r="D29" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E29" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F29" t="s">
-        <v>899</v>
+        <v>871</v>
       </c>
       <c r="G29" t="s">
+        <v>277</v>
+      </c>
+      <c r="H29" t="s">
+        <v>278</v>
+      </c>
+      <c r="I29" t="s">
+        <v>276</v>
+      </c>
+      <c r="J29" t="s">
         <v>275</v>
       </c>
-      <c r="H29" t="s">
+      <c r="K29" t="s">
         <v>276</v>
       </c>
-      <c r="I29" t="s">
-        <v>819</v>
-      </c>
-      <c r="J29" t="s">
-        <v>273</v>
-      </c>
-      <c r="K29" t="s">
-        <v>274</v>
-      </c>
       <c r="L29" t="s">
-        <v>1003</v>
+        <v>973</v>
       </c>
       <c r="M29" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N29" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29" t="s">
-        <v>1076</v>
+        <v>1044</v>
       </c>
       <c r="S29" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="T29" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s">
-        <v>773</v>
+        <v>750</v>
       </c>
       <c r="C30" t="s">
-        <v>283</v>
+        <v>793</v>
       </c>
       <c r="D30" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E30" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F30" t="s">
-        <v>900</v>
+        <v>872</v>
       </c>
       <c r="G30" t="s">
+        <v>286</v>
+      </c>
+      <c r="H30" t="s">
+        <v>287</v>
+      </c>
+      <c r="I30" t="s">
+        <v>793</v>
+      </c>
+      <c r="J30" t="s">
         <v>284</v>
       </c>
-      <c r="H30" t="s">
+      <c r="K30" t="s">
         <v>285</v>
       </c>
-      <c r="I30" t="s">
-        <v>283</v>
-      </c>
-      <c r="J30" t="s">
-        <v>282</v>
-      </c>
-      <c r="K30" t="s">
-        <v>283</v>
-      </c>
       <c r="L30" t="s">
-        <v>1004</v>
+        <v>974</v>
       </c>
       <c r="M30" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N30" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30" t="s">
-        <v>1077</v>
+        <v>1045</v>
       </c>
       <c r="S30" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="T30" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B31" t="s">
-        <v>773</v>
+        <v>750</v>
       </c>
       <c r="C31" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="D31" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E31" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F31" t="s">
-        <v>901</v>
+        <v>873</v>
       </c>
       <c r="G31" t="s">
+        <v>295</v>
+      </c>
+      <c r="H31" t="s">
+        <v>296</v>
+      </c>
+      <c r="I31" t="s">
+        <v>794</v>
+      </c>
+      <c r="J31" t="s">
         <v>293</v>
       </c>
-      <c r="H31" t="s">
+      <c r="K31" t="s">
         <v>294</v>
       </c>
-      <c r="I31" t="s">
-        <v>820</v>
-      </c>
-      <c r="J31" t="s">
-        <v>291</v>
-      </c>
-      <c r="K31" t="s">
-        <v>292</v>
-      </c>
       <c r="L31" t="s">
-        <v>1005</v>
+        <v>975</v>
       </c>
       <c r="M31" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N31" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31" t="s">
-        <v>1078</v>
+        <v>1046</v>
       </c>
       <c r="S31" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="T31" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s">
-        <v>773</v>
+        <v>743</v>
       </c>
       <c r="C32" t="s">
-        <v>821</v>
+        <v>795</v>
       </c>
       <c r="D32" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E32" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F32" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="G32" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H32" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I32" t="s">
-        <v>821</v>
+        <v>933</v>
       </c>
       <c r="J32" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="K32" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="L32" t="s">
-        <v>1006</v>
+        <v>976</v>
       </c>
       <c r="M32" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="N32" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32" t="s">
-        <v>1079</v>
+        <v>1047</v>
       </c>
       <c r="S32" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="T32" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B33" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="C33" t="s">
-        <v>822</v>
+        <v>796</v>
       </c>
       <c r="D33" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E33" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F33" t="s">
-        <v>903</v>
+        <v>875</v>
       </c>
       <c r="G33" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H33" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I33" t="s">
-        <v>963</v>
+        <v>796</v>
       </c>
       <c r="J33" t="s">
         <v>313</v>
@@ -5226,420 +5124,413 @@
         <v>314</v>
       </c>
       <c r="L33" t="s">
-        <v>1007</v>
+        <v>977</v>
       </c>
       <c r="M33" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N33" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33" t="s">
-        <v>1080</v>
+        <v>1048</v>
       </c>
       <c r="S33" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="T33" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B34" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="C34" t="s">
-        <v>823</v>
+        <v>797</v>
       </c>
       <c r="D34" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E34" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F34" t="s">
-        <v>904</v>
+        <v>876</v>
       </c>
       <c r="G34" t="s">
+        <v>324</v>
+      </c>
+      <c r="H34" t="s">
+        <v>325</v>
+      </c>
+      <c r="I34" t="s">
+        <v>797</v>
+      </c>
+      <c r="J34" t="s">
         <v>322</v>
       </c>
-      <c r="H34" t="s">
+      <c r="K34" t="s">
         <v>323</v>
       </c>
-      <c r="I34" t="s">
-        <v>823</v>
-      </c>
-      <c r="J34" t="s">
-        <v>320</v>
-      </c>
-      <c r="K34" t="s">
-        <v>321</v>
-      </c>
       <c r="L34" t="s">
-        <v>1008</v>
+        <v>978</v>
       </c>
       <c r="M34" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="N34" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34" t="s">
-        <v>1081</v>
+        <v>1049</v>
       </c>
       <c r="S34" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="T34" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B35" t="s">
-        <v>774</v>
+        <v>752</v>
       </c>
       <c r="C35" t="s">
-        <v>824</v>
+        <v>798</v>
       </c>
       <c r="D35" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E35" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F35" t="s">
-        <v>905</v>
+        <v>877</v>
       </c>
       <c r="G35" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H35" t="s">
+        <v>334</v>
+      </c>
+      <c r="I35" t="s">
+        <v>798</v>
+      </c>
+      <c r="J35" t="s">
+        <v>335</v>
+      </c>
+      <c r="K35" t="s">
         <v>332</v>
       </c>
-      <c r="I35" t="s">
-        <v>824</v>
-      </c>
-      <c r="J35" t="s">
-        <v>329</v>
-      </c>
-      <c r="K35" t="s">
-        <v>330</v>
-      </c>
       <c r="L35" t="s">
-        <v>1009</v>
+        <v>979</v>
       </c>
       <c r="M35" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N35" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>1082</v>
+        <v>1050</v>
       </c>
       <c r="S35" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="T35" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B36" t="s">
-        <v>775</v>
+        <v>753</v>
       </c>
       <c r="C36" t="s">
-        <v>825</v>
+        <v>342</v>
       </c>
       <c r="D36" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E36" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F36" t="s">
-        <v>906</v>
+        <v>878</v>
       </c>
       <c r="G36" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H36" t="s">
+        <v>344</v>
+      </c>
+      <c r="I36" t="s">
+        <v>342</v>
+      </c>
+      <c r="J36" t="s">
         <v>341</v>
       </c>
-      <c r="I36" t="s">
-        <v>825</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>342</v>
       </c>
-      <c r="K36" t="s">
-        <v>339</v>
-      </c>
       <c r="L36" t="s">
-        <v>1010</v>
+        <v>980</v>
       </c>
       <c r="M36" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="N36" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36" t="s">
-        <v>1083</v>
+        <v>1051</v>
       </c>
       <c r="S36" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="T36" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B37" t="s">
-        <v>776</v>
+        <v>751</v>
       </c>
       <c r="C37" t="s">
-        <v>349</v>
+        <v>799</v>
       </c>
       <c r="D37" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E37" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F37" t="s">
-        <v>907</v>
+        <v>879</v>
       </c>
       <c r="G37" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H37" t="s">
+        <v>353</v>
+      </c>
+      <c r="I37" t="s">
+        <v>799</v>
+      </c>
+      <c r="J37" t="s">
+        <v>354</v>
+      </c>
+      <c r="K37" t="s">
         <v>351</v>
       </c>
-      <c r="I37" t="s">
-        <v>349</v>
-      </c>
-      <c r="J37" t="s">
-        <v>348</v>
-      </c>
-      <c r="K37" t="s">
-        <v>349</v>
-      </c>
       <c r="L37" t="s">
-        <v>1011</v>
+        <v>981</v>
       </c>
       <c r="M37" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="N37" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37" t="s">
-        <v>1084</v>
+        <v>1052</v>
       </c>
       <c r="S37" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="T37" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B38" t="s">
-        <v>774</v>
+        <v>754</v>
       </c>
       <c r="C38" t="s">
-        <v>826</v>
+        <v>800</v>
       </c>
       <c r="D38" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E38" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F38" t="s">
-        <v>908</v>
+        <v>880</v>
       </c>
       <c r="G38" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H38" t="s">
+        <v>363</v>
+      </c>
+      <c r="I38" t="s">
+        <v>800</v>
+      </c>
+      <c r="J38" t="s">
         <v>360</v>
       </c>
-      <c r="I38" t="s">
-        <v>826</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>361</v>
       </c>
-      <c r="K38" t="s">
-        <v>358</v>
-      </c>
       <c r="L38" t="s">
-        <v>1012</v>
+        <v>982</v>
       </c>
       <c r="M38" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="N38" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P38"/>
       <c r="Q38"/>
       <c r="R38" t="s">
-        <v>1085</v>
+        <v>1053</v>
       </c>
       <c r="S38" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="T38" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B39" t="s">
-        <v>777</v>
+        <v>751</v>
       </c>
       <c r="C39" t="s">
-        <v>827</v>
+        <v>801</v>
       </c>
       <c r="D39" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E39" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F39" t="s">
-        <v>909</v>
+        <v>881</v>
       </c>
       <c r="G39" t="s">
+        <v>371</v>
+      </c>
+      <c r="H39" t="s">
+        <v>372</v>
+      </c>
+      <c r="I39" t="s">
+        <v>801</v>
+      </c>
+      <c r="J39" t="s">
         <v>369</v>
       </c>
-      <c r="H39" t="s">
+      <c r="K39" t="s">
         <v>370</v>
       </c>
-      <c r="I39" t="s">
-        <v>827</v>
-      </c>
-      <c r="J39" t="s">
-        <v>367</v>
-      </c>
-      <c r="K39" t="s">
-        <v>368</v>
-      </c>
       <c r="L39" t="s">
-        <v>1013</v>
+        <v>983</v>
       </c>
       <c r="M39" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N39" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39" t="s">
-        <v>1086</v>
+        <v>1054</v>
       </c>
       <c r="S39" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="T39" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B40" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
       <c r="C40" t="s">
-        <v>828</v>
+        <v>802</v>
       </c>
       <c r="D40" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E40" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F40" t="s">
-        <v>910</v>
+        <v>882</v>
       </c>
       <c r="G40" t="s">
+        <v>380</v>
+      </c>
+      <c r="H40" t="s">
+        <v>381</v>
+      </c>
+      <c r="I40" t="s">
+        <v>802</v>
+      </c>
+      <c r="J40" t="s">
         <v>378</v>
       </c>
-      <c r="H40" t="s">
+      <c r="K40" t="s">
         <v>379</v>
       </c>
-      <c r="I40" t="s">
-        <v>828</v>
-      </c>
-      <c r="J40" t="s">
-        <v>376</v>
-      </c>
-      <c r="K40" t="s">
-        <v>377</v>
-      </c>
       <c r="L40" t="s">
-        <v>1014</v>
+        <v>984</v>
       </c>
       <c r="M40" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N40" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="P40"/>
       <c r="Q40"/>
-      <c r="R40" t="s">
-        <v>1087</v>
-      </c>
-      <c r="S40" t="s">
-        <v>382</v>
-      </c>
-      <c r="T40" t="s">
-        <v>383</v>
-      </c>
+      <c r="S40"/>
+      <c r="T40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>384</v>
       </c>
       <c r="B41" t="s">
-        <v>778</v>
+        <v>756</v>
       </c>
       <c r="C41" t="s">
-        <v>829</v>
+        <v>803</v>
       </c>
       <c r="D41" t="s">
         <v>385</v>
@@ -5648,7 +5539,7 @@
         <v>386</v>
       </c>
       <c r="F41" t="s">
-        <v>911</v>
+        <v>883</v>
       </c>
       <c r="G41" t="s">
         <v>387</v>
@@ -5657,7 +5548,7 @@
         <v>388</v>
       </c>
       <c r="I41" t="s">
-        <v>829</v>
+        <v>803</v>
       </c>
       <c r="J41" t="s">
         <v>385</v>
@@ -5665,15 +5556,8 @@
       <c r="K41" t="s">
         <v>386</v>
       </c>
-      <c r="L41" t="s">
-        <v>1015</v>
-      </c>
-      <c r="M41" t="s">
-        <v>389</v>
-      </c>
-      <c r="N41" t="s">
-        <v>390</v>
-      </c>
+      <c r="M41"/>
+      <c r="N41"/>
       <c r="P41"/>
       <c r="Q41"/>
       <c r="S41"/>
@@ -5681,37 +5565,37 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>389</v>
+      </c>
+      <c r="B42" t="s">
+        <v>757</v>
+      </c>
+      <c r="C42" t="s">
+        <v>804</v>
+      </c>
+      <c r="D42" t="s">
+        <v>390</v>
+      </c>
+      <c r="E42" t="s">
         <v>391</v>
       </c>
-      <c r="B42" t="s">
-        <v>779</v>
-      </c>
-      <c r="C42" t="s">
-        <v>830</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
+        <v>884</v>
+      </c>
+      <c r="G42" t="s">
         <v>392</v>
       </c>
-      <c r="E42" t="s">
+      <c r="H42" t="s">
         <v>393</v>
       </c>
-      <c r="F42" t="s">
-        <v>912</v>
-      </c>
-      <c r="G42" t="s">
-        <v>394</v>
-      </c>
-      <c r="H42" t="s">
-        <v>395</v>
-      </c>
       <c r="I42" t="s">
-        <v>830</v>
+        <v>804</v>
       </c>
       <c r="J42" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K42" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M42"/>
       <c r="N42"/>
@@ -5722,153 +5606,167 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>394</v>
+      </c>
+      <c r="B43" t="s">
+        <v>758</v>
+      </c>
+      <c r="C43" t="s">
+        <v>805</v>
+      </c>
+      <c r="D43" t="s">
+        <v>395</v>
+      </c>
+      <c r="E43" t="s">
         <v>396</v>
       </c>
-      <c r="B43" t="s">
-        <v>780</v>
-      </c>
-      <c r="C43" t="s">
-        <v>831</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
+        <v>885</v>
+      </c>
+      <c r="G43" t="s">
         <v>397</v>
       </c>
-      <c r="E43" t="s">
+      <c r="H43" t="s">
         <v>398</v>
       </c>
-      <c r="F43" t="s">
-        <v>913</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="I43" t="s">
+        <v>805</v>
+      </c>
+      <c r="J43" t="s">
+        <v>395</v>
+      </c>
+      <c r="K43" t="s">
+        <v>396</v>
+      </c>
+      <c r="L43" t="s">
+        <v>985</v>
+      </c>
+      <c r="M43" t="s">
         <v>399</v>
       </c>
-      <c r="H43" t="s">
+      <c r="N43" t="s">
         <v>400</v>
       </c>
-      <c r="I43" t="s">
-        <v>831</v>
-      </c>
-      <c r="J43" t="s">
-        <v>397</v>
-      </c>
-      <c r="K43" t="s">
-        <v>398</v>
-      </c>
-      <c r="M43"/>
-      <c r="N43"/>
       <c r="P43"/>
       <c r="Q43"/>
-      <c r="S43"/>
-      <c r="T43"/>
+      <c r="R43" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S43" t="s">
+        <v>401</v>
+      </c>
+      <c r="T43" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B44" t="s">
-        <v>781</v>
+        <v>743</v>
       </c>
       <c r="C44" t="s">
-        <v>832</v>
+        <v>806</v>
       </c>
       <c r="D44" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E44" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F44" t="s">
-        <v>914</v>
+        <v>886</v>
       </c>
       <c r="G44" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H44" t="s">
+        <v>407</v>
+      </c>
+      <c r="I44" t="s">
+        <v>806</v>
+      </c>
+      <c r="J44" t="s">
+        <v>408</v>
+      </c>
+      <c r="K44" t="s">
         <v>405</v>
       </c>
-      <c r="I44" t="s">
-        <v>832</v>
-      </c>
-      <c r="J44" t="s">
-        <v>402</v>
-      </c>
-      <c r="K44" t="s">
-        <v>403</v>
-      </c>
       <c r="L44" t="s">
-        <v>1016</v>
+        <v>986</v>
       </c>
       <c r="M44" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="N44" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="P44"/>
       <c r="Q44"/>
       <c r="R44" t="s">
-        <v>1088</v>
+        <v>1056</v>
       </c>
       <c r="S44" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="T44" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B45" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="C45" t="s">
-        <v>833</v>
+        <v>807</v>
       </c>
       <c r="D45" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E45" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F45" t="s">
-        <v>915</v>
+        <v>887</v>
       </c>
       <c r="G45" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="H45" t="s">
+        <v>417</v>
+      </c>
+      <c r="I45" t="s">
+        <v>807</v>
+      </c>
+      <c r="J45" t="s">
         <v>414</v>
       </c>
-      <c r="I45" t="s">
-        <v>833</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>415</v>
       </c>
-      <c r="K45" t="s">
-        <v>412</v>
-      </c>
       <c r="L45" t="s">
-        <v>1017</v>
+        <v>987</v>
       </c>
       <c r="M45" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="N45" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="P45"/>
       <c r="Q45"/>
       <c r="R45" t="s">
-        <v>1089</v>
+        <v>1057</v>
       </c>
       <c r="S45" t="s">
-        <v>418</v>
+        <v>319</v>
       </c>
       <c r="T45" t="s">
-        <v>419</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46">
@@ -5876,10 +5774,10 @@
         <v>420</v>
       </c>
       <c r="B46" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="C46" t="s">
-        <v>834</v>
+        <v>808</v>
       </c>
       <c r="D46" t="s">
         <v>421</v>
@@ -5888,7 +5786,7 @@
         <v>422</v>
       </c>
       <c r="F46" t="s">
-        <v>916</v>
+        <v>888</v>
       </c>
       <c r="G46" t="s">
         <v>423</v>
@@ -5897,7 +5795,7 @@
         <v>424</v>
       </c>
       <c r="I46" t="s">
-        <v>834</v>
+        <v>808</v>
       </c>
       <c r="J46" t="s">
         <v>421</v>
@@ -5906,7 +5804,7 @@
         <v>422</v>
       </c>
       <c r="L46" t="s">
-        <v>1018</v>
+        <v>988</v>
       </c>
       <c r="M46" t="s">
         <v>425</v>
@@ -5917,79 +5815,72 @@
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46" t="s">
-        <v>1090</v>
+        <v>1058</v>
       </c>
       <c r="S46" t="s">
-        <v>326</v>
+        <v>427</v>
       </c>
       <c r="T46" t="s">
-        <v>327</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B47" t="s">
-        <v>766</v>
+        <v>739</v>
       </c>
       <c r="C47" t="s">
-        <v>835</v>
+        <v>431</v>
       </c>
       <c r="D47" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E47" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F47" t="s">
-        <v>917</v>
+        <v>889</v>
       </c>
       <c r="G47" t="s">
+        <v>432</v>
+      </c>
+      <c r="H47" t="s">
+        <v>433</v>
+      </c>
+      <c r="I47" t="s">
+        <v>431</v>
+      </c>
+      <c r="J47" t="s">
         <v>430</v>
       </c>
-      <c r="H47" t="s">
+      <c r="K47" t="s">
         <v>431</v>
       </c>
-      <c r="I47" t="s">
-        <v>835</v>
-      </c>
-      <c r="J47" t="s">
-        <v>428</v>
-      </c>
-      <c r="K47" t="s">
-        <v>429</v>
-      </c>
       <c r="L47" t="s">
-        <v>1019</v>
+        <v>989</v>
       </c>
       <c r="M47" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="N47" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P47"/>
       <c r="Q47"/>
-      <c r="R47" t="s">
-        <v>1091</v>
-      </c>
-      <c r="S47" t="s">
-        <v>434</v>
-      </c>
-      <c r="T47" t="s">
-        <v>435</v>
-      </c>
+      <c r="S47"/>
+      <c r="T47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>436</v>
       </c>
       <c r="B48" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C48" t="s">
-        <v>438</v>
+        <v>809</v>
       </c>
       <c r="D48" t="s">
         <v>437</v>
@@ -5998,7 +5889,7 @@
         <v>438</v>
       </c>
       <c r="F48" t="s">
-        <v>918</v>
+        <v>890</v>
       </c>
       <c r="G48" t="s">
         <v>439</v>
@@ -6007,119 +5898,126 @@
         <v>440</v>
       </c>
       <c r="I48" t="s">
-        <v>438</v>
+        <v>809</v>
       </c>
       <c r="J48" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="K48" t="s">
         <v>438</v>
       </c>
       <c r="L48" t="s">
-        <v>1020</v>
+        <v>990</v>
       </c>
       <c r="M48" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N48" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P48"/>
       <c r="Q48"/>
-      <c r="S48"/>
-      <c r="T48"/>
+      <c r="R48" t="s">
+        <v>1059</v>
+      </c>
+      <c r="S48" t="s">
+        <v>444</v>
+      </c>
+      <c r="T48" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B49" t="s">
-        <v>782</v>
+        <v>760</v>
       </c>
       <c r="C49" t="s">
-        <v>836</v>
+        <v>810</v>
       </c>
       <c r="D49" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E49" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F49" t="s">
-        <v>919</v>
+        <v>891</v>
       </c>
       <c r="G49" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H49" t="s">
+        <v>450</v>
+      </c>
+      <c r="I49" t="s">
+        <v>810</v>
+      </c>
+      <c r="J49" t="s">
         <v>447</v>
       </c>
-      <c r="I49" t="s">
-        <v>836</v>
-      </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>448</v>
       </c>
-      <c r="K49" t="s">
-        <v>445</v>
-      </c>
       <c r="L49" t="s">
-        <v>1021</v>
+        <v>991</v>
       </c>
       <c r="M49" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N49" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49" t="s">
-        <v>1092</v>
+        <v>1060</v>
       </c>
       <c r="S49" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="T49" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B50" t="s">
-        <v>783</v>
+        <v>761</v>
       </c>
       <c r="C50" t="s">
-        <v>837</v>
+        <v>811</v>
       </c>
       <c r="D50" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E50" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F50" t="s">
-        <v>920</v>
+        <v>891</v>
       </c>
       <c r="G50" t="s">
+        <v>449</v>
+      </c>
+      <c r="H50" t="s">
+        <v>450</v>
+      </c>
+      <c r="I50" t="s">
+        <v>811</v>
+      </c>
+      <c r="J50" t="s">
         <v>456</v>
       </c>
-      <c r="H50" t="s">
+      <c r="K50" t="s">
         <v>457</v>
       </c>
-      <c r="I50" t="s">
-        <v>837</v>
-      </c>
-      <c r="J50" t="s">
-        <v>454</v>
-      </c>
-      <c r="K50" t="s">
-        <v>455</v>
-      </c>
       <c r="L50" t="s">
-        <v>1022</v>
+        <v>992</v>
       </c>
       <c r="M50" t="s">
         <v>458</v>
@@ -6130,7 +6028,7 @@
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50" t="s">
-        <v>1093</v>
+        <v>1061</v>
       </c>
       <c r="S50" t="s">
         <v>460</v>
@@ -6144,10 +6042,10 @@
         <v>462</v>
       </c>
       <c r="B51" t="s">
-        <v>784</v>
+        <v>760</v>
       </c>
       <c r="C51" t="s">
-        <v>838</v>
+        <v>812</v>
       </c>
       <c r="D51" t="s">
         <v>463</v>
@@ -6156,16 +6054,16 @@
         <v>464</v>
       </c>
       <c r="F51" t="s">
-        <v>920</v>
+        <v>892</v>
       </c>
       <c r="G51" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="H51" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="I51" t="s">
-        <v>838</v>
+        <v>812</v>
       </c>
       <c r="J51" t="s">
         <v>463</v>
@@ -6174,24 +6072,24 @@
         <v>464</v>
       </c>
       <c r="L51" t="s">
-        <v>1023</v>
+        <v>993</v>
       </c>
       <c r="M51" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="N51" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51" t="s">
-        <v>1094</v>
+        <v>1060</v>
       </c>
       <c r="S51" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="T51" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52">
@@ -6199,10 +6097,10 @@
         <v>469</v>
       </c>
       <c r="B52" t="s">
-        <v>783</v>
+        <v>760</v>
       </c>
       <c r="C52" t="s">
-        <v>839</v>
+        <v>813</v>
       </c>
       <c r="D52" t="s">
         <v>470</v>
@@ -6211,16 +6109,16 @@
         <v>471</v>
       </c>
       <c r="F52" t="s">
-        <v>921</v>
+        <v>892</v>
       </c>
       <c r="G52" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="H52" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="I52" t="s">
-        <v>839</v>
+        <v>813</v>
       </c>
       <c r="J52" t="s">
         <v>470</v>
@@ -6229,145 +6127,138 @@
         <v>471</v>
       </c>
       <c r="L52" t="s">
-        <v>1024</v>
+        <v>993</v>
       </c>
       <c r="M52" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="N52" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="P52"/>
       <c r="Q52"/>
       <c r="R52" t="s">
-        <v>1093</v>
+        <v>1060</v>
       </c>
       <c r="S52" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="T52" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B53" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
       <c r="C53" t="s">
-        <v>840</v>
+        <v>814</v>
       </c>
       <c r="D53" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E53" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F53" t="s">
-        <v>921</v>
+        <v>892</v>
       </c>
       <c r="G53" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="H53" t="s">
+        <v>466</v>
+      </c>
+      <c r="I53" t="s">
+        <v>814</v>
+      </c>
+      <c r="J53" t="s">
         <v>473</v>
       </c>
-      <c r="I53" t="s">
-        <v>840</v>
-      </c>
-      <c r="J53" t="s">
-        <v>477</v>
-      </c>
       <c r="K53" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="L53" t="s">
-        <v>1024</v>
+        <v>993</v>
       </c>
       <c r="M53" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="N53" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53" t="s">
-        <v>1093</v>
+        <v>1060</v>
       </c>
       <c r="S53" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="T53" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>475</v>
+      </c>
+      <c r="B54" t="s">
+        <v>750</v>
+      </c>
+      <c r="C54" t="s">
+        <v>815</v>
+      </c>
+      <c r="D54" t="s">
+        <v>476</v>
+      </c>
+      <c r="E54" t="s">
+        <v>477</v>
+      </c>
+      <c r="F54" t="s">
+        <v>893</v>
+      </c>
+      <c r="G54" t="s">
+        <v>478</v>
+      </c>
+      <c r="H54" t="s">
         <v>479</v>
       </c>
-      <c r="B54" t="s">
-        <v>785</v>
-      </c>
-      <c r="C54" t="s">
-        <v>841</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="I54" t="s">
+        <v>815</v>
+      </c>
+      <c r="J54" t="s">
+        <v>476</v>
+      </c>
+      <c r="K54" t="s">
+        <v>477</v>
+      </c>
+      <c r="L54" t="s">
+        <v>994</v>
+      </c>
+      <c r="M54" t="s">
         <v>480</v>
       </c>
-      <c r="E54" t="s">
+      <c r="N54" t="s">
         <v>481</v>
-      </c>
-      <c r="F54" t="s">
-        <v>921</v>
-      </c>
-      <c r="G54" t="s">
-        <v>472</v>
-      </c>
-      <c r="H54" t="s">
-        <v>473</v>
-      </c>
-      <c r="I54" t="s">
-        <v>841</v>
-      </c>
-      <c r="J54" t="s">
-        <v>480</v>
-      </c>
-      <c r="K54" t="s">
-        <v>481</v>
-      </c>
-      <c r="L54" t="s">
-        <v>1024</v>
-      </c>
-      <c r="M54" t="s">
-        <v>474</v>
-      </c>
-      <c r="N54" t="s">
-        <v>475</v>
       </c>
       <c r="P54"/>
       <c r="Q54"/>
-      <c r="R54" t="s">
-        <v>1093</v>
-      </c>
-      <c r="S54" t="s">
-        <v>460</v>
-      </c>
-      <c r="T54" t="s">
-        <v>461</v>
-      </c>
+      <c r="S54"/>
+      <c r="T54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>482</v>
       </c>
       <c r="B55" t="s">
-        <v>786</v>
+        <v>754</v>
       </c>
       <c r="C55" t="s">
-        <v>842</v>
+        <v>484</v>
       </c>
       <c r="D55" t="s">
         <v>483</v>
@@ -6376,16 +6267,16 @@
         <v>484</v>
       </c>
       <c r="F55" t="s">
-        <v>921</v>
+        <v>894</v>
       </c>
       <c r="G55" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="H55" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="I55" t="s">
-        <v>842</v>
+        <v>484</v>
       </c>
       <c r="J55" t="s">
         <v>483</v>
@@ -6394,55 +6285,69 @@
         <v>484</v>
       </c>
       <c r="L55" t="s">
-        <v>1024</v>
+        <v>995</v>
       </c>
       <c r="M55" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="N55" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="P55"/>
       <c r="Q55"/>
       <c r="R55" t="s">
-        <v>1093</v>
+        <v>1062</v>
       </c>
       <c r="S55" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="T55" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B56" t="s">
-        <v>787</v>
+        <v>750</v>
       </c>
       <c r="C56" t="s">
-        <v>487</v>
+        <v>816</v>
       </c>
       <c r="D56" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="E56" t="s">
-        <v>487</v>
-      </c>
-      <c r="G56"/>
-      <c r="H56"/>
+        <v>493</v>
+      </c>
+      <c r="F56" t="s">
+        <v>895</v>
+      </c>
+      <c r="G56" t="s">
+        <v>494</v>
+      </c>
+      <c r="H56" t="s">
+        <v>495</v>
+      </c>
       <c r="I56" t="s">
-        <v>488</v>
+        <v>816</v>
       </c>
       <c r="J56" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="K56" t="s">
-        <v>488</v>
-      </c>
-      <c r="M56"/>
-      <c r="N56"/>
+        <v>493</v>
+      </c>
+      <c r="L56" t="s">
+        <v>996</v>
+      </c>
+      <c r="M56" t="s">
+        <v>496</v>
+      </c>
+      <c r="N56" t="s">
+        <v>497</v>
+      </c>
       <c r="P56"/>
       <c r="Q56"/>
       <c r="S56"/>
@@ -6450,46 +6355,46 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="B57" t="s">
-        <v>773</v>
+        <v>750</v>
       </c>
       <c r="C57" t="s">
-        <v>843</v>
+        <v>500</v>
       </c>
       <c r="D57" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="E57" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="F57" t="s">
-        <v>922</v>
+        <v>896</v>
       </c>
       <c r="G57" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="H57" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="I57" t="s">
-        <v>843</v>
+        <v>500</v>
       </c>
       <c r="J57" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="K57" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="L57" t="s">
-        <v>1025</v>
+        <v>997</v>
       </c>
       <c r="M57" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="N57" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="P57"/>
       <c r="Q57"/>
@@ -6498,149 +6403,149 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B58" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="C58" t="s">
-        <v>498</v>
+        <v>817</v>
       </c>
       <c r="D58" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="E58" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="F58" t="s">
-        <v>923</v>
+        <v>897</v>
       </c>
       <c r="G58" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="H58" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="I58" t="s">
-        <v>498</v>
+        <v>817</v>
       </c>
       <c r="J58" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="K58" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="L58" t="s">
-        <v>1026</v>
+        <v>998</v>
       </c>
       <c r="M58" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="N58" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="P58"/>
       <c r="Q58"/>
-      <c r="R58" t="s">
-        <v>1095</v>
-      </c>
-      <c r="S58" t="s">
-        <v>503</v>
-      </c>
-      <c r="T58" t="s">
-        <v>504</v>
-      </c>
+      <c r="S58"/>
+      <c r="T58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="B59" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="C59" t="s">
-        <v>844</v>
+        <v>818</v>
       </c>
       <c r="D59" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="E59" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="F59" t="s">
-        <v>924</v>
+        <v>898</v>
       </c>
       <c r="G59" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="H59" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="I59" t="s">
-        <v>844</v>
+        <v>818</v>
       </c>
       <c r="J59" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="K59" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="L59" t="s">
-        <v>1027</v>
+        <v>999</v>
       </c>
       <c r="M59" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="N59" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="P59"/>
       <c r="Q59"/>
-      <c r="S59"/>
-      <c r="T59"/>
+      <c r="R59" t="s">
+        <v>1063</v>
+      </c>
+      <c r="S59" t="s">
+        <v>519</v>
+      </c>
+      <c r="T59" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="B60" t="s">
-        <v>773</v>
+        <v>750</v>
       </c>
       <c r="C60" t="s">
-        <v>514</v>
+        <v>819</v>
       </c>
       <c r="D60" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="E60" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="F60" t="s">
-        <v>925</v>
+        <v>899</v>
       </c>
       <c r="G60" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="H60" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="I60" t="s">
-        <v>514</v>
+        <v>819</v>
       </c>
       <c r="J60" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="K60" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="L60" t="s">
-        <v>1028</v>
+        <v>1000</v>
       </c>
       <c r="M60" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="N60" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="P60"/>
       <c r="Q60"/>
@@ -6649,46 +6554,46 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="B61" t="s">
-        <v>788</v>
+        <v>751</v>
       </c>
       <c r="C61" t="s">
-        <v>845</v>
+        <v>820</v>
       </c>
       <c r="D61" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="E61" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="F61" t="s">
-        <v>926</v>
+        <v>900</v>
       </c>
       <c r="G61" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="H61" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="I61" t="s">
-        <v>845</v>
+        <v>820</v>
       </c>
       <c r="J61" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="K61" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="L61" t="s">
-        <v>1029</v>
+        <v>1001</v>
       </c>
       <c r="M61" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="N61" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="P61"/>
       <c r="Q61"/>
@@ -6697,346 +6602,346 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="B62" t="s">
-        <v>783</v>
+        <v>743</v>
       </c>
       <c r="C62" t="s">
-        <v>846</v>
+        <v>821</v>
       </c>
       <c r="D62" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="E62" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="F62" t="s">
-        <v>927</v>
+        <v>901</v>
       </c>
       <c r="G62" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="H62" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="I62" t="s">
-        <v>846</v>
+        <v>934</v>
       </c>
       <c r="J62" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="K62" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="L62" t="s">
-        <v>1030</v>
+        <v>1002</v>
       </c>
       <c r="M62" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="N62" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="P62"/>
       <c r="Q62"/>
       <c r="R62" t="s">
-        <v>1096</v>
+        <v>1064</v>
       </c>
       <c r="S62" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="T62" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="B63" t="s">
-        <v>773</v>
+        <v>743</v>
       </c>
       <c r="C63" t="s">
-        <v>847</v>
+        <v>822</v>
       </c>
       <c r="D63" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="E63" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="F63" t="s">
-        <v>928</v>
+        <v>902</v>
       </c>
       <c r="G63" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="H63" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="I63" t="s">
-        <v>847</v>
+        <v>935</v>
       </c>
       <c r="J63" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="K63" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="L63" t="s">
-        <v>1031</v>
+        <v>1003</v>
       </c>
       <c r="M63" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="N63" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="P63"/>
       <c r="Q63"/>
-      <c r="S63"/>
-      <c r="T63"/>
+      <c r="R63" t="s">
+        <v>1065</v>
+      </c>
+      <c r="S63" t="s">
+        <v>555</v>
+      </c>
+      <c r="T63" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="B64" t="s">
-        <v>774</v>
+        <v>743</v>
       </c>
       <c r="C64" t="s">
-        <v>848</v>
+        <v>823</v>
       </c>
       <c r="D64" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="E64" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="F64" t="s">
-        <v>929</v>
+        <v>903</v>
       </c>
       <c r="G64" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="H64" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="I64" t="s">
-        <v>848</v>
+        <v>823</v>
       </c>
       <c r="J64" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="K64" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="L64" t="s">
-        <v>1032</v>
+        <v>1004</v>
       </c>
       <c r="M64" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="N64" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="P64"/>
       <c r="Q64"/>
-      <c r="S64"/>
-      <c r="T64"/>
+      <c r="R64" t="s">
+        <v>1066</v>
+      </c>
+      <c r="S64" t="s">
+        <v>564</v>
+      </c>
+      <c r="T64" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="B65" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="C65" t="s">
-        <v>849</v>
+        <v>824</v>
       </c>
       <c r="D65" t="s">
-        <v>550</v>
+        <v>567</v>
       </c>
       <c r="E65" t="s">
-        <v>551</v>
-      </c>
-      <c r="F65" t="s">
-        <v>930</v>
-      </c>
-      <c r="G65" t="s">
-        <v>552</v>
-      </c>
-      <c r="H65" t="s">
-        <v>553</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="G65"/>
+      <c r="H65"/>
       <c r="I65" t="s">
-        <v>964</v>
+        <v>824</v>
       </c>
       <c r="J65" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="K65" t="s">
-        <v>555</v>
-      </c>
-      <c r="L65" t="s">
-        <v>1033</v>
-      </c>
-      <c r="M65" t="s">
-        <v>556</v>
-      </c>
-      <c r="N65" t="s">
-        <v>557</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="M65"/>
+      <c r="N65"/>
       <c r="P65"/>
       <c r="Q65"/>
-      <c r="R65" t="s">
-        <v>1097</v>
-      </c>
-      <c r="S65" t="s">
-        <v>558</v>
-      </c>
-      <c r="T65" t="s">
-        <v>559</v>
-      </c>
+      <c r="S65"/>
+      <c r="T65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="B66" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="C66" t="s">
-        <v>850</v>
+        <v>825</v>
       </c>
       <c r="D66" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="E66" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="F66" t="s">
-        <v>931</v>
+        <v>904</v>
       </c>
       <c r="G66" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="H66" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="I66" t="s">
-        <v>965</v>
+        <v>825</v>
       </c>
       <c r="J66" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="K66" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="L66" t="s">
-        <v>1034</v>
+        <v>1005</v>
       </c>
       <c r="M66" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="N66" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="P66"/>
       <c r="Q66"/>
       <c r="R66" t="s">
-        <v>1098</v>
+        <v>1067</v>
       </c>
       <c r="S66" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="T66" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="B67" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C67" t="s">
-        <v>851</v>
+        <v>826</v>
       </c>
       <c r="D67" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="E67" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="F67" t="s">
-        <v>932</v>
+        <v>905</v>
       </c>
       <c r="G67" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="H67" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="I67" t="s">
-        <v>851</v>
+        <v>936</v>
       </c>
       <c r="J67" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="K67" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="L67" t="s">
-        <v>1035</v>
+        <v>1006</v>
       </c>
       <c r="M67" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="N67" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="P67"/>
       <c r="Q67"/>
       <c r="R67" t="s">
-        <v>1099</v>
+        <v>1068</v>
       </c>
       <c r="S67" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="T67" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="B68" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="C68" t="s">
-        <v>852</v>
+        <v>827</v>
       </c>
       <c r="D68" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="E68" t="s">
-        <v>582</v>
-      </c>
-      <c r="G68"/>
-      <c r="H68"/>
+        <v>591</v>
+      </c>
+      <c r="F68" t="s">
+        <v>906</v>
+      </c>
+      <c r="G68" t="s">
+        <v>592</v>
+      </c>
+      <c r="H68" t="s">
+        <v>593</v>
+      </c>
       <c r="I68" t="s">
-        <v>852</v>
+        <v>827</v>
       </c>
       <c r="J68" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="K68" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="M68"/>
       <c r="N68"/>
@@ -7047,202 +6952,188 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="B69" t="s">
-        <v>789</v>
+        <v>765</v>
       </c>
       <c r="C69" t="s">
-        <v>585</v>
+        <v>828</v>
       </c>
       <c r="D69" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="E69" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="F69" t="s">
-        <v>933</v>
+        <v>907</v>
       </c>
       <c r="G69" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="H69" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="I69" t="s">
-        <v>585</v>
+        <v>828</v>
       </c>
       <c r="J69" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="K69" t="s">
-        <v>585</v>
-      </c>
-      <c r="L69" t="s">
-        <v>1036</v>
-      </c>
-      <c r="M69" t="s">
-        <v>588</v>
-      </c>
-      <c r="N69" t="s">
-        <v>589</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="M69"/>
+      <c r="N69"/>
       <c r="P69"/>
       <c r="Q69"/>
-      <c r="R69" t="s">
-        <v>1100</v>
-      </c>
-      <c r="S69" t="s">
-        <v>590</v>
-      </c>
-      <c r="T69" t="s">
-        <v>591</v>
-      </c>
+      <c r="S69"/>
+      <c r="T69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="B70" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="C70" t="s">
-        <v>853</v>
+        <v>829</v>
       </c>
       <c r="D70" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="E70" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="F70" t="s">
-        <v>934</v>
+        <v>908</v>
       </c>
       <c r="G70" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="H70" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="I70" t="s">
-        <v>853</v>
+        <v>829</v>
       </c>
       <c r="J70" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="K70" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="L70" t="s">
-        <v>1037</v>
+        <v>1007</v>
       </c>
       <c r="M70" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="N70" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="P70"/>
       <c r="Q70"/>
       <c r="R70" t="s">
-        <v>1101</v>
+        <v>1069</v>
       </c>
       <c r="S70" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="T70" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="B71" t="s">
-        <v>790</v>
+        <v>766</v>
       </c>
       <c r="C71" t="s">
-        <v>854</v>
+        <v>830</v>
       </c>
       <c r="D71" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="E71" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="F71" t="s">
-        <v>935</v>
+        <v>909</v>
       </c>
       <c r="G71" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="H71" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="I71" t="s">
-        <v>966</v>
+        <v>937</v>
       </c>
       <c r="J71" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="K71" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="L71" t="s">
-        <v>1038</v>
+        <v>1008</v>
       </c>
       <c r="M71" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="N71" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="P71"/>
       <c r="Q71"/>
       <c r="R71" t="s">
-        <v>1102</v>
+        <v>1070</v>
       </c>
       <c r="S71" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="T71" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="B72" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C72" t="s">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="D72" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="E72" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="F72" t="s">
-        <v>936</v>
+        <v>910</v>
       </c>
       <c r="G72" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="H72" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="I72" t="s">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="J72" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="K72" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="M72"/>
       <c r="N72"/>
@@ -7253,188 +7144,174 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="B73" t="s">
-        <v>791</v>
+        <v>743</v>
       </c>
       <c r="C73" t="s">
-        <v>856</v>
+        <v>832</v>
       </c>
       <c r="D73" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="E73" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="F73" t="s">
-        <v>937</v>
+        <v>911</v>
       </c>
       <c r="G73" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="H73" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="I73" t="s">
-        <v>856</v>
+        <v>938</v>
       </c>
       <c r="J73" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="K73" t="s">
-        <v>620</v>
-      </c>
-      <c r="M73"/>
-      <c r="N73"/>
-      <c r="P73"/>
-      <c r="Q73"/>
+        <v>631</v>
+      </c>
+      <c r="L73" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M73" t="s">
+        <v>632</v>
+      </c>
+      <c r="N73" t="s">
+        <v>633</v>
+      </c>
+      <c r="O73" t="s">
+        <v>1018</v>
+      </c>
+      <c r="P73" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>635</v>
+      </c>
       <c r="S73"/>
       <c r="T73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="B74" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="C74" t="s">
-        <v>857</v>
+        <v>638</v>
       </c>
       <c r="D74" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="E74" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="F74" t="s">
-        <v>938</v>
+        <v>912</v>
       </c>
       <c r="G74" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="H74" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="I74" t="s">
-        <v>857</v>
+        <v>939</v>
       </c>
       <c r="J74" t="s">
-        <v>624</v>
+        <v>641</v>
       </c>
       <c r="K74" t="s">
-        <v>625</v>
-      </c>
-      <c r="L74" t="s">
-        <v>1039</v>
-      </c>
-      <c r="M74" t="s">
-        <v>628</v>
-      </c>
-      <c r="N74" t="s">
-        <v>629</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="M74"/>
+      <c r="N74"/>
       <c r="P74"/>
       <c r="Q74"/>
-      <c r="R74" t="s">
-        <v>1103</v>
-      </c>
-      <c r="S74" t="s">
-        <v>630</v>
-      </c>
-      <c r="T74" t="s">
-        <v>631</v>
-      </c>
+      <c r="S74"/>
+      <c r="T74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="B75" t="s">
-        <v>792</v>
+        <v>743</v>
       </c>
       <c r="C75" t="s">
-        <v>858</v>
+        <v>833</v>
       </c>
       <c r="D75" t="s">
-        <v>633</v>
+        <v>168</v>
       </c>
       <c r="E75" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="F75" t="s">
-        <v>939</v>
+        <v>913</v>
       </c>
       <c r="G75" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="H75" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="I75" t="s">
-        <v>967</v>
+        <v>647</v>
       </c>
       <c r="J75" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="K75" t="s">
-        <v>638</v>
-      </c>
-      <c r="L75" t="s">
-        <v>1040</v>
-      </c>
-      <c r="M75" t="s">
-        <v>639</v>
-      </c>
-      <c r="N75" t="s">
-        <v>640</v>
-      </c>
+        <v>647</v>
+      </c>
+      <c r="M75"/>
+      <c r="N75"/>
       <c r="P75"/>
       <c r="Q75"/>
-      <c r="R75" t="s">
-        <v>1104</v>
-      </c>
-      <c r="S75" t="s">
-        <v>641</v>
-      </c>
-      <c r="T75" t="s">
-        <v>642</v>
-      </c>
+      <c r="S75"/>
+      <c r="T75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="B76" t="s">
-        <v>793</v>
+        <v>747</v>
       </c>
       <c r="C76" t="s">
-        <v>859</v>
+        <v>834</v>
       </c>
       <c r="D76" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="E76" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="F76" t="s">
+        <v>914</v>
+      </c>
+      <c r="G76" t="s">
+        <v>651</v>
+      </c>
+      <c r="H76" t="s">
+        <v>652</v>
+      </c>
+      <c r="I76" t="s">
         <v>940</v>
       </c>
-      <c r="G76" t="s">
-        <v>646</v>
-      </c>
-      <c r="H76" t="s">
-        <v>647</v>
-      </c>
-      <c r="I76" t="s">
-        <v>859</v>
-      </c>
       <c r="J76" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="K76" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="M76"/>
       <c r="N76"/>
@@ -7445,92 +7322,85 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="B77" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="C77" t="s">
-        <v>860</v>
+        <v>112</v>
       </c>
       <c r="D77" t="s">
-        <v>649</v>
+        <v>111</v>
       </c>
       <c r="E77" t="s">
-        <v>650</v>
+        <v>112</v>
       </c>
       <c r="F77" t="s">
+        <v>915</v>
+      </c>
+      <c r="G77" t="s">
+        <v>656</v>
+      </c>
+      <c r="H77" t="s">
+        <v>657</v>
+      </c>
+      <c r="I77" t="s">
         <v>941</v>
       </c>
-      <c r="G77" t="s">
-        <v>651</v>
-      </c>
-      <c r="H77" t="s">
-        <v>652</v>
-      </c>
-      <c r="I77" t="s">
-        <v>968</v>
-      </c>
       <c r="J77" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="K77" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="L77" t="s">
-        <v>1041</v>
+        <v>1010</v>
       </c>
       <c r="M77" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="N77" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="O77" t="s">
-        <v>1050</v>
+        <v>1019</v>
       </c>
       <c r="P77" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="Q77" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="S77"/>
       <c r="T77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="B78" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="C78" t="s">
-        <v>661</v>
+        <v>835</v>
       </c>
       <c r="D78" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="E78" t="s">
-        <v>661</v>
-      </c>
-      <c r="F78" t="s">
+        <v>666</v>
+      </c>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78" t="s">
         <v>942</v>
       </c>
-      <c r="G78" t="s">
-        <v>662</v>
-      </c>
-      <c r="H78" t="s">
-        <v>663</v>
-      </c>
-      <c r="I78" t="s">
-        <v>969</v>
-      </c>
       <c r="J78" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="K78" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="M78"/>
       <c r="N78"/>
@@ -7541,37 +7411,30 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B79" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="C79" t="s">
-        <v>861</v>
+        <v>836</v>
       </c>
       <c r="D79" t="s">
-        <v>175</v>
+        <v>670</v>
       </c>
       <c r="E79" t="s">
-        <v>667</v>
-      </c>
-      <c r="F79" t="s">
+        <v>671</v>
+      </c>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79" t="s">
         <v>943</v>
       </c>
-      <c r="G79" t="s">
-        <v>668</v>
-      </c>
-      <c r="H79" t="s">
-        <v>669</v>
-      </c>
-      <c r="I79" t="s">
-        <v>488</v>
-      </c>
       <c r="J79" t="s">
-        <v>488</v>
+        <v>672</v>
       </c>
       <c r="K79" t="s">
-        <v>488</v>
+        <v>673</v>
       </c>
       <c r="M79"/>
       <c r="N79"/>
@@ -7582,37 +7445,37 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B80" t="s">
-        <v>770</v>
+        <v>743</v>
       </c>
       <c r="C80" t="s">
-        <v>862</v>
+        <v>837</v>
       </c>
       <c r="D80" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="E80" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F80" t="s">
+        <v>916</v>
+      </c>
+      <c r="G80" t="s">
+        <v>677</v>
+      </c>
+      <c r="H80" t="s">
+        <v>678</v>
+      </c>
+      <c r="I80" t="s">
         <v>944</v>
       </c>
-      <c r="G80" t="s">
-        <v>673</v>
-      </c>
-      <c r="H80" t="s">
-        <v>674</v>
-      </c>
-      <c r="I80" t="s">
-        <v>970</v>
-      </c>
       <c r="J80" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="K80" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="M80"/>
       <c r="N80"/>
@@ -7623,85 +7486,57 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B81" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="C81" t="s">
-        <v>119</v>
+        <v>838</v>
       </c>
       <c r="D81" t="s">
-        <v>118</v>
+        <v>682</v>
       </c>
       <c r="E81" t="s">
-        <v>119</v>
-      </c>
-      <c r="F81" t="s">
-        <v>945</v>
-      </c>
-      <c r="G81" t="s">
-        <v>678</v>
-      </c>
-      <c r="H81" t="s">
-        <v>679</v>
-      </c>
-      <c r="I81" t="s">
-        <v>971</v>
-      </c>
-      <c r="J81" t="s">
-        <v>680</v>
-      </c>
-      <c r="K81" t="s">
-        <v>681</v>
-      </c>
-      <c r="L81" t="s">
-        <v>1042</v>
-      </c>
-      <c r="M81" t="s">
-        <v>682</v>
-      </c>
-      <c r="N81" t="s">
         <v>683</v>
       </c>
-      <c r="O81" t="s">
-        <v>1051</v>
-      </c>
-      <c r="P81" t="s">
-        <v>684</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>685</v>
-      </c>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
       <c r="S81"/>
       <c r="T81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>684</v>
+      </c>
+      <c r="B82" t="s">
+        <v>743</v>
+      </c>
+      <c r="C82" t="s">
         <v>686</v>
       </c>
-      <c r="B82" t="s">
-        <v>766</v>
-      </c>
-      <c r="C82" t="s">
-        <v>863</v>
-      </c>
       <c r="D82" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E82" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G82"/>
       <c r="H82"/>
       <c r="I82" t="s">
-        <v>972</v>
+        <v>945</v>
       </c>
       <c r="J82" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K82" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="M82"/>
       <c r="N82"/>
@@ -7712,30 +7547,30 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B83" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
       <c r="C83" t="s">
-        <v>864</v>
+        <v>835</v>
       </c>
       <c r="D83" t="s">
-        <v>692</v>
+        <v>665</v>
       </c>
       <c r="E83" t="s">
-        <v>693</v>
+        <v>666</v>
       </c>
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83" t="s">
-        <v>973</v>
+        <v>946</v>
       </c>
       <c r="J83" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="K83" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="M83"/>
       <c r="N83"/>
@@ -7746,65 +7581,93 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>692</v>
+      </c>
+      <c r="B84" t="s">
+        <v>768</v>
+      </c>
+      <c r="C84" t="s">
+        <v>839</v>
+      </c>
+      <c r="D84" t="s">
+        <v>693</v>
+      </c>
+      <c r="E84" t="s">
+        <v>694</v>
+      </c>
+      <c r="F84" t="s">
+        <v>917</v>
+      </c>
+      <c r="G84" t="s">
+        <v>695</v>
+      </c>
+      <c r="H84" t="s">
         <v>696</v>
       </c>
-      <c r="B84" t="s">
-        <v>766</v>
-      </c>
-      <c r="C84" t="s">
-        <v>865</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="I84" t="s">
+        <v>839</v>
+      </c>
+      <c r="J84" t="s">
+        <v>693</v>
+      </c>
+      <c r="K84" t="s">
+        <v>694</v>
+      </c>
+      <c r="L84" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M84" t="s">
         <v>697</v>
       </c>
-      <c r="E84" t="s">
+      <c r="N84" t="s">
         <v>698</v>
       </c>
-      <c r="F84" t="s">
-        <v>946</v>
-      </c>
-      <c r="G84" t="s">
-        <v>699</v>
-      </c>
-      <c r="H84" t="s">
-        <v>700</v>
-      </c>
-      <c r="I84" t="s">
-        <v>974</v>
-      </c>
-      <c r="J84" t="s">
-        <v>701</v>
-      </c>
-      <c r="K84" t="s">
-        <v>702</v>
-      </c>
-      <c r="M84"/>
-      <c r="N84"/>
       <c r="P84"/>
       <c r="Q84"/>
-      <c r="S84"/>
-      <c r="T84"/>
+      <c r="R84" t="s">
+        <v>1063</v>
+      </c>
+      <c r="S84" t="s">
+        <v>519</v>
+      </c>
+      <c r="T84" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>699</v>
+      </c>
+      <c r="B85" t="s">
+        <v>769</v>
+      </c>
+      <c r="C85" t="s">
+        <v>840</v>
+      </c>
+      <c r="D85" t="s">
+        <v>700</v>
+      </c>
+      <c r="E85" t="s">
+        <v>701</v>
+      </c>
+      <c r="F85" t="s">
+        <v>918</v>
+      </c>
+      <c r="G85" t="s">
+        <v>702</v>
+      </c>
+      <c r="H85" t="s">
         <v>703</v>
       </c>
-      <c r="B85" t="s">
-        <v>766</v>
-      </c>
-      <c r="C85" t="s">
-        <v>866</v>
-      </c>
-      <c r="D85" t="s">
-        <v>704</v>
-      </c>
-      <c r="E85" t="s">
-        <v>705</v>
-      </c>
-      <c r="G85"/>
-      <c r="H85"/>
-      <c r="J85"/>
-      <c r="K85"/>
+      <c r="I85" t="s">
+        <v>840</v>
+      </c>
+      <c r="J85" t="s">
+        <v>700</v>
+      </c>
+      <c r="K85" t="s">
+        <v>701</v>
+      </c>
       <c r="M85"/>
       <c r="N85"/>
       <c r="P85"/>
@@ -7814,406 +7677,242 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>704</v>
+      </c>
+      <c r="B86" t="s">
+        <v>770</v>
+      </c>
+      <c r="C86" t="s">
+        <v>841</v>
+      </c>
+      <c r="D86" t="s">
+        <v>705</v>
+      </c>
+      <c r="E86" t="s">
         <v>706</v>
       </c>
-      <c r="B86" t="s">
-        <v>766</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="F86" t="s">
+        <v>919</v>
+      </c>
+      <c r="G86" t="s">
+        <v>707</v>
+      </c>
+      <c r="H86" t="s">
         <v>708</v>
       </c>
-      <c r="D86" t="s">
-        <v>707</v>
-      </c>
-      <c r="E86" t="s">
-        <v>708</v>
-      </c>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86" t="s">
-        <v>975</v>
-      </c>
-      <c r="J86" t="s">
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M86" t="s">
         <v>709</v>
       </c>
-      <c r="K86" t="s">
+      <c r="N86" t="s">
         <v>710</v>
       </c>
-      <c r="M86"/>
-      <c r="N86"/>
       <c r="P86"/>
       <c r="Q86"/>
-      <c r="S86"/>
-      <c r="T86"/>
+      <c r="R86" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S86" t="s">
+        <v>711</v>
+      </c>
+      <c r="T86" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B87" t="s">
         <v>770</v>
       </c>
       <c r="C87" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
       <c r="D87" t="s">
-        <v>687</v>
+        <v>714</v>
       </c>
       <c r="E87" t="s">
-        <v>688</v>
-      </c>
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="I87" t="s">
-        <v>976</v>
-      </c>
-      <c r="J87" t="s">
-        <v>712</v>
-      </c>
-      <c r="K87" t="s">
-        <v>713</v>
-      </c>
-      <c r="M87"/>
-      <c r="N87"/>
+        <v>715</v>
+      </c>
+      <c r="F87" t="s">
+        <v>920</v>
+      </c>
+      <c r="G87" t="s">
+        <v>716</v>
+      </c>
+      <c r="H87" t="s">
+        <v>717</v>
+      </c>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M87" t="s">
+        <v>718</v>
+      </c>
+      <c r="N87" t="s">
+        <v>719</v>
+      </c>
       <c r="P87"/>
       <c r="Q87"/>
-      <c r="S87"/>
-      <c r="T87"/>
+      <c r="R87" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S87" t="s">
+        <v>711</v>
+      </c>
+      <c r="T87" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="B88" t="s">
-        <v>794</v>
+        <v>770</v>
       </c>
       <c r="C88" t="s">
-        <v>867</v>
+        <v>843</v>
       </c>
       <c r="D88" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="E88" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="F88" t="s">
-        <v>947</v>
+        <v>921</v>
       </c>
       <c r="G88" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="H88" t="s">
+        <v>724</v>
+      </c>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M88" t="s">
         <v>718</v>
       </c>
-      <c r="I88" t="s">
-        <v>867</v>
-      </c>
-      <c r="J88" t="s">
-        <v>715</v>
-      </c>
-      <c r="K88" t="s">
-        <v>716</v>
-      </c>
-      <c r="L88" t="s">
-        <v>1043</v>
-      </c>
-      <c r="M88" t="s">
+      <c r="N88" t="s">
         <v>719</v>
-      </c>
-      <c r="N88" t="s">
-        <v>720</v>
       </c>
       <c r="P88"/>
       <c r="Q88"/>
       <c r="R88" t="s">
-        <v>1096</v>
+        <v>1071</v>
       </c>
       <c r="S88" t="s">
-        <v>533</v>
+        <v>711</v>
       </c>
       <c r="T88" t="s">
-        <v>534</v>
+        <v>712</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="B89" t="s">
-        <v>795</v>
+        <v>771</v>
       </c>
       <c r="C89" t="s">
-        <v>868</v>
+        <v>844</v>
       </c>
       <c r="D89" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="E89" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="F89" t="s">
-        <v>948</v>
+        <v>922</v>
       </c>
       <c r="G89" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="H89" t="s">
-        <v>725</v>
-      </c>
-      <c r="I89" t="s">
-        <v>868</v>
-      </c>
-      <c r="J89" t="s">
-        <v>722</v>
-      </c>
-      <c r="K89" t="s">
-        <v>723</v>
-      </c>
-      <c r="M89"/>
-      <c r="N89"/>
+        <v>729</v>
+      </c>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89" t="s">
+        <v>1014</v>
+      </c>
+      <c r="M89" t="s">
+        <v>730</v>
+      </c>
+      <c r="N89" t="s">
+        <v>731</v>
+      </c>
       <c r="P89"/>
       <c r="Q89"/>
-      <c r="S89"/>
-      <c r="T89"/>
+      <c r="R89" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S89" t="s">
+        <v>711</v>
+      </c>
+      <c r="T89" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="B90" t="s">
-        <v>796</v>
+        <v>771</v>
       </c>
       <c r="C90" t="s">
-        <v>869</v>
+        <v>845</v>
       </c>
       <c r="D90" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="E90" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="F90" t="s">
-        <v>949</v>
+        <v>923</v>
       </c>
       <c r="G90" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="H90" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="J90"/>
       <c r="K90"/>
       <c r="L90" t="s">
-        <v>1044</v>
+        <v>1015</v>
       </c>
       <c r="M90" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="N90" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="P90"/>
       <c r="Q90"/>
       <c r="R90" t="s">
-        <v>1105</v>
+        <v>1071</v>
       </c>
       <c r="S90" t="s">
-        <v>733</v>
+        <v>711</v>
       </c>
       <c r="T90" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>735</v>
-      </c>
-      <c r="B91" t="s">
-        <v>796</v>
-      </c>
-      <c r="C91" t="s">
-        <v>870</v>
-      </c>
-      <c r="D91" t="s">
-        <v>736</v>
-      </c>
-      <c r="E91" t="s">
-        <v>737</v>
-      </c>
-      <c r="F91" t="s">
-        <v>950</v>
-      </c>
-      <c r="G91" t="s">
-        <v>738</v>
-      </c>
-      <c r="H91" t="s">
-        <v>739</v>
-      </c>
-      <c r="J91"/>
-      <c r="K91"/>
-      <c r="L91" t="s">
-        <v>1045</v>
-      </c>
-      <c r="M91" t="s">
-        <v>740</v>
-      </c>
-      <c r="N91" t="s">
-        <v>741</v>
-      </c>
-      <c r="P91"/>
-      <c r="Q91"/>
-      <c r="R91" t="s">
-        <v>1105</v>
-      </c>
-      <c r="S91" t="s">
-        <v>733</v>
-      </c>
-      <c r="T91" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>742</v>
-      </c>
-      <c r="B92" t="s">
-        <v>796</v>
-      </c>
-      <c r="C92" t="s">
-        <v>871</v>
-      </c>
-      <c r="D92" t="s">
-        <v>743</v>
-      </c>
-      <c r="E92" t="s">
-        <v>744</v>
-      </c>
-      <c r="F92" t="s">
-        <v>951</v>
-      </c>
-      <c r="G92" t="s">
-        <v>745</v>
-      </c>
-      <c r="H92" t="s">
-        <v>746</v>
-      </c>
-      <c r="J92"/>
-      <c r="K92"/>
-      <c r="L92" t="s">
-        <v>1045</v>
-      </c>
-      <c r="M92" t="s">
-        <v>740</v>
-      </c>
-      <c r="N92" t="s">
-        <v>741</v>
-      </c>
-      <c r="P92"/>
-      <c r="Q92"/>
-      <c r="R92" t="s">
-        <v>1105</v>
-      </c>
-      <c r="S92" t="s">
-        <v>733</v>
-      </c>
-      <c r="T92" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>747</v>
-      </c>
-      <c r="B93" t="s">
-        <v>797</v>
-      </c>
-      <c r="C93" t="s">
-        <v>872</v>
-      </c>
-      <c r="D93" t="s">
-        <v>748</v>
-      </c>
-      <c r="E93" t="s">
-        <v>749</v>
-      </c>
-      <c r="F93" t="s">
-        <v>952</v>
-      </c>
-      <c r="G93" t="s">
-        <v>750</v>
-      </c>
-      <c r="H93" t="s">
-        <v>751</v>
-      </c>
-      <c r="J93"/>
-      <c r="K93"/>
-      <c r="L93" t="s">
-        <v>1046</v>
-      </c>
-      <c r="M93" t="s">
-        <v>752</v>
-      </c>
-      <c r="N93" t="s">
-        <v>753</v>
-      </c>
-      <c r="P93"/>
-      <c r="Q93"/>
-      <c r="R93" t="s">
-        <v>1105</v>
-      </c>
-      <c r="S93" t="s">
-        <v>733</v>
-      </c>
-      <c r="T93" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>754</v>
-      </c>
-      <c r="B94" t="s">
-        <v>797</v>
-      </c>
-      <c r="C94" t="s">
-        <v>873</v>
-      </c>
-      <c r="D94" t="s">
-        <v>755</v>
-      </c>
-      <c r="E94" t="s">
-        <v>756</v>
-      </c>
-      <c r="F94" t="s">
-        <v>953</v>
-      </c>
-      <c r="G94" t="s">
-        <v>757</v>
-      </c>
-      <c r="H94" t="s">
-        <v>758</v>
-      </c>
-      <c r="J94"/>
-      <c r="K94"/>
-      <c r="L94" t="s">
-        <v>1047</v>
-      </c>
-      <c r="M94" t="s">
-        <v>759</v>
-      </c>
-      <c r="N94" t="s">
-        <v>760</v>
-      </c>
-      <c r="P94"/>
-      <c r="Q94"/>
-      <c r="R94" t="s">
-        <v>1105</v>
-      </c>
-      <c r="S94" t="s">
-        <v>733</v>
-      </c>
-      <c r="T94" t="s">
-        <v>734</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
